--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -114,7 +114,7 @@
     <t xml:space="preserve">Mean_Predicted_Label_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Since your model produces mean 0.1083 for true label 0, and 0.903 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
+    <t xml:space="preserve">Since your model produces mean 0.1066 for true label 0, and 0.9114 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
   </si>
   <si>
     <t xml:space="preserve">predicted_prob</t>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134105408790861</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136249941950321</v>
+        <v>1.19129670568056e-221</v>
       </c>
     </row>
     <row r="7">
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>3.73836169840467e-214</v>
+        <v>2.9730718738205e-252</v>
       </c>
     </row>
     <row r="8">
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.10529529038208e-282</v>
+        <v>1.10163262332848e-282</v>
       </c>
     </row>
     <row r="9">
@@ -984,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36900709312748e-261</v>
+        <v>2.5637422519691e-286</v>
       </c>
     </row>
     <row r="10">
@@ -1078,7 +1078,7 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>2.0435311684888e-287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1125,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>2.43305885550714e-284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1266,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000833099755236295</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000137287267758012</v>
       </c>
     </row>
     <row r="16">
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000165254622933139</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000400943837550671</v>
       </c>
     </row>
     <row r="17">
@@ -1454,7 +1454,7 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05577036833281e-242</v>
+        <v>6.07055413426732e-243</v>
       </c>
     </row>
     <row r="20">
@@ -1501,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>4.09764835170643e-279</v>
+        <v>1.64936325931346e-287</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>0.000000000000000000000000041974929580951</v>
+        <v>0.0000000000000000000000000000000000000000000000000000427891315942123</v>
       </c>
     </row>
     <row r="22">
@@ -1595,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>3.27151154109176e-206</v>
+        <v>9.65976423951928e-237</v>
       </c>
     </row>
     <row r="23">
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00000000000000000000000032100893236096</v>
+        <v>0.0000000000000000000000000000000000000205618634333947</v>
       </c>
     </row>
     <row r="26">
@@ -1877,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>3.69321239824002e-246</v>
+        <v>1.62242074441607e-258</v>
       </c>
     </row>
     <row r="29">
@@ -2065,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134105408790861</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
       </c>
     </row>
     <row r="33">
@@ -2159,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0000000000000000000000552772424845249</v>
+        <v>0.0000000000000000000000000000000000000000000000000000928293854883343</v>
       </c>
     </row>
     <row r="35">
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0000000000000000000000000000000000000000777603479637902</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
       </c>
     </row>
     <row r="36">
@@ -2300,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000993615327933286</v>
+        <v>4.54061500144398e-238</v>
       </c>
     </row>
     <row r="38">
@@ -2347,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236617059965112</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
       </c>
     </row>
     <row r="39">
@@ -2582,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012779195121618</v>
+        <v>3.02322136652926e-244</v>
       </c>
     </row>
     <row r="44">
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000373935933258945</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107943519204561</v>
       </c>
     </row>
     <row r="45">
@@ -2723,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000612466417323643</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101029281706959</v>
       </c>
     </row>
     <row r="47">
@@ -2767,10 +2767,10 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0000000000000000000000000000000000000000000000485254526258193</v>
+        <v>0.999999999999837</v>
       </c>
     </row>
     <row r="48">
@@ -2817,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>2.16155875809647e-264</v>
+        <v>5.2318160567915e-303</v>
       </c>
     </row>
     <row r="49">
@@ -2958,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.6118893885185e-223</v>
+        <v>9.93147853236533e-227</v>
       </c>
     </row>
     <row r="52">
@@ -3143,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O55" t="n">
-        <v>0.000000000000000000000214611861133816</v>
+        <v>0.999992753364624</v>
       </c>
     </row>
     <row r="56">
@@ -3428,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000313382012316817</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000362899613027316</v>
       </c>
     </row>
     <row r="62">
@@ -3522,7 +3522,7 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>2.43305885550714e-284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3710,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="O67" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110922499820087</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
       </c>
     </row>
     <row r="68">
@@ -3851,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.88459675469074e-277</v>
+        <v>3.60435519225903e-263</v>
       </c>
     </row>
     <row r="71">
@@ -3898,7 +3898,7 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.02962305646822e-248</v>
+        <v>3.67999169395394e-257</v>
       </c>
     </row>
     <row r="72">
@@ -3945,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000156602226452486</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
       </c>
     </row>
     <row r="73">
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="O75" t="n">
-        <v>0.999706940614575</v>
+        <v>0.999999999697126</v>
       </c>
     </row>
     <row r="76">
@@ -4133,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000413077442977664</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000688268567371913</v>
       </c>
     </row>
     <row r="77">
@@ -4180,7 +4180,7 @@
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.1491253119471e-307</v>
       </c>
     </row>
     <row r="78">
@@ -4227,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="O78" t="n">
-        <v>0.000000000000000000000000000000000000300565331337102</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
       </c>
     </row>
     <row r="79">
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126509167061158</v>
+        <v>4.86857995084074e-214</v>
       </c>
     </row>
     <row r="82">
@@ -4415,7 +4415,7 @@
         <v>15</v>
       </c>
       <c r="O82" t="n">
-        <v>2.19748870964674e-279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4650,7 +4650,7 @@
         <v>15</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000182359810548197</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000258965319134734</v>
       </c>
     </row>
     <row r="88">
@@ -4697,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="O88" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000156602226452486</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
       </c>
     </row>
     <row r="89">
@@ -4744,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000795851854907823</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000839005279352281</v>
       </c>
     </row>
     <row r="90">
@@ -4791,7 +4791,7 @@
         <v>15</v>
       </c>
       <c r="O90" t="n">
-        <v>7.72916726602457e-262</v>
+        <v>1.53825317005843e-286</v>
       </c>
     </row>
     <row r="91">
@@ -4838,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="O91" t="n">
-        <v>2.05963493906728e-229</v>
+        <v>1.31039497928319e-255</v>
       </c>
     </row>
     <row r="92">
@@ -5073,7 +5073,7 @@
         <v>15</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000819310393697325</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
       </c>
     </row>
     <row r="97">
@@ -5214,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="O99" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000017453858973997</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000135939182346586</v>
       </c>
     </row>
     <row r="100">
@@ -5261,7 +5261,7 @@
         <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>0.00000133475256765759</v>
+        <v>0.000468120878786558</v>
       </c>
     </row>
     <row r="101">
@@ -5402,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000201272833767879</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110164139440874</v>
       </c>
     </row>
     <row r="104">
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O104" t="n">
-        <v>0.00000000000070505278125888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -5543,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1.1491253119471e-307</v>
       </c>
     </row>
     <row r="107">
@@ -5590,7 +5590,7 @@
         <v>15</v>
       </c>
       <c r="O107" t="n">
-        <v>0.000000000000000000000000499471872057548</v>
+        <v>0.0000000000000000126094511748829</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="O108" t="n">
-        <v>3.94814510770787e-278</v>
+        <v>1.30846587348146e-274</v>
       </c>
     </row>
     <row r="109">
@@ -5731,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="O110" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107191629831461</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000284214878038373</v>
       </c>
     </row>
     <row r="111">
@@ -5778,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="O111" t="n">
-        <v>6.03659288181118e-223</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000776372719486761</v>
       </c>
     </row>
     <row r="112">
@@ -5822,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>0.999999985158208</v>
+        <v>0.0000762893543233504</v>
       </c>
     </row>
     <row r="113">
@@ -6013,7 +6013,7 @@
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000241793169087598</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000196994342844913</v>
       </c>
     </row>
     <row r="117">
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="O117" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000610005476885708</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000289009384379053</v>
       </c>
     </row>
     <row r="118">
@@ -6107,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="O118" t="n">
-        <v>1.37242081589734e-234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -6154,7 +6154,7 @@
         <v>15</v>
       </c>
       <c r="O119" t="n">
-        <v>0.00000000000000000548159009450301</v>
+        <v>0.00000000000000000115263133818626</v>
       </c>
     </row>
     <row r="120">
@@ -6201,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134105408790861</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
       </c>
     </row>
     <row r="121">
@@ -6342,7 +6342,7 @@
         <v>15</v>
       </c>
       <c r="O123" t="n">
-        <v>8.62104870863112e-216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -6389,7 +6389,7 @@
         <v>15</v>
       </c>
       <c r="O124" t="n">
-        <v>1.6118893885185e-223</v>
+        <v>9.93147853236533e-227</v>
       </c>
     </row>
     <row r="125">
@@ -6527,10 +6527,10 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O127" t="n">
-        <v>0.00000000000070505278125888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -6718,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000819310393697325</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
       </c>
     </row>
     <row r="132">
@@ -6812,7 +6812,7 @@
         <v>15</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000397230956110238</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000689199972421805</v>
       </c>
     </row>
     <row r="134">
@@ -6859,7 +6859,7 @@
         <v>15</v>
       </c>
       <c r="O134" t="n">
-        <v>8.16789595745242e-262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -7047,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000223092700614674</v>
+        <v>2.03294446277666e-230</v>
       </c>
     </row>
     <row r="139">
@@ -7094,7 +7094,7 @@
         <v>15</v>
       </c>
       <c r="O139" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000090942124263607</v>
+        <v>0.0000000000000000000112384377549822</v>
       </c>
     </row>
     <row r="140">
@@ -7376,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="O145" t="n">
-        <v>0.00000000000000000000000000000000000000000000000176371805247802</v>
+        <v>0.0000000000000000000000000051353473322205</v>
       </c>
     </row>
     <row r="146">
@@ -7517,7 +7517,7 @@
         <v>15</v>
       </c>
       <c r="O148" t="n">
-        <v>7.0697288983947e-307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -7564,7 +7564,7 @@
         <v>15</v>
       </c>
       <c r="O149" t="n">
-        <v>1.59543298310787e-282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -7611,7 +7611,7 @@
         <v>15</v>
       </c>
       <c r="O150" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000169436081994388</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
       </c>
     </row>
     <row r="151">
@@ -7893,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="O156" t="n">
-        <v>3.4149033380167e-226</v>
+        <v>7.85489222644051e-285</v>
       </c>
     </row>
     <row r="157">
@@ -7987,7 +7987,7 @@
         <v>15</v>
       </c>
       <c r="O158" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000911035398356867</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000358294583854944</v>
       </c>
     </row>
     <row r="159">
@@ -8034,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="O159" t="n">
-        <v>0.000000000000395444899584263</v>
+        <v>0.00000298113651684936</v>
       </c>
     </row>
     <row r="160">
@@ -8081,7 +8081,7 @@
         <v>15</v>
       </c>
       <c r="O160" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000156602226452486</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
       </c>
     </row>
     <row r="161">
@@ -8222,7 +8222,7 @@
         <v>15</v>
       </c>
       <c r="O163" t="n">
-        <v>8.4810822031578e-250</v>
+        <v>1.92951904990384e-207</v>
       </c>
     </row>
     <row r="164">
@@ -8269,7 +8269,7 @@
         <v>15</v>
       </c>
       <c r="O164" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000936022851054021</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000147510843345398</v>
       </c>
     </row>
     <row r="165">
@@ -8410,7 +8410,7 @@
         <v>15</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000563980130375161</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000236227037097906</v>
       </c>
     </row>
     <row r="168">
@@ -8457,7 +8457,7 @@
         <v>15</v>
       </c>
       <c r="O168" t="n">
-        <v>0.00000000000000000000000000000000000000000000191673365173916</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000157586569406346</v>
       </c>
     </row>
     <row r="169">
@@ -8504,7 +8504,7 @@
         <v>15</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000117336767356785</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141394407124955</v>
       </c>
     </row>
     <row r="170">
@@ -8645,7 +8645,7 @@
         <v>16</v>
       </c>
       <c r="O172" t="n">
-        <v>1</v>
+        <v>0.999999999933535</v>
       </c>
     </row>
     <row r="173">
@@ -8786,7 +8786,7 @@
         <v>15</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003359116335941</v>
+        <v>1.11510696784176e-221</v>
       </c>
     </row>
     <row r="176">
@@ -8880,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="O177" t="n">
-        <v>3.4149033380167e-226</v>
+        <v>7.85489222644051e-285</v>
       </c>
     </row>
     <row r="178">
@@ -8974,7 +8974,7 @@
         <v>15</v>
       </c>
       <c r="O179" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000209595743006931</v>
+        <v>9.77041532226723e-235</v>
       </c>
     </row>
     <row r="180">
@@ -9350,7 +9350,7 @@
         <v>15</v>
       </c>
       <c r="O187" t="n">
-        <v>0.000000000000000000000143688093716191</v>
+        <v>0.00000000000000000000000000162209687887639</v>
       </c>
     </row>
     <row r="188">
@@ -9444,7 +9444,7 @@
         <v>15</v>
       </c>
       <c r="O189" t="n">
-        <v>1.10529529038208e-282</v>
+        <v>1.10163262332848e-282</v>
       </c>
     </row>
     <row r="190">
@@ -9491,7 +9491,7 @@
         <v>15</v>
       </c>
       <c r="O190" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000228977850062458</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000166852210843613</v>
       </c>
     </row>
     <row r="191">
@@ -9585,7 +9585,7 @@
         <v>15</v>
       </c>
       <c r="O192" t="n">
-        <v>5.25102454670956e-212</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000165229055028834</v>
       </c>
     </row>
     <row r="193">
@@ -9632,7 +9632,7 @@
         <v>15</v>
       </c>
       <c r="O193" t="n">
-        <v>0.00000000000000000000000000842572587794895</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000654550424242436</v>
       </c>
     </row>
     <row r="194">
@@ -9726,7 +9726,7 @@
         <v>15</v>
       </c>
       <c r="O195" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000705104788915047</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
       </c>
     </row>
     <row r="196">
@@ -9773,7 +9773,7 @@
         <v>15</v>
       </c>
       <c r="O196" t="n">
-        <v>3.27151154109176e-206</v>
+        <v>9.65976423951928e-237</v>
       </c>
     </row>
     <row r="197">
@@ -9820,7 +9820,7 @@
         <v>15</v>
       </c>
       <c r="O197" t="n">
-        <v>0.000000000000000000000143688093716191</v>
+        <v>0.00000000000000000000000000162209687887639</v>
       </c>
     </row>
     <row r="198">
@@ -9864,10 +9864,10 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O198" t="n">
-        <v>1</v>
+        <v>0.0000000232010961759113</v>
       </c>
     </row>
     <row r="199">
@@ -9961,7 +9961,7 @@
         <v>15</v>
       </c>
       <c r="O200" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000936022851054021</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000147510843345398</v>
       </c>
     </row>
     <row r="201">
@@ -10149,7 +10149,7 @@
         <v>15</v>
       </c>
       <c r="O204" t="n">
-        <v>0.00000000000000000548159009450301</v>
+        <v>0.00000000000000000115263133818626</v>
       </c>
     </row>
     <row r="205">
@@ -10196,7 +10196,7 @@
         <v>15</v>
       </c>
       <c r="O205" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000205565835580293</v>
+        <v>0.00000000000000000000000000000000000257733943699994</v>
       </c>
     </row>
     <row r="206">
@@ -10243,7 +10243,7 @@
         <v>15</v>
       </c>
       <c r="O206" t="n">
-        <v>1.53988363602693e-289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -10290,7 +10290,7 @@
         <v>15</v>
       </c>
       <c r="O207" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134105408790861</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
       </c>
     </row>
     <row r="208">
@@ -10337,7 +10337,7 @@
         <v>16</v>
       </c>
       <c r="O208" t="n">
-        <v>0.502934935059376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -10478,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="O211" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000612466417323643</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101029281706959</v>
       </c>
     </row>
     <row r="212">
@@ -10619,7 +10619,7 @@
         <v>15</v>
       </c>
       <c r="O214" t="n">
-        <v>1.71146654761501e-254</v>
+        <v>5.29730921112152e-285</v>
       </c>
     </row>
     <row r="215">
@@ -10713,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="O216" t="n">
-        <v>3.4149033380167e-226</v>
+        <v>7.85489222644051e-285</v>
       </c>
     </row>
     <row r="217">
@@ -10807,7 +10807,7 @@
         <v>15</v>
       </c>
       <c r="O218" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000064047836856775</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000405029295360597</v>
       </c>
     </row>
     <row r="219">
@@ -10901,7 +10901,7 @@
         <v>16</v>
       </c>
       <c r="O220" t="n">
-        <v>0.999999999986015</v>
+        <v>0.139916977214078</v>
       </c>
     </row>
     <row r="221">
@@ -10995,7 +10995,7 @@
         <v>15</v>
       </c>
       <c r="O222" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000440827397319187</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000407682150785815</v>
       </c>
     </row>
     <row r="223">
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
       <c r="O224" t="n">
-        <v>0.000000000000000000000000000000120682068604441</v>
+        <v>0.000000000000000000436999177306043</v>
       </c>
     </row>
     <row r="225">
@@ -11136,7 +11136,7 @@
         <v>15</v>
       </c>
       <c r="O225" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000376501844979296</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000123455681691255</v>
       </c>
     </row>
     <row r="226">
@@ -11183,7 +11183,7 @@
         <v>15</v>
       </c>
       <c r="O226" t="n">
-        <v>6.09290176462927e-283</v>
+        <v>6.83691723981309e-288</v>
       </c>
     </row>
     <row r="227">
@@ -11230,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="O227" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012779195121618</v>
+        <v>3.02322136652926e-244</v>
       </c>
     </row>
     <row r="228">
@@ -11418,7 +11418,7 @@
         <v>15</v>
       </c>
       <c r="O231" t="n">
-        <v>4.4771399313285e-221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -11559,7 +11559,7 @@
         <v>15</v>
       </c>
       <c r="O234" t="n">
-        <v>2.25848603035508e-267</v>
+        <v>5.59534327287696e-259</v>
       </c>
     </row>
     <row r="235">
@@ -11653,7 +11653,7 @@
         <v>15</v>
       </c>
       <c r="O236" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110922499820087</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
       </c>
     </row>
     <row r="237">
@@ -11700,7 +11700,7 @@
         <v>15</v>
       </c>
       <c r="O237" t="n">
-        <v>0.0000000255135855388665</v>
+        <v>0.000000000000000000000000000000000000000000277907557254392</v>
       </c>
     </row>
     <row r="238">
@@ -11747,7 +11747,7 @@
         <v>15</v>
       </c>
       <c r="O238" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000002130345936933</v>
+        <v>4.72465616662281e-244</v>
       </c>
     </row>
     <row r="239">
@@ -11794,7 +11794,7 @@
         <v>15</v>
       </c>
       <c r="O239" t="n">
-        <v>0.000000000000000000000000000000000000000000224905399458226</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000220166864631759</v>
       </c>
     </row>
     <row r="240">
@@ -11838,10 +11838,10 @@
         <v>0</v>
       </c>
       <c r="N240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O240" t="n">
-        <v>1</v>
+        <v>0.0000000232010961759113</v>
       </c>
     </row>
     <row r="241">
@@ -11888,7 +11888,7 @@
         <v>15</v>
       </c>
       <c r="O241" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000278894590429264</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
       </c>
     </row>
     <row r="242">
@@ -11979,10 +11979,10 @@
         <v>0</v>
       </c>
       <c r="N243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O243" t="n">
-        <v>0.999997078525212</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000014087717688597</v>
       </c>
     </row>
     <row r="244">
@@ -12123,7 +12123,7 @@
         <v>15</v>
       </c>
       <c r="O246" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000236653907862978</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000822351556095289</v>
       </c>
     </row>
     <row r="247">
@@ -12217,7 +12217,7 @@
         <v>15</v>
       </c>
       <c r="O248" t="n">
-        <v>2.39292534168715e-220</v>
+        <v>3.82427870756558e-221</v>
       </c>
     </row>
     <row r="249">
@@ -12264,7 +12264,7 @@
         <v>15</v>
       </c>
       <c r="O249" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000764554217411291</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000129091997668659</v>
       </c>
     </row>
     <row r="250">
@@ -12311,7 +12311,7 @@
         <v>15</v>
       </c>
       <c r="O250" t="n">
-        <v>3.51702552826371e-235</v>
+        <v>1.15709106303013e-306</v>
       </c>
     </row>
     <row r="251">
@@ -12405,7 +12405,7 @@
         <v>15</v>
       </c>
       <c r="O252" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000002130345936933</v>
+        <v>4.72465616662281e-244</v>
       </c>
     </row>
     <row r="253">
@@ -12452,7 +12452,7 @@
         <v>15</v>
       </c>
       <c r="O253" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000010798507356186</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
       </c>
     </row>
     <row r="254">
@@ -12546,7 +12546,7 @@
         <v>15</v>
       </c>
       <c r="O255" t="n">
-        <v>4.35627842808815e-232</v>
+        <v>6.58287896913865e-250</v>
       </c>
     </row>
     <row r="256">
@@ -12734,7 +12734,7 @@
         <v>15</v>
       </c>
       <c r="O259" t="n">
-        <v>3.86793110078285e-219</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000306472246895654</v>
       </c>
     </row>
     <row r="260">
@@ -12872,10 +12872,10 @@
         <v>1</v>
       </c>
       <c r="N262" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O262" t="n">
-        <v>0.0000000000000000000000000000025255621220848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -12922,7 +12922,7 @@
         <v>15</v>
       </c>
       <c r="O263" t="n">
-        <v>0.279753047558491</v>
+        <v>0.000510338821841385</v>
       </c>
     </row>
     <row r="264">
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="O264" t="n">
-        <v>0.0000000000556396674520741</v>
+        <v>0.0000000251201631692621</v>
       </c>
     </row>
     <row r="265">
@@ -13063,7 +13063,7 @@
         <v>15</v>
       </c>
       <c r="O266" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236617059965112</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
       </c>
     </row>
     <row r="267">
@@ -13110,7 +13110,7 @@
         <v>15</v>
       </c>
       <c r="O267" t="n">
-        <v>3.51702552826371e-235</v>
+        <v>1.15709106303013e-306</v>
       </c>
     </row>
     <row r="268">
@@ -13251,7 +13251,7 @@
         <v>15</v>
       </c>
       <c r="O270" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127025566003517</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
       </c>
     </row>
     <row r="271">
@@ -13345,7 +13345,7 @@
         <v>15</v>
       </c>
       <c r="O272" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000233924961732827</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133783639999173</v>
       </c>
     </row>
     <row r="273">
@@ -13533,7 +13533,7 @@
         <v>15</v>
       </c>
       <c r="O276" t="n">
-        <v>3.64402386744997e-277</v>
+        <v>1.88598354589612e-260</v>
       </c>
     </row>
     <row r="277">
@@ -13721,7 +13721,7 @@
         <v>15</v>
       </c>
       <c r="O280" t="n">
-        <v>0.0000000000000000000000000000000000000000777603479637902</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
       </c>
     </row>
     <row r="281">
@@ -13815,7 +13815,7 @@
         <v>15</v>
       </c>
       <c r="O282" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012779195121618</v>
+        <v>3.02322136652926e-244</v>
       </c>
     </row>
     <row r="283">
@@ -13909,7 +13909,7 @@
         <v>15</v>
       </c>
       <c r="O284" t="n">
-        <v>0.00000000000000000000000000000000000000000000000724582016285656</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000610011147209643</v>
       </c>
     </row>
     <row r="285">
@@ -13956,7 +13956,7 @@
         <v>15</v>
       </c>
       <c r="O285" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000241793169087598</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000196994342844913</v>
       </c>
     </row>
     <row r="286">
@@ -14003,7 +14003,7 @@
         <v>15</v>
       </c>
       <c r="O286" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000814622576778261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -14050,7 +14050,7 @@
         <v>15</v>
       </c>
       <c r="O287" t="n">
-        <v>0.00000000000000000000000000000000000000166092768968461</v>
+        <v>0.000000157888575577718</v>
       </c>
     </row>
     <row r="288">
@@ -14097,7 +14097,7 @@
         <v>15</v>
       </c>
       <c r="O288" t="n">
-        <v>0.0000000000000000000000000527834016752063</v>
+        <v>0.00000000000000685089790095512</v>
       </c>
     </row>
     <row r="289">
@@ -14144,7 +14144,7 @@
         <v>15</v>
       </c>
       <c r="O289" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000194022003371266</v>
+        <v>2.91322783851527e-211</v>
       </c>
     </row>
     <row r="290">
@@ -14191,7 +14191,7 @@
         <v>15</v>
       </c>
       <c r="O290" t="n">
-        <v>0.0000000000000000000000000000000000000000000925374119088018</v>
+        <v>0.0000000000000000000000000000000000000406320386720571</v>
       </c>
     </row>
     <row r="291">
@@ -14238,7 +14238,7 @@
         <v>15</v>
       </c>
       <c r="O291" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000911035398356867</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000358294583854944</v>
       </c>
     </row>
     <row r="292">
@@ -14426,7 +14426,7 @@
         <v>15</v>
       </c>
       <c r="O295" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000057500443835867</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000327825795718025</v>
       </c>
     </row>
     <row r="296">
@@ -14520,7 +14520,7 @@
         <v>15</v>
       </c>
       <c r="O297" t="n">
-        <v>1.09672984479999e-231</v>
+        <v>1.30004262477843e-270</v>
       </c>
     </row>
     <row r="298">
@@ -14614,7 +14614,7 @@
         <v>15</v>
       </c>
       <c r="O299" t="n">
-        <v>0.0000000000000000000000000000000000000000777603479637902</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
       </c>
     </row>
     <row r="300">
@@ -14661,7 +14661,7 @@
         <v>15</v>
       </c>
       <c r="O300" t="n">
-        <v>0.0000000000000000000000552772424845249</v>
+        <v>0.0000000000000000000000000000000000000000000000000000928293854883343</v>
       </c>
     </row>
     <row r="301">
@@ -14755,7 +14755,7 @@
         <v>15</v>
       </c>
       <c r="O302" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000642577013963681</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000327669403409256</v>
       </c>
     </row>
     <row r="303">
@@ -14802,7 +14802,7 @@
         <v>15</v>
       </c>
       <c r="O303" t="n">
-        <v>0.0000000000000000000000000527834016752063</v>
+        <v>0.00000000000000685089790095512</v>
       </c>
     </row>
     <row r="304">
@@ -14896,7 +14896,7 @@
         <v>15</v>
       </c>
       <c r="O305" t="n">
-        <v>1.19298492305838e-240</v>
+        <v>9.45460007847345e-255</v>
       </c>
     </row>
     <row r="306">
@@ -15037,7 +15037,7 @@
         <v>15</v>
       </c>
       <c r="O308" t="n">
-        <v>1.71146654761501e-254</v>
+        <v>5.29730921112152e-285</v>
       </c>
     </row>
     <row r="309">
@@ -15178,7 +15178,7 @@
         <v>15</v>
       </c>
       <c r="O311" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000546134631220655</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126375827505628</v>
       </c>
     </row>
     <row r="312">
@@ -15319,7 +15319,7 @@
         <v>15</v>
       </c>
       <c r="O314" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000379003381462433</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000341033336264738</v>
       </c>
     </row>
     <row r="315">
@@ -15366,7 +15366,7 @@
         <v>15</v>
       </c>
       <c r="O315" t="n">
-        <v>7.34535272274972e-288</v>
+        <v>1.17834006009909e-282</v>
       </c>
     </row>
     <row r="316">
@@ -15413,7 +15413,7 @@
         <v>15</v>
       </c>
       <c r="O316" t="n">
-        <v>1.70430417911891e-215</v>
+        <v>2.88162511047442e-215</v>
       </c>
     </row>
     <row r="317">
@@ -15460,7 +15460,7 @@
         <v>15</v>
       </c>
       <c r="O317" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003359116335941</v>
+        <v>1.11510696784176e-221</v>
       </c>
     </row>
     <row r="318">
@@ -15695,7 +15695,7 @@
         <v>15</v>
       </c>
       <c r="O322" t="n">
-        <v>0.000000000000000000000000000000000000000000224905399458226</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000220166864631759</v>
       </c>
     </row>
     <row r="323">
@@ -15742,7 +15742,7 @@
         <v>15</v>
       </c>
       <c r="O323" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236617059965112</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
       </c>
     </row>
     <row r="324">
@@ -15789,7 +15789,7 @@
         <v>15</v>
       </c>
       <c r="O324" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000748439366265196</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000795489214372718</v>
       </c>
     </row>
     <row r="325">
@@ -15836,7 +15836,7 @@
         <v>15</v>
       </c>
       <c r="O325" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000015047485784264</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136434296005678</v>
       </c>
     </row>
     <row r="326">
@@ -15883,7 +15883,7 @@
         <v>15</v>
       </c>
       <c r="O326" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003359116335941</v>
+        <v>1.11510696784176e-221</v>
       </c>
     </row>
     <row r="327">
@@ -16024,7 +16024,7 @@
         <v>15</v>
       </c>
       <c r="O329" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136249941950321</v>
+        <v>1.19129670568056e-221</v>
       </c>
     </row>
     <row r="330">
@@ -16212,7 +16212,7 @@
         <v>15</v>
       </c>
       <c r="O333" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000307892823396323</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000024388495761214</v>
       </c>
     </row>
     <row r="334">
@@ -16259,7 +16259,7 @@
         <v>15</v>
       </c>
       <c r="O334" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101675791784265</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000049418918226473</v>
       </c>
     </row>
     <row r="335">
@@ -16306,7 +16306,7 @@
         <v>15</v>
       </c>
       <c r="O335" t="n">
-        <v>9.87211922027743e-274</v>
+        <v>5.8258691935903e-299</v>
       </c>
     </row>
     <row r="336">
@@ -16353,7 +16353,7 @@
         <v>15</v>
       </c>
       <c r="O336" t="n">
-        <v>0.00000000000000000000000000000000000000000407257790050483</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000545476911285838</v>
       </c>
     </row>
     <row r="337">
@@ -16400,7 +16400,7 @@
         <v>15</v>
       </c>
       <c r="O337" t="n">
-        <v>3.59091696737032e-242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -16447,7 +16447,7 @@
         <v>15</v>
       </c>
       <c r="O338" t="n">
-        <v>1.37242081589734e-234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -16494,7 +16494,7 @@
         <v>15</v>
       </c>
       <c r="O339" t="n">
-        <v>0.0000000000000254664511950216</v>
+        <v>0.00000000000000000000000920708915730383</v>
       </c>
     </row>
     <row r="340">
@@ -16541,7 +16541,7 @@
         <v>15</v>
       </c>
       <c r="O340" t="n">
-        <v>3.50505522423623e-255</v>
+        <v>1.41411004058976e-288</v>
       </c>
     </row>
     <row r="341">
@@ -16588,7 +16588,7 @@
         <v>16</v>
       </c>
       <c r="O341" t="n">
-        <v>0.999999999986015</v>
+        <v>0.139916977214078</v>
       </c>
     </row>
     <row r="342">
@@ -16635,7 +16635,7 @@
         <v>15</v>
       </c>
       <c r="O342" t="n">
-        <v>4.40479534285289e-308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -16682,7 +16682,7 @@
         <v>15</v>
       </c>
       <c r="O343" t="n">
-        <v>0.00000000000000753340583882696</v>
+        <v>0.00000000000000000000000000000000000000000000000559824813097614</v>
       </c>
     </row>
     <row r="344">
@@ -16776,7 +16776,7 @@
         <v>15</v>
       </c>
       <c r="O345" t="n">
-        <v>2.39292534168715e-220</v>
+        <v>3.82427870756558e-221</v>
       </c>
     </row>
     <row r="346">
@@ -16870,7 +16870,7 @@
         <v>15</v>
       </c>
       <c r="O347" t="n">
-        <v>4.4771399313285e-221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -17152,7 +17152,7 @@
         <v>15</v>
       </c>
       <c r="O353" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000887415120536477</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000024131627319969</v>
       </c>
     </row>
     <row r="354">
@@ -17196,10 +17196,10 @@
         <v>1</v>
       </c>
       <c r="N354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O354" t="n">
-        <v>0.999999985158208</v>
+        <v>0.0000762893543233504</v>
       </c>
     </row>
     <row r="355">
@@ -17246,7 +17246,7 @@
         <v>15</v>
       </c>
       <c r="O355" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000819310393697325</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
       </c>
     </row>
     <row r="356">
@@ -17575,7 +17575,7 @@
         <v>15</v>
       </c>
       <c r="O362" t="n">
-        <v>2.35781178543428e-236</v>
+        <v>2.24755209258846e-258</v>
       </c>
     </row>
     <row r="363">
@@ -17622,7 +17622,7 @@
         <v>15</v>
       </c>
       <c r="O363" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000766600333545217</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000480871469647563</v>
       </c>
     </row>
     <row r="364">
@@ -17763,7 +17763,7 @@
         <v>15</v>
       </c>
       <c r="O366" t="n">
-        <v>4.04841179827099e-298</v>
+        <v>1.83553896651506e-300</v>
       </c>
     </row>
     <row r="367">
@@ -17810,7 +17810,7 @@
         <v>15</v>
       </c>
       <c r="O367" t="n">
-        <v>7.0697288983947e-307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -17857,7 +17857,7 @@
         <v>15</v>
       </c>
       <c r="O368" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000610005476885708</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000289009384379053</v>
       </c>
     </row>
     <row r="369">
@@ -17901,10 +17901,10 @@
         <v>1</v>
       </c>
       <c r="N369" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O369" t="n">
-        <v>0.000000000289740882446794</v>
+        <v>0.711159137137071</v>
       </c>
     </row>
     <row r="370">
@@ -17998,7 +17998,7 @@
         <v>15</v>
       </c>
       <c r="O371" t="n">
-        <v>2.86959137927103e-212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -18045,7 +18045,7 @@
         <v>15</v>
       </c>
       <c r="O372" t="n">
-        <v>3.73836169840467e-214</v>
+        <v>2.9730718738205e-252</v>
       </c>
     </row>
     <row r="373">
@@ -18139,7 +18139,7 @@
         <v>15</v>
       </c>
       <c r="O374" t="n">
-        <v>7.55882626560353e-228</v>
+        <v>3.64995088618459e-250</v>
       </c>
     </row>
     <row r="375">
@@ -18233,7 +18233,7 @@
         <v>15</v>
       </c>
       <c r="O376" t="n">
-        <v>2.43305885550714e-284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -18280,7 +18280,7 @@
         <v>15</v>
       </c>
       <c r="O377" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000176041863214856</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000431770178823633</v>
       </c>
     </row>
     <row r="378">
@@ -18562,7 +18562,7 @@
         <v>15</v>
       </c>
       <c r="O383" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133034658226961</v>
+        <v>6.20778816412467e-214</v>
       </c>
     </row>
     <row r="384">
@@ -18609,7 +18609,7 @@
         <v>15</v>
       </c>
       <c r="O384" t="n">
-        <v>0.000000000000000000720775264265736</v>
+        <v>0.00000000121814948666195</v>
       </c>
     </row>
     <row r="385">
@@ -18844,7 +18844,7 @@
         <v>15</v>
       </c>
       <c r="O389" t="n">
-        <v>0.000000000000000000000000000000000000300565331337102</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
       </c>
     </row>
     <row r="390">
@@ -18891,7 +18891,7 @@
         <v>15</v>
       </c>
       <c r="O390" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000657716322063072</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000883820153454347</v>
       </c>
     </row>
     <row r="391">
@@ -18985,7 +18985,7 @@
         <v>15</v>
       </c>
       <c r="O392" t="n">
-        <v>0.000000000000000000000000000000000000300565331337102</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
       </c>
     </row>
     <row r="393">
@@ -19079,7 +19079,7 @@
         <v>15</v>
       </c>
       <c r="O394" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000117336767356785</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141394407124955</v>
       </c>
     </row>
     <row r="395">
@@ -19126,7 +19126,7 @@
         <v>15</v>
       </c>
       <c r="O395" t="n">
-        <v>1.71228337732947e-226</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000786939234885684</v>
       </c>
     </row>
     <row r="396">
@@ -19170,10 +19170,10 @@
         <v>0</v>
       </c>
       <c r="N396" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O396" t="n">
-        <v>1</v>
+        <v>0.0000000232010961759113</v>
       </c>
     </row>
     <row r="397">
@@ -19314,7 +19314,7 @@
         <v>15</v>
       </c>
       <c r="O399" t="n">
-        <v>1.70430417911891e-215</v>
+        <v>2.88162511047442e-215</v>
       </c>
     </row>
     <row r="400">
@@ -19405,10 +19405,10 @@
         <v>0</v>
       </c>
       <c r="N401" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O401" t="n">
-        <v>0.000000000000958084659510167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -19455,7 +19455,7 @@
         <v>15</v>
       </c>
       <c r="O402" t="n">
-        <v>0.00000133475256765759</v>
+        <v>0.000468120878786558</v>
       </c>
     </row>
     <row r="403">
@@ -19502,7 +19502,7 @@
         <v>15</v>
       </c>
       <c r="O403" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127025566003517</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
       </c>
     </row>
     <row r="404">
@@ -19549,7 +19549,7 @@
         <v>15</v>
       </c>
       <c r="O404" t="n">
-        <v>4.09764835170643e-279</v>
+        <v>1.64936325931346e-287</v>
       </c>
     </row>
     <row r="405">
@@ -19737,7 +19737,7 @@
         <v>15</v>
       </c>
       <c r="O408" t="n">
-        <v>3.61918329510604e-229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -19784,7 +19784,7 @@
         <v>15</v>
       </c>
       <c r="O409" t="n">
-        <v>0.00000000000000825060587736281</v>
+        <v>0.000000000000000000000000595176655703315</v>
       </c>
     </row>
     <row r="410">
@@ -19831,7 +19831,7 @@
         <v>15</v>
       </c>
       <c r="O410" t="n">
-        <v>7.80696225755823e-208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -19878,7 +19878,7 @@
         <v>15</v>
       </c>
       <c r="O411" t="n">
-        <v>1.10529529038208e-282</v>
+        <v>1.10163262332848e-282</v>
       </c>
     </row>
     <row r="412">
@@ -19925,7 +19925,7 @@
         <v>15</v>
       </c>
       <c r="O412" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000249127073126638</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000601100260616396</v>
       </c>
     </row>
     <row r="413">
@@ -20113,7 +20113,7 @@
         <v>15</v>
       </c>
       <c r="O416" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000115181855744628</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000654425612462139</v>
       </c>
     </row>
     <row r="417">
@@ -20160,7 +20160,7 @@
         <v>15</v>
       </c>
       <c r="O417" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000010798507356186</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
       </c>
     </row>
     <row r="418">
@@ -20204,10 +20204,10 @@
         <v>1</v>
       </c>
       <c r="N418" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O418" t="n">
-        <v>0.999999985158208</v>
+        <v>0.0000762893543233504</v>
       </c>
     </row>
     <row r="419">
@@ -20348,7 +20348,7 @@
         <v>15</v>
       </c>
       <c r="O421" t="n">
-        <v>5.72822359460996e-243</v>
+        <v>1.5802235268324e-226</v>
       </c>
     </row>
     <row r="422">
@@ -20395,7 +20395,7 @@
         <v>15</v>
       </c>
       <c r="O422" t="n">
-        <v>0.0000000000000000000000000000000000000000777603479637902</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
       </c>
     </row>
     <row r="423">
@@ -20442,7 +20442,7 @@
         <v>15</v>
       </c>
       <c r="O423" t="n">
-        <v>4.35627842808815e-232</v>
+        <v>6.58287896913865e-250</v>
       </c>
     </row>
     <row r="424">
@@ -20536,7 +20536,7 @@
         <v>15</v>
       </c>
       <c r="O425" t="n">
-        <v>3.67967955332664e-232</v>
+        <v>3.98652290650523e-259</v>
       </c>
     </row>
     <row r="426">
@@ -20583,7 +20583,7 @@
         <v>15</v>
       </c>
       <c r="O426" t="n">
-        <v>0.279753047558491</v>
+        <v>0.000510338821841385</v>
       </c>
     </row>
     <row r="427">
@@ -20630,7 +20630,7 @@
         <v>15</v>
       </c>
       <c r="O427" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110922499820087</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
       </c>
     </row>
     <row r="428">
@@ -20818,7 +20818,7 @@
         <v>15</v>
       </c>
       <c r="O431" t="n">
-        <v>3.61918329510604e-229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -20912,7 +20912,7 @@
         <v>15</v>
       </c>
       <c r="O433" t="n">
-        <v>2.93400405482851e-260</v>
+        <v>1.62966813735174e-292</v>
       </c>
     </row>
     <row r="434">
@@ -20959,7 +20959,7 @@
         <v>15</v>
       </c>
       <c r="O434" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134105408790861</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
       </c>
     </row>
     <row r="435">
@@ -21100,7 +21100,7 @@
         <v>15</v>
       </c>
       <c r="O437" t="n">
-        <v>0.0000000000556396674520741</v>
+        <v>0.0000000251201631692621</v>
       </c>
     </row>
     <row r="438">
@@ -21194,7 +21194,7 @@
         <v>15</v>
       </c>
       <c r="O439" t="n">
-        <v>5.27745775617901e-223</v>
+        <v>4.77492131214901e-226</v>
       </c>
     </row>
     <row r="440">
@@ -21241,7 +21241,7 @@
         <v>15</v>
       </c>
       <c r="O440" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000020242081911954</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000495696853024476</v>
       </c>
     </row>
     <row r="441">
@@ -21288,7 +21288,7 @@
         <v>15</v>
       </c>
       <c r="O441" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000239096597747896</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000130495709814959</v>
       </c>
     </row>
     <row r="442">
@@ -21335,7 +21335,7 @@
         <v>15</v>
       </c>
       <c r="O442" t="n">
-        <v>5.49766882665952e-230</v>
+        <v>1.16409806788357e-260</v>
       </c>
     </row>
     <row r="443">
@@ -21382,7 +21382,7 @@
         <v>15</v>
       </c>
       <c r="O443" t="n">
-        <v>4.35627842808815e-232</v>
+        <v>6.58287896913865e-250</v>
       </c>
     </row>
     <row r="444">
@@ -21429,7 +21429,7 @@
         <v>15</v>
       </c>
       <c r="O444" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014750500502528</v>
+        <v>0.000000000000000000000000527881371436132</v>
       </c>
     </row>
     <row r="445">
@@ -21523,7 +21523,7 @@
         <v>15</v>
       </c>
       <c r="O446" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136249941950321</v>
+        <v>1.19129670568056e-221</v>
       </c>
     </row>
     <row r="447">
@@ -21570,7 +21570,7 @@
         <v>16</v>
       </c>
       <c r="O447" t="n">
-        <v>0.502934935059376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -21664,7 +21664,7 @@
         <v>15</v>
       </c>
       <c r="O449" t="n">
-        <v>3.72674617230121e-298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -21758,7 +21758,7 @@
         <v>15</v>
       </c>
       <c r="O451" t="n">
-        <v>0.0000000000000000000000552772424845249</v>
+        <v>0.0000000000000000000000000000000000000000000000000000928293854883343</v>
       </c>
     </row>
     <row r="452">
@@ -21805,7 +21805,7 @@
         <v>15</v>
       </c>
       <c r="O452" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110922499820087</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
       </c>
     </row>
     <row r="453">
@@ -21899,7 +21899,7 @@
         <v>15</v>
       </c>
       <c r="O454" t="n">
-        <v>0.00000000000000825060587736281</v>
+        <v>0.000000000000000000000000595176655703315</v>
       </c>
     </row>
     <row r="455">
@@ -22463,7 +22463,7 @@
         <v>15</v>
       </c>
       <c r="O466" t="n">
-        <v>7.55882626560353e-228</v>
+        <v>3.64995088618459e-250</v>
       </c>
     </row>
     <row r="467">
@@ -22510,7 +22510,7 @@
         <v>15</v>
       </c>
       <c r="O467" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000550927368265106</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000360937502583892</v>
       </c>
     </row>
     <row r="468">
@@ -22557,7 +22557,7 @@
         <v>15</v>
       </c>
       <c r="O468" t="n">
-        <v>4.04841179827099e-298</v>
+        <v>1.83553896651506e-300</v>
       </c>
     </row>
     <row r="469">
@@ -22651,7 +22651,7 @@
         <v>15</v>
       </c>
       <c r="O470" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000440827397319187</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000407682150785815</v>
       </c>
     </row>
     <row r="471">
@@ -22745,7 +22745,7 @@
         <v>15</v>
       </c>
       <c r="O472" t="n">
-        <v>7.72916726602457e-262</v>
+        <v>1.53825317005843e-286</v>
       </c>
     </row>
     <row r="473">
@@ -22792,7 +22792,7 @@
         <v>15</v>
       </c>
       <c r="O473" t="n">
-        <v>0.0000000000000000000000000000000000000126131706604193</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000210650057558552</v>
       </c>
     </row>
     <row r="474">
@@ -22886,7 +22886,7 @@
         <v>15</v>
       </c>
       <c r="O475" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000423952583145361</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000324440298383877</v>
       </c>
     </row>
     <row r="476">
@@ -22980,7 +22980,7 @@
         <v>15</v>
       </c>
       <c r="O477" t="n">
-        <v>0.279753047558491</v>
+        <v>0.000510338821841385</v>
       </c>
     </row>
     <row r="478">
@@ -23121,7 +23121,7 @@
         <v>15</v>
       </c>
       <c r="O480" t="n">
-        <v>1.10529529038208e-282</v>
+        <v>1.10163262332848e-282</v>
       </c>
     </row>
     <row r="481">
@@ -23215,7 +23215,7 @@
         <v>15</v>
       </c>
       <c r="O482" t="n">
-        <v>3.51702552826371e-235</v>
+        <v>1.15709106303013e-306</v>
       </c>
     </row>
     <row r="483">
@@ -23262,7 +23262,7 @@
         <v>15</v>
       </c>
       <c r="O483" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000795851854907823</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000839005279352281</v>
       </c>
     </row>
     <row r="484">
@@ -23403,7 +23403,7 @@
         <v>15</v>
       </c>
       <c r="O486" t="n">
-        <v>0.0000000000000000000000000527834016752063</v>
+        <v>0.00000000000000685089790095512</v>
       </c>
     </row>
     <row r="487">
@@ -23450,7 +23450,7 @@
         <v>15</v>
       </c>
       <c r="O487" t="n">
-        <v>8.24416536796283e-254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -23497,7 +23497,7 @@
         <v>15</v>
       </c>
       <c r="O488" t="n">
-        <v>4.4771399313285e-221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -23591,7 +23591,7 @@
         <v>15</v>
       </c>
       <c r="O490" t="n">
-        <v>0.0000000000000000000000000000000000000126131706604193</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000210650057558552</v>
       </c>
     </row>
     <row r="491">
@@ -23685,7 +23685,7 @@
         <v>15</v>
       </c>
       <c r="O492" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193698974274879</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000340942540356713</v>
       </c>
     </row>
     <row r="493">
@@ -23826,7 +23826,7 @@
         <v>15</v>
       </c>
       <c r="O495" t="n">
-        <v>0.00000000000000000000872426564491564</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000161695655939042</v>
       </c>
     </row>
     <row r="496">
@@ -24108,7 +24108,7 @@
         <v>15</v>
       </c>
       <c r="O501" t="n">
-        <v>1.76726102732494e-263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -24155,7 +24155,7 @@
         <v>15</v>
       </c>
       <c r="O502" t="n">
-        <v>1.43619710105773e-289</v>
+        <v>2.94835614165432e-264</v>
       </c>
     </row>
     <row r="503">
@@ -24249,7 +24249,7 @@
         <v>15</v>
       </c>
       <c r="O504" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000882770820416777</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127960158682187</v>
       </c>
     </row>
     <row r="505">
@@ -24343,7 +24343,7 @@
         <v>15</v>
       </c>
       <c r="O506" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000461496944424862</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000188456987594294</v>
       </c>
     </row>
     <row r="507">
@@ -24390,7 +24390,7 @@
         <v>15</v>
       </c>
       <c r="O507" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236617059965112</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
       </c>
     </row>
     <row r="508">
@@ -24484,7 +24484,7 @@
         <v>15</v>
       </c>
       <c r="O509" t="n">
-        <v>1.19298492305838e-240</v>
+        <v>9.45460007847345e-255</v>
       </c>
     </row>
     <row r="510">
@@ -24578,7 +24578,7 @@
         <v>15</v>
       </c>
       <c r="O511" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127025566003517</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
       </c>
     </row>
     <row r="512">
@@ -24625,7 +24625,7 @@
         <v>15</v>
       </c>
       <c r="O512" t="n">
-        <v>2.73343498296438e-219</v>
+        <v>1.33083937448753e-232</v>
       </c>
     </row>
     <row r="513">
@@ -24719,7 +24719,7 @@
         <v>15</v>
       </c>
       <c r="O514" t="n">
-        <v>1.25095826535125e-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -24954,7 +24954,7 @@
         <v>15</v>
       </c>
       <c r="O519" t="n">
-        <v>7.55882626560353e-228</v>
+        <v>3.64995088618459e-250</v>
       </c>
     </row>
     <row r="520">
@@ -25048,7 +25048,7 @@
         <v>15</v>
       </c>
       <c r="O521" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000104113390657551</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000305246625895026</v>
       </c>
     </row>
     <row r="522">
@@ -25189,7 +25189,7 @@
         <v>15</v>
       </c>
       <c r="O524" t="n">
-        <v>1.53988363602693e-289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -25565,7 +25565,7 @@
         <v>15</v>
       </c>
       <c r="O532" t="n">
-        <v>2.39292534168715e-220</v>
+        <v>3.82427870756558e-221</v>
       </c>
     </row>
     <row r="533">
@@ -25800,7 +25800,7 @@
         <v>15</v>
       </c>
       <c r="O537" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000010798507356186</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
       </c>
     </row>
     <row r="538">
@@ -25847,7 +25847,7 @@
         <v>15</v>
       </c>
       <c r="O538" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000591931935724404</v>
+        <v>4.32524085201344e-240</v>
       </c>
     </row>
     <row r="539">
@@ -25988,7 +25988,7 @@
         <v>15</v>
       </c>
       <c r="O541" t="n">
-        <v>0.0000000255135855388665</v>
+        <v>0.000000000000000000000000000000000000000000277907557254392</v>
       </c>
     </row>
     <row r="542">
@@ -26082,7 +26082,7 @@
         <v>15</v>
       </c>
       <c r="O543" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000278922018426296</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000147600782664717</v>
       </c>
     </row>
     <row r="544">
@@ -26129,7 +26129,7 @@
         <v>15</v>
       </c>
       <c r="O544" t="n">
-        <v>3.61918329510604e-229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -26176,7 +26176,7 @@
         <v>15</v>
       </c>
       <c r="O545" t="n">
-        <v>0.279753047558491</v>
+        <v>0.000510338821841385</v>
       </c>
     </row>
     <row r="546">
@@ -26317,7 +26317,7 @@
         <v>15</v>
       </c>
       <c r="O548" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000705104788915047</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
       </c>
     </row>
     <row r="549">
@@ -26408,10 +26408,10 @@
         <v>1</v>
       </c>
       <c r="N550" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O550" t="n">
-        <v>1</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000685037674220464</v>
       </c>
     </row>
     <row r="551">
@@ -26458,7 +26458,7 @@
         <v>15</v>
       </c>
       <c r="O551" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000993615327933286</v>
+        <v>4.54061500144398e-238</v>
       </c>
     </row>
     <row r="552">
@@ -26505,7 +26505,7 @@
         <v>16</v>
       </c>
       <c r="O552" t="n">
-        <v>1</v>
+        <v>0.999999999999817</v>
       </c>
     </row>
     <row r="553">
@@ -26552,7 +26552,7 @@
         <v>15</v>
       </c>
       <c r="O553" t="n">
-        <v>1.02962305646822e-248</v>
+        <v>3.67999169395394e-257</v>
       </c>
     </row>
     <row r="554">
@@ -26599,7 +26599,7 @@
         <v>15</v>
       </c>
       <c r="O554" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000194022003371266</v>
+        <v>2.91322783851527e-211</v>
       </c>
     </row>
     <row r="555">
@@ -26740,7 +26740,7 @@
         <v>15</v>
       </c>
       <c r="O557" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000117336767356785</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141394407124955</v>
       </c>
     </row>
     <row r="558">
@@ -26928,7 +26928,7 @@
         <v>15</v>
       </c>
       <c r="O561" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000907445890835181</v>
+        <v>0.0000000000000000000000000000178161366065389</v>
       </c>
     </row>
     <row r="562">
@@ -26972,10 +26972,10 @@
         <v>1</v>
       </c>
       <c r="N562" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O562" t="n">
-        <v>0.000000000289740882446794</v>
+        <v>0.711159137137071</v>
       </c>
     </row>
     <row r="563">
@@ -27022,7 +27022,7 @@
         <v>16</v>
       </c>
       <c r="O563" t="n">
-        <v>1</v>
+        <v>0.999999999933535</v>
       </c>
     </row>
     <row r="564">
@@ -27069,7 +27069,7 @@
         <v>15</v>
       </c>
       <c r="O564" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000313382012316817</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000362899613027316</v>
       </c>
     </row>
     <row r="565">
@@ -27116,7 +27116,7 @@
         <v>15</v>
       </c>
       <c r="O565" t="n">
-        <v>8.37168921086726e-254</v>
+        <v>9.72792200328287e-237</v>
       </c>
     </row>
     <row r="566">
@@ -27163,7 +27163,7 @@
         <v>15</v>
       </c>
       <c r="O566" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000156602226452486</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
       </c>
     </row>
     <row r="567">
@@ -27210,7 +27210,7 @@
         <v>15</v>
       </c>
       <c r="O567" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000010798507356186</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
       </c>
     </row>
     <row r="568">
@@ -27351,7 +27351,7 @@
         <v>15</v>
       </c>
       <c r="O570" t="n">
-        <v>4.04841179827099e-298</v>
+        <v>1.83553896651506e-300</v>
       </c>
     </row>
     <row r="571">
@@ -27398,7 +27398,7 @@
         <v>15</v>
       </c>
       <c r="O571" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107191629831461</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000284214878038373</v>
       </c>
     </row>
     <row r="572">
@@ -27445,7 +27445,7 @@
         <v>15</v>
       </c>
       <c r="O572" t="n">
-        <v>1.19298492305838e-240</v>
+        <v>9.45460007847345e-255</v>
       </c>
     </row>
     <row r="573">
@@ -27633,7 +27633,7 @@
         <v>15</v>
       </c>
       <c r="O576" t="n">
-        <v>7.72916726602457e-262</v>
+        <v>1.53825317005843e-286</v>
       </c>
     </row>
     <row r="577">
@@ -27680,7 +27680,7 @@
         <v>15</v>
       </c>
       <c r="O577" t="n">
-        <v>0.00000000000000000000000000000000000000000922301855573915</v>
+        <v>0.000000000000000000000000000000000000000000000000269466567243685</v>
       </c>
     </row>
     <row r="578">
@@ -27727,7 +27727,7 @@
         <v>15</v>
       </c>
       <c r="O578" t="n">
-        <v>4.40479534285289e-308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -27821,7 +27821,7 @@
         <v>15</v>
       </c>
       <c r="O580" t="n">
-        <v>1.53988363602693e-289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -27868,7 +27868,7 @@
         <v>15</v>
       </c>
       <c r="O581" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000819310393697325</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
       </c>
     </row>
     <row r="582">
@@ -27915,7 +27915,7 @@
         <v>15</v>
       </c>
       <c r="O582" t="n">
-        <v>0.00000000000000000000000032100893236096</v>
+        <v>0.0000000000000000000000000000000000000205618634333947</v>
       </c>
     </row>
     <row r="583">
@@ -28150,7 +28150,7 @@
         <v>15</v>
       </c>
       <c r="O587" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000010798507356186</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
       </c>
     </row>
     <row r="588">
@@ -28197,7 +28197,7 @@
         <v>15</v>
       </c>
       <c r="O588" t="n">
-        <v>4.04841179827099e-298</v>
+        <v>1.83553896651506e-300</v>
       </c>
     </row>
     <row r="589">
@@ -28291,7 +28291,7 @@
         <v>15</v>
       </c>
       <c r="O590" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000177249672636702</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132811394831142</v>
       </c>
     </row>
     <row r="591">
@@ -28338,7 +28338,7 @@
         <v>15</v>
       </c>
       <c r="O591" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000819310393697325</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
       </c>
     </row>
     <row r="592">
@@ -28385,7 +28385,7 @@
         <v>15</v>
       </c>
       <c r="O592" t="n">
-        <v>0.0000000000000000000000000527834016752063</v>
+        <v>0.00000000000000685089790095512</v>
       </c>
     </row>
     <row r="593">
@@ -28432,7 +28432,7 @@
         <v>15</v>
       </c>
       <c r="O593" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000737193499713984</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000353189043284728</v>
       </c>
     </row>
     <row r="594">
@@ -28479,7 +28479,7 @@
         <v>15</v>
       </c>
       <c r="O594" t="n">
-        <v>3.14546432394004e-273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -28523,10 +28523,10 @@
         <v>0</v>
       </c>
       <c r="N595" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O595" t="n">
-        <v>0.999988283408434</v>
+        <v>0.00000000000000000000000000000000000000000000447696991948465</v>
       </c>
     </row>
     <row r="596">
@@ -28620,7 +28620,7 @@
         <v>15</v>
       </c>
       <c r="O597" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000705104788915047</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
       </c>
     </row>
     <row r="598">
@@ -28714,7 +28714,7 @@
         <v>15</v>
       </c>
       <c r="O599" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012779195121618</v>
+        <v>3.02322136652926e-244</v>
       </c>
     </row>
     <row r="600">
@@ -28761,7 +28761,7 @@
         <v>15</v>
       </c>
       <c r="O600" t="n">
-        <v>1.19298492305838e-240</v>
+        <v>9.45460007847345e-255</v>
       </c>
     </row>
     <row r="601">
@@ -28808,7 +28808,7 @@
         <v>16</v>
       </c>
       <c r="O601" t="n">
-        <v>0.999999999984137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -28949,7 +28949,7 @@
         <v>15</v>
       </c>
       <c r="O604" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000113042525761179</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000252764205079229</v>
       </c>
     </row>
     <row r="605">
@@ -29043,7 +29043,7 @@
         <v>15</v>
       </c>
       <c r="O606" t="n">
-        <v>1.30931380295973e-212</v>
+        <v>3.06797713353109e-286</v>
       </c>
     </row>
     <row r="607">
@@ -29090,7 +29090,7 @@
         <v>15</v>
       </c>
       <c r="O607" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000814622576778261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -29137,7 +29137,7 @@
         <v>15</v>
       </c>
       <c r="O608" t="n">
-        <v>3.4149033380167e-226</v>
+        <v>7.85489222644051e-285</v>
       </c>
     </row>
     <row r="609">
@@ -29231,7 +29231,7 @@
         <v>15</v>
       </c>
       <c r="O610" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000795851854907823</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000839005279352281</v>
       </c>
     </row>
     <row r="611">
@@ -29325,7 +29325,7 @@
         <v>15</v>
       </c>
       <c r="O612" t="n">
-        <v>4.35627842808815e-232</v>
+        <v>6.58287896913865e-250</v>
       </c>
     </row>
     <row r="613">
@@ -29419,7 +29419,7 @@
         <v>15</v>
       </c>
       <c r="O614" t="n">
-        <v>0.00000000000000000000000000000000000000000922301855573915</v>
+        <v>0.000000000000000000000000000000000000000000000000269466567243685</v>
       </c>
     </row>
     <row r="615">
@@ -29560,7 +29560,7 @@
         <v>15</v>
       </c>
       <c r="O617" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000146945678852098</v>
+        <v>2.09681798513306e-231</v>
       </c>
     </row>
     <row r="618">
@@ -29701,7 +29701,7 @@
         <v>15</v>
       </c>
       <c r="O620" t="n">
-        <v>4.35627842808815e-232</v>
+        <v>6.58287896913865e-250</v>
       </c>
     </row>
     <row r="621">
@@ -29795,7 +29795,7 @@
         <v>15</v>
       </c>
       <c r="O622" t="n">
-        <v>8.37168921086726e-254</v>
+        <v>9.72792200328287e-237</v>
       </c>
     </row>
     <row r="623">
@@ -29842,7 +29842,7 @@
         <v>15</v>
       </c>
       <c r="O623" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000397230956110238</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000689199972421805</v>
       </c>
     </row>
     <row r="624">
@@ -29889,7 +29889,7 @@
         <v>15</v>
       </c>
       <c r="O624" t="n">
-        <v>0.0000000000556396674520741</v>
+        <v>0.0000000251201631692621</v>
       </c>
     </row>
     <row r="625">
@@ -30171,7 +30171,7 @@
         <v>15</v>
       </c>
       <c r="O630" t="n">
-        <v>3.86793110078285e-219</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000306472246895654</v>
       </c>
     </row>
     <row r="631">
@@ -30265,7 +30265,7 @@
         <v>15</v>
       </c>
       <c r="O632" t="n">
-        <v>5.49766882665952e-230</v>
+        <v>1.16409806788357e-260</v>
       </c>
     </row>
     <row r="633">
@@ -30359,7 +30359,7 @@
         <v>15</v>
       </c>
       <c r="O634" t="n">
-        <v>0.0000000000556396674520741</v>
+        <v>0.0000000251201631692621</v>
       </c>
     </row>
     <row r="635">
@@ -30406,7 +30406,7 @@
         <v>15</v>
       </c>
       <c r="O635" t="n">
-        <v>1.02962305646822e-248</v>
+        <v>3.67999169395394e-257</v>
       </c>
     </row>
     <row r="636">
@@ -30641,7 +30641,7 @@
         <v>15</v>
       </c>
       <c r="O640" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187724599388768</v>
+        <v>3.14994192771905e-223</v>
       </c>
     </row>
     <row r="641">
@@ -30735,7 +30735,7 @@
         <v>15</v>
       </c>
       <c r="O642" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000154516340305774</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000231595414404586</v>
       </c>
     </row>
     <row r="643">
@@ -30782,7 +30782,7 @@
         <v>15</v>
       </c>
       <c r="O643" t="n">
-        <v>3.89788177036074e-244</v>
+        <v>1.44131019286984e-279</v>
       </c>
     </row>
     <row r="644">
@@ -30876,7 +30876,7 @@
         <v>16</v>
       </c>
       <c r="O645" t="n">
-        <v>0.999706940614575</v>
+        <v>0.999999999697126</v>
       </c>
     </row>
     <row r="646">
@@ -30970,7 +30970,7 @@
         <v>15</v>
       </c>
       <c r="O647" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003359116335941</v>
+        <v>1.11510696784176e-221</v>
       </c>
     </row>
     <row r="648">
@@ -31064,7 +31064,7 @@
         <v>15</v>
       </c>
       <c r="O649" t="n">
-        <v>0.00000000000000000000000000000000000000000000424434653689526</v>
+        <v>0.00000000000000000000000000000000000000000000000000000128634420325735</v>
       </c>
     </row>
     <row r="650">
@@ -31111,7 +31111,7 @@
         <v>15</v>
       </c>
       <c r="O650" t="n">
-        <v>0.0000000000000000000000000000000000000000777603479637902</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
       </c>
     </row>
     <row r="651">
@@ -31155,10 +31155,10 @@
         <v>1</v>
       </c>
       <c r="N651" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O651" t="n">
-        <v>0.00000000000000000000000000000000000000000000000309110365350276</v>
+        <v>0.999999999999768</v>
       </c>
     </row>
     <row r="652">
@@ -31205,7 +31205,7 @@
         <v>15</v>
       </c>
       <c r="O652" t="n">
-        <v>7.55882626560353e-228</v>
+        <v>3.64995088618459e-250</v>
       </c>
     </row>
     <row r="653">
@@ -31252,7 +31252,7 @@
         <v>15</v>
       </c>
       <c r="O653" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003359116335941</v>
+        <v>1.11510696784176e-221</v>
       </c>
     </row>
     <row r="654">
@@ -31299,7 +31299,7 @@
         <v>15</v>
       </c>
       <c r="O654" t="n">
-        <v>4.71395855329539e-283</v>
+        <v>5.44150500449539e-288</v>
       </c>
     </row>
     <row r="655">
@@ -31440,7 +31440,7 @@
         <v>15</v>
       </c>
       <c r="O657" t="n">
-        <v>0.000000000000000000000000000000000000000000224905399458226</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000220166864631759</v>
       </c>
     </row>
     <row r="658">
@@ -31581,7 +31581,7 @@
         <v>15</v>
       </c>
       <c r="O660" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000216444748835075</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000605973978165077</v>
       </c>
     </row>
     <row r="661">
@@ -31628,7 +31628,7 @@
         <v>16</v>
       </c>
       <c r="O661" t="n">
-        <v>1</v>
+        <v>0.999999999999817</v>
       </c>
     </row>
     <row r="662">
@@ -31769,7 +31769,7 @@
         <v>15</v>
       </c>
       <c r="O664" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000156602226452486</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
       </c>
     </row>
     <row r="665">
@@ -31816,7 +31816,7 @@
         <v>15</v>
       </c>
       <c r="O665" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236617059965112</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
       </c>
     </row>
     <row r="666">
@@ -31863,7 +31863,7 @@
         <v>15</v>
       </c>
       <c r="O666" t="n">
-        <v>5.49766882665952e-230</v>
+        <v>1.16409806788357e-260</v>
       </c>
     </row>
     <row r="667">
@@ -31910,7 +31910,7 @@
         <v>15</v>
       </c>
       <c r="O667" t="n">
-        <v>0.0000000000000254664511950216</v>
+        <v>0.00000000000000000000000920708915730383</v>
       </c>
     </row>
     <row r="668">
@@ -31957,7 +31957,7 @@
         <v>15</v>
       </c>
       <c r="O668" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000233924961732827</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133783639999173</v>
       </c>
     </row>
     <row r="669">
@@ -32051,7 +32051,7 @@
         <v>15</v>
       </c>
       <c r="O670" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111528181633942</v>
+        <v>2.51438513722244e-222</v>
       </c>
     </row>
     <row r="671">
@@ -32474,7 +32474,7 @@
         <v>15</v>
       </c>
       <c r="O679" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000339982091522485</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000160957431962729</v>
       </c>
     </row>
     <row r="680">
@@ -32756,7 +32756,7 @@
         <v>16</v>
       </c>
       <c r="O685" t="n">
-        <v>0.999999999984137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -32897,7 +32897,7 @@
         <v>15</v>
       </c>
       <c r="O688" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000546134631220655</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126375827505628</v>
       </c>
     </row>
     <row r="689">
@@ -32944,7 +32944,7 @@
         <v>16</v>
       </c>
       <c r="O689" t="n">
-        <v>1</v>
+        <v>0.999999999999817</v>
       </c>
     </row>
     <row r="690">
@@ -33367,7 +33367,7 @@
         <v>15</v>
       </c>
       <c r="O698" t="n">
-        <v>6.05949845347778e-223</v>
+        <v>4.04282167105513e-219</v>
       </c>
     </row>
     <row r="699">
@@ -33602,7 +33602,7 @@
         <v>15</v>
       </c>
       <c r="O703" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000169436081994388</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
       </c>
     </row>
     <row r="704">
@@ -33743,7 +33743,7 @@
         <v>15</v>
       </c>
       <c r="O706" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000907445890835181</v>
+        <v>0.0000000000000000000000000000178161366065389</v>
       </c>
     </row>
     <row r="707">
@@ -33931,7 +33931,7 @@
         <v>15</v>
       </c>
       <c r="O710" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000705104788915047</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
       </c>
     </row>
     <row r="711">
@@ -33978,7 +33978,7 @@
         <v>15</v>
       </c>
       <c r="O711" t="n">
-        <v>2.0435311684888e-287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -34025,7 +34025,7 @@
         <v>15</v>
       </c>
       <c r="O712" t="n">
-        <v>4.15164756038229e-225</v>
+        <v>9.57392740521862e-212</v>
       </c>
     </row>
     <row r="713">
@@ -34072,7 +34072,7 @@
         <v>15</v>
       </c>
       <c r="O713" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000231256785994988</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000478905375074351</v>
       </c>
     </row>
     <row r="714">
@@ -34166,7 +34166,7 @@
         <v>15</v>
       </c>
       <c r="O715" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000993615327933286</v>
+        <v>4.54061500144398e-238</v>
       </c>
     </row>
     <row r="716">
@@ -34213,7 +34213,7 @@
         <v>15</v>
       </c>
       <c r="O716" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000376501844979296</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000123455681691255</v>
       </c>
     </row>
     <row r="717">
@@ -34257,10 +34257,10 @@
         <v>1</v>
       </c>
       <c r="N717" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O717" t="n">
-        <v>0.995986362544051</v>
+        <v>0.000000000000000165546651508311</v>
       </c>
     </row>
     <row r="718">
@@ -34307,7 +34307,7 @@
         <v>15</v>
       </c>
       <c r="O718" t="n">
-        <v>0.000000000000000000000000000000000000300565331337102</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
       </c>
     </row>
     <row r="719">
@@ -34354,7 +34354,7 @@
         <v>15</v>
       </c>
       <c r="O719" t="n">
-        <v>3.18549678881607e-238</v>
+        <v>1.54113159610705e-256</v>
       </c>
     </row>
     <row r="720">
@@ -34542,7 +34542,7 @@
         <v>15</v>
       </c>
       <c r="O723" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105108633688193</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105316757877881</v>
       </c>
     </row>
     <row r="724">
@@ -34683,7 +34683,7 @@
         <v>15</v>
       </c>
       <c r="O726" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000233924961732827</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133783639999173</v>
       </c>
     </row>
     <row r="727">
@@ -34730,7 +34730,7 @@
         <v>15</v>
       </c>
       <c r="O727" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127025566003517</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
       </c>
     </row>
     <row r="728">
@@ -34777,7 +34777,7 @@
         <v>15</v>
       </c>
       <c r="O728" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000705104788915047</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
       </c>
     </row>
     <row r="729">
@@ -34871,7 +34871,7 @@
         <v>15</v>
       </c>
       <c r="O730" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011667455721773</v>
+        <v>5.49729134977288e-258</v>
       </c>
     </row>
     <row r="731">
@@ -34965,7 +34965,7 @@
         <v>15</v>
       </c>
       <c r="O732" t="n">
-        <v>3.06822747415793e-235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -35012,7 +35012,7 @@
         <v>15</v>
       </c>
       <c r="O733" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000440827397319187</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000407682150785815</v>
       </c>
     </row>
     <row r="734">
@@ -35059,7 +35059,7 @@
         <v>15</v>
       </c>
       <c r="O734" t="n">
-        <v>1.35487810721793e-254</v>
+        <v>3.90406905162726e-290</v>
       </c>
     </row>
     <row r="735">
@@ -35153,7 +35153,7 @@
         <v>16</v>
       </c>
       <c r="O736" t="n">
-        <v>1</v>
+        <v>0.999999999999933</v>
       </c>
     </row>
     <row r="737">
@@ -35247,7 +35247,7 @@
         <v>15</v>
       </c>
       <c r="O738" t="n">
-        <v>1.3540368457585e-305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -35388,7 +35388,7 @@
         <v>15</v>
       </c>
       <c r="O741" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101675791784265</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000049418918226473</v>
       </c>
     </row>
     <row r="742">
@@ -35526,10 +35526,10 @@
         <v>1</v>
       </c>
       <c r="N744" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O744" t="n">
-        <v>0.0000000000000000000000000000000715881280447563</v>
+        <v>0.988859914789035</v>
       </c>
     </row>
     <row r="745">
@@ -35623,7 +35623,7 @@
         <v>15</v>
       </c>
       <c r="O746" t="n">
-        <v>0.0000000255135855388665</v>
+        <v>0.000000000000000000000000000000000000000000277907557254392</v>
       </c>
     </row>
     <row r="747">
@@ -35670,7 +35670,7 @@
         <v>16</v>
       </c>
       <c r="O747" t="n">
-        <v>0.999999999984137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -35764,7 +35764,7 @@
         <v>15</v>
       </c>
       <c r="O749" t="n">
-        <v>1.17324744617491e-278</v>
+        <v>5.4422510755301e-287</v>
       </c>
     </row>
     <row r="750">
@@ -35811,7 +35811,7 @@
         <v>15</v>
       </c>
       <c r="O750" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000015047485784264</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136434296005678</v>
       </c>
     </row>
     <row r="751">
@@ -35858,7 +35858,7 @@
         <v>15</v>
       </c>
       <c r="O751" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011667455721773</v>
+        <v>5.49729134977288e-258</v>
       </c>
     </row>
     <row r="752">
@@ -35905,7 +35905,7 @@
         <v>15</v>
       </c>
       <c r="O752" t="n">
-        <v>4.35627842808815e-232</v>
+        <v>6.58287896913865e-250</v>
       </c>
     </row>
     <row r="753">
@@ -36046,7 +36046,7 @@
         <v>15</v>
       </c>
       <c r="O755" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000039190131533789</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000987807260317913</v>
       </c>
     </row>
     <row r="756">
@@ -36234,7 +36234,7 @@
         <v>15</v>
       </c>
       <c r="O759" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000263913690364631</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000187631358822659</v>
       </c>
     </row>
     <row r="760">
@@ -36281,7 +36281,7 @@
         <v>15</v>
       </c>
       <c r="O760" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000907445890835181</v>
+        <v>0.0000000000000000000000000000178161366065389</v>
       </c>
     </row>
     <row r="761">
@@ -36422,7 +36422,7 @@
         <v>15</v>
       </c>
       <c r="O763" t="n">
-        <v>5.97437791756936e-218</v>
+        <v>1.30520976594377e-250</v>
       </c>
     </row>
     <row r="764">
@@ -36516,7 +36516,7 @@
         <v>15</v>
       </c>
       <c r="O765" t="n">
-        <v>0</v>
+        <v>1.1491253119471e-307</v>
       </c>
     </row>
     <row r="766">
@@ -36563,7 +36563,7 @@
         <v>15</v>
       </c>
       <c r="O766" t="n">
-        <v>0</v>
+        <v>1.1491253119471e-307</v>
       </c>
     </row>
     <row r="767">
@@ -36610,7 +36610,7 @@
         <v>15</v>
       </c>
       <c r="O767" t="n">
-        <v>1.60038904384491e-236</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000176342091392844</v>
       </c>
     </row>
     <row r="768">
@@ -36751,7 +36751,7 @@
         <v>15</v>
       </c>
       <c r="O770" t="n">
-        <v>1.30931380295973e-212</v>
+        <v>3.06797713353109e-286</v>
       </c>
     </row>
     <row r="771">
@@ -36795,10 +36795,10 @@
         <v>0</v>
       </c>
       <c r="N771" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O771" t="n">
-        <v>0.000000000000000000000214611861133816</v>
+        <v>0.999992753364624</v>
       </c>
     </row>
     <row r="772">
@@ -36845,7 +36845,7 @@
         <v>15</v>
       </c>
       <c r="O772" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000907445890835181</v>
+        <v>0.0000000000000000000000000000178161366065389</v>
       </c>
     </row>
     <row r="773">
@@ -36892,7 +36892,7 @@
         <v>15</v>
       </c>
       <c r="O773" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000373935933258945</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107943519204561</v>
       </c>
     </row>
     <row r="774">
@@ -36986,7 +36986,7 @@
         <v>15</v>
       </c>
       <c r="O775" t="n">
-        <v>9.3232236455711e-309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -37033,7 +37033,7 @@
         <v>15</v>
       </c>
       <c r="O776" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000278894590429264</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
       </c>
     </row>
     <row r="777">
@@ -37127,7 +37127,7 @@
         <v>15</v>
       </c>
       <c r="O778" t="n">
-        <v>1.19298492305838e-240</v>
+        <v>9.45460007847345e-255</v>
       </c>
     </row>
     <row r="779">
@@ -37174,7 +37174,7 @@
         <v>15</v>
       </c>
       <c r="O779" t="n">
-        <v>0.0000000000556396674520741</v>
+        <v>0.0000000251201631692621</v>
       </c>
     </row>
     <row r="780">
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="N780" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O780" t="n">
-        <v>1</v>
+        <v>0.00000000000000000000000000000000000000000000000000000265723954278279</v>
       </c>
     </row>
     <row r="781">
@@ -37409,7 +37409,7 @@
         <v>15</v>
       </c>
       <c r="O784" t="n">
-        <v>2.19748870964674e-279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -37456,7 +37456,7 @@
         <v>16</v>
       </c>
       <c r="O785" t="n">
-        <v>0.999706940614575</v>
+        <v>0.999999999697126</v>
       </c>
     </row>
     <row r="786">
@@ -37597,7 +37597,7 @@
         <v>15</v>
       </c>
       <c r="O788" t="n">
-        <v>0.00000000000000000000000000000000000000000000000724582016285656</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000610011147209643</v>
       </c>
     </row>
     <row r="789">
@@ -37644,7 +37644,7 @@
         <v>15</v>
       </c>
       <c r="O789" t="n">
-        <v>2.05963493906728e-229</v>
+        <v>1.31039497928319e-255</v>
       </c>
     </row>
     <row r="790">
@@ -37785,7 +37785,7 @@
         <v>15</v>
       </c>
       <c r="O792" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136249941950321</v>
+        <v>1.19129670568056e-221</v>
       </c>
     </row>
     <row r="793">
@@ -37829,10 +37829,10 @@
         <v>1</v>
       </c>
       <c r="N793" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O793" t="n">
-        <v>0.00000000000000000000000000000000000000000000000309110365350276</v>
+        <v>0.999999999999768</v>
       </c>
     </row>
     <row r="794">
@@ -37879,7 +37879,7 @@
         <v>15</v>
       </c>
       <c r="O794" t="n">
-        <v>1.37242081589734e-234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -38114,7 +38114,7 @@
         <v>15</v>
       </c>
       <c r="O799" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000156602226452486</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
       </c>
     </row>
     <row r="800">
@@ -38253,28 +38253,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.895</v>
+        <v>0.89875</v>
       </c>
       <c r="B2" t="n">
-        <v>0.778181818153521</v>
+        <v>0.782608695623819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.902953586459791</v>
+        <v>0.911392405024836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.835937494994888</v>
+        <v>0.842105258153962</v>
       </c>
       <c r="E2" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -38303,10 +38303,10 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -38314,10 +38314,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -38345,10 +38345,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.108348134991119</v>
+        <v>0.106571936056838</v>
       </c>
       <c r="B2" t="n">
-        <v>0.90295358649789</v>
+        <v>0.911392405063291</v>
       </c>
     </row>
     <row r="5">
@@ -38686,40 +38686,40 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106292541779744</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E7" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0473099961683074</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H7" t="n">
         <v>0.135756676983567</v>
       </c>
       <c r="I7" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125181334347769</v>
+        <v>-0.149412008966738</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L7" t="n">
-        <v>0.119600089864878</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O7" t="n">
-        <v>0.105657894459141</v>
+        <v>-0.0982213319731916</v>
       </c>
       <c r="P7" t="s">
         <v>37</v>
@@ -38736,40 +38736,40 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181705062982426</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0224110909044904</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G8" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0806685137926412</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0521875716209317</v>
+        <v>0.125181334347769</v>
       </c>
       <c r="K8" t="n">
-        <v>0.053084091189761</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L8" t="n">
-        <v>0.233720711640107</v>
+        <v>0.119600089864878</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N8" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0793508975001306</v>
+        <v>0.105657894459141</v>
       </c>
       <c r="P8" t="s">
         <v>37</v>
@@ -38786,31 +38786,31 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0229860659962837</v>
+        <v>-0.206130760345656</v>
       </c>
       <c r="E9" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0683585552573073</v>
+        <v>-0.0570642064778439</v>
       </c>
       <c r="G9" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I9" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.096858259050086</v>
+        <v>0.14620283431443</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.00921300807407051</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M9" t="n">
         <v>0.0953822783822888</v>
@@ -38819,7 +38819,7 @@
         <v>0.189002198571947</v>
       </c>
       <c r="O9" t="n">
-        <v>0.120455580248585</v>
+        <v>-0.104798081212944</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
@@ -38836,40 +38836,40 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0229860659962837</v>
+        <v>0.181705062982426</v>
       </c>
       <c r="E10" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.068743589874789</v>
+        <v>-0.0224110909044904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.134959727739659</v>
+        <v>-0.0521875716209317</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.00921300807407051</v>
+        <v>0.053084091189761</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M10" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N10" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O10" t="n">
-        <v>0.120455580248585</v>
+        <v>0.0793508975001306</v>
       </c>
       <c r="P10" t="s">
         <v>37</v>
@@ -38886,40 +38886,40 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00325788359429006</v>
+        <v>-0.0683585552573073</v>
       </c>
       <c r="G11" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H11" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I11" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0713137406832008</v>
+        <v>-0.096858259050086</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N11" t="n">
         <v>0.189002198571947</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0949329573533153</v>
+        <v>0.120455580248585</v>
       </c>
       <c r="P11" t="s">
         <v>37</v>
@@ -38936,40 +38936,40 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0660789352549595</v>
+        <v>-0.195357543030987</v>
       </c>
       <c r="E12" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0212559870520452</v>
+        <v>-0.0650215885724659</v>
       </c>
       <c r="G12" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H12" t="n">
-        <v>0.356109329747269</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I12" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.146784321470905</v>
+        <v>0.134378240583183</v>
       </c>
       <c r="K12" t="n">
-        <v>0.950162320588935</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0625397789772634</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O12" t="n">
-        <v>0.105657894459141</v>
+        <v>0.113878831008832</v>
       </c>
       <c r="P12" t="s">
         <v>37</v>
@@ -38986,40 +38986,40 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13861219372375</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E13" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0760294262983326</v>
+        <v>-0.068743589874789</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H13" t="n">
-        <v>0.356109329747269</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I13" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.146784321470905</v>
+        <v>-0.134959727739659</v>
       </c>
       <c r="K13" t="n">
-        <v>0.950162320588935</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O13" t="n">
-        <v>0.13360907872809</v>
+        <v>0.120455580248585</v>
       </c>
       <c r="P13" t="s">
         <v>37</v>
@@ -39036,40 +39036,40 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0847461071504057</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0446147538459354</v>
+        <v>0.00325788359429006</v>
       </c>
       <c r="G14" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0555476157082052</v>
+        <v>0.0713137406832008</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0904623507480599</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.194231620017002</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0390305888154175</v>
+        <v>-0.0949329573533153</v>
       </c>
       <c r="P14" t="s">
         <v>37</v>
@@ -39086,40 +39086,40 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.13861219372375</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0473099961683074</v>
+        <v>0.0760294262983326</v>
       </c>
       <c r="G15" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H15" t="n">
-        <v>0.135756676983567</v>
+        <v>0.356109329747269</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.149412008966738</v>
+        <v>-0.146784321470905</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.00921300807407051</v>
+        <v>0.950162320588935</v>
       </c>
       <c r="L15" t="n">
         <v>0.00547946808964876</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N15" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0982213319731916</v>
+        <v>0.13360907872809</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
@@ -39136,40 +39136,40 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.127838976409081</v>
+        <v>0.0847461071504057</v>
       </c>
       <c r="E16" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0339621294289415</v>
+        <v>-0.0446147538459354</v>
       </c>
       <c r="G16" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0845959757801354</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I16" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J16" t="n">
-        <v>0.470722240049757</v>
+        <v>0.0555476157082052</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0406246713369947</v>
+        <v>0.0904623507480599</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0340096235334561</v>
+        <v>-0.194231620017002</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N16" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0719143350141809</v>
+        <v>-0.0390305888154175</v>
       </c>
       <c r="P16" t="s">
         <v>37</v>
@@ -39186,31 +39186,31 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0768521525696284</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E17" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0660483475524171</v>
+        <v>-0.0473099961683074</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H17" t="n">
-        <v>0.245933003365418</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I17" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0561291028646806</v>
+        <v>-0.149412008966738</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0839695271906683</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.108641153685581</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M17" t="n">
         <v>0.0953822783822888</v>
@@ -39219,7 +39219,7 @@
         <v>0.189002198571947</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00371828124297486</v>
+        <v>-0.0982213319731916</v>
       </c>
       <c r="P17" t="s">
         <v>37</v>
@@ -39236,13 +39236,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.0768521525696284</v>
       </c>
       <c r="E18" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0577059308403134</v>
+        <v>-0.0660483475524171</v>
       </c>
       <c r="G18" t="n">
         <v>-0.111501621088949</v>
@@ -39254,22 +39254,22 @@
         <v>-0.0970295666207614</v>
       </c>
       <c r="J18" t="n">
-        <v>0.115984428112355</v>
+        <v>-0.0561291028646806</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.00921300807407051</v>
+        <v>-0.0839695271906683</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.108641153685581</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0686259603943046</v>
+        <v>0.00371828124297486</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
@@ -39286,31 +39286,31 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13861219372375</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E19" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0760294262983326</v>
+        <v>-0.0577059308403134</v>
       </c>
       <c r="G19" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I19" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0561291028646806</v>
+        <v>0.115984428112355</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L19" t="n">
-        <v>0.119600089864878</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M19" t="n">
         <v>-0.168490582886858</v>
@@ -39319,7 +39319,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O19" t="n">
-        <v>0.13360907872809</v>
+        <v>-0.0686259603943046</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
@@ -39686,40 +39686,40 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106292541779744</v>
+        <v>0.375622974646467</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0642515193375024</v>
+        <v>-0.0616846218876244</v>
       </c>
       <c r="G27" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H27" t="n">
-        <v>0.245933003365418</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I27" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0542337719602889</v>
+        <v>-0.0482460403771827</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0910699344210707</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N27" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0949329573533153</v>
+        <v>-0.177142322850224</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
@@ -39736,40 +39736,40 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.375622974646467</v>
+        <v>0.030880020577061</v>
       </c>
       <c r="E28" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0616846218876244</v>
+        <v>-0.0512886872156183</v>
       </c>
       <c r="G28" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I28" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0482460403771827</v>
+        <v>0.0424091782290421</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0340096235334561</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.177142322850224</v>
+        <v>-0.0406747761253557</v>
       </c>
       <c r="P28" t="s">
         <v>37</v>
@@ -40236,40 +40236,40 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.030880020577061</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E38" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.150726142089784</v>
+        <v>0.00184608999685714</v>
       </c>
       <c r="G38" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0806685137926412</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I38" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.249264133808377</v>
+        <v>-0.0613844778563458</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0839695271906683</v>
+        <v>-0.0964289470434346</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M38" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.127816703552079</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
@@ -40286,40 +40286,40 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00143963136694584</v>
+        <v>-0.16303789108698</v>
       </c>
       <c r="E39" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00184608999685714</v>
+        <v>-0.0365290268788196</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0613844778563458</v>
+        <v>0.150144365558179</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0964289470434346</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0340096235334561</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M39" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N39" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.127816703552079</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
@@ -40336,40 +40336,40 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.16303789108698</v>
+        <v>0.127838976409081</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0365290268788196</v>
+        <v>-0.0339621294289415</v>
       </c>
       <c r="G40" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H40" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I40" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J40" t="n">
-        <v>0.150144365558179</v>
+        <v>0.470722240049757</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0465912676323694</v>
+        <v>0.0406246713369947</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N40" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.0719143350141809</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
@@ -40386,40 +40386,40 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.181705062982426</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E41" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0620696565051061</v>
+        <v>-0.0615562770151305</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H41" t="n">
-        <v>0.135756676983567</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I41" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J41" t="n">
-        <v>0.188245834247752</v>
+        <v>-0.0784644465792577</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N41" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O41" t="n">
-        <v>0.127032329488338</v>
+        <v>-0.0620492111545519</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
@@ -40436,31 +40436,31 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.127838976409081</v>
+        <v>0.00574610458193836</v>
       </c>
       <c r="E42" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0339621294289415</v>
+        <v>-0.0566791718603622</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I42" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J42" t="n">
-        <v>0.470722240049757</v>
+        <v>-0.0784644465792577</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0406246713369947</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0340096235334561</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M42" t="n">
         <v>-0.168490582886858</v>
@@ -40469,7 +40469,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0719143350141809</v>
+        <v>0.0661973990206253</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
@@ -40492,34 +40492,34 @@
         <v>0.13477938971094</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0615562770151305</v>
+        <v>-0.0588610346927586</v>
       </c>
       <c r="G43" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H43" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I43" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0784644465792577</v>
+        <v>0.0358399594894606</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N43" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0620492111545519</v>
+        <v>0.102369519839265</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
@@ -40536,40 +40536,40 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00574610458193836</v>
+        <v>0.181705062982426</v>
       </c>
       <c r="E44" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0566791718603622</v>
+        <v>-0.0620696565051061</v>
       </c>
       <c r="G44" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I44" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0784644465792577</v>
+        <v>0.188245834247752</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N44" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0661973990206253</v>
+        <v>0.127032329488338</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
@@ -40592,7 +40592,7 @@
         <v>0.13477938971094</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0588610346927586</v>
+        <v>-0.0587326898202647</v>
       </c>
       <c r="G45" t="n">
         <v>-0.111501621088949</v>
@@ -40604,22 +40604,22 @@
         <v>0.165630088244357</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0358399594894606</v>
+        <v>-0.036421446645936</v>
       </c>
       <c r="K45" t="n">
         <v>-0.071510107337902</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0801109982417732</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N45" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O45" t="n">
-        <v>0.102369519839265</v>
+        <v>-0.0193003410961595</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
@@ -40636,13 +40636,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00574610458193836</v>
+        <v>0.0847461071504057</v>
       </c>
       <c r="E46" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0627113808675756</v>
+        <v>0.00685154002411932</v>
       </c>
       <c r="G46" t="n">
         <v>0.144132574259956</v>
@@ -40654,22 +40654,22 @@
         <v>-0.0970295666207614</v>
       </c>
       <c r="J46" t="n">
-        <v>0.165910490533175</v>
+        <v>0.0608029906998704</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0157058316314621</v>
+        <v>0.0904623507480599</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0230506873541586</v>
+        <v>-0.194231620017002</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N46" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0645532117106871</v>
+        <v>-0.0390305888154175</v>
       </c>
       <c r="P46" t="s">
         <v>37</v>
@@ -40686,31 +40686,31 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181705062982426</v>
+        <v>-0.141491456457642</v>
       </c>
       <c r="E47" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0620696565051061</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H47" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I47" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J47" t="n">
-        <v>0.188245834247752</v>
+        <v>-0.0114584154355263</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M47" t="n">
         <v>0.0953822783822888</v>
@@ -40719,7 +40719,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O47" t="n">
-        <v>0.127032329488338</v>
+        <v>0.113878831008832</v>
       </c>
       <c r="P47" t="s">
         <v>37</v>
@@ -40736,25 +40736,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.0876253698842974</v>
       </c>
       <c r="E48" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0378124756037586</v>
+        <v>0.432956516703874</v>
       </c>
       <c r="G48" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I48" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J48" t="n">
-        <v>0.130436709339434</v>
+        <v>0.138319771826932</v>
       </c>
       <c r="K48" t="n">
         <v>-0.0590506874851357</v>
@@ -40769,7 +40769,7 @@
         <v>0.189002198571947</v>
       </c>
       <c r="O48" t="n">
-        <v>0.178002136096421</v>
+        <v>0.0234485289622329</v>
       </c>
       <c r="P48" t="s">
         <v>37</v>
@@ -40786,40 +40786,40 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0524264552063989</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E49" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0587326898202647</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G49" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I49" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.036421446645936</v>
+        <v>-0.278168696262536</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.071510107337902</v>
+        <v>0.165218869864658</v>
       </c>
       <c r="L49" t="n">
         <v>-0.0230506873541586</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0193003410961595</v>
+        <v>0.194444009195802</v>
       </c>
       <c r="P49" t="s">
         <v>37</v>
@@ -40836,16 +40836,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0847461071504057</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E50" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00685154002411932</v>
+        <v>-0.0664333821698988</v>
       </c>
       <c r="G50" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H50" t="n">
         <v>-0.0845959757801354</v>
@@ -40854,22 +40854,22 @@
         <v>-0.0970295666207614</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0608029906998704</v>
+        <v>-0.117879759016747</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0904623507480599</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.194231620017002</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N50" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.0390305888154175</v>
+        <v>0.128676516798276</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
@@ -40886,31 +40886,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.141491456457642</v>
+        <v>-0.0768521525696284</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0414061320335879</v>
       </c>
       <c r="G51" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.139684138971061</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I51" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0114584154355263</v>
+        <v>-0.0469321966292664</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.071510107337902</v>
+        <v>0.252434808834022</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M51" t="n">
         <v>0.0953822783822888</v>
@@ -40919,7 +40919,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O51" t="n">
-        <v>0.113878831008832</v>
+        <v>-0.043963150745232</v>
       </c>
       <c r="P51" t="s">
         <v>37</v>
@@ -40936,31 +40936,31 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0876253698842974</v>
+        <v>0.267890801499778</v>
       </c>
       <c r="E52" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F52" t="n">
-        <v>0.432956516703874</v>
+        <v>-0.0595027590552281</v>
       </c>
       <c r="G52" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I52" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J52" t="n">
-        <v>0.138319771826932</v>
+        <v>-0.161236602697985</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M52" t="n">
         <v>0.0953822783822888</v>
@@ -40969,7 +40969,7 @@
         <v>0.189002198571947</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0234485289622329</v>
+        <v>-0.0686259603943046</v>
       </c>
       <c r="P52" t="s">
         <v>37</v>
@@ -40986,31 +40986,31 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235571149555771</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E53" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.0546256539004598</v>
       </c>
       <c r="G53" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H53" t="n">
-        <v>0.135756676983567</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I53" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J53" t="n">
-        <v>0.076569115674866</v>
+        <v>-0.132332040243826</v>
       </c>
       <c r="K53" t="n">
         <v>-0.0465912676323694</v>
       </c>
       <c r="L53" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M53" t="n">
         <v>-0.168490582886858</v>
@@ -41019,7 +41019,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.167277198990595</v>
+        <v>0.0908602086696978</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
@@ -41027,7 +41027,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0.999999999999933</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -41036,40 +41036,40 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.109171804513635</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.00136253181549041</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.278168696262536</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K54" t="n">
-        <v>0.165218869864658</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N54" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O54" t="n">
-        <v>0.194444009195802</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
@@ -41077,7 +41077,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0.999999999999817</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -41086,31 +41086,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.106292541779744</v>
+        <v>0.030880020577061</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0664333821698988</v>
+        <v>0.150726142089784</v>
       </c>
       <c r="G55" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I55" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.117879759016747</v>
+        <v>-0.249264133808377</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0839695271906683</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M55" t="n">
         <v>0.0953822783822888</v>
@@ -41119,7 +41119,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O55" t="n">
-        <v>0.128676516798276</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
@@ -41127,7 +41127,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0.999999999999817</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -41136,31 +41136,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0768521525696284</v>
+        <v>0.00574610458193836</v>
       </c>
       <c r="E56" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.0414061320335879</v>
+        <v>-0.0627113808675756</v>
       </c>
       <c r="G56" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.0295078125892099</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I56" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.0469321966292664</v>
+        <v>0.165910490533175</v>
       </c>
       <c r="K56" t="n">
-        <v>0.252434808834022</v>
+        <v>0.0157058316314621</v>
       </c>
       <c r="L56" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M56" t="n">
         <v>0.0953822783822888</v>
@@ -41169,7 +41169,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.043963150745232</v>
+        <v>0.0645532117106871</v>
       </c>
       <c r="P56" t="s">
         <v>37</v>
@@ -41177,7 +41177,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0.999999999999817</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -41186,31 +41186,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.192478280297095</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E57" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0678451757673317</v>
+        <v>-0.0378124756037586</v>
       </c>
       <c r="G57" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0255803506017156</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I57" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0187599907665487</v>
+        <v>0.130436709339434</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0839695271906683</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L57" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M57" t="n">
         <v>0.0953822783822888</v>
@@ -41219,7 +41219,7 @@
         <v>0.189002198571947</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0908602086696978</v>
+        <v>0.178002136096421</v>
       </c>
       <c r="P57" t="s">
         <v>37</v>
@@ -41227,7 +41227,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0.999999999933535</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -41236,40 +41236,40 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.267890801499778</v>
+        <v>-0.0660789352549595</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0595027590552281</v>
+        <v>-0.0212559870520452</v>
       </c>
       <c r="G58" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H58" t="n">
-        <v>0.245933003365418</v>
+        <v>0.356109329747269</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.161236602697985</v>
+        <v>-0.146784321470905</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0216724279268368</v>
+        <v>0.950162320588935</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N58" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.0686259603943046</v>
+        <v>0.105657894459141</v>
       </c>
       <c r="P58" t="s">
         <v>37</v>
@@ -41277,7 +41277,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0.999999999933535</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -41286,40 +41286,40 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.109171804513635</v>
+        <v>0.181705062982426</v>
       </c>
       <c r="E59" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0546256539004598</v>
+        <v>-0.0620696565051061</v>
       </c>
       <c r="G59" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0806685137926412</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.132332040243826</v>
+        <v>0.188245834247752</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N59" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0908602086696978</v>
+        <v>0.127032329488338</v>
       </c>
       <c r="P59" t="s">
         <v>37</v>
@@ -41327,7 +41327,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0.999992753364624</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -41336,31 +41336,31 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0524264552063989</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E60" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.0473099961683074</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G60" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H60" t="n">
-        <v>0.135756676983567</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.149412008966738</v>
+        <v>0.247368802903985</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.00921300807407051</v>
+        <v>-0.0964289470434346</v>
       </c>
       <c r="L60" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M60" t="n">
         <v>0.0953822783822888</v>
@@ -41369,7 +41369,7 @@
         <v>0.189002198571947</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.0982213319731916</v>
+        <v>-0.150835325891213</v>
       </c>
       <c r="P60" t="s">
         <v>37</v>
@@ -41377,7 +41377,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.999997078525212</v>
+        <v>0.999992753364624</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -41386,40 +41386,40 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.109171804513635</v>
+        <v>0.030880020577061</v>
       </c>
       <c r="E61" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0544973090279659</v>
+        <v>-0.0682302103848134</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00354508532534543</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I61" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0174461470186324</v>
+        <v>-0.0548152591167643</v>
       </c>
       <c r="K61" t="n">
         <v>-0.0341318477796031</v>
       </c>
       <c r="L61" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N61" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.19851675787942</v>
+        <v>-0.0752027096340572</v>
       </c>
       <c r="P61" t="s">
         <v>37</v>
@@ -41427,57 +41427,57 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.999988283408434</v>
+        <v>0.0000762893543233504</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.106292541779744</v>
+        <v>0.0847461071504057</v>
       </c>
       <c r="E62" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0488501346382342</v>
+        <v>-0.0677168308948378</v>
       </c>
       <c r="G62" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0255803506017156</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I62" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.129704352747994</v>
+        <v>0.0345261157415443</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0625397789772634</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O62" t="n">
-        <v>0.092504395979636</v>
+        <v>-0.183719072089976</v>
       </c>
       <c r="P62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.000000000289740882446794</v>
+        <v>0.0000762893543233504</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -41486,40 +41486,40 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.160158628353088</v>
+        <v>0.267890801499778</v>
       </c>
       <c r="E63" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0656633129349354</v>
+        <v>0.0407345863625095</v>
       </c>
       <c r="G63" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H63" t="n">
-        <v>0.00354508532534543</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I63" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J63" t="n">
-        <v>0.138319771826932</v>
+        <v>-0.036421446645936</v>
       </c>
       <c r="K63" t="n">
-        <v>0.32719132795062</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.165701464573195</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M63" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N63" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.200160945189358</v>
+        <v>-0.0176561537862213</v>
       </c>
       <c r="P63" t="s">
         <v>38</v>
@@ -41527,7 +41527,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.000000000289740882446794</v>
+        <v>0.0000762893543233504</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -41536,31 +41536,31 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.0768521525696284</v>
       </c>
       <c r="E64" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0588312133841497</v>
+        <v>-0.0643798642099963</v>
       </c>
       <c r="G64" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0845959757801354</v>
+        <v>-0.194772302161986</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0403629778896849</v>
+        <v>0.204011959222747</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.0839695271906683</v>
+        <v>0.00324641177869577</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0625397789772634</v>
       </c>
       <c r="M64" t="n">
         <v>-0.168490582886858</v>
@@ -41569,7 +41569,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O64" t="n">
-        <v>0.18786725995605</v>
+        <v>-0.145902763961399</v>
       </c>
       <c r="P64" t="s">
         <v>38</v>
@@ -41577,7 +41577,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.00000000000000753340583882696</v>
+        <v>0.000000157888575577718</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -41586,31 +41586,31 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.00143963136694584</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E65" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0628099044314606</v>
+        <v>-0.0574492410953256</v>
       </c>
       <c r="G65" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0806685137926412</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I65" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.0167137904271915</v>
+        <v>0.307805615308135</v>
       </c>
       <c r="K65" t="n">
-        <v>0.588839144858712</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.165701464573195</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M65" t="n">
         <v>0.0953822783822888</v>
@@ -41619,7 +41619,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.0406747761253557</v>
+        <v>0.0629090244007489</v>
       </c>
       <c r="P65" t="s">
         <v>38</v>
@@ -41627,7 +41627,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0000000000000000000000000000025255621220848</v>
+        <v>0.000000000000000165546651508311</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -41636,13 +41636,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.0660789352549595</v>
       </c>
       <c r="E66" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F66" t="n">
-        <v>0.24762652082268</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G66" t="n">
         <v>0.144132574259956</v>
@@ -41651,16 +41651,16 @@
         <v>0.00354508532534543</v>
       </c>
       <c r="I66" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.312197249333568</v>
+        <v>0.00168002204363675</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0341318477796031</v>
+        <v>0.053084091189761</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M66" t="n">
         <v>0.0953822783822888</v>
@@ -41669,7 +41669,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O66" t="n">
-        <v>0.135253266038028</v>
+        <v>0.13360907872809</v>
       </c>
       <c r="P66" t="s">
         <v>38</v>
@@ -41677,7 +41677,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0000000000000000000000000000000715881280447563</v>
+        <v>0.0000000000000000000000000000000000000406320386720571</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -41686,40 +41686,40 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.106292541779744</v>
+        <v>0.0093335859477231</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0782112891307289</v>
+        <v>-0.0657916578074293</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H67" t="n">
-        <v>0.135756676983567</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I67" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J67" t="n">
-        <v>0.125181334347769</v>
+        <v>0.0253292095061302</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.0590506874851357</v>
+        <v>0.00324641177869577</v>
       </c>
       <c r="L67" t="n">
-        <v>0.119600089864878</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N67" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O67" t="n">
-        <v>0.105657894459141</v>
+        <v>0.13360907872809</v>
       </c>
       <c r="P67" t="s">
         <v>38</v>
@@ -41727,7 +41727,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.00000000000000000000000000000000000000166092768968461</v>
+        <v>0.00000000000000000000000000000000000000000000000559824813097614</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -41736,31 +41736,31 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0229860659962837</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E68" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.0574492410953256</v>
+        <v>0.0628099044314606</v>
       </c>
       <c r="G68" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I68" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J68" t="n">
-        <v>0.307805615308135</v>
+        <v>-0.0167137904271915</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.0216724279268368</v>
+        <v>0.588839144858712</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.165701464573195</v>
       </c>
       <c r="M68" t="n">
         <v>0.0953822783822888</v>
@@ -41769,7 +41769,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0629090244007489</v>
+        <v>-0.0406747761253557</v>
       </c>
       <c r="P68" t="s">
         <v>38</v>
@@ -41777,7 +41777,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.00000000000000000000000000000000000000000407257790050483</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000685037674220464</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -41786,40 +41786,40 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106292541779744</v>
+        <v>0.127838976409081</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.0339621294289415</v>
       </c>
       <c r="G69" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0806685137926412</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.0180276341751078</v>
+        <v>0.0713137406832008</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.071510107337902</v>
+        <v>0.0406246713369947</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N69" t="n">
         <v>0.189002198571947</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0850678334936863</v>
+        <v>-0.0719143350141809</v>
       </c>
       <c r="P69" t="s">
         <v>38</v>
@@ -41827,7 +41827,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0000000000000000000000000000000000000000000925374119088018</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000987807260317913</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -41836,40 +41836,40 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0093335859477231</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E70" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0657916578074293</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G70" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H70" t="n">
-        <v>0.00354508532534543</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0253292095061302</v>
+        <v>-0.119193602764663</v>
       </c>
       <c r="K70" t="n">
-        <v>0.00324641177869577</v>
+        <v>-0.108888366896201</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N70" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O70" t="n">
-        <v>0.13360907872809</v>
+        <v>-0.0604050238446137</v>
       </c>
       <c r="P70" t="s">
         <v>38</v>
@@ -41877,7 +41877,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.00000000000000000000000000000000000000000000191673365173916</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000157586569406346</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0000000000000000000000000000000000000000000000485254526258193</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000545476911285838</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -41939,37 +41939,37 @@
         <v>0.106292541779744</v>
       </c>
       <c r="E72" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0541122744104842</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I72" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.16649197768965</v>
+        <v>-0.0180276341751078</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M72" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.19851675787942</v>
+        <v>-0.0850678334936863</v>
       </c>
       <c r="P72" t="s">
         <v>38</v>
@@ -41977,7 +41977,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.00000000000000000000000000000000000000000000000309110365350276</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000688268567371913</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -41986,28 +41986,28 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.127838976409081</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0489784795107281</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.139684138971061</v>
+        <v>-0.194772302161986</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0148184595227998</v>
+        <v>0.0213876782623813</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L73" t="n">
         <v>-0.0801109982417732</v>
@@ -42019,7 +42019,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O73" t="n">
-        <v>0.123743954868461</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P73" t="s">
         <v>38</v>
@@ -42027,7 +42027,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.00000000000000000000000000000000000000000000000309110365350276</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -42042,22 +42042,22 @@
         <v>-0.119239415730965</v>
       </c>
       <c r="F74" t="n">
-        <v>0.591590779106337</v>
+        <v>0.592489193213795</v>
       </c>
       <c r="G74" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I74" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.0337937591501034</v>
+        <v>-0.312197249333568</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L74" t="n">
         <v>0.0910699344210707</v>
@@ -42069,7 +42069,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.0949329573533153</v>
+        <v>-0.0735585223241191</v>
       </c>
       <c r="P74" t="s">
         <v>38</v>
@@ -42077,7 +42077,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000413077442977664</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -42086,31 +42086,31 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.109171804513635</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E75" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0647648988274781</v>
       </c>
       <c r="G75" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.194772302161986</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I75" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0213876782623813</v>
+        <v>-0.0351076028980197</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.0801109982417732</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M75" t="n">
         <v>-0.168490582886858</v>
@@ -42119,7 +42119,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0892160213597596</v>
+        <v>0.136897453347967</v>
       </c>
       <c r="P75" t="s">
         <v>38</v>
@@ -42127,7 +42127,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000278894590429264</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000353189043284728</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -42136,40 +42136,40 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.195357543030987</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F76" t="n">
-        <v>0.592489193213795</v>
+        <v>-0.0441013743559598</v>
       </c>
       <c r="G76" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00354508532534543</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.312197249333568</v>
+        <v>0.0739414281790334</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.251291930904617</v>
       </c>
       <c r="M76" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N76" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.0735585223241191</v>
+        <v>-0.170565573610471</v>
       </c>
       <c r="P76" t="s">
         <v>38</v>
@@ -42177,7 +42177,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000278894590429264</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -42186,31 +42186,31 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.106292541779744</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.0647648988274781</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G77" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I77" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.0351076028980197</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M77" t="n">
         <v>-0.168490582886858</v>
@@ -42219,7 +42219,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O77" t="n">
-        <v>0.136897453347967</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P77" t="s">
         <v>38</v>
@@ -42227,7 +42227,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000039190131533789</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -42239,37 +42239,37 @@
         <v>-0.00143963136694584</v>
       </c>
       <c r="E78" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0684869001298012</v>
       </c>
       <c r="G78" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H78" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I78" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.119193602764663</v>
+        <v>0.00299386579155306</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.108888366896201</v>
+        <v>0.264894228686788</v>
       </c>
       <c r="L78" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.0604050238446137</v>
+        <v>0.0908602086696978</v>
       </c>
       <c r="P78" t="s">
         <v>38</v>
@@ -42277,7 +42277,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000737193499713984</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000324440298383877</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -42286,40 +42286,40 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E79" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0441013743559598</v>
+        <v>-0.0591177244377464</v>
       </c>
       <c r="G79" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I79" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0739414281790334</v>
+        <v>-0.0127722591834426</v>
       </c>
       <c r="K79" t="n">
         <v>-0.0465912676323694</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.251291930904617</v>
+        <v>0.0625397789772634</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N79" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.170565573610471</v>
+        <v>0.161560262997039</v>
       </c>
       <c r="P79" t="s">
         <v>38</v>
@@ -42327,7 +42327,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000169436081994388</v>
+        <v>2.88162511047442e-215</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -42336,31 +42336,31 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.235571149555771</v>
+        <v>-0.152264673772311</v>
       </c>
       <c r="E80" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.0387108897112159</v>
       </c>
       <c r="G80" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H80" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I80" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J80" t="n">
-        <v>0.076569115674866</v>
+        <v>0.112042896868606</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L80" t="n">
-        <v>0.233720711640107</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M80" t="n">
         <v>-0.168490582886858</v>
@@ -42369,7 +42369,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.167277198990595</v>
+        <v>-0.0373864015054794</v>
       </c>
       <c r="P80" t="s">
         <v>38</v>
@@ -42377,7 +42377,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000169436081994388</v>
+        <v>2.88162511047442e-215</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -42386,40 +42386,40 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.00143963136694584</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E81" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0684869001298012</v>
+        <v>-0.0559091026253988</v>
       </c>
       <c r="G81" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.301021166556343</v>
       </c>
       <c r="I81" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J81" t="n">
-        <v>0.00299386579155306</v>
+        <v>0.000836573772786963</v>
       </c>
       <c r="K81" t="n">
-        <v>0.264894228686788</v>
+        <v>0.0157058316314621</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N81" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0908602086696978</v>
+        <v>-0.200160945189358</v>
       </c>
       <c r="P81" t="s">
         <v>38</v>
@@ -42427,7 +42427,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000423952583145361</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -42436,192 +42436,42 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0229860659962837</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0591177244377464</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G82" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H82" t="n">
-        <v>0.00354508532534543</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I82" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.0127722591834426</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K82" t="n">
         <v>-0.0465912676323694</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0625397789772634</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N82" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O82" t="n">
-        <v>0.161560262997039</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1.70430417911891e-215</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.152264673772311</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.13477938971094</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.0387108897112159</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.111501621088949</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-0.0295078125892099</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-0.0970295666207614</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.112042896868606</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-0.0590506874851357</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.0910699344210707</v>
-      </c>
-      <c r="M83" t="n">
-        <v>-0.168490582886858</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-0.0850308398692555</v>
-      </c>
-      <c r="O83" t="n">
-        <v>-0.0373864015054794</v>
-      </c>
-      <c r="P83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1.70430417911891e-215</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.0524264552063989</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.119239415730965</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.0559091026253988</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-0.111501621088949</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.301021166556343</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-0.0970295666207614</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.000836573772786963</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.0157058316314621</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.0340096235334561</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-0.168490582886858</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-0.0850308398692555</v>
-      </c>
-      <c r="O84" t="n">
-        <v>-0.200160945189358</v>
-      </c>
-      <c r="P84" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.235571149555771</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.13477938971094</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.0336756183753449</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.144132574259956</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.135756676983567</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.165630088244357</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.076569115674866</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-0.0465912676323694</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.233720711640107</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.168490582886858</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-0.0850308398692555</v>
-      </c>
-      <c r="O85" t="n">
-        <v>-0.167277198990595</v>
-      </c>
-      <c r="P85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42661,16 +42511,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0093335859477231</v>
+        <v>0.0221588446556623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0427915269635627</v>
+        <v>0.0447778112879168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0159998004815547</v>
+        <v>0.0161366654832713</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.013438455904206</v>
+        <v>-0.031122830800953</v>
       </c>
     </row>
     <row r="3">
@@ -42678,16 +42528,16 @@
         <v>37</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0385332435133538</v>
+        <v>0.0241169538541556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0103135581214124</v>
+        <v>0.0106390008913371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0375010678823749</v>
+        <v>0.0386178825569013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0279767825371446</v>
+        <v>0.0249557006630095</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -114,7 +114,7 @@
     <t xml:space="preserve">Mean_Predicted_Label_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Since your model produces mean 0.1066 for true label 0, and 0.9114 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
+    <t xml:space="preserve">Since your model produces mean 0.103 for true label 0, and 0.9072 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
   </si>
   <si>
     <t xml:space="preserve">predicted_prob</t>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19129670568056e-221</v>
+        <v>3.21583620212478e-220</v>
       </c>
     </row>
     <row r="7">
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>2.9730718738205e-252</v>
+        <v>1.01367815763967e-240</v>
       </c>
     </row>
     <row r="8">
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.10163262332848e-282</v>
+        <v>5.02527690347205e-274</v>
       </c>
     </row>
     <row r="9">
@@ -984,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5637422519691e-286</v>
+        <v>1.3278058722783e-292</v>
       </c>
     </row>
     <row r="10">
@@ -1266,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000137287267758012</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107232105234441</v>
       </c>
     </row>
     <row r="16">
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000400943837550671</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000379704913289582</v>
       </c>
     </row>
     <row r="17">
@@ -1454,7 +1454,7 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>6.07055413426732e-243</v>
+        <v>5.58857788149959e-238</v>
       </c>
     </row>
     <row r="20">
@@ -1501,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.64936325931346e-287</v>
+        <v>2.94942265777797e-284</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000427891315942123</v>
+        <v>0.00000000000001069851457479</v>
       </c>
     </row>
     <row r="22">
@@ -1595,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>9.65976423951928e-237</v>
+        <v>7.73222674802782e-229</v>
       </c>
     </row>
     <row r="23">
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0000000000000000000000000000000000000205618634333947</v>
+        <v>0.0000000000000000000000000000000000000000430768161652566</v>
       </c>
     </row>
     <row r="26">
@@ -1877,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62242074441607e-258</v>
+        <v>2.23633394670739e-248</v>
       </c>
     </row>
     <row r="29">
@@ -2065,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
       </c>
     </row>
     <row r="33">
@@ -2159,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000928293854883343</v>
+        <v>0.0000000000000000000000000000000000000000000822006274936853</v>
       </c>
     </row>
     <row r="35">
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
       </c>
     </row>
     <row r="36">
@@ -2300,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>4.54061500144398e-238</v>
+        <v>2.66070580586769e-210</v>
       </c>
     </row>
     <row r="38">
@@ -2347,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
       </c>
     </row>
     <row r="39">
@@ -2582,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>3.02322136652926e-244</v>
+        <v>5.7734552186158e-236</v>
       </c>
     </row>
     <row r="44">
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107943519204561</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000958258944711147</v>
       </c>
     </row>
     <row r="45">
@@ -2723,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101029281706959</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000247420632467568</v>
       </c>
     </row>
     <row r="47">
@@ -2770,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="O47" t="n">
-        <v>0.999999999999837</v>
+        <v>0.627458493681427</v>
       </c>
     </row>
     <row r="48">
@@ -2817,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>5.2318160567915e-303</v>
+        <v>1.79900887344363e-300</v>
       </c>
     </row>
     <row r="49">
@@ -2958,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>9.93147853236533e-227</v>
+        <v>1.4806224617631e-224</v>
       </c>
     </row>
     <row r="52">
@@ -3099,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0.999999999997513</v>
       </c>
     </row>
     <row r="55">
@@ -3143,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>0.999992753364624</v>
+        <v>0.0000391832704317209</v>
       </c>
     </row>
     <row r="56">
@@ -3428,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000362899613027316</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000039306605848703</v>
       </c>
     </row>
     <row r="62">
@@ -3475,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0.999999876667067</v>
       </c>
     </row>
     <row r="63">
@@ -3710,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
       </c>
     </row>
     <row r="68">
@@ -3851,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>3.60435519225903e-263</v>
+        <v>5.72552379842188e-264</v>
       </c>
     </row>
     <row r="71">
@@ -3898,7 +3898,7 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>3.67999169395394e-257</v>
+        <v>2.72229380059232e-249</v>
       </c>
     </row>
     <row r="72">
@@ -3945,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
+        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
       </c>
     </row>
     <row r="73">
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="O75" t="n">
-        <v>0.999999999697126</v>
+        <v>0.999999990656718</v>
       </c>
     </row>
     <row r="76">
@@ -4133,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000688268567371913</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000080209759956794</v>
       </c>
     </row>
     <row r="77">
@@ -4180,7 +4180,7 @@
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.1491253119471e-307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4227,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="O78" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
+        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
       </c>
     </row>
     <row r="79">
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>4.86857995084074e-214</v>
+        <v>3.84594564614187e-215</v>
       </c>
     </row>
     <row r="82">
@@ -4650,7 +4650,7 @@
         <v>15</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000258965319134734</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000184368890920249</v>
       </c>
     </row>
     <row r="88">
@@ -4697,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
+        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
       </c>
     </row>
     <row r="89">
@@ -4744,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000839005279352281</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000162920781409946</v>
       </c>
     </row>
     <row r="90">
@@ -4791,7 +4791,7 @@
         <v>15</v>
       </c>
       <c r="O90" t="n">
-        <v>1.53825317005843e-286</v>
+        <v>3.53549979169009e-272</v>
       </c>
     </row>
     <row r="91">
@@ -4838,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="O91" t="n">
-        <v>1.31039497928319e-255</v>
+        <v>3.98035164947155e-239</v>
       </c>
     </row>
     <row r="92">
@@ -5073,7 +5073,7 @@
         <v>15</v>
       </c>
       <c r="O96" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
       </c>
     </row>
     <row r="97">
@@ -5214,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="O99" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000135939182346586</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000360736933950524</v>
       </c>
     </row>
     <row r="100">
@@ -5261,7 +5261,7 @@
         <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>0.000468120878786558</v>
+        <v>0.0000000000314928487891296</v>
       </c>
     </row>
     <row r="101">
@@ -5402,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="O103" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110164139440874</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000246310319659396</v>
       </c>
     </row>
     <row r="104">
@@ -5543,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="O106" t="n">
-        <v>1.1491253119471e-307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5590,7 +5590,7 @@
         <v>15</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0000000000000000126094511748829</v>
+        <v>0.00000000000000138287599884427</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="O108" t="n">
-        <v>1.30846587348146e-274</v>
+        <v>8.19851616762734e-262</v>
       </c>
     </row>
     <row r="109">
@@ -5731,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="O110" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000284214878038373</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000031810178987996</v>
       </c>
     </row>
     <row r="111">
@@ -5778,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000776372719486761</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000055446010905884</v>
       </c>
     </row>
     <row r="112">
@@ -5825,7 +5825,7 @@
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0000762893543233504</v>
+        <v>0.0000000000265535889273659</v>
       </c>
     </row>
     <row r="113">
@@ -6013,7 +6013,7 @@
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000196994342844913</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000120473153940725</v>
       </c>
     </row>
     <row r="117">
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="O117" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000289009384379053</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000943982374985718</v>
       </c>
     </row>
     <row r="118">
@@ -6107,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>3.22373334824854e-304</v>
       </c>
     </row>
     <row r="119">
@@ -6154,7 +6154,7 @@
         <v>15</v>
       </c>
       <c r="O119" t="n">
-        <v>0.00000000000000000115263133818626</v>
+        <v>0.0000000000000000027740764140868</v>
       </c>
     </row>
     <row r="120">
@@ -6201,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="O120" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
       </c>
     </row>
     <row r="121">
@@ -6389,7 +6389,7 @@
         <v>15</v>
       </c>
       <c r="O124" t="n">
-        <v>9.93147853236533e-227</v>
+        <v>1.4806224617631e-224</v>
       </c>
     </row>
     <row r="125">
@@ -6718,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="O131" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
       </c>
     </row>
     <row r="132">
@@ -6812,7 +6812,7 @@
         <v>15</v>
       </c>
       <c r="O133" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000689199972421805</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000243407091352693</v>
       </c>
     </row>
     <row r="134">
@@ -7047,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>2.03294446277666e-230</v>
+        <v>1.39651750836841e-220</v>
       </c>
     </row>
     <row r="139">
@@ -7094,7 +7094,7 @@
         <v>15</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0000000000000000000112384377549822</v>
+        <v>0.0000000000000000000000103741806203268</v>
       </c>
     </row>
     <row r="140">
@@ -7376,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0000000000000000000000000051353473322205</v>
+        <v>0.00000000000788630175175217</v>
       </c>
     </row>
     <row r="146">
@@ -7611,7 +7611,7 @@
         <v>15</v>
       </c>
       <c r="O150" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
       </c>
     </row>
     <row r="151">
@@ -7893,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="O156" t="n">
-        <v>7.85489222644051e-285</v>
+        <v>1.14884494028317e-278</v>
       </c>
     </row>
     <row r="157">
@@ -7987,7 +7987,7 @@
         <v>15</v>
       </c>
       <c r="O158" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000358294583854944</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000226726140524076</v>
       </c>
     </row>
     <row r="159">
@@ -8034,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="O159" t="n">
-        <v>0.00000298113651684936</v>
+        <v>0.0000000000000180143731017663</v>
       </c>
     </row>
     <row r="160">
@@ -8081,7 +8081,7 @@
         <v>15</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
+        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
       </c>
     </row>
     <row r="161">
@@ -8222,7 +8222,7 @@
         <v>15</v>
       </c>
       <c r="O163" t="n">
-        <v>1.92951904990384e-207</v>
+        <v>9.85050038877213e-211</v>
       </c>
     </row>
     <row r="164">
@@ -8269,7 +8269,7 @@
         <v>15</v>
       </c>
       <c r="O164" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000147510843345398</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000189834949162636</v>
       </c>
     </row>
     <row r="165">
@@ -8410,7 +8410,7 @@
         <v>15</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000236227037097906</v>
+        <v>0.0000000000000000000000000000000000000962989234987197</v>
       </c>
     </row>
     <row r="168">
@@ -8457,7 +8457,7 @@
         <v>15</v>
       </c>
       <c r="O168" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000157586569406346</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000328709265484516</v>
       </c>
     </row>
     <row r="169">
@@ -8504,7 +8504,7 @@
         <v>15</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141394407124955</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132333419159081</v>
       </c>
     </row>
     <row r="170">
@@ -8645,7 +8645,7 @@
         <v>16</v>
       </c>
       <c r="O172" t="n">
-        <v>0.999999999933535</v>
+        <v>0.999999999808812</v>
       </c>
     </row>
     <row r="173">
@@ -8786,7 +8786,7 @@
         <v>15</v>
       </c>
       <c r="O175" t="n">
-        <v>1.11510696784176e-221</v>
+        <v>2.04096275119464e-224</v>
       </c>
     </row>
     <row r="176">
@@ -8880,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="O177" t="n">
-        <v>7.85489222644051e-285</v>
+        <v>1.14884494028317e-278</v>
       </c>
     </row>
     <row r="178">
@@ -8974,7 +8974,7 @@
         <v>15</v>
       </c>
       <c r="O179" t="n">
-        <v>9.77041532226723e-235</v>
+        <v>6.37796780783955e-228</v>
       </c>
     </row>
     <row r="180">
@@ -9350,7 +9350,7 @@
         <v>15</v>
       </c>
       <c r="O187" t="n">
-        <v>0.00000000000000000000000000162209687887639</v>
+        <v>0.0000000000000000000000979521703827397</v>
       </c>
     </row>
     <row r="188">
@@ -9444,7 +9444,7 @@
         <v>15</v>
       </c>
       <c r="O189" t="n">
-        <v>1.10163262332848e-282</v>
+        <v>5.02527690347205e-274</v>
       </c>
     </row>
     <row r="190">
@@ -9491,7 +9491,7 @@
         <v>15</v>
       </c>
       <c r="O190" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000166852210843613</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000272584462431558</v>
       </c>
     </row>
     <row r="191">
@@ -9585,7 +9585,7 @@
         <v>15</v>
       </c>
       <c r="O192" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000165229055028834</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000246994083877523</v>
       </c>
     </row>
     <row r="193">
@@ -9632,7 +9632,7 @@
         <v>15</v>
       </c>
       <c r="O193" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000654550424242436</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000191596673123914</v>
       </c>
     </row>
     <row r="194">
@@ -9726,7 +9726,7 @@
         <v>15</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
       </c>
     </row>
     <row r="196">
@@ -9773,7 +9773,7 @@
         <v>15</v>
       </c>
       <c r="O196" t="n">
-        <v>9.65976423951928e-237</v>
+        <v>7.73222674802782e-229</v>
       </c>
     </row>
     <row r="197">
@@ -9820,7 +9820,7 @@
         <v>15</v>
       </c>
       <c r="O197" t="n">
-        <v>0.00000000000000000000000000162209687887639</v>
+        <v>0.0000000000000000000000979521703827397</v>
       </c>
     </row>
     <row r="198">
@@ -9867,7 +9867,7 @@
         <v>15</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0000000232010961759113</v>
+        <v>0.0000000194173425803974</v>
       </c>
     </row>
     <row r="199">
@@ -9961,7 +9961,7 @@
         <v>15</v>
       </c>
       <c r="O200" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000147510843345398</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000189834949162636</v>
       </c>
     </row>
     <row r="201">
@@ -10149,7 +10149,7 @@
         <v>15</v>
       </c>
       <c r="O204" t="n">
-        <v>0.00000000000000000115263133818626</v>
+        <v>0.0000000000000000027740764140868</v>
       </c>
     </row>
     <row r="205">
@@ -10196,7 +10196,7 @@
         <v>15</v>
       </c>
       <c r="O205" t="n">
-        <v>0.00000000000000000000000000000000000257733943699994</v>
+        <v>0.0000000000000000000000000000000000000000000000000701814716615692</v>
       </c>
     </row>
     <row r="206">
@@ -10290,7 +10290,7 @@
         <v>15</v>
       </c>
       <c r="O207" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
       </c>
     </row>
     <row r="208">
@@ -10478,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="O211" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101029281706959</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000247420632467568</v>
       </c>
     </row>
     <row r="212">
@@ -10619,7 +10619,7 @@
         <v>15</v>
       </c>
       <c r="O214" t="n">
-        <v>5.29730921112152e-285</v>
+        <v>5.66000186022323e-287</v>
       </c>
     </row>
     <row r="215">
@@ -10713,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="O216" t="n">
-        <v>7.85489222644051e-285</v>
+        <v>1.14884494028317e-278</v>
       </c>
     </row>
     <row r="217">
@@ -10807,7 +10807,7 @@
         <v>15</v>
       </c>
       <c r="O218" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000405029295360597</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000446238376217736</v>
       </c>
     </row>
     <row r="219">
@@ -10901,7 +10901,7 @@
         <v>16</v>
       </c>
       <c r="O220" t="n">
-        <v>0.139916977214078</v>
+        <v>0.999940860133762</v>
       </c>
     </row>
     <row r="221">
@@ -10995,7 +10995,7 @@
         <v>15</v>
       </c>
       <c r="O222" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000407682150785815</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152709531312874</v>
       </c>
     </row>
     <row r="223">
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
       <c r="O224" t="n">
-        <v>0.000000000000000000436999177306043</v>
+        <v>0.00000000000000000000620856119775127</v>
       </c>
     </row>
     <row r="225">
@@ -11136,7 +11136,7 @@
         <v>15</v>
       </c>
       <c r="O225" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000123455681691255</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000205494913322529</v>
       </c>
     </row>
     <row r="226">
@@ -11183,7 +11183,7 @@
         <v>15</v>
       </c>
       <c r="O226" t="n">
-        <v>6.83691723981309e-288</v>
+        <v>5.7409015542097e-294</v>
       </c>
     </row>
     <row r="227">
@@ -11230,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="O227" t="n">
-        <v>3.02322136652926e-244</v>
+        <v>5.7734552186158e-236</v>
       </c>
     </row>
     <row r="228">
@@ -11418,7 +11418,7 @@
         <v>15</v>
       </c>
       <c r="O231" t="n">
-        <v>0</v>
+        <v>1.84268958210803e-287</v>
       </c>
     </row>
     <row r="232">
@@ -11559,7 +11559,7 @@
         <v>15</v>
       </c>
       <c r="O234" t="n">
-        <v>5.59534327287696e-259</v>
+        <v>8.34818785247574e-247</v>
       </c>
     </row>
     <row r="235">
@@ -11653,7 +11653,7 @@
         <v>15</v>
       </c>
       <c r="O236" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
       </c>
     </row>
     <row r="237">
@@ -11700,7 +11700,7 @@
         <v>15</v>
       </c>
       <c r="O237" t="n">
-        <v>0.000000000000000000000000000000000000000000277907557254392</v>
+        <v>0.000000000000000000000000000000000000000025289001185318</v>
       </c>
     </row>
     <row r="238">
@@ -11747,7 +11747,7 @@
         <v>15</v>
       </c>
       <c r="O238" t="n">
-        <v>4.72465616662281e-244</v>
+        <v>1.36516114367851e-220</v>
       </c>
     </row>
     <row r="239">
@@ -11794,7 +11794,7 @@
         <v>15</v>
       </c>
       <c r="O239" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000220166864631759</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000673770942818835</v>
       </c>
     </row>
     <row r="240">
@@ -11841,7 +11841,7 @@
         <v>15</v>
       </c>
       <c r="O240" t="n">
-        <v>0.0000000232010961759113</v>
+        <v>0.0000000194173425803974</v>
       </c>
     </row>
     <row r="241">
@@ -11888,7 +11888,7 @@
         <v>15</v>
       </c>
       <c r="O241" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
       </c>
     </row>
     <row r="242">
@@ -11982,7 +11982,7 @@
         <v>15</v>
       </c>
       <c r="O243" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000014087717688597</v>
+        <v>0.0000000000000000000000000000000000000000251940569282306</v>
       </c>
     </row>
     <row r="244">
@@ -12123,7 +12123,7 @@
         <v>15</v>
       </c>
       <c r="O246" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000822351556095289</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000846721410303378</v>
       </c>
     </row>
     <row r="247">
@@ -12217,7 +12217,7 @@
         <v>15</v>
       </c>
       <c r="O248" t="n">
-        <v>3.82427870756558e-221</v>
+        <v>6.37665430987106e-221</v>
       </c>
     </row>
     <row r="249">
@@ -12264,7 +12264,7 @@
         <v>15</v>
       </c>
       <c r="O249" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000129091997668659</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000175052043853852</v>
       </c>
     </row>
     <row r="250">
@@ -12311,7 +12311,7 @@
         <v>15</v>
       </c>
       <c r="O250" t="n">
-        <v>1.15709106303013e-306</v>
+        <v>2.14139725181959e-298</v>
       </c>
     </row>
     <row r="251">
@@ -12405,7 +12405,7 @@
         <v>15</v>
       </c>
       <c r="O252" t="n">
-        <v>4.72465616662281e-244</v>
+        <v>1.36516114367851e-220</v>
       </c>
     </row>
     <row r="253">
@@ -12452,7 +12452,7 @@
         <v>15</v>
       </c>
       <c r="O253" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
       </c>
     </row>
     <row r="254">
@@ -12546,7 +12546,7 @@
         <v>15</v>
       </c>
       <c r="O255" t="n">
-        <v>6.58287896913865e-250</v>
+        <v>1.27482066577915e-239</v>
       </c>
     </row>
     <row r="256">
@@ -12734,7 +12734,7 @@
         <v>15</v>
       </c>
       <c r="O259" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000306472246895654</v>
+        <v>6.63745696178728e-210</v>
       </c>
     </row>
     <row r="260">
@@ -12875,7 +12875,7 @@
         <v>16</v>
       </c>
       <c r="O262" t="n">
-        <v>1</v>
+        <v>0.999790728816487</v>
       </c>
     </row>
     <row r="263">
@@ -12922,7 +12922,7 @@
         <v>15</v>
       </c>
       <c r="O263" t="n">
-        <v>0.000510338821841385</v>
+        <v>0.00138986546134693</v>
       </c>
     </row>
     <row r="264">
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="O264" t="n">
-        <v>0.0000000251201631692621</v>
+        <v>0.00000000000000256517541037383</v>
       </c>
     </row>
     <row r="265">
@@ -13063,7 +13063,7 @@
         <v>15</v>
       </c>
       <c r="O266" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
       </c>
     </row>
     <row r="267">
@@ -13110,7 +13110,7 @@
         <v>15</v>
       </c>
       <c r="O267" t="n">
-        <v>1.15709106303013e-306</v>
+        <v>2.14139725181959e-298</v>
       </c>
     </row>
     <row r="268">
@@ -13251,7 +13251,7 @@
         <v>15</v>
       </c>
       <c r="O270" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
       </c>
     </row>
     <row r="271">
@@ -13345,7 +13345,7 @@
         <v>15</v>
       </c>
       <c r="O272" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133783639999173</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512076214926673</v>
       </c>
     </row>
     <row r="273">
@@ -13533,7 +13533,7 @@
         <v>15</v>
       </c>
       <c r="O276" t="n">
-        <v>1.88598354589612e-260</v>
+        <v>1.73092868077348e-261</v>
       </c>
     </row>
     <row r="277">
@@ -13721,7 +13721,7 @@
         <v>15</v>
       </c>
       <c r="O280" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
       </c>
     </row>
     <row r="281">
@@ -13815,7 +13815,7 @@
         <v>15</v>
       </c>
       <c r="O282" t="n">
-        <v>3.02322136652926e-244</v>
+        <v>5.7734552186158e-236</v>
       </c>
     </row>
     <row r="283">
@@ -13909,7 +13909,7 @@
         <v>15</v>
       </c>
       <c r="O284" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000610011147209643</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000174067541829927</v>
       </c>
     </row>
     <row r="285">
@@ -13956,7 +13956,7 @@
         <v>15</v>
       </c>
       <c r="O285" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000196994342844913</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000120473153940725</v>
       </c>
     </row>
     <row r="286">
@@ -14050,7 +14050,7 @@
         <v>15</v>
       </c>
       <c r="O287" t="n">
-        <v>0.000000157888575577718</v>
+        <v>0.00000000000994579850683943</v>
       </c>
     </row>
     <row r="288">
@@ -14097,7 +14097,7 @@
         <v>15</v>
       </c>
       <c r="O288" t="n">
-        <v>0.00000000000000685089790095512</v>
+        <v>0.000000000000000000000000098437879830168</v>
       </c>
     </row>
     <row r="289">
@@ -14144,7 +14144,7 @@
         <v>15</v>
       </c>
       <c r="O289" t="n">
-        <v>2.91322783851527e-211</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000116588783756307</v>
       </c>
     </row>
     <row r="290">
@@ -14191,7 +14191,7 @@
         <v>15</v>
       </c>
       <c r="O290" t="n">
-        <v>0.0000000000000000000000000000000000000406320386720571</v>
+        <v>0.0000000000000000000000000000000647612429376324</v>
       </c>
     </row>
     <row r="291">
@@ -14238,7 +14238,7 @@
         <v>15</v>
       </c>
       <c r="O291" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000358294583854944</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000226726140524076</v>
       </c>
     </row>
     <row r="292">
@@ -14426,7 +14426,7 @@
         <v>15</v>
       </c>
       <c r="O295" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000327825795718025</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000334566327310713</v>
       </c>
     </row>
     <row r="296">
@@ -14520,7 +14520,7 @@
         <v>15</v>
       </c>
       <c r="O297" t="n">
-        <v>1.30004262477843e-270</v>
+        <v>1.55694509112946e-274</v>
       </c>
     </row>
     <row r="298">
@@ -14614,7 +14614,7 @@
         <v>15</v>
       </c>
       <c r="O299" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
       </c>
     </row>
     <row r="300">
@@ -14661,7 +14661,7 @@
         <v>15</v>
       </c>
       <c r="O300" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000928293854883343</v>
+        <v>0.0000000000000000000000000000000000000000000822006274936853</v>
       </c>
     </row>
     <row r="301">
@@ -14755,7 +14755,7 @@
         <v>15</v>
       </c>
       <c r="O302" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000327669403409256</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000122703897708059</v>
       </c>
     </row>
     <row r="303">
@@ -14802,7 +14802,7 @@
         <v>15</v>
       </c>
       <c r="O303" t="n">
-        <v>0.00000000000000685089790095512</v>
+        <v>0.000000000000000000000000098437879830168</v>
       </c>
     </row>
     <row r="304">
@@ -14896,7 +14896,7 @@
         <v>15</v>
       </c>
       <c r="O305" t="n">
-        <v>9.45460007847345e-255</v>
+        <v>4.81388823256743e-263</v>
       </c>
     </row>
     <row r="306">
@@ -15037,7 +15037,7 @@
         <v>15</v>
       </c>
       <c r="O308" t="n">
-        <v>5.29730921112152e-285</v>
+        <v>5.66000186022323e-287</v>
       </c>
     </row>
     <row r="309">
@@ -15178,7 +15178,7 @@
         <v>15</v>
       </c>
       <c r="O311" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126375827505628</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000898471431905002</v>
       </c>
     </row>
     <row r="312">
@@ -15319,7 +15319,7 @@
         <v>15</v>
       </c>
       <c r="O314" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000341033336264738</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000636656454090751</v>
       </c>
     </row>
     <row r="315">
@@ -15366,7 +15366,7 @@
         <v>15</v>
       </c>
       <c r="O315" t="n">
-        <v>1.17834006009909e-282</v>
+        <v>1.09664862497569e-280</v>
       </c>
     </row>
     <row r="316">
@@ -15413,7 +15413,7 @@
         <v>15</v>
       </c>
       <c r="O316" t="n">
-        <v>2.88162511047442e-215</v>
+        <v>2.88724751812778e-209</v>
       </c>
     </row>
     <row r="317">
@@ -15460,7 +15460,7 @@
         <v>15</v>
       </c>
       <c r="O317" t="n">
-        <v>1.11510696784176e-221</v>
+        <v>2.04096275119464e-224</v>
       </c>
     </row>
     <row r="318">
@@ -15695,7 +15695,7 @@
         <v>15</v>
       </c>
       <c r="O322" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000220166864631759</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000673770942818835</v>
       </c>
     </row>
     <row r="323">
@@ -15742,7 +15742,7 @@
         <v>15</v>
       </c>
       <c r="O323" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
       </c>
     </row>
     <row r="324">
@@ -15789,7 +15789,7 @@
         <v>15</v>
       </c>
       <c r="O324" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000795489214372718</v>
+        <v>0.00000000000000000000000000000000000000000241516261606178</v>
       </c>
     </row>
     <row r="325">
@@ -15836,7 +15836,7 @@
         <v>15</v>
       </c>
       <c r="O325" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136434296005678</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000431310345149332</v>
       </c>
     </row>
     <row r="326">
@@ -15883,7 +15883,7 @@
         <v>15</v>
       </c>
       <c r="O326" t="n">
-        <v>1.11510696784176e-221</v>
+        <v>2.04096275119464e-224</v>
       </c>
     </row>
     <row r="327">
@@ -16024,7 +16024,7 @@
         <v>15</v>
       </c>
       <c r="O329" t="n">
-        <v>1.19129670568056e-221</v>
+        <v>3.21583620212478e-220</v>
       </c>
     </row>
     <row r="330">
@@ -16212,7 +16212,7 @@
         <v>15</v>
       </c>
       <c r="O333" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000024388495761214</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141029983243652</v>
       </c>
     </row>
     <row r="334">
@@ -16259,7 +16259,7 @@
         <v>15</v>
       </c>
       <c r="O334" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000049418918226473</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187235311246323</v>
       </c>
     </row>
     <row r="335">
@@ -16306,7 +16306,7 @@
         <v>15</v>
       </c>
       <c r="O335" t="n">
-        <v>5.8258691935903e-299</v>
+        <v>4.18731503987562e-289</v>
       </c>
     </row>
     <row r="336">
@@ -16353,7 +16353,7 @@
         <v>15</v>
       </c>
       <c r="O336" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000545476911285838</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000151441904202963</v>
       </c>
     </row>
     <row r="337">
@@ -16447,7 +16447,7 @@
         <v>15</v>
       </c>
       <c r="O338" t="n">
-        <v>0</v>
+        <v>3.22373334824854e-304</v>
       </c>
     </row>
     <row r="339">
@@ -16494,7 +16494,7 @@
         <v>15</v>
       </c>
       <c r="O339" t="n">
-        <v>0.00000000000000000000000920708915730383</v>
+        <v>0.00000000000000000000000000000814794009576301</v>
       </c>
     </row>
     <row r="340">
@@ -16541,7 +16541,7 @@
         <v>15</v>
       </c>
       <c r="O340" t="n">
-        <v>1.41411004058976e-288</v>
+        <v>5.95102749981025e-291</v>
       </c>
     </row>
     <row r="341">
@@ -16588,7 +16588,7 @@
         <v>16</v>
       </c>
       <c r="O341" t="n">
-        <v>0.139916977214078</v>
+        <v>0.999940860133762</v>
       </c>
     </row>
     <row r="342">
@@ -16682,7 +16682,7 @@
         <v>15</v>
       </c>
       <c r="O343" t="n">
-        <v>0.00000000000000000000000000000000000000000000000559824813097614</v>
+        <v>0.000000000000000000000000000000000000153673937456931</v>
       </c>
     </row>
     <row r="344">
@@ -16776,7 +16776,7 @@
         <v>15</v>
       </c>
       <c r="O345" t="n">
-        <v>3.82427870756558e-221</v>
+        <v>6.37665430987106e-221</v>
       </c>
     </row>
     <row r="346">
@@ -16870,7 +16870,7 @@
         <v>15</v>
       </c>
       <c r="O347" t="n">
-        <v>0</v>
+        <v>1.84268958210803e-287</v>
       </c>
     </row>
     <row r="348">
@@ -17152,7 +17152,7 @@
         <v>15</v>
       </c>
       <c r="O353" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000024131627319969</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000420514189631743</v>
       </c>
     </row>
     <row r="354">
@@ -17199,7 +17199,7 @@
         <v>15</v>
       </c>
       <c r="O354" t="n">
-        <v>0.0000762893543233504</v>
+        <v>0.0000000000265535889273659</v>
       </c>
     </row>
     <row r="355">
@@ -17246,7 +17246,7 @@
         <v>15</v>
       </c>
       <c r="O355" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
       </c>
     </row>
     <row r="356">
@@ -17575,7 +17575,7 @@
         <v>15</v>
       </c>
       <c r="O362" t="n">
-        <v>2.24755209258846e-258</v>
+        <v>1.08647499374317e-261</v>
       </c>
     </row>
     <row r="363">
@@ -17622,7 +17622,7 @@
         <v>15</v>
       </c>
       <c r="O363" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000480871469647563</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000165129121294511</v>
       </c>
     </row>
     <row r="364">
@@ -17763,7 +17763,7 @@
         <v>15</v>
       </c>
       <c r="O366" t="n">
-        <v>1.83553896651506e-300</v>
+        <v>9.62784047820684e-296</v>
       </c>
     </row>
     <row r="367">
@@ -17857,7 +17857,7 @@
         <v>15</v>
       </c>
       <c r="O368" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000289009384379053</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000943982374985718</v>
       </c>
     </row>
     <row r="369">
@@ -17904,7 +17904,7 @@
         <v>16</v>
       </c>
       <c r="O369" t="n">
-        <v>0.711159137137071</v>
+        <v>0.999998492852539</v>
       </c>
     </row>
     <row r="370">
@@ -17998,7 +17998,7 @@
         <v>15</v>
       </c>
       <c r="O371" t="n">
-        <v>0</v>
+        <v>3.36702944435353e-292</v>
       </c>
     </row>
     <row r="372">
@@ -18045,7 +18045,7 @@
         <v>15</v>
       </c>
       <c r="O372" t="n">
-        <v>2.9730718738205e-252</v>
+        <v>1.01367815763967e-240</v>
       </c>
     </row>
     <row r="373">
@@ -18139,7 +18139,7 @@
         <v>15</v>
       </c>
       <c r="O374" t="n">
-        <v>3.64995088618459e-250</v>
+        <v>1.29167994476093e-248</v>
       </c>
     </row>
     <row r="375">
@@ -18280,7 +18280,7 @@
         <v>15</v>
       </c>
       <c r="O377" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000431770178823633</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000204701020990435</v>
       </c>
     </row>
     <row r="378">
@@ -18562,7 +18562,7 @@
         <v>15</v>
       </c>
       <c r="O383" t="n">
-        <v>6.20778816412467e-214</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000209271356747154</v>
       </c>
     </row>
     <row r="384">
@@ -18609,7 +18609,7 @@
         <v>15</v>
       </c>
       <c r="O384" t="n">
-        <v>0.00000000121814948666195</v>
+        <v>0.0000000124507109176194</v>
       </c>
     </row>
     <row r="385">
@@ -18844,7 +18844,7 @@
         <v>15</v>
       </c>
       <c r="O389" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
+        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
       </c>
     </row>
     <row r="390">
@@ -18891,7 +18891,7 @@
         <v>15</v>
       </c>
       <c r="O390" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000883820153454347</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000138759695725445</v>
       </c>
     </row>
     <row r="391">
@@ -18985,7 +18985,7 @@
         <v>15</v>
       </c>
       <c r="O392" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
+        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
       </c>
     </row>
     <row r="393">
@@ -19079,7 +19079,7 @@
         <v>15</v>
       </c>
       <c r="O394" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141394407124955</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132333419159081</v>
       </c>
     </row>
     <row r="395">
@@ -19126,7 +19126,7 @@
         <v>15</v>
       </c>
       <c r="O395" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000786939234885684</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000954238933258724</v>
       </c>
     </row>
     <row r="396">
@@ -19173,7 +19173,7 @@
         <v>15</v>
       </c>
       <c r="O396" t="n">
-        <v>0.0000000232010961759113</v>
+        <v>0.0000000194173425803974</v>
       </c>
     </row>
     <row r="397">
@@ -19314,7 +19314,7 @@
         <v>15</v>
       </c>
       <c r="O399" t="n">
-        <v>2.88162511047442e-215</v>
+        <v>2.88724751812778e-209</v>
       </c>
     </row>
     <row r="400">
@@ -19455,7 +19455,7 @@
         <v>15</v>
       </c>
       <c r="O402" t="n">
-        <v>0.000468120878786558</v>
+        <v>0.0000000000314928487891296</v>
       </c>
     </row>
     <row r="403">
@@ -19502,7 +19502,7 @@
         <v>15</v>
       </c>
       <c r="O403" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
       </c>
     </row>
     <row r="404">
@@ -19549,7 +19549,7 @@
         <v>15</v>
       </c>
       <c r="O404" t="n">
-        <v>1.64936325931346e-287</v>
+        <v>2.94942265777797e-284</v>
       </c>
     </row>
     <row r="405">
@@ -19596,7 +19596,7 @@
         <v>16</v>
       </c>
       <c r="O405" t="n">
-        <v>1</v>
+        <v>0.999999999997513</v>
       </c>
     </row>
     <row r="406">
@@ -19784,7 +19784,7 @@
         <v>15</v>
       </c>
       <c r="O409" t="n">
-        <v>0.000000000000000000000000595176655703315</v>
+        <v>0.00000000000000000109277952835641</v>
       </c>
     </row>
     <row r="410">
@@ -19878,7 +19878,7 @@
         <v>15</v>
       </c>
       <c r="O411" t="n">
-        <v>1.10163262332848e-282</v>
+        <v>5.02527690347205e-274</v>
       </c>
     </row>
     <row r="412">
@@ -19925,7 +19925,7 @@
         <v>15</v>
       </c>
       <c r="O412" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000601100260616396</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000033691227460008</v>
       </c>
     </row>
     <row r="413">
@@ -20113,7 +20113,7 @@
         <v>15</v>
       </c>
       <c r="O416" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000654425612462139</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000843794753994223</v>
       </c>
     </row>
     <row r="417">
@@ -20160,7 +20160,7 @@
         <v>15</v>
       </c>
       <c r="O417" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
       </c>
     </row>
     <row r="418">
@@ -20207,7 +20207,7 @@
         <v>15</v>
       </c>
       <c r="O418" t="n">
-        <v>0.0000762893543233504</v>
+        <v>0.0000000000265535889273659</v>
       </c>
     </row>
     <row r="419">
@@ -20348,7 +20348,7 @@
         <v>15</v>
       </c>
       <c r="O421" t="n">
-        <v>1.5802235268324e-226</v>
+        <v>7.696783518248e-217</v>
       </c>
     </row>
     <row r="422">
@@ -20395,7 +20395,7 @@
         <v>15</v>
       </c>
       <c r="O422" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
       </c>
     </row>
     <row r="423">
@@ -20442,7 +20442,7 @@
         <v>15</v>
       </c>
       <c r="O423" t="n">
-        <v>6.58287896913865e-250</v>
+        <v>1.27482066577915e-239</v>
       </c>
     </row>
     <row r="424">
@@ -20536,7 +20536,7 @@
         <v>15</v>
       </c>
       <c r="O425" t="n">
-        <v>3.98652290650523e-259</v>
+        <v>5.76662978088407e-266</v>
       </c>
     </row>
     <row r="426">
@@ -20583,7 +20583,7 @@
         <v>15</v>
       </c>
       <c r="O426" t="n">
-        <v>0.000510338821841385</v>
+        <v>0.00138986546134693</v>
       </c>
     </row>
     <row r="427">
@@ -20630,7 +20630,7 @@
         <v>15</v>
       </c>
       <c r="O427" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
       </c>
     </row>
     <row r="428">
@@ -20912,7 +20912,7 @@
         <v>15</v>
       </c>
       <c r="O433" t="n">
-        <v>1.62966813735174e-292</v>
+        <v>1.13141368368132e-293</v>
       </c>
     </row>
     <row r="434">
@@ -20959,7 +20959,7 @@
         <v>15</v>
       </c>
       <c r="O434" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000621306638181907</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
       </c>
     </row>
     <row r="435">
@@ -21100,7 +21100,7 @@
         <v>15</v>
       </c>
       <c r="O437" t="n">
-        <v>0.0000000251201631692621</v>
+        <v>0.00000000000000256517541037383</v>
       </c>
     </row>
     <row r="438">
@@ -21194,7 +21194,7 @@
         <v>15</v>
       </c>
       <c r="O439" t="n">
-        <v>4.77492131214901e-226</v>
+        <v>6.6243070294469e-224</v>
       </c>
     </row>
     <row r="440">
@@ -21241,7 +21241,7 @@
         <v>15</v>
       </c>
       <c r="O440" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000495696853024476</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000479205943587705</v>
       </c>
     </row>
     <row r="441">
@@ -21288,7 +21288,7 @@
         <v>15</v>
       </c>
       <c r="O441" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000130495709814959</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000252505839245111</v>
       </c>
     </row>
     <row r="442">
@@ -21335,7 +21335,7 @@
         <v>15</v>
       </c>
       <c r="O442" t="n">
-        <v>1.16409806788357e-260</v>
+        <v>1.48409804482405e-268</v>
       </c>
     </row>
     <row r="443">
@@ -21382,7 +21382,7 @@
         <v>15</v>
       </c>
       <c r="O443" t="n">
-        <v>6.58287896913865e-250</v>
+        <v>1.27482066577915e-239</v>
       </c>
     </row>
     <row r="444">
@@ -21429,7 +21429,7 @@
         <v>15</v>
       </c>
       <c r="O444" t="n">
-        <v>0.000000000000000000000000527881371436132</v>
+        <v>0.0000000000000493127208925284</v>
       </c>
     </row>
     <row r="445">
@@ -21523,7 +21523,7 @@
         <v>15</v>
       </c>
       <c r="O446" t="n">
-        <v>1.19129670568056e-221</v>
+        <v>3.21583620212478e-220</v>
       </c>
     </row>
     <row r="447">
@@ -21758,7 +21758,7 @@
         <v>15</v>
       </c>
       <c r="O451" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000928293854883343</v>
+        <v>0.0000000000000000000000000000000000000000000822006274936853</v>
       </c>
     </row>
     <row r="452">
@@ -21805,7 +21805,7 @@
         <v>15</v>
       </c>
       <c r="O452" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000318740829843682</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
       </c>
     </row>
     <row r="453">
@@ -21899,7 +21899,7 @@
         <v>15</v>
       </c>
       <c r="O454" t="n">
-        <v>0.000000000000000000000000595176655703315</v>
+        <v>0.00000000000000000109277952835641</v>
       </c>
     </row>
     <row r="455">
@@ -22463,7 +22463,7 @@
         <v>15</v>
       </c>
       <c r="O466" t="n">
-        <v>3.64995088618459e-250</v>
+        <v>1.29167994476093e-248</v>
       </c>
     </row>
     <row r="467">
@@ -22510,7 +22510,7 @@
         <v>15</v>
       </c>
       <c r="O467" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000360937502583892</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000124425692059952</v>
       </c>
     </row>
     <row r="468">
@@ -22557,7 +22557,7 @@
         <v>15</v>
       </c>
       <c r="O468" t="n">
-        <v>1.83553896651506e-300</v>
+        <v>9.62784047820684e-296</v>
       </c>
     </row>
     <row r="469">
@@ -22651,7 +22651,7 @@
         <v>15</v>
       </c>
       <c r="O470" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000407682150785815</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152709531312874</v>
       </c>
     </row>
     <row r="471">
@@ -22745,7 +22745,7 @@
         <v>15</v>
       </c>
       <c r="O472" t="n">
-        <v>1.53825317005843e-286</v>
+        <v>3.53549979169009e-272</v>
       </c>
     </row>
     <row r="473">
@@ -22792,7 +22792,7 @@
         <v>15</v>
       </c>
       <c r="O473" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000210650057558552</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000663630208357298</v>
       </c>
     </row>
     <row r="474">
@@ -22886,7 +22886,7 @@
         <v>15</v>
       </c>
       <c r="O475" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000324440298383877</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000377577265312765</v>
       </c>
     </row>
     <row r="476">
@@ -22980,7 +22980,7 @@
         <v>15</v>
       </c>
       <c r="O477" t="n">
-        <v>0.000510338821841385</v>
+        <v>0.00138986546134693</v>
       </c>
     </row>
     <row r="478">
@@ -23121,7 +23121,7 @@
         <v>15</v>
       </c>
       <c r="O480" t="n">
-        <v>1.10163262332848e-282</v>
+        <v>5.02527690347205e-274</v>
       </c>
     </row>
     <row r="481">
@@ -23215,7 +23215,7 @@
         <v>15</v>
       </c>
       <c r="O482" t="n">
-        <v>1.15709106303013e-306</v>
+        <v>2.14139725181959e-298</v>
       </c>
     </row>
     <row r="483">
@@ -23262,7 +23262,7 @@
         <v>15</v>
       </c>
       <c r="O483" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000839005279352281</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000162920781409946</v>
       </c>
     </row>
     <row r="484">
@@ -23403,7 +23403,7 @@
         <v>15</v>
       </c>
       <c r="O486" t="n">
-        <v>0.00000000000000685089790095512</v>
+        <v>0.000000000000000000000000098437879830168</v>
       </c>
     </row>
     <row r="487">
@@ -23450,7 +23450,7 @@
         <v>15</v>
       </c>
       <c r="O487" t="n">
-        <v>0</v>
+        <v>1.90123085134475e-301</v>
       </c>
     </row>
     <row r="488">
@@ -23497,7 +23497,7 @@
         <v>15</v>
       </c>
       <c r="O488" t="n">
-        <v>0</v>
+        <v>1.84268958210803e-287</v>
       </c>
     </row>
     <row r="489">
@@ -23591,7 +23591,7 @@
         <v>15</v>
       </c>
       <c r="O490" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000210650057558552</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000663630208357298</v>
       </c>
     </row>
     <row r="491">
@@ -23685,7 +23685,7 @@
         <v>15</v>
       </c>
       <c r="O492" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000340942540356713</v>
+        <v>6.51289150245926e-208</v>
       </c>
     </row>
     <row r="493">
@@ -23826,7 +23826,7 @@
         <v>15</v>
       </c>
       <c r="O495" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000161695655939042</v>
+        <v>0.000000000000000000000000000000000000000447341069171378</v>
       </c>
     </row>
     <row r="496">
@@ -23873,7 +23873,7 @@
         <v>16</v>
       </c>
       <c r="O496" t="n">
-        <v>1</v>
+        <v>0.999999999997513</v>
       </c>
     </row>
     <row r="497">
@@ -24155,7 +24155,7 @@
         <v>15</v>
       </c>
       <c r="O502" t="n">
-        <v>2.94835614165432e-264</v>
+        <v>3.73558355753621e-266</v>
       </c>
     </row>
     <row r="503">
@@ -24249,7 +24249,7 @@
         <v>15</v>
       </c>
       <c r="O504" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127960158682187</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000159325839583198</v>
       </c>
     </row>
     <row r="505">
@@ -24343,7 +24343,7 @@
         <v>15</v>
       </c>
       <c r="O506" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000188456987594294</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000274344309278149</v>
       </c>
     </row>
     <row r="507">
@@ -24390,7 +24390,7 @@
         <v>15</v>
       </c>
       <c r="O507" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
       </c>
     </row>
     <row r="508">
@@ -24484,7 +24484,7 @@
         <v>15</v>
       </c>
       <c r="O509" t="n">
-        <v>9.45460007847345e-255</v>
+        <v>4.81388823256743e-263</v>
       </c>
     </row>
     <row r="510">
@@ -24578,7 +24578,7 @@
         <v>15</v>
       </c>
       <c r="O511" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
       </c>
     </row>
     <row r="512">
@@ -24625,7 +24625,7 @@
         <v>15</v>
       </c>
       <c r="O512" t="n">
-        <v>1.33083937448753e-232</v>
+        <v>1.24475812684072e-237</v>
       </c>
     </row>
     <row r="513">
@@ -24954,7 +24954,7 @@
         <v>15</v>
       </c>
       <c r="O519" t="n">
-        <v>3.64995088618459e-250</v>
+        <v>1.29167994476093e-248</v>
       </c>
     </row>
     <row r="520">
@@ -25048,7 +25048,7 @@
         <v>15</v>
       </c>
       <c r="O521" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000305246625895026</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000230484223474185</v>
       </c>
     </row>
     <row r="522">
@@ -25565,7 +25565,7 @@
         <v>15</v>
       </c>
       <c r="O532" t="n">
-        <v>3.82427870756558e-221</v>
+        <v>6.37665430987106e-221</v>
       </c>
     </row>
     <row r="533">
@@ -25753,7 +25753,7 @@
         <v>16</v>
       </c>
       <c r="O536" t="n">
-        <v>1</v>
+        <v>0.999999999997513</v>
       </c>
     </row>
     <row r="537">
@@ -25800,7 +25800,7 @@
         <v>15</v>
       </c>
       <c r="O537" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
       </c>
     </row>
     <row r="538">
@@ -25847,7 +25847,7 @@
         <v>15</v>
       </c>
       <c r="O538" t="n">
-        <v>4.32524085201344e-240</v>
+        <v>1.66149591140725e-229</v>
       </c>
     </row>
     <row r="539">
@@ -25988,7 +25988,7 @@
         <v>15</v>
       </c>
       <c r="O541" t="n">
-        <v>0.000000000000000000000000000000000000000000277907557254392</v>
+        <v>0.000000000000000000000000000000000000000025289001185318</v>
       </c>
     </row>
     <row r="542">
@@ -26082,7 +26082,7 @@
         <v>15</v>
       </c>
       <c r="O543" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000147600782664717</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000124103031316252</v>
       </c>
     </row>
     <row r="544">
@@ -26176,7 +26176,7 @@
         <v>15</v>
       </c>
       <c r="O545" t="n">
-        <v>0.000510338821841385</v>
+        <v>0.00138986546134693</v>
       </c>
     </row>
     <row r="546">
@@ -26317,7 +26317,7 @@
         <v>15</v>
       </c>
       <c r="O548" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
       </c>
     </row>
     <row r="549">
@@ -26411,7 +26411,7 @@
         <v>15</v>
       </c>
       <c r="O550" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000685037674220464</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000150110931863441</v>
       </c>
     </row>
     <row r="551">
@@ -26458,7 +26458,7 @@
         <v>15</v>
       </c>
       <c r="O551" t="n">
-        <v>4.54061500144398e-238</v>
+        <v>2.66070580586769e-210</v>
       </c>
     </row>
     <row r="552">
@@ -26505,7 +26505,7 @@
         <v>16</v>
       </c>
       <c r="O552" t="n">
-        <v>0.999999999999817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -26552,7 +26552,7 @@
         <v>15</v>
       </c>
       <c r="O553" t="n">
-        <v>3.67999169395394e-257</v>
+        <v>2.72229380059232e-249</v>
       </c>
     </row>
     <row r="554">
@@ -26599,7 +26599,7 @@
         <v>15</v>
       </c>
       <c r="O554" t="n">
-        <v>2.91322783851527e-211</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000116588783756307</v>
       </c>
     </row>
     <row r="555">
@@ -26740,7 +26740,7 @@
         <v>15</v>
       </c>
       <c r="O557" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141394407124955</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132333419159081</v>
       </c>
     </row>
     <row r="558">
@@ -26928,7 +26928,7 @@
         <v>15</v>
       </c>
       <c r="O561" t="n">
-        <v>0.0000000000000000000000000000178161366065389</v>
+        <v>0.0000000000000210581648407418</v>
       </c>
     </row>
     <row r="562">
@@ -26975,7 +26975,7 @@
         <v>16</v>
       </c>
       <c r="O562" t="n">
-        <v>0.711159137137071</v>
+        <v>0.999998492852539</v>
       </c>
     </row>
     <row r="563">
@@ -27022,7 +27022,7 @@
         <v>16</v>
       </c>
       <c r="O563" t="n">
-        <v>0.999999999933535</v>
+        <v>0.999999999808812</v>
       </c>
     </row>
     <row r="564">
@@ -27069,7 +27069,7 @@
         <v>15</v>
       </c>
       <c r="O564" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000362899613027316</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000039306605848703</v>
       </c>
     </row>
     <row r="565">
@@ -27116,7 +27116,7 @@
         <v>15</v>
       </c>
       <c r="O565" t="n">
-        <v>9.72792200328287e-237</v>
+        <v>1.37157317377098e-220</v>
       </c>
     </row>
     <row r="566">
@@ -27163,7 +27163,7 @@
         <v>15</v>
       </c>
       <c r="O566" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
+        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
       </c>
     </row>
     <row r="567">
@@ -27210,7 +27210,7 @@
         <v>15</v>
       </c>
       <c r="O567" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
       </c>
     </row>
     <row r="568">
@@ -27351,7 +27351,7 @@
         <v>15</v>
       </c>
       <c r="O570" t="n">
-        <v>1.83553896651506e-300</v>
+        <v>9.62784047820684e-296</v>
       </c>
     </row>
     <row r="571">
@@ -27398,7 +27398,7 @@
         <v>15</v>
       </c>
       <c r="O571" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000284214878038373</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000031810178987996</v>
       </c>
     </row>
     <row r="572">
@@ -27445,7 +27445,7 @@
         <v>15</v>
       </c>
       <c r="O572" t="n">
-        <v>9.45460007847345e-255</v>
+        <v>4.81388823256743e-263</v>
       </c>
     </row>
     <row r="573">
@@ -27633,7 +27633,7 @@
         <v>15</v>
       </c>
       <c r="O576" t="n">
-        <v>1.53825317005843e-286</v>
+        <v>3.53549979169009e-272</v>
       </c>
     </row>
     <row r="577">
@@ -27680,7 +27680,7 @@
         <v>15</v>
       </c>
       <c r="O577" t="n">
-        <v>0.000000000000000000000000000000000000000000000000269466567243685</v>
+        <v>0.0000000000000000000000000894677823194504</v>
       </c>
     </row>
     <row r="578">
@@ -27868,7 +27868,7 @@
         <v>15</v>
       </c>
       <c r="O581" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
       </c>
     </row>
     <row r="582">
@@ -27915,7 +27915,7 @@
         <v>15</v>
       </c>
       <c r="O582" t="n">
-        <v>0.0000000000000000000000000000000000000205618634333947</v>
+        <v>0.0000000000000000000000000000000000000000430768161652566</v>
       </c>
     </row>
     <row r="583">
@@ -28150,7 +28150,7 @@
         <v>15</v>
       </c>
       <c r="O587" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000865748141446615</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
       </c>
     </row>
     <row r="588">
@@ -28197,7 +28197,7 @@
         <v>15</v>
       </c>
       <c r="O588" t="n">
-        <v>1.83553896651506e-300</v>
+        <v>9.62784047820684e-296</v>
       </c>
     </row>
     <row r="589">
@@ -28291,7 +28291,7 @@
         <v>15</v>
       </c>
       <c r="O590" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132811394831142</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000916301606330079</v>
       </c>
     </row>
     <row r="591">
@@ -28338,7 +28338,7 @@
         <v>15</v>
       </c>
       <c r="O591" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000236871889010208</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
       </c>
     </row>
     <row r="592">
@@ -28385,7 +28385,7 @@
         <v>15</v>
       </c>
       <c r="O592" t="n">
-        <v>0.00000000000000685089790095512</v>
+        <v>0.000000000000000000000000098437879830168</v>
       </c>
     </row>
     <row r="593">
@@ -28432,7 +28432,7 @@
         <v>15</v>
       </c>
       <c r="O593" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000353189043284728</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000403432915009468</v>
       </c>
     </row>
     <row r="594">
@@ -28526,7 +28526,7 @@
         <v>15</v>
       </c>
       <c r="O595" t="n">
-        <v>0.00000000000000000000000000000000000000000000447696991948465</v>
+        <v>0.000000000000000000000000000000000381958036217202</v>
       </c>
     </row>
     <row r="596">
@@ -28620,7 +28620,7 @@
         <v>15</v>
       </c>
       <c r="O597" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
       </c>
     </row>
     <row r="598">
@@ -28714,7 +28714,7 @@
         <v>15</v>
       </c>
       <c r="O599" t="n">
-        <v>3.02322136652926e-244</v>
+        <v>5.7734552186158e-236</v>
       </c>
     </row>
     <row r="600">
@@ -28761,7 +28761,7 @@
         <v>15</v>
       </c>
       <c r="O600" t="n">
-        <v>9.45460007847345e-255</v>
+        <v>4.81388823256743e-263</v>
       </c>
     </row>
     <row r="601">
@@ -28949,7 +28949,7 @@
         <v>15</v>
       </c>
       <c r="O604" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000252764205079229</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000332949427612924</v>
       </c>
     </row>
     <row r="605">
@@ -29043,7 +29043,7 @@
         <v>15</v>
       </c>
       <c r="O606" t="n">
-        <v>3.06797713353109e-286</v>
+        <v>6.45573834080994e-283</v>
       </c>
     </row>
     <row r="607">
@@ -29137,7 +29137,7 @@
         <v>15</v>
       </c>
       <c r="O608" t="n">
-        <v>7.85489222644051e-285</v>
+        <v>1.14884494028317e-278</v>
       </c>
     </row>
     <row r="609">
@@ -29231,7 +29231,7 @@
         <v>15</v>
       </c>
       <c r="O610" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000839005279352281</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000162920781409946</v>
       </c>
     </row>
     <row r="611">
@@ -29325,7 +29325,7 @@
         <v>15</v>
       </c>
       <c r="O612" t="n">
-        <v>6.58287896913865e-250</v>
+        <v>1.27482066577915e-239</v>
       </c>
     </row>
     <row r="613">
@@ -29419,7 +29419,7 @@
         <v>15</v>
       </c>
       <c r="O614" t="n">
-        <v>0.000000000000000000000000000000000000000000000000269466567243685</v>
+        <v>0.0000000000000000000000000894677823194504</v>
       </c>
     </row>
     <row r="615">
@@ -29560,7 +29560,7 @@
         <v>15</v>
       </c>
       <c r="O617" t="n">
-        <v>2.09681798513306e-231</v>
+        <v>4.76582263659421e-221</v>
       </c>
     </row>
     <row r="618">
@@ -29701,7 +29701,7 @@
         <v>15</v>
       </c>
       <c r="O620" t="n">
-        <v>6.58287896913865e-250</v>
+        <v>1.27482066577915e-239</v>
       </c>
     </row>
     <row r="621">
@@ -29795,7 +29795,7 @@
         <v>15</v>
       </c>
       <c r="O622" t="n">
-        <v>9.72792200328287e-237</v>
+        <v>1.37157317377098e-220</v>
       </c>
     </row>
     <row r="623">
@@ -29842,7 +29842,7 @@
         <v>15</v>
       </c>
       <c r="O623" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000689199972421805</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000243407091352693</v>
       </c>
     </row>
     <row r="624">
@@ -29889,7 +29889,7 @@
         <v>15</v>
       </c>
       <c r="O624" t="n">
-        <v>0.0000000251201631692621</v>
+        <v>0.00000000000000256517541037383</v>
       </c>
     </row>
     <row r="625">
@@ -30171,7 +30171,7 @@
         <v>15</v>
       </c>
       <c r="O630" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000306472246895654</v>
+        <v>6.63745696178728e-210</v>
       </c>
     </row>
     <row r="631">
@@ -30265,7 +30265,7 @@
         <v>15</v>
       </c>
       <c r="O632" t="n">
-        <v>1.16409806788357e-260</v>
+        <v>1.48409804482405e-268</v>
       </c>
     </row>
     <row r="633">
@@ -30359,7 +30359,7 @@
         <v>15</v>
       </c>
       <c r="O634" t="n">
-        <v>0.0000000251201631692621</v>
+        <v>0.00000000000000256517541037383</v>
       </c>
     </row>
     <row r="635">
@@ -30406,7 +30406,7 @@
         <v>15</v>
       </c>
       <c r="O635" t="n">
-        <v>3.67999169395394e-257</v>
+        <v>2.72229380059232e-249</v>
       </c>
     </row>
     <row r="636">
@@ -30641,7 +30641,7 @@
         <v>15</v>
       </c>
       <c r="O640" t="n">
-        <v>3.14994192771905e-223</v>
+        <v>3.99284652606079e-215</v>
       </c>
     </row>
     <row r="641">
@@ -30735,7 +30735,7 @@
         <v>15</v>
       </c>
       <c r="O642" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000231595414404586</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000113584482126276</v>
       </c>
     </row>
     <row r="643">
@@ -30782,7 +30782,7 @@
         <v>15</v>
       </c>
       <c r="O643" t="n">
-        <v>1.44131019286984e-279</v>
+        <v>4.50625537539992e-271</v>
       </c>
     </row>
     <row r="644">
@@ -30876,7 +30876,7 @@
         <v>16</v>
       </c>
       <c r="O645" t="n">
-        <v>0.999999999697126</v>
+        <v>0.999999990656718</v>
       </c>
     </row>
     <row r="646">
@@ -30970,7 +30970,7 @@
         <v>15</v>
       </c>
       <c r="O647" t="n">
-        <v>1.11510696784176e-221</v>
+        <v>2.04096275119464e-224</v>
       </c>
     </row>
     <row r="648">
@@ -31064,7 +31064,7 @@
         <v>15</v>
       </c>
       <c r="O649" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000128634420325735</v>
+        <v>0.00000000000000000000000000000000000000000094756106041651</v>
       </c>
     </row>
     <row r="650">
@@ -31111,7 +31111,7 @@
         <v>15</v>
       </c>
       <c r="O650" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199460091776832</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
       </c>
     </row>
     <row r="651">
@@ -31158,7 +31158,7 @@
         <v>16</v>
       </c>
       <c r="O651" t="n">
-        <v>0.999999999999768</v>
+        <v>0.974498868683362</v>
       </c>
     </row>
     <row r="652">
@@ -31205,7 +31205,7 @@
         <v>15</v>
       </c>
       <c r="O652" t="n">
-        <v>3.64995088618459e-250</v>
+        <v>1.29167994476093e-248</v>
       </c>
     </row>
     <row r="653">
@@ -31252,7 +31252,7 @@
         <v>15</v>
       </c>
       <c r="O653" t="n">
-        <v>1.11510696784176e-221</v>
+        <v>2.04096275119464e-224</v>
       </c>
     </row>
     <row r="654">
@@ -31299,7 +31299,7 @@
         <v>15</v>
       </c>
       <c r="O654" t="n">
-        <v>5.44150500449539e-288</v>
+        <v>4.54825242364679e-294</v>
       </c>
     </row>
     <row r="655">
@@ -31440,7 +31440,7 @@
         <v>15</v>
       </c>
       <c r="O657" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000220166864631759</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000673770942818835</v>
       </c>
     </row>
     <row r="658">
@@ -31581,7 +31581,7 @@
         <v>15</v>
       </c>
       <c r="O660" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000605973978165077</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000412510748653623</v>
       </c>
     </row>
     <row r="661">
@@ -31628,7 +31628,7 @@
         <v>16</v>
       </c>
       <c r="O661" t="n">
-        <v>0.999999999999817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -31769,7 +31769,7 @@
         <v>15</v>
       </c>
       <c r="O664" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
+        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
       </c>
     </row>
     <row r="665">
@@ -31816,7 +31816,7 @@
         <v>15</v>
       </c>
       <c r="O665" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240734446161635</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
       </c>
     </row>
     <row r="666">
@@ -31863,7 +31863,7 @@
         <v>15</v>
       </c>
       <c r="O666" t="n">
-        <v>1.16409806788357e-260</v>
+        <v>1.48409804482405e-268</v>
       </c>
     </row>
     <row r="667">
@@ -31910,7 +31910,7 @@
         <v>15</v>
       </c>
       <c r="O667" t="n">
-        <v>0.00000000000000000000000920708915730383</v>
+        <v>0.00000000000000000000000000000814794009576301</v>
       </c>
     </row>
     <row r="668">
@@ -31957,7 +31957,7 @@
         <v>15</v>
       </c>
       <c r="O668" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133783639999173</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512076214926673</v>
       </c>
     </row>
     <row r="669">
@@ -32051,7 +32051,7 @@
         <v>15</v>
       </c>
       <c r="O670" t="n">
-        <v>2.51438513722244e-222</v>
+        <v>2.31838939064657e-214</v>
       </c>
     </row>
     <row r="671">
@@ -32474,7 +32474,7 @@
         <v>15</v>
       </c>
       <c r="O679" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000160957431962729</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000268757486533724</v>
       </c>
     </row>
     <row r="680">
@@ -32897,7 +32897,7 @@
         <v>15</v>
       </c>
       <c r="O688" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126375827505628</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000898471431905002</v>
       </c>
     </row>
     <row r="689">
@@ -32944,7 +32944,7 @@
         <v>16</v>
       </c>
       <c r="O689" t="n">
-        <v>0.999999999999817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -33367,7 +33367,7 @@
         <v>15</v>
       </c>
       <c r="O698" t="n">
-        <v>4.04282167105513e-219</v>
+        <v>2.0632810336049e-207</v>
       </c>
     </row>
     <row r="699">
@@ -33602,7 +33602,7 @@
         <v>15</v>
       </c>
       <c r="O703" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
       </c>
     </row>
     <row r="704">
@@ -33743,7 +33743,7 @@
         <v>15</v>
       </c>
       <c r="O706" t="n">
-        <v>0.0000000000000000000000000000178161366065389</v>
+        <v>0.0000000000000210581648407418</v>
       </c>
     </row>
     <row r="707">
@@ -33931,7 +33931,7 @@
         <v>15</v>
       </c>
       <c r="O710" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
       </c>
     </row>
     <row r="711">
@@ -34025,7 +34025,7 @@
         <v>15</v>
       </c>
       <c r="O712" t="n">
-        <v>9.57392740521862e-212</v>
+        <v>1.29128085285097e-219</v>
       </c>
     </row>
     <row r="713">
@@ -34072,7 +34072,7 @@
         <v>15</v>
       </c>
       <c r="O713" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000478905375074351</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000063210547972491</v>
       </c>
     </row>
     <row r="714">
@@ -34166,7 +34166,7 @@
         <v>15</v>
       </c>
       <c r="O715" t="n">
-        <v>4.54061500144398e-238</v>
+        <v>2.66070580586769e-210</v>
       </c>
     </row>
     <row r="716">
@@ -34213,7 +34213,7 @@
         <v>15</v>
       </c>
       <c r="O716" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000123455681691255</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000205494913322529</v>
       </c>
     </row>
     <row r="717">
@@ -34260,7 +34260,7 @@
         <v>15</v>
       </c>
       <c r="O717" t="n">
-        <v>0.000000000000000165546651508311</v>
+        <v>0.0305708934077169</v>
       </c>
     </row>
     <row r="718">
@@ -34307,7 +34307,7 @@
         <v>15</v>
       </c>
       <c r="O718" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000233690052457352</v>
+        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
       </c>
     </row>
     <row r="719">
@@ -34354,7 +34354,7 @@
         <v>15</v>
       </c>
       <c r="O719" t="n">
-        <v>1.54113159610705e-256</v>
+        <v>8.01558214739635e-262</v>
       </c>
     </row>
     <row r="720">
@@ -34542,7 +34542,7 @@
         <v>15</v>
       </c>
       <c r="O723" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000105316757877881</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000636360652060171</v>
       </c>
     </row>
     <row r="724">
@@ -34683,7 +34683,7 @@
         <v>15</v>
       </c>
       <c r="O726" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133783639999173</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512076214926673</v>
       </c>
     </row>
     <row r="727">
@@ -34730,7 +34730,7 @@
         <v>15</v>
       </c>
       <c r="O727" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014416704683236</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
       </c>
     </row>
     <row r="728">
@@ -34777,7 +34777,7 @@
         <v>15</v>
       </c>
       <c r="O728" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000178221657566241</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
       </c>
     </row>
     <row r="729">
@@ -34871,7 +34871,7 @@
         <v>15</v>
       </c>
       <c r="O730" t="n">
-        <v>5.49729134977288e-258</v>
+        <v>4.29227578919951e-255</v>
       </c>
     </row>
     <row r="731">
@@ -34965,7 +34965,7 @@
         <v>15</v>
       </c>
       <c r="O732" t="n">
-        <v>0</v>
+        <v>3.72987924422971e-307</v>
       </c>
     </row>
     <row r="733">
@@ -35012,7 +35012,7 @@
         <v>15</v>
       </c>
       <c r="O733" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000407682150785815</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152709531312874</v>
       </c>
     </row>
     <row r="734">
@@ -35059,7 +35059,7 @@
         <v>15</v>
       </c>
       <c r="O734" t="n">
-        <v>3.90406905162726e-290</v>
+        <v>1.16113944582599e-276</v>
       </c>
     </row>
     <row r="735">
@@ -35153,7 +35153,7 @@
         <v>16</v>
       </c>
       <c r="O736" t="n">
-        <v>0.999999999999933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -35388,7 +35388,7 @@
         <v>15</v>
       </c>
       <c r="O741" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000049418918226473</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187235311246323</v>
       </c>
     </row>
     <row r="742">
@@ -35526,10 +35526,10 @@
         <v>1</v>
       </c>
       <c r="N744" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O744" t="n">
-        <v>0.988859914789035</v>
+        <v>0.00000121439765938442</v>
       </c>
     </row>
     <row r="745">
@@ -35623,7 +35623,7 @@
         <v>15</v>
       </c>
       <c r="O746" t="n">
-        <v>0.000000000000000000000000000000000000000000277907557254392</v>
+        <v>0.000000000000000000000000000000000000000025289001185318</v>
       </c>
     </row>
     <row r="747">
@@ -35764,7 +35764,7 @@
         <v>15</v>
       </c>
       <c r="O749" t="n">
-        <v>5.4422510755301e-287</v>
+        <v>9.63332932732761e-284</v>
       </c>
     </row>
     <row r="750">
@@ -35811,7 +35811,7 @@
         <v>15</v>
       </c>
       <c r="O750" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136434296005678</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000431310345149332</v>
       </c>
     </row>
     <row r="751">
@@ -35858,7 +35858,7 @@
         <v>15</v>
       </c>
       <c r="O751" t="n">
-        <v>5.49729134977288e-258</v>
+        <v>4.29227578919951e-255</v>
       </c>
     </row>
     <row r="752">
@@ -35905,7 +35905,7 @@
         <v>15</v>
       </c>
       <c r="O752" t="n">
-        <v>6.58287896913865e-250</v>
+        <v>1.27482066577915e-239</v>
       </c>
     </row>
     <row r="753">
@@ -36046,7 +36046,7 @@
         <v>15</v>
       </c>
       <c r="O755" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000987807260317913</v>
+        <v>0.00000000000000000000000000000000232173301544418</v>
       </c>
     </row>
     <row r="756">
@@ -36234,7 +36234,7 @@
         <v>15</v>
       </c>
       <c r="O759" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000187631358822659</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000281848126609751</v>
       </c>
     </row>
     <row r="760">
@@ -36281,7 +36281,7 @@
         <v>15</v>
       </c>
       <c r="O760" t="n">
-        <v>0.0000000000000000000000000000178161366065389</v>
+        <v>0.0000000000000210581648407418</v>
       </c>
     </row>
     <row r="761">
@@ -36422,7 +36422,7 @@
         <v>15</v>
       </c>
       <c r="O763" t="n">
-        <v>1.30520976594377e-250</v>
+        <v>2.29132037244875e-237</v>
       </c>
     </row>
     <row r="764">
@@ -36516,7 +36516,7 @@
         <v>15</v>
       </c>
       <c r="O765" t="n">
-        <v>1.1491253119471e-307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -36563,7 +36563,7 @@
         <v>15</v>
       </c>
       <c r="O766" t="n">
-        <v>1.1491253119471e-307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -36610,7 +36610,7 @@
         <v>15</v>
       </c>
       <c r="O767" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000176342091392844</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000716860803474022</v>
       </c>
     </row>
     <row r="768">
@@ -36751,7 +36751,7 @@
         <v>15</v>
       </c>
       <c r="O770" t="n">
-        <v>3.06797713353109e-286</v>
+        <v>6.45573834080994e-283</v>
       </c>
     </row>
     <row r="771">
@@ -36795,10 +36795,10 @@
         <v>0</v>
       </c>
       <c r="N771" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O771" t="n">
-        <v>0.999992753364624</v>
+        <v>0.0000391832704317209</v>
       </c>
     </row>
     <row r="772">
@@ -36845,7 +36845,7 @@
         <v>15</v>
       </c>
       <c r="O772" t="n">
-        <v>0.0000000000000000000000000000178161366065389</v>
+        <v>0.0000000000000210581648407418</v>
       </c>
     </row>
     <row r="773">
@@ -36892,7 +36892,7 @@
         <v>15</v>
       </c>
       <c r="O773" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107943519204561</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000958258944711147</v>
       </c>
     </row>
     <row r="774">
@@ -37033,7 +37033,7 @@
         <v>15</v>
       </c>
       <c r="O776" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
       </c>
     </row>
     <row r="777">
@@ -37127,7 +37127,7 @@
         <v>15</v>
       </c>
       <c r="O778" t="n">
-        <v>9.45460007847345e-255</v>
+        <v>4.81388823256743e-263</v>
       </c>
     </row>
     <row r="779">
@@ -37174,7 +37174,7 @@
         <v>15</v>
       </c>
       <c r="O779" t="n">
-        <v>0.0000000251201631692621</v>
+        <v>0.00000000000000256517541037383</v>
       </c>
     </row>
     <row r="780">
@@ -37221,7 +37221,7 @@
         <v>15</v>
       </c>
       <c r="O780" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000265723954278279</v>
+        <v>0.0000000000000993460245259094</v>
       </c>
     </row>
     <row r="781">
@@ -37456,7 +37456,7 @@
         <v>16</v>
       </c>
       <c r="O785" t="n">
-        <v>0.999999999697126</v>
+        <v>0.999999990656718</v>
       </c>
     </row>
     <row r="786">
@@ -37597,7 +37597,7 @@
         <v>15</v>
       </c>
       <c r="O788" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000610011147209643</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000174067541829927</v>
       </c>
     </row>
     <row r="789">
@@ -37644,7 +37644,7 @@
         <v>15</v>
       </c>
       <c r="O789" t="n">
-        <v>1.31039497928319e-255</v>
+        <v>3.98035164947155e-239</v>
       </c>
     </row>
     <row r="790">
@@ -37785,7 +37785,7 @@
         <v>15</v>
       </c>
       <c r="O792" t="n">
-        <v>1.19129670568056e-221</v>
+        <v>3.21583620212478e-220</v>
       </c>
     </row>
     <row r="793">
@@ -37832,7 +37832,7 @@
         <v>16</v>
       </c>
       <c r="O793" t="n">
-        <v>0.999999999999768</v>
+        <v>0.974498868683362</v>
       </c>
     </row>
     <row r="794">
@@ -37879,7 +37879,7 @@
         <v>15</v>
       </c>
       <c r="O794" t="n">
-        <v>0</v>
+        <v>3.22373334824854e-304</v>
       </c>
     </row>
     <row r="795">
@@ -38067,7 +38067,7 @@
         <v>15</v>
       </c>
       <c r="O798" t="n">
-        <v>0</v>
+        <v>1.39245633647474e-308</v>
       </c>
     </row>
     <row r="799">
@@ -38114,7 +38114,7 @@
         <v>15</v>
       </c>
       <c r="O799" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000658432092300005</v>
+        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
       </c>
     </row>
     <row r="800">
@@ -38253,28 +38253,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.89875</v>
+        <v>0.9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.782608695623819</v>
+        <v>0.78754578751694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.911392405024836</v>
+        <v>0.907172995742313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.842105258153962</v>
+        <v>0.84313724989381</v>
       </c>
       <c r="E2" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -38303,10 +38303,10 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -38314,10 +38314,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -38345,10 +38345,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.106571936056838</v>
+        <v>0.103019538188277</v>
       </c>
       <c r="B2" t="n">
-        <v>0.911392405063291</v>
+        <v>0.907172995780591</v>
       </c>
     </row>
     <row r="5">
@@ -40236,40 +40236,40 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00143963136694584</v>
+        <v>0.030880020577061</v>
       </c>
       <c r="E38" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00184608999685714</v>
+        <v>0.150726142089784</v>
       </c>
       <c r="G38" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I38" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0613844778563458</v>
+        <v>-0.249264133808377</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0964289470434346</v>
+        <v>-0.0839695271906683</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0340096235334561</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M38" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N38" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.127816703552079</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
@@ -40286,40 +40286,40 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.16303789108698</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0365290268788196</v>
+        <v>0.00184608999685714</v>
       </c>
       <c r="G39" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H39" t="n">
-        <v>0.245933003365418</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I39" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J39" t="n">
-        <v>0.150144365558179</v>
+        <v>-0.0613844778563458</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0964289470434346</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M39" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.127816703552079</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
@@ -40336,40 +40336,40 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.127838976409081</v>
+        <v>-0.16303789108698</v>
       </c>
       <c r="E40" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0339621294289415</v>
+        <v>-0.0365290268788196</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I40" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J40" t="n">
-        <v>0.470722240049757</v>
+        <v>0.150144365558179</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0406246713369947</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0340096235334561</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N40" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0719143350141809</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
@@ -40386,31 +40386,31 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.127838976409081</v>
       </c>
       <c r="E41" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0615562770151305</v>
+        <v>-0.0339621294289415</v>
       </c>
       <c r="G41" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H41" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I41" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0784644465792577</v>
+        <v>0.470722240049757</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0590506874851357</v>
+        <v>0.0406246713369947</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0910699344210707</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M41" t="n">
         <v>-0.168490582886858</v>
@@ -40419,7 +40419,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.0620492111545519</v>
+        <v>-0.0719143350141809</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
@@ -40436,19 +40436,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00574610458193836</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E42" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0566791718603622</v>
+        <v>-0.0615562770151305</v>
       </c>
       <c r="G42" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I42" t="n">
         <v>0.165630088244357</v>
@@ -40457,10 +40457,10 @@
         <v>-0.0784644465792577</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M42" t="n">
         <v>-0.168490582886858</v>
@@ -40469,7 +40469,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0661973990206253</v>
+        <v>-0.0620492111545519</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
@@ -40486,40 +40486,40 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.00574610458193836</v>
       </c>
       <c r="E43" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0588610346927586</v>
+        <v>-0.0566791718603622</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I43" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0358399594894606</v>
+        <v>-0.0784644465792577</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0801109982417732</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N43" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O43" t="n">
-        <v>0.102369519839265</v>
+        <v>0.0661973990206253</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
@@ -40536,31 +40536,31 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.181705062982426</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E44" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0620696565051061</v>
+        <v>-0.0588610346927586</v>
       </c>
       <c r="G44" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H44" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I44" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J44" t="n">
-        <v>0.188245834247752</v>
+        <v>0.0358399594894606</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M44" t="n">
         <v>0.0953822783822888</v>
@@ -40569,7 +40569,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O44" t="n">
-        <v>0.127032329488338</v>
+        <v>0.102369519839265</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
@@ -40586,40 +40586,40 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.00574610458193836</v>
       </c>
       <c r="E45" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0587326898202647</v>
+        <v>-0.0627113808675756</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.0295078125892099</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I45" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.036421446645936</v>
+        <v>0.165910490533175</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.071510107337902</v>
+        <v>0.0157058316314621</v>
       </c>
       <c r="L45" t="n">
         <v>-0.0230506873541586</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N45" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0193003410961595</v>
+        <v>0.0645532117106871</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
@@ -40636,40 +40636,40 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0847461071504057</v>
+        <v>0.181705062982426</v>
       </c>
       <c r="E46" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00685154002411932</v>
+        <v>-0.0620696565051061</v>
       </c>
       <c r="G46" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0608029906998704</v>
+        <v>0.188245834247752</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0904623507480599</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.194231620017002</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N46" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.0390305888154175</v>
+        <v>0.127032329488338</v>
       </c>
       <c r="P46" t="s">
         <v>37</v>
@@ -40686,40 +40686,40 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.141491456457642</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0378124756037586</v>
       </c>
       <c r="G47" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.139684138971061</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I47" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0114584154355263</v>
+        <v>0.130436709339434</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M47" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O47" t="n">
-        <v>0.113878831008832</v>
+        <v>0.178002136096421</v>
       </c>
       <c r="P47" t="s">
         <v>37</v>
@@ -40736,40 +40736,40 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0876253698842974</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F48" t="n">
-        <v>0.432956516703874</v>
+        <v>-0.0587326898202647</v>
       </c>
       <c r="G48" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0255803506017156</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J48" t="n">
-        <v>0.138319771826932</v>
+        <v>-0.036421446645936</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N48" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0234485289622329</v>
+        <v>-0.0193003410961595</v>
       </c>
       <c r="P48" t="s">
         <v>37</v>
@@ -40786,40 +40786,40 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.109171804513635</v>
+        <v>0.0847461071504057</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00136253181549041</v>
+        <v>0.00685154002411932</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0255803506017156</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I49" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.278168696262536</v>
+        <v>0.0608029906998704</v>
       </c>
       <c r="K49" t="n">
-        <v>0.165218869864658</v>
+        <v>0.0904623507480599</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0230506873541586</v>
+        <v>-0.194231620017002</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N49" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O49" t="n">
-        <v>0.194444009195802</v>
+        <v>-0.0390305888154175</v>
       </c>
       <c r="P49" t="s">
         <v>37</v>
@@ -40836,31 +40836,31 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.141491456457642</v>
       </c>
       <c r="E50" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0664333821698988</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0845959757801354</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I50" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.117879759016747</v>
+        <v>-0.0114584154355263</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.137171309129388</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M50" t="n">
         <v>0.0953822783822888</v>
@@ -40869,7 +40869,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O50" t="n">
-        <v>0.128676516798276</v>
+        <v>0.113878831008832</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
@@ -40886,40 +40886,40 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0768521525696284</v>
+        <v>-0.0876253698842974</v>
       </c>
       <c r="E51" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0414061320335879</v>
+        <v>0.432956516703874</v>
       </c>
       <c r="G51" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I51" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0469321966292664</v>
+        <v>0.138319771826932</v>
       </c>
       <c r="K51" t="n">
-        <v>0.252434808834022</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L51" t="n">
-        <v>0.233720711640107</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M51" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.043963150745232</v>
+        <v>0.0234485289622329</v>
       </c>
       <c r="P51" t="s">
         <v>37</v>
@@ -40936,40 +40936,40 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.267890801499778</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.0595027590552281</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H52" t="n">
-        <v>0.245933003365418</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.161236602697985</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N52" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.0686259603943046</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P52" t="s">
         <v>37</v>
@@ -40989,37 +40989,37 @@
         <v>-0.109171804513635</v>
       </c>
       <c r="E53" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0546256539004598</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G53" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0806685137926412</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I53" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.132332040243826</v>
+        <v>-0.278168696262536</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0465912676323694</v>
+        <v>0.165218869864658</v>
       </c>
       <c r="L53" t="n">
         <v>-0.0230506873541586</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0908602086696978</v>
+        <v>0.194444009195802</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
@@ -41027,7 +41027,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.999999999999933</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -41036,40 +41036,40 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235571149555771</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E54" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.0664333821698988</v>
       </c>
       <c r="G54" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H54" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I54" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J54" t="n">
-        <v>0.076569115674866</v>
+        <v>-0.117879759016747</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L54" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N54" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.167277198990595</v>
+        <v>0.128676516798276</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
@@ -41077,7 +41077,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.999999999999817</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -41086,31 +41086,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.030880020577061</v>
+        <v>-0.0768521525696284</v>
       </c>
       <c r="E55" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F55" t="n">
-        <v>0.150726142089784</v>
+        <v>-0.0414061320335879</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0806685137926412</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I55" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.249264133808377</v>
+        <v>-0.0469321966292664</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0839695271906683</v>
+        <v>0.252434808834022</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M55" t="n">
         <v>0.0953822783822888</v>
@@ -41119,7 +41119,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.043963150745232</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
@@ -41127,7 +41127,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.999999999999817</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -41136,40 +41136,40 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00574610458193836</v>
+        <v>0.267890801499778</v>
       </c>
       <c r="E56" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.0627113808675756</v>
+        <v>-0.0595027590552281</v>
       </c>
       <c r="G56" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I56" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J56" t="n">
-        <v>0.165910490533175</v>
+        <v>-0.161236602697985</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0157058316314621</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.0230506873541586</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M56" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0645532117106871</v>
+        <v>-0.0686259603943046</v>
       </c>
       <c r="P56" t="s">
         <v>37</v>
@@ -41177,7 +41177,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.999999999999817</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -41192,34 +41192,34 @@
         <v>0.13477938971094</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0378124756037586</v>
+        <v>-0.0546256539004598</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I57" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J57" t="n">
-        <v>0.130436709339434</v>
+        <v>-0.132332040243826</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N57" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O57" t="n">
-        <v>0.178002136096421</v>
+        <v>0.0908602086696978</v>
       </c>
       <c r="P57" t="s">
         <v>37</v>
@@ -41227,7 +41227,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.999999999933535</v>
+        <v>0.999999999808812</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -41277,7 +41277,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.999999999933535</v>
+        <v>0.999999999808812</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -41327,16 +41327,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.999992753364624</v>
+        <v>0.0305708934077169</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.00143963136694584</v>
+        <v>-0.0660789352549595</v>
       </c>
       <c r="E60" t="n">
         <v>-0.119239415730965</v>
@@ -41351,66 +41351,66 @@
         <v>0.00354508532534543</v>
       </c>
       <c r="I60" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J60" t="n">
-        <v>0.247368802903985</v>
+        <v>0.00168002204363675</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0964289470434346</v>
+        <v>0.053084091189761</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0340096235334561</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M60" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N60" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.150835325891213</v>
+        <v>0.13360907872809</v>
       </c>
       <c r="P60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.999992753364624</v>
+        <v>0.00000121439765938442</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.030880020577061</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E61" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0682302103848134</v>
+        <v>0.0782112891307289</v>
       </c>
       <c r="G61" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.0548152591167643</v>
+        <v>0.125181334347769</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0910699344210707</v>
+        <v>0.119600089864878</v>
       </c>
       <c r="M61" t="n">
         <v>-0.168490582886858</v>
@@ -41419,15 +41419,15 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.0752027096340572</v>
+        <v>0.105657894459141</v>
       </c>
       <c r="P61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0000762893543233504</v>
+        <v>0.0000000000265535889273659</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -41477,7 +41477,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0000762893543233504</v>
+        <v>0.0000000000265535889273659</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -41527,7 +41527,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0000762893543233504</v>
+        <v>0.0000000000265535889273659</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -41577,7 +41577,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.000000157888575577718</v>
+        <v>0.00000000000994579850683943</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -41627,7 +41627,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.000000000000000165546651508311</v>
+        <v>0.0000000000000000000000000000000647612429376324</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -41636,13 +41636,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0660789352549595</v>
+        <v>0.0093335859477231</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0657916578074293</v>
       </c>
       <c r="G66" t="n">
         <v>0.144132574259956</v>
@@ -41654,13 +41654,13 @@
         <v>-0.0970295666207614</v>
       </c>
       <c r="J66" t="n">
-        <v>0.00168002204363675</v>
+        <v>0.0253292095061302</v>
       </c>
       <c r="K66" t="n">
-        <v>0.053084091189761</v>
+        <v>0.00324641177869577</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M66" t="n">
         <v>0.0953822783822888</v>
@@ -41677,7 +41677,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0000000000000000000000000000000000000406320386720571</v>
+        <v>0.00000000000000000000000000000000232173301544418</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -41686,40 +41686,40 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0093335859477231</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E67" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.0657916578074293</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G67" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00354508532534543</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0253292095061302</v>
+        <v>-0.119193602764663</v>
       </c>
       <c r="K67" t="n">
-        <v>0.00324641177869577</v>
+        <v>-0.108888366896201</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N67" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O67" t="n">
-        <v>0.13360907872809</v>
+        <v>-0.0604050238446137</v>
       </c>
       <c r="P67" t="s">
         <v>38</v>
@@ -41727,7 +41727,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.00000000000000000000000000000000000000000000000559824813097614</v>
+        <v>0.000000000000000000000000000000000000153673937456931</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -41777,7 +41777,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000685037674220464</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000150110931863441</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000987807260317913</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000328709265484516</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -41842,34 +41842,34 @@
         <v>0.13477938971094</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.00136253181549041</v>
+        <v>0.0628099044314606</v>
       </c>
       <c r="G70" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H70" t="n">
-        <v>0.245933003365418</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I70" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.119193602764663</v>
+        <v>-0.0167137904271915</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.108888366896201</v>
+        <v>0.588839144858712</v>
       </c>
       <c r="L70" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.165701464573195</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N70" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.0604050238446137</v>
+        <v>-0.0406747761253557</v>
       </c>
       <c r="P70" t="s">
         <v>38</v>
@@ -41877,7 +41877,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000157586569406346</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000151441904202963</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -41886,13 +41886,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.00143963136694584</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E71" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0628099044314606</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G71" t="n">
         <v>0.144132574259956</v>
@@ -41904,22 +41904,22 @@
         <v>-0.0970295666207614</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.0167137904271915</v>
+        <v>-0.0180276341751078</v>
       </c>
       <c r="K71" t="n">
-        <v>0.588839144858712</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.165701464573195</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M71" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.0406747761253557</v>
+        <v>-0.0850678334936863</v>
       </c>
       <c r="P71" t="s">
         <v>38</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000545476911285838</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000080209759956794</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -41936,40 +41936,40 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G72" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0806685137926412</v>
+        <v>-0.194772302161986</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.0180276341751078</v>
+        <v>0.0213876782623813</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.0230506873541586</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N72" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.0850678334936863</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P72" t="s">
         <v>38</v>
@@ -41977,7 +41977,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000688268567371913</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -41986,40 +41986,40 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.195357543030987</v>
       </c>
       <c r="E73" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.00136253181549041</v>
+        <v>0.592489193213795</v>
       </c>
       <c r="G73" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.194772302161986</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I73" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0213876782623813</v>
+        <v>-0.312197249333568</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N73" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.0735585223241191</v>
       </c>
       <c r="P73" t="s">
         <v>38</v>
@@ -42027,7 +42027,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -42036,40 +42036,40 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.195357543030987</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E74" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F74" t="n">
-        <v>0.592489193213795</v>
+        <v>-0.0647648988274781</v>
       </c>
       <c r="G74" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00354508532534543</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.312197249333568</v>
+        <v>-0.0351076028980197</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N74" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.0735585223241191</v>
+        <v>0.136897453347967</v>
       </c>
       <c r="P74" t="s">
         <v>38</v>
@@ -42077,7 +42077,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000242819573309411</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000403432915009468</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -42086,13 +42086,13 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.0647648988274781</v>
+        <v>-0.0441013743559598</v>
       </c>
       <c r="G75" t="n">
         <v>0.144132574259956</v>
@@ -42104,13 +42104,13 @@
         <v>0.165630088244357</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.0351076028980197</v>
+        <v>0.0739414281790334</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.137171309129388</v>
+        <v>-0.251291930904617</v>
       </c>
       <c r="M75" t="n">
         <v>-0.168490582886858</v>
@@ -42119,7 +42119,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O75" t="n">
-        <v>0.136897453347967</v>
+        <v>-0.170565573610471</v>
       </c>
       <c r="P75" t="s">
         <v>38</v>
@@ -42127,7 +42127,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000353189043284728</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -42136,31 +42136,31 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.109171804513635</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E76" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.0441013743559598</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G76" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I76" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0739414281790334</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K76" t="n">
         <v>-0.0465912676323694</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.251291930904617</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M76" t="n">
         <v>-0.168490582886858</v>
@@ -42169,7 +42169,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.170565573610471</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P76" t="s">
         <v>38</v>
@@ -42177,7 +42177,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -42186,40 +42186,40 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.235571149555771</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E77" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.0684869001298012</v>
       </c>
       <c r="G77" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H77" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I77" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J77" t="n">
-        <v>0.076569115674866</v>
+        <v>0.00299386579155306</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.0465912676323694</v>
+        <v>0.264894228686788</v>
       </c>
       <c r="L77" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.167277198990595</v>
+        <v>0.0908602086696978</v>
       </c>
       <c r="P77" t="s">
         <v>38</v>
@@ -42227,7 +42227,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000029296909452587</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000377577265312765</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -42236,40 +42236,40 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.00143963136694584</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E78" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0684869001298012</v>
+        <v>-0.0591177244377464</v>
       </c>
       <c r="G78" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I78" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J78" t="n">
-        <v>0.00299386579155306</v>
+        <v>-0.0127722591834426</v>
       </c>
       <c r="K78" t="n">
-        <v>0.264894228686788</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0625397789772634</v>
       </c>
       <c r="M78" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N78" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0908602086696978</v>
+        <v>0.161560262997039</v>
       </c>
       <c r="P78" t="s">
         <v>38</v>
@@ -42277,7 +42277,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000324440298383877</v>
+        <v>2.88724751812778e-209</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -42286,40 +42286,40 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.0229860659962837</v>
+        <v>-0.152264673772311</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0591177244377464</v>
+        <v>-0.0387108897112159</v>
       </c>
       <c r="G79" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H79" t="n">
-        <v>0.00354508532534543</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I79" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.0127722591834426</v>
+        <v>0.112042896868606</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0625397789772634</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N79" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O79" t="n">
-        <v>0.161560262997039</v>
+        <v>-0.0373864015054794</v>
       </c>
       <c r="P79" t="s">
         <v>38</v>
@@ -42327,7 +42327,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.88162511047442e-215</v>
+        <v>2.88724751812778e-209</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -42336,31 +42336,31 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.152264673772311</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E80" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.0387108897112159</v>
+        <v>-0.0559091026253988</v>
       </c>
       <c r="G80" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.301021166556343</v>
       </c>
       <c r="I80" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J80" t="n">
-        <v>0.112042896868606</v>
+        <v>0.000836573772786963</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.0590506874851357</v>
+        <v>0.0157058316314621</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0910699344210707</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M80" t="n">
         <v>-0.168490582886858</v>
@@ -42369,7 +42369,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.0373864015054794</v>
+        <v>-0.200160945189358</v>
       </c>
       <c r="P80" t="s">
         <v>38</v>
@@ -42377,7 +42377,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.88162511047442e-215</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -42386,31 +42386,31 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0559091026253988</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H81" t="n">
-        <v>0.301021166556343</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J81" t="n">
-        <v>0.000836573772786963</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0157058316314621</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0340096235334561</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M81" t="n">
         <v>-0.168490582886858</v>
@@ -42419,59 +42419,9 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.200160945189358</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P81" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.235571149555771</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.13477938971094</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.0336756183753449</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.144132574259956</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.135756676983567</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.165630088244357</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.076569115674866</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-0.0465912676323694</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.233720711640107</v>
-      </c>
-      <c r="M82" t="n">
-        <v>-0.168490582886858</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-0.0850308398692555</v>
-      </c>
-      <c r="O82" t="n">
-        <v>-0.167277198990595</v>
-      </c>
-      <c r="P82" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42511,16 +42461,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0221588446556623</v>
+        <v>0.0259831036158478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0447778112879168</v>
+        <v>0.0400583340709599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0161366654832713</v>
+        <v>0.0215739387332847</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.031122830800953</v>
+        <v>-0.0249055251073124</v>
       </c>
     </row>
     <row r="3">
@@ -42528,16 +42478,16 @@
         <v>37</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0241169538541556</v>
+        <v>0.024440980035159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0106390008913371</v>
+        <v>0.0132569111776425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0386178825569013</v>
+        <v>0.0394473709911555</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0249557006630095</v>
+        <v>0.0297134495742387</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -114,7 +114,7 @@
     <t xml:space="preserve">Mean_Predicted_Label_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Since your model produces mean 0.103 for true label 0, and 0.9072 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
+    <t xml:space="preserve">Since your model produces mean 0.103 for true label 0, and 0.9114 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
   </si>
   <si>
     <t xml:space="preserve">predicted_prob</t>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000259429304612909</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>3.21583620212478e-220</v>
+        <v>2.25625489170803e-231</v>
       </c>
     </row>
     <row r="7">
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01367815763967e-240</v>
+        <v>1.57199963909303e-243</v>
       </c>
     </row>
     <row r="8">
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>5.02527690347205e-274</v>
+        <v>1.06944635068297e-272</v>
       </c>
     </row>
     <row r="9">
@@ -984,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3278058722783e-292</v>
+        <v>4.72615504989761e-295</v>
       </c>
     </row>
     <row r="10">
@@ -1266,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107232105234441</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000476442286007199</v>
       </c>
     </row>
     <row r="16">
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000379704913289582</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199255349667177</v>
       </c>
     </row>
     <row r="17">
@@ -1454,7 +1454,7 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>5.58857788149959e-238</v>
+        <v>6.6605076755803e-239</v>
       </c>
     </row>
     <row r="20">
@@ -1501,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>2.94942265777797e-284</v>
+        <v>3.89715232168564e-293</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00000000000001069851457479</v>
+        <v>0.000000000000000000000000989081469053843</v>
       </c>
     </row>
     <row r="22">
@@ -1595,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>7.73222674802782e-229</v>
+        <v>2.31633960706489e-227</v>
       </c>
     </row>
     <row r="23">
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0000000000000000000000000000000000000000430768161652566</v>
+        <v>0.00000000000000000000000000000000000000000490633607204791</v>
       </c>
     </row>
     <row r="26">
@@ -1877,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>2.23633394670739e-248</v>
+        <v>5.7761189401411e-243</v>
       </c>
     </row>
     <row r="29">
@@ -2065,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000259429304612909</v>
       </c>
     </row>
     <row r="33">
@@ -2159,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0000000000000000000000000000000000000000000822006274936853</v>
+        <v>0.0000000000000000000000000000000000000000000000742851699028988</v>
       </c>
     </row>
     <row r="35">
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000700644775988614</v>
       </c>
     </row>
     <row r="36">
@@ -2300,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>2.66070580586769e-210</v>
+        <v>3.84738641181227e-220</v>
       </c>
     </row>
     <row r="38">
@@ -2347,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014920411764087</v>
       </c>
     </row>
     <row r="39">
@@ -2582,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>5.7734552186158e-236</v>
+        <v>4.22631056224315e-249</v>
       </c>
     </row>
     <row r="44">
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000958258944711147</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000345078678375831</v>
       </c>
     </row>
     <row r="45">
@@ -2723,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000247420632467568</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000267938419153503</v>
       </c>
     </row>
     <row r="47">
@@ -2770,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="O47" t="n">
-        <v>0.627458493681427</v>
+        <v>0.968509628276675</v>
       </c>
     </row>
     <row r="48">
@@ -2817,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.79900887344363e-300</v>
+        <v>4.39945359046046e-302</v>
       </c>
     </row>
     <row r="49">
@@ -2958,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4806224617631e-224</v>
+        <v>1.06036295497525e-220</v>
       </c>
     </row>
     <row r="52">
@@ -3099,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="O54" t="n">
-        <v>0.999999999997513</v>
+        <v>0.99999999997637</v>
       </c>
     </row>
     <row r="55">
@@ -3146,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0000391832704317209</v>
+        <v>0.0000000000408917648709062</v>
       </c>
     </row>
     <row r="56">
@@ -3428,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000039306605848703</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197137346929358</v>
       </c>
     </row>
     <row r="62">
@@ -3475,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="O62" t="n">
-        <v>0.999999876667067</v>
+        <v>0.999999999853798</v>
       </c>
     </row>
     <row r="63">
@@ -3710,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160820439815674</v>
       </c>
     </row>
     <row r="68">
@@ -3851,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>5.72552379842188e-264</v>
+        <v>1.68267493830674e-255</v>
       </c>
     </row>
     <row r="71">
@@ -3898,7 +3898,7 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>2.72229380059232e-249</v>
+        <v>4.58013026969778e-250</v>
       </c>
     </row>
     <row r="72">
@@ -3945,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
+        <v>0.0000000000000000000000000000000000000000000129733357902343</v>
       </c>
     </row>
     <row r="73">
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="O75" t="n">
-        <v>0.999999990656718</v>
+        <v>0.998881400894969</v>
       </c>
     </row>
     <row r="76">
@@ -4133,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000080209759956794</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000102314807308165</v>
       </c>
     </row>
     <row r="77">
@@ -4180,7 +4180,7 @@
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.85802856207087e-303</v>
       </c>
     </row>
     <row r="78">
@@ -4227,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000531236298398763</v>
       </c>
     </row>
     <row r="79">
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>3.84594564614187e-215</v>
+        <v>1.35166935165308e-216</v>
       </c>
     </row>
     <row r="82">
@@ -4650,7 +4650,7 @@
         <v>15</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000184368890920249</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000552587110586738</v>
       </c>
     </row>
     <row r="88">
@@ -4697,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="O88" t="n">
-        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
+        <v>0.0000000000000000000000000000000000000000000129733357902343</v>
       </c>
     </row>
     <row r="89">
@@ -4744,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000162920781409946</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000457957623847143</v>
       </c>
     </row>
     <row r="90">
@@ -4791,7 +4791,7 @@
         <v>15</v>
       </c>
       <c r="O90" t="n">
-        <v>3.53549979169009e-272</v>
+        <v>5.08443576237576e-275</v>
       </c>
     </row>
     <row r="91">
@@ -4838,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="O91" t="n">
-        <v>3.98035164947155e-239</v>
+        <v>2.71862353841349e-242</v>
       </c>
     </row>
     <row r="92">
@@ -5073,7 +5073,7 @@
         <v>15</v>
       </c>
       <c r="O96" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012464741705031</v>
       </c>
     </row>
     <row r="97">
@@ -5214,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="O99" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000360736933950524</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000897495202838088</v>
       </c>
     </row>
     <row r="100">
@@ -5261,7 +5261,7 @@
         <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0000000000314928487891296</v>
+        <v>0.0000000000000754943898022136</v>
       </c>
     </row>
     <row r="101">
@@ -5402,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000246310319659396</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000153915353776557</v>
       </c>
     </row>
     <row r="104">
@@ -5543,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1.85802856207087e-303</v>
       </c>
     </row>
     <row r="107">
@@ -5590,7 +5590,7 @@
         <v>15</v>
       </c>
       <c r="O107" t="n">
-        <v>0.00000000000000138287599884427</v>
+        <v>0.000000000000000501430365611268</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="O108" t="n">
-        <v>8.19851616762734e-262</v>
+        <v>5.77382638681498e-263</v>
       </c>
     </row>
     <row r="109">
@@ -5731,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="O110" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000031810178987996</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000479118655154403</v>
       </c>
     </row>
     <row r="111">
@@ -5778,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="O111" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000055446010905884</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000222971876677781</v>
       </c>
     </row>
     <row r="112">
@@ -5825,7 +5825,7 @@
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0000000000265535889273659</v>
+        <v>0.000000000225330447164565</v>
       </c>
     </row>
     <row r="113">
@@ -6013,7 +6013,7 @@
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000120473153940725</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000317657931336697</v>
       </c>
     </row>
     <row r="117">
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000943982374985718</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000398234939457199</v>
       </c>
     </row>
     <row r="118">
@@ -6107,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="O118" t="n">
-        <v>3.22373334824854e-304</v>
+        <v>3.94669904089202e-305</v>
       </c>
     </row>
     <row r="119">
@@ -6154,7 +6154,7 @@
         <v>15</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0000000000000000027740764140868</v>
+        <v>0.000000000000023946003470661</v>
       </c>
     </row>
     <row r="120">
@@ -6201,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000259429304612909</v>
       </c>
     </row>
     <row r="121">
@@ -6389,7 +6389,7 @@
         <v>15</v>
       </c>
       <c r="O124" t="n">
-        <v>1.4806224617631e-224</v>
+        <v>1.06036295497525e-220</v>
       </c>
     </row>
     <row r="125">
@@ -6718,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="O131" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012464741705031</v>
       </c>
     </row>
     <row r="132">
@@ -6812,7 +6812,7 @@
         <v>15</v>
       </c>
       <c r="O133" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000243407091352693</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000788699708470941</v>
       </c>
     </row>
     <row r="134">
@@ -7047,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>1.39651750836841e-220</v>
+        <v>7.66918790950353e-226</v>
       </c>
     </row>
     <row r="139">
@@ -7094,7 +7094,7 @@
         <v>15</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0000000000000000000000103741806203268</v>
+        <v>0.00000000000000000000000000000922736049358018</v>
       </c>
     </row>
     <row r="140">
@@ -7376,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="O145" t="n">
-        <v>0.00000000000788630175175217</v>
+        <v>0.0000000000000003579350818849</v>
       </c>
     </row>
     <row r="146">
@@ -7611,7 +7611,7 @@
         <v>15</v>
       </c>
       <c r="O150" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000173233942575658</v>
       </c>
     </row>
     <row r="151">
@@ -7893,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="O156" t="n">
-        <v>1.14884494028317e-278</v>
+        <v>2.22831373420764e-275</v>
       </c>
     </row>
     <row r="157">
@@ -7987,7 +7987,7 @@
         <v>15</v>
       </c>
       <c r="O158" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000226726140524076</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000405415405207479</v>
       </c>
     </row>
     <row r="159">
@@ -8034,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0000000000000180143731017663</v>
+        <v>0.0000000000000000750931633243667</v>
       </c>
     </row>
     <row r="160">
@@ -8081,7 +8081,7 @@
         <v>15</v>
       </c>
       <c r="O160" t="n">
-        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
+        <v>0.0000000000000000000000000000000000000000000129733357902343</v>
       </c>
     </row>
     <row r="161">
@@ -8222,7 +8222,7 @@
         <v>15</v>
       </c>
       <c r="O163" t="n">
-        <v>9.85050038877213e-211</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000793418090566152</v>
       </c>
     </row>
     <row r="164">
@@ -8269,7 +8269,7 @@
         <v>15</v>
       </c>
       <c r="O164" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000189834949162636</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107090140062715</v>
       </c>
     </row>
     <row r="165">
@@ -8410,7 +8410,7 @@
         <v>15</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0000000000000000000000000000000000000962989234987197</v>
+        <v>0.000000000000000000000000000000000000000000000000388110302173632</v>
       </c>
     </row>
     <row r="168">
@@ -8457,7 +8457,7 @@
         <v>15</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000328709265484516</v>
+        <v>0.0000000000000000000000000000000000000000000000000000125187441270931</v>
       </c>
     </row>
     <row r="169">
@@ -8504,7 +8504,7 @@
         <v>15</v>
       </c>
       <c r="O169" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132333419159081</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000514540722322207</v>
       </c>
     </row>
     <row r="170">
@@ -8645,7 +8645,7 @@
         <v>16</v>
       </c>
       <c r="O172" t="n">
-        <v>0.999999999808812</v>
+        <v>0.999999960338917</v>
       </c>
     </row>
     <row r="173">
@@ -8786,7 +8786,7 @@
         <v>15</v>
       </c>
       <c r="O175" t="n">
-        <v>2.04096275119464e-224</v>
+        <v>4.54519683966408e-218</v>
       </c>
     </row>
     <row r="176">
@@ -8880,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="O177" t="n">
-        <v>1.14884494028317e-278</v>
+        <v>2.22831373420764e-275</v>
       </c>
     </row>
     <row r="178">
@@ -8974,7 +8974,7 @@
         <v>15</v>
       </c>
       <c r="O179" t="n">
-        <v>6.37796780783955e-228</v>
+        <v>5.0107389594539e-225</v>
       </c>
     </row>
     <row r="180">
@@ -9350,7 +9350,7 @@
         <v>15</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0000000000000000000000979521703827397</v>
+        <v>0.00000000000000000000000000147397989297031</v>
       </c>
     </row>
     <row r="188">
@@ -9444,7 +9444,7 @@
         <v>15</v>
       </c>
       <c r="O189" t="n">
-        <v>5.02527690347205e-274</v>
+        <v>1.06944635068297e-272</v>
       </c>
     </row>
     <row r="190">
@@ -9491,7 +9491,7 @@
         <v>15</v>
       </c>
       <c r="O190" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000272584462431558</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000243861142287505</v>
       </c>
     </row>
     <row r="191">
@@ -9585,7 +9585,7 @@
         <v>15</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000246994083877523</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107974504912409</v>
       </c>
     </row>
     <row r="193">
@@ -9632,7 +9632,7 @@
         <v>15</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000191596673123914</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000982490251907279</v>
       </c>
     </row>
     <row r="194">
@@ -9726,7 +9726,7 @@
         <v>15</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342579669933847</v>
       </c>
     </row>
     <row r="196">
@@ -9773,7 +9773,7 @@
         <v>15</v>
       </c>
       <c r="O196" t="n">
-        <v>7.73222674802782e-229</v>
+        <v>2.31633960706489e-227</v>
       </c>
     </row>
     <row r="197">
@@ -9820,7 +9820,7 @@
         <v>15</v>
       </c>
       <c r="O197" t="n">
-        <v>0.0000000000000000000000979521703827397</v>
+        <v>0.00000000000000000000000000147397989297031</v>
       </c>
     </row>
     <row r="198">
@@ -9867,7 +9867,7 @@
         <v>15</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0000000194173425803974</v>
+        <v>0.00000000000000000656186924447486</v>
       </c>
     </row>
     <row r="199">
@@ -9961,7 +9961,7 @@
         <v>15</v>
       </c>
       <c r="O200" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000189834949162636</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107090140062715</v>
       </c>
     </row>
     <row r="201">
@@ -10149,7 +10149,7 @@
         <v>15</v>
       </c>
       <c r="O204" t="n">
-        <v>0.0000000000000000027740764140868</v>
+        <v>0.000000000000023946003470661</v>
       </c>
     </row>
     <row r="205">
@@ -10196,7 +10196,7 @@
         <v>15</v>
       </c>
       <c r="O205" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000701814716615692</v>
+        <v>0.000000000000000000000000000000000000000000274764928565009</v>
       </c>
     </row>
     <row r="206">
@@ -10290,7 +10290,7 @@
         <v>15</v>
       </c>
       <c r="O207" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000259429304612909</v>
       </c>
     </row>
     <row r="208">
@@ -10478,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="O211" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000247420632467568</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000267938419153503</v>
       </c>
     </row>
     <row r="212">
@@ -10619,7 +10619,7 @@
         <v>15</v>
       </c>
       <c r="O214" t="n">
-        <v>5.66000186022323e-287</v>
+        <v>2.20467878656712e-284</v>
       </c>
     </row>
     <row r="215">
@@ -10713,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="O216" t="n">
-        <v>1.14884494028317e-278</v>
+        <v>2.22831373420764e-275</v>
       </c>
     </row>
     <row r="217">
@@ -10807,7 +10807,7 @@
         <v>15</v>
       </c>
       <c r="O218" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000446238376217736</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000411324394951919</v>
       </c>
     </row>
     <row r="219">
@@ -10901,7 +10901,7 @@
         <v>16</v>
       </c>
       <c r="O220" t="n">
-        <v>0.999940860133762</v>
+        <v>0.999999999995214</v>
       </c>
     </row>
     <row r="221">
@@ -10995,7 +10995,7 @@
         <v>15</v>
       </c>
       <c r="O222" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152709531312874</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000646461138924374</v>
       </c>
     </row>
     <row r="223">
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
       <c r="O224" t="n">
-        <v>0.00000000000000000000620856119775127</v>
+        <v>0.0000000000000000000000146205083032955</v>
       </c>
     </row>
     <row r="225">
@@ -11136,7 +11136,7 @@
         <v>15</v>
       </c>
       <c r="O225" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000205494913322529</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000282415090988838</v>
       </c>
     </row>
     <row r="226">
@@ -11183,7 +11183,7 @@
         <v>15</v>
       </c>
       <c r="O226" t="n">
-        <v>5.7409015542097e-294</v>
+        <v>2.85053015829392e-288</v>
       </c>
     </row>
     <row r="227">
@@ -11230,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="O227" t="n">
-        <v>5.7734552186158e-236</v>
+        <v>4.22631056224315e-249</v>
       </c>
     </row>
     <row r="228">
@@ -11418,7 +11418,7 @@
         <v>15</v>
       </c>
       <c r="O231" t="n">
-        <v>1.84268958210803e-287</v>
+        <v>6.20623836148017e-297</v>
       </c>
     </row>
     <row r="232">
@@ -11559,7 +11559,7 @@
         <v>15</v>
       </c>
       <c r="O234" t="n">
-        <v>8.34818785247574e-247</v>
+        <v>3.28299808882031e-246</v>
       </c>
     </row>
     <row r="235">
@@ -11653,7 +11653,7 @@
         <v>15</v>
       </c>
       <c r="O236" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160820439815674</v>
       </c>
     </row>
     <row r="237">
@@ -11700,7 +11700,7 @@
         <v>15</v>
       </c>
       <c r="O237" t="n">
-        <v>0.000000000000000000000000000000000000000025289001185318</v>
+        <v>0.00000000000000000000000000000000000000407356793341121</v>
       </c>
     </row>
     <row r="238">
@@ -11747,7 +11747,7 @@
         <v>15</v>
       </c>
       <c r="O238" t="n">
-        <v>1.36516114367851e-220</v>
+        <v>1.52359135909563e-230</v>
       </c>
     </row>
     <row r="239">
@@ -11794,7 +11794,7 @@
         <v>15</v>
       </c>
       <c r="O239" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000673770942818835</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000263246825138453</v>
       </c>
     </row>
     <row r="240">
@@ -11841,7 +11841,7 @@
         <v>15</v>
       </c>
       <c r="O240" t="n">
-        <v>0.0000000194173425803974</v>
+        <v>0.00000000000000000656186924447486</v>
       </c>
     </row>
     <row r="241">
@@ -11888,7 +11888,7 @@
         <v>15</v>
       </c>
       <c r="O241" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000531592091405993</v>
       </c>
     </row>
     <row r="242">
@@ -11982,7 +11982,7 @@
         <v>15</v>
       </c>
       <c r="O243" t="n">
-        <v>0.0000000000000000000000000000000000000000251940569282306</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000201231834164793</v>
       </c>
     </row>
     <row r="244">
@@ -12123,7 +12123,7 @@
         <v>15</v>
       </c>
       <c r="O246" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000846721410303378</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000803251629285947</v>
       </c>
     </row>
     <row r="247">
@@ -12217,7 +12217,7 @@
         <v>15</v>
       </c>
       <c r="O248" t="n">
-        <v>6.37665430987106e-221</v>
+        <v>3.02695423921682e-219</v>
       </c>
     </row>
     <row r="249">
@@ -12264,7 +12264,7 @@
         <v>15</v>
       </c>
       <c r="O249" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000175052043853852</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000258599438264105</v>
       </c>
     </row>
     <row r="250">
@@ -12311,7 +12311,7 @@
         <v>15</v>
       </c>
       <c r="O250" t="n">
-        <v>2.14139725181959e-298</v>
+        <v>5.20175294249594e-302</v>
       </c>
     </row>
     <row r="251">
@@ -12405,7 +12405,7 @@
         <v>15</v>
       </c>
       <c r="O252" t="n">
-        <v>1.36516114367851e-220</v>
+        <v>1.52359135909563e-230</v>
       </c>
     </row>
     <row r="253">
@@ -12452,7 +12452,7 @@
         <v>15</v>
       </c>
       <c r="O253" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000180744721706506</v>
       </c>
     </row>
     <row r="254">
@@ -12546,7 +12546,7 @@
         <v>15</v>
       </c>
       <c r="O255" t="n">
-        <v>1.27482066577915e-239</v>
+        <v>1.02450242516886e-239</v>
       </c>
     </row>
     <row r="256">
@@ -12734,7 +12734,7 @@
         <v>15</v>
       </c>
       <c r="O259" t="n">
-        <v>6.63745696178728e-210</v>
+        <v>6.12067789770868e-206</v>
       </c>
     </row>
     <row r="260">
@@ -12875,7 +12875,7 @@
         <v>16</v>
       </c>
       <c r="O262" t="n">
-        <v>0.999790728816487</v>
+        <v>0.999999999957337</v>
       </c>
     </row>
     <row r="263">
@@ -12922,7 +12922,7 @@
         <v>15</v>
       </c>
       <c r="O263" t="n">
-        <v>0.00138986546134693</v>
+        <v>0.00204114851001237</v>
       </c>
     </row>
     <row r="264">
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="O264" t="n">
-        <v>0.00000000000000256517541037383</v>
+        <v>0.0000000000000000037210561009538</v>
       </c>
     </row>
     <row r="265">
@@ -13063,7 +13063,7 @@
         <v>15</v>
       </c>
       <c r="O266" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014920411764087</v>
       </c>
     </row>
     <row r="267">
@@ -13110,7 +13110,7 @@
         <v>15</v>
       </c>
       <c r="O267" t="n">
-        <v>2.14139725181959e-298</v>
+        <v>5.20175294249594e-302</v>
       </c>
     </row>
     <row r="268">
@@ -13251,7 +13251,7 @@
         <v>15</v>
       </c>
       <c r="O270" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000153488770939323</v>
       </c>
     </row>
     <row r="271">
@@ -13345,7 +13345,7 @@
         <v>15</v>
       </c>
       <c r="O272" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512076214926673</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000380479579689939</v>
       </c>
     </row>
     <row r="273">
@@ -13533,7 +13533,7 @@
         <v>15</v>
       </c>
       <c r="O276" t="n">
-        <v>1.73092868077348e-261</v>
+        <v>1.29466761610261e-252</v>
       </c>
     </row>
     <row r="277">
@@ -13721,7 +13721,7 @@
         <v>15</v>
       </c>
       <c r="O280" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000700644775988614</v>
       </c>
     </row>
     <row r="281">
@@ -13815,7 +13815,7 @@
         <v>15</v>
       </c>
       <c r="O282" t="n">
-        <v>5.7734552186158e-236</v>
+        <v>4.22631056224315e-249</v>
       </c>
     </row>
     <row r="283">
@@ -13909,7 +13909,7 @@
         <v>15</v>
       </c>
       <c r="O284" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000174067541829927</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000706589967423265</v>
       </c>
     </row>
     <row r="285">
@@ -13956,7 +13956,7 @@
         <v>15</v>
       </c>
       <c r="O285" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000120473153940725</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000317657931336697</v>
       </c>
     </row>
     <row r="286">
@@ -14050,7 +14050,7 @@
         <v>15</v>
       </c>
       <c r="O287" t="n">
-        <v>0.00000000000994579850683943</v>
+        <v>0.00000000826550564227989</v>
       </c>
     </row>
     <row r="288">
@@ -14097,7 +14097,7 @@
         <v>15</v>
       </c>
       <c r="O288" t="n">
-        <v>0.000000000000000000000000098437879830168</v>
+        <v>0.000000000000000370142335831597</v>
       </c>
     </row>
     <row r="289">
@@ -14144,7 +14144,7 @@
         <v>15</v>
       </c>
       <c r="O289" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000116588783756307</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000292243492939711</v>
       </c>
     </row>
     <row r="290">
@@ -14191,7 +14191,7 @@
         <v>15</v>
       </c>
       <c r="O290" t="n">
-        <v>0.0000000000000000000000000000000647612429376324</v>
+        <v>0.00000000000000000000000000000000000752285522899553</v>
       </c>
     </row>
     <row r="291">
@@ -14238,7 +14238,7 @@
         <v>15</v>
       </c>
       <c r="O291" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000226726140524076</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000405415405207479</v>
       </c>
     </row>
     <row r="292">
@@ -14426,7 +14426,7 @@
         <v>15</v>
       </c>
       <c r="O295" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000334566327310713</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000217208231555158</v>
       </c>
     </row>
     <row r="296">
@@ -14520,7 +14520,7 @@
         <v>15</v>
       </c>
       <c r="O297" t="n">
-        <v>1.55694509112946e-274</v>
+        <v>5.55773857215176e-280</v>
       </c>
     </row>
     <row r="298">
@@ -14614,7 +14614,7 @@
         <v>15</v>
       </c>
       <c r="O299" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000700644775988614</v>
       </c>
     </row>
     <row r="300">
@@ -14661,7 +14661,7 @@
         <v>15</v>
       </c>
       <c r="O300" t="n">
-        <v>0.0000000000000000000000000000000000000000000822006274936853</v>
+        <v>0.0000000000000000000000000000000000000000000000742851699028988</v>
       </c>
     </row>
     <row r="301">
@@ -14755,7 +14755,7 @@
         <v>15</v>
       </c>
       <c r="O302" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000122703897708059</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000145572732267872</v>
       </c>
     </row>
     <row r="303">
@@ -14802,7 +14802,7 @@
         <v>15</v>
       </c>
       <c r="O303" t="n">
-        <v>0.000000000000000000000000098437879830168</v>
+        <v>0.000000000000000370142335831597</v>
       </c>
     </row>
     <row r="304">
@@ -14896,7 +14896,7 @@
         <v>15</v>
       </c>
       <c r="O305" t="n">
-        <v>4.81388823256743e-263</v>
+        <v>5.11230883644284e-260</v>
       </c>
     </row>
     <row r="306">
@@ -15037,7 +15037,7 @@
         <v>15</v>
       </c>
       <c r="O308" t="n">
-        <v>5.66000186022323e-287</v>
+        <v>2.20467878656712e-284</v>
       </c>
     </row>
     <row r="309">
@@ -15178,7 +15178,7 @@
         <v>15</v>
       </c>
       <c r="O311" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000898471431905002</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012262112183429</v>
       </c>
     </row>
     <row r="312">
@@ -15319,7 +15319,7 @@
         <v>15</v>
       </c>
       <c r="O314" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000636656454090751</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000580470728211269</v>
       </c>
     </row>
     <row r="315">
@@ -15366,7 +15366,7 @@
         <v>15</v>
       </c>
       <c r="O315" t="n">
-        <v>1.09664862497569e-280</v>
+        <v>1.7051049215907e-268</v>
       </c>
     </row>
     <row r="316">
@@ -15413,7 +15413,7 @@
         <v>15</v>
       </c>
       <c r="O316" t="n">
-        <v>2.88724751812778e-209</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000484452984650621</v>
       </c>
     </row>
     <row r="317">
@@ -15460,7 +15460,7 @@
         <v>15</v>
       </c>
       <c r="O317" t="n">
-        <v>2.04096275119464e-224</v>
+        <v>4.54519683966408e-218</v>
       </c>
     </row>
     <row r="318">
@@ -15695,7 +15695,7 @@
         <v>15</v>
       </c>
       <c r="O322" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000673770942818835</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000263246825138453</v>
       </c>
     </row>
     <row r="323">
@@ -15742,7 +15742,7 @@
         <v>15</v>
       </c>
       <c r="O323" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014920411764087</v>
       </c>
     </row>
     <row r="324">
@@ -15789,7 +15789,7 @@
         <v>15</v>
       </c>
       <c r="O324" t="n">
-        <v>0.00000000000000000000000000000000000000000241516261606178</v>
+        <v>0.0000000000000000000000000000000000000000000000000000138542827075083</v>
       </c>
     </row>
     <row r="325">
@@ -15836,7 +15836,7 @@
         <v>15</v>
       </c>
       <c r="O325" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000431310345149332</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000910709059228634</v>
       </c>
     </row>
     <row r="326">
@@ -15883,7 +15883,7 @@
         <v>15</v>
       </c>
       <c r="O326" t="n">
-        <v>2.04096275119464e-224</v>
+        <v>4.54519683966408e-218</v>
       </c>
     </row>
     <row r="327">
@@ -16024,7 +16024,7 @@
         <v>15</v>
       </c>
       <c r="O329" t="n">
-        <v>3.21583620212478e-220</v>
+        <v>2.25625489170803e-231</v>
       </c>
     </row>
     <row r="330">
@@ -16212,7 +16212,7 @@
         <v>15</v>
       </c>
       <c r="O333" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141029983243652</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132385968461793</v>
       </c>
     </row>
     <row r="334">
@@ -16259,7 +16259,7 @@
         <v>15</v>
       </c>
       <c r="O334" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187235311246323</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000245823033787627</v>
       </c>
     </row>
     <row r="335">
@@ -16306,7 +16306,7 @@
         <v>15</v>
       </c>
       <c r="O335" t="n">
-        <v>4.18731503987562e-289</v>
+        <v>2.33573037228808e-293</v>
       </c>
     </row>
     <row r="336">
@@ -16353,7 +16353,7 @@
         <v>15</v>
       </c>
       <c r="O336" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000151441904202963</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000164573155682324</v>
       </c>
     </row>
     <row r="337">
@@ -16447,7 +16447,7 @@
         <v>15</v>
       </c>
       <c r="O338" t="n">
-        <v>3.22373334824854e-304</v>
+        <v>3.94669904089202e-305</v>
       </c>
     </row>
     <row r="339">
@@ -16494,7 +16494,7 @@
         <v>15</v>
       </c>
       <c r="O339" t="n">
-        <v>0.00000000000000000000000000000814794009576301</v>
+        <v>0.0000000000000000000000000000321946350851644</v>
       </c>
     </row>
     <row r="340">
@@ -16541,7 +16541,7 @@
         <v>15</v>
       </c>
       <c r="O340" t="n">
-        <v>5.95102749981025e-291</v>
+        <v>4.37028206729341e-296</v>
       </c>
     </row>
     <row r="341">
@@ -16588,7 +16588,7 @@
         <v>16</v>
       </c>
       <c r="O341" t="n">
-        <v>0.999940860133762</v>
+        <v>0.999999999995214</v>
       </c>
     </row>
     <row r="342">
@@ -16682,7 +16682,7 @@
         <v>15</v>
       </c>
       <c r="O343" t="n">
-        <v>0.000000000000000000000000000000000000153673937456931</v>
+        <v>0.000000000000000000000000000000000406955715158347</v>
       </c>
     </row>
     <row r="344">
@@ -16776,7 +16776,7 @@
         <v>15</v>
       </c>
       <c r="O345" t="n">
-        <v>6.37665430987106e-221</v>
+        <v>3.02695423921682e-219</v>
       </c>
     </row>
     <row r="346">
@@ -16870,7 +16870,7 @@
         <v>15</v>
       </c>
       <c r="O347" t="n">
-        <v>1.84268958210803e-287</v>
+        <v>6.20623836148017e-297</v>
       </c>
     </row>
     <row r="348">
@@ -17152,7 +17152,7 @@
         <v>15</v>
       </c>
       <c r="O353" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000420514189631743</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000119578673741705</v>
       </c>
     </row>
     <row r="354">
@@ -17199,7 +17199,7 @@
         <v>15</v>
       </c>
       <c r="O354" t="n">
-        <v>0.0000000000265535889273659</v>
+        <v>0.000000000225330447164565</v>
       </c>
     </row>
     <row r="355">
@@ -17246,7 +17246,7 @@
         <v>15</v>
       </c>
       <c r="O355" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012464741705031</v>
       </c>
     </row>
     <row r="356">
@@ -17575,7 +17575,7 @@
         <v>15</v>
       </c>
       <c r="O362" t="n">
-        <v>1.08647499374317e-261</v>
+        <v>1.49968980026588e-258</v>
       </c>
     </row>
     <row r="363">
@@ -17622,7 +17622,7 @@
         <v>15</v>
       </c>
       <c r="O363" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000165129121294511</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000353322443518907</v>
       </c>
     </row>
     <row r="364">
@@ -17763,7 +17763,7 @@
         <v>15</v>
       </c>
       <c r="O366" t="n">
-        <v>9.62784047820684e-296</v>
+        <v>2.82589865110871e-290</v>
       </c>
     </row>
     <row r="367">
@@ -17857,7 +17857,7 @@
         <v>15</v>
       </c>
       <c r="O368" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000943982374985718</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000398234939457199</v>
       </c>
     </row>
     <row r="369">
@@ -17904,7 +17904,7 @@
         <v>16</v>
       </c>
       <c r="O369" t="n">
-        <v>0.999998492852539</v>
+        <v>0.999999999998844</v>
       </c>
     </row>
     <row r="370">
@@ -17998,7 +17998,7 @@
         <v>15</v>
       </c>
       <c r="O371" t="n">
-        <v>3.36702944435353e-292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -18045,7 +18045,7 @@
         <v>15</v>
       </c>
       <c r="O372" t="n">
-        <v>1.01367815763967e-240</v>
+        <v>1.57199963909303e-243</v>
       </c>
     </row>
     <row r="373">
@@ -18139,7 +18139,7 @@
         <v>15</v>
       </c>
       <c r="O374" t="n">
-        <v>1.29167994476093e-248</v>
+        <v>1.04857707703434e-243</v>
       </c>
     </row>
     <row r="375">
@@ -18280,7 +18280,7 @@
         <v>15</v>
       </c>
       <c r="O377" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000204701020990435</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000418411922563088</v>
       </c>
     </row>
     <row r="378">
@@ -18562,7 +18562,7 @@
         <v>15</v>
       </c>
       <c r="O383" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000209271356747154</v>
+        <v>1.97255620226876e-216</v>
       </c>
     </row>
     <row r="384">
@@ -18609,7 +18609,7 @@
         <v>15</v>
       </c>
       <c r="O384" t="n">
-        <v>0.0000000124507109176194</v>
+        <v>0.000000299490250099174</v>
       </c>
     </row>
     <row r="385">
@@ -18844,7 +18844,7 @@
         <v>15</v>
       </c>
       <c r="O389" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000531236298398763</v>
       </c>
     </row>
     <row r="390">
@@ -18891,7 +18891,7 @@
         <v>15</v>
       </c>
       <c r="O390" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000138759695725445</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000715407134551673</v>
       </c>
     </row>
     <row r="391">
@@ -18985,7 +18985,7 @@
         <v>15</v>
       </c>
       <c r="O392" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000531236298398763</v>
       </c>
     </row>
     <row r="393">
@@ -19079,7 +19079,7 @@
         <v>15</v>
       </c>
       <c r="O394" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132333419159081</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000514540722322207</v>
       </c>
     </row>
     <row r="395">
@@ -19126,7 +19126,7 @@
         <v>15</v>
       </c>
       <c r="O395" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000954238933258724</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000986370878484887</v>
       </c>
     </row>
     <row r="396">
@@ -19173,7 +19173,7 @@
         <v>15</v>
       </c>
       <c r="O396" t="n">
-        <v>0.0000000194173425803974</v>
+        <v>0.00000000000000000656186924447486</v>
       </c>
     </row>
     <row r="397">
@@ -19314,7 +19314,7 @@
         <v>15</v>
       </c>
       <c r="O399" t="n">
-        <v>2.88724751812778e-209</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000484452984650621</v>
       </c>
     </row>
     <row r="400">
@@ -19455,7 +19455,7 @@
         <v>15</v>
       </c>
       <c r="O402" t="n">
-        <v>0.0000000000314928487891296</v>
+        <v>0.0000000000000754943898022136</v>
       </c>
     </row>
     <row r="403">
@@ -19502,7 +19502,7 @@
         <v>15</v>
       </c>
       <c r="O403" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000153488770939323</v>
       </c>
     </row>
     <row r="404">
@@ -19549,7 +19549,7 @@
         <v>15</v>
       </c>
       <c r="O404" t="n">
-        <v>2.94942265777797e-284</v>
+        <v>3.89715232168564e-293</v>
       </c>
     </row>
     <row r="405">
@@ -19596,7 +19596,7 @@
         <v>16</v>
       </c>
       <c r="O405" t="n">
-        <v>0.999999999997513</v>
+        <v>0.99999999997637</v>
       </c>
     </row>
     <row r="406">
@@ -19784,7 +19784,7 @@
         <v>15</v>
       </c>
       <c r="O409" t="n">
-        <v>0.00000000000000000109277952835641</v>
+        <v>0.00000000000000000000064080475790878</v>
       </c>
     </row>
     <row r="410">
@@ -19878,7 +19878,7 @@
         <v>15</v>
       </c>
       <c r="O411" t="n">
-        <v>5.02527690347205e-274</v>
+        <v>1.06944635068297e-272</v>
       </c>
     </row>
     <row r="412">
@@ -19925,7 +19925,7 @@
         <v>15</v>
       </c>
       <c r="O412" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000033691227460008</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000208768581069766</v>
       </c>
     </row>
     <row r="413">
@@ -20113,7 +20113,7 @@
         <v>15</v>
       </c>
       <c r="O416" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000843794753994223</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000102976881560999</v>
       </c>
     </row>
     <row r="417">
@@ -20160,7 +20160,7 @@
         <v>15</v>
       </c>
       <c r="O417" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000180744721706506</v>
       </c>
     </row>
     <row r="418">
@@ -20207,7 +20207,7 @@
         <v>15</v>
       </c>
       <c r="O418" t="n">
-        <v>0.0000000000265535889273659</v>
+        <v>0.000000000225330447164565</v>
       </c>
     </row>
     <row r="419">
@@ -20348,7 +20348,7 @@
         <v>15</v>
       </c>
       <c r="O421" t="n">
-        <v>7.696783518248e-217</v>
+        <v>1.60629150045803e-212</v>
       </c>
     </row>
     <row r="422">
@@ -20395,7 +20395,7 @@
         <v>15</v>
       </c>
       <c r="O422" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000700644775988614</v>
       </c>
     </row>
     <row r="423">
@@ -20442,7 +20442,7 @@
         <v>15</v>
       </c>
       <c r="O423" t="n">
-        <v>1.27482066577915e-239</v>
+        <v>1.02450242516886e-239</v>
       </c>
     </row>
     <row r="424">
@@ -20536,7 +20536,7 @@
         <v>15</v>
       </c>
       <c r="O425" t="n">
-        <v>5.76662978088407e-266</v>
+        <v>3.0297358366326e-262</v>
       </c>
     </row>
     <row r="426">
@@ -20583,7 +20583,7 @@
         <v>15</v>
       </c>
       <c r="O426" t="n">
-        <v>0.00138986546134693</v>
+        <v>0.00204114851001237</v>
       </c>
     </row>
     <row r="427">
@@ -20630,7 +20630,7 @@
         <v>15</v>
       </c>
       <c r="O427" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160820439815674</v>
       </c>
     </row>
     <row r="428">
@@ -20912,7 +20912,7 @@
         <v>15</v>
       </c>
       <c r="O433" t="n">
-        <v>1.13141368368132e-293</v>
+        <v>7.30626668420735e-291</v>
       </c>
     </row>
     <row r="434">
@@ -20959,7 +20959,7 @@
         <v>15</v>
       </c>
       <c r="O434" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516818800954809</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000259429304612909</v>
       </c>
     </row>
     <row r="435">
@@ -21100,7 +21100,7 @@
         <v>15</v>
       </c>
       <c r="O437" t="n">
-        <v>0.00000000000000256517541037383</v>
+        <v>0.0000000000000000037210561009538</v>
       </c>
     </row>
     <row r="438">
@@ -21194,7 +21194,7 @@
         <v>15</v>
       </c>
       <c r="O439" t="n">
-        <v>6.6243070294469e-224</v>
+        <v>5.92767843955237e-220</v>
       </c>
     </row>
     <row r="440">
@@ -21241,7 +21241,7 @@
         <v>15</v>
       </c>
       <c r="O440" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000479205943587705</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000259072988931755</v>
       </c>
     </row>
     <row r="441">
@@ -21288,7 +21288,7 @@
         <v>15</v>
       </c>
       <c r="O441" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000252505839245111</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003221535707456</v>
       </c>
     </row>
     <row r="442">
@@ -21335,7 +21335,7 @@
         <v>15</v>
       </c>
       <c r="O442" t="n">
-        <v>1.48409804482405e-268</v>
+        <v>5.64822012973067e-266</v>
       </c>
     </row>
     <row r="443">
@@ -21382,7 +21382,7 @@
         <v>15</v>
       </c>
       <c r="O443" t="n">
-        <v>1.27482066577915e-239</v>
+        <v>1.02450242516886e-239</v>
       </c>
     </row>
     <row r="444">
@@ -21429,7 +21429,7 @@
         <v>15</v>
       </c>
       <c r="O444" t="n">
-        <v>0.0000000000000493127208925284</v>
+        <v>0.00000000000000000000000000000000000000161687152933213</v>
       </c>
     </row>
     <row r="445">
@@ -21523,7 +21523,7 @@
         <v>15</v>
       </c>
       <c r="O446" t="n">
-        <v>3.21583620212478e-220</v>
+        <v>2.25625489170803e-231</v>
       </c>
     </row>
     <row r="447">
@@ -21758,7 +21758,7 @@
         <v>15</v>
       </c>
       <c r="O451" t="n">
-        <v>0.0000000000000000000000000000000000000000000822006274936853</v>
+        <v>0.0000000000000000000000000000000000000000000000742851699028988</v>
       </c>
     </row>
     <row r="452">
@@ -21805,7 +21805,7 @@
         <v>15</v>
       </c>
       <c r="O452" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000554282008839118</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160820439815674</v>
       </c>
     </row>
     <row r="453">
@@ -21899,7 +21899,7 @@
         <v>15</v>
       </c>
       <c r="O454" t="n">
-        <v>0.00000000000000000109277952835641</v>
+        <v>0.00000000000000000000064080475790878</v>
       </c>
     </row>
     <row r="455">
@@ -22463,7 +22463,7 @@
         <v>15</v>
       </c>
       <c r="O466" t="n">
-        <v>1.29167994476093e-248</v>
+        <v>1.04857707703434e-243</v>
       </c>
     </row>
     <row r="467">
@@ -22510,7 +22510,7 @@
         <v>15</v>
       </c>
       <c r="O467" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000124425692059952</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000412300204183487</v>
       </c>
     </row>
     <row r="468">
@@ -22557,7 +22557,7 @@
         <v>15</v>
       </c>
       <c r="O468" t="n">
-        <v>9.62784047820684e-296</v>
+        <v>2.82589865110871e-290</v>
       </c>
     </row>
     <row r="469">
@@ -22651,7 +22651,7 @@
         <v>15</v>
       </c>
       <c r="O470" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152709531312874</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000646461138924374</v>
       </c>
     </row>
     <row r="471">
@@ -22745,7 +22745,7 @@
         <v>15</v>
       </c>
       <c r="O472" t="n">
-        <v>3.53549979169009e-272</v>
+        <v>5.08443576237576e-275</v>
       </c>
     </row>
     <row r="473">
@@ -22792,7 +22792,7 @@
         <v>15</v>
       </c>
       <c r="O473" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000663630208357298</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000644801991987214</v>
       </c>
     </row>
     <row r="474">
@@ -22886,7 +22886,7 @@
         <v>15</v>
       </c>
       <c r="O475" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000377577265312765</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000674497943217274</v>
       </c>
     </row>
     <row r="476">
@@ -22980,7 +22980,7 @@
         <v>15</v>
       </c>
       <c r="O477" t="n">
-        <v>0.00138986546134693</v>
+        <v>0.00204114851001237</v>
       </c>
     </row>
     <row r="478">
@@ -23121,7 +23121,7 @@
         <v>15</v>
       </c>
       <c r="O480" t="n">
-        <v>5.02527690347205e-274</v>
+        <v>1.06944635068297e-272</v>
       </c>
     </row>
     <row r="481">
@@ -23215,7 +23215,7 @@
         <v>15</v>
       </c>
       <c r="O482" t="n">
-        <v>2.14139725181959e-298</v>
+        <v>5.20175294249594e-302</v>
       </c>
     </row>
     <row r="483">
@@ -23262,7 +23262,7 @@
         <v>15</v>
       </c>
       <c r="O483" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000162920781409946</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000457957623847143</v>
       </c>
     </row>
     <row r="484">
@@ -23403,7 +23403,7 @@
         <v>15</v>
       </c>
       <c r="O486" t="n">
-        <v>0.000000000000000000000000098437879830168</v>
+        <v>0.000000000000000370142335831597</v>
       </c>
     </row>
     <row r="487">
@@ -23450,7 +23450,7 @@
         <v>15</v>
       </c>
       <c r="O487" t="n">
-        <v>1.90123085134475e-301</v>
+        <v>8.468259409659e-306</v>
       </c>
     </row>
     <row r="488">
@@ -23497,7 +23497,7 @@
         <v>15</v>
       </c>
       <c r="O488" t="n">
-        <v>1.84268958210803e-287</v>
+        <v>6.20623836148017e-297</v>
       </c>
     </row>
     <row r="489">
@@ -23591,7 +23591,7 @@
         <v>15</v>
       </c>
       <c r="O490" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000663630208357298</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000644801991987214</v>
       </c>
     </row>
     <row r="491">
@@ -23685,7 +23685,7 @@
         <v>15</v>
       </c>
       <c r="O492" t="n">
-        <v>6.51289150245926e-208</v>
+        <v>1.97723232393038e-207</v>
       </c>
     </row>
     <row r="493">
@@ -23826,7 +23826,7 @@
         <v>15</v>
       </c>
       <c r="O495" t="n">
-        <v>0.000000000000000000000000000000000000000447341069171378</v>
+        <v>0.000000000000000000000000000000000000000000000000247092712112326</v>
       </c>
     </row>
     <row r="496">
@@ -23873,7 +23873,7 @@
         <v>16</v>
       </c>
       <c r="O496" t="n">
-        <v>0.999999999997513</v>
+        <v>0.99999999997637</v>
       </c>
     </row>
     <row r="497">
@@ -24155,7 +24155,7 @@
         <v>15</v>
       </c>
       <c r="O502" t="n">
-        <v>3.73558355753621e-266</v>
+        <v>3.08345520169184e-257</v>
       </c>
     </row>
     <row r="503">
@@ -24249,7 +24249,7 @@
         <v>15</v>
       </c>
       <c r="O504" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000159325839583198</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000681035688940169</v>
       </c>
     </row>
     <row r="505">
@@ -24343,7 +24343,7 @@
         <v>15</v>
       </c>
       <c r="O506" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000274344309278149</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000108656704871296</v>
       </c>
     </row>
     <row r="507">
@@ -24390,7 +24390,7 @@
         <v>15</v>
       </c>
       <c r="O507" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014920411764087</v>
       </c>
     </row>
     <row r="508">
@@ -24484,7 +24484,7 @@
         <v>15</v>
       </c>
       <c r="O509" t="n">
-        <v>4.81388823256743e-263</v>
+        <v>5.11230883644284e-260</v>
       </c>
     </row>
     <row r="510">
@@ -24578,7 +24578,7 @@
         <v>15</v>
       </c>
       <c r="O511" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000153488770939323</v>
       </c>
     </row>
     <row r="512">
@@ -24625,7 +24625,7 @@
         <v>15</v>
       </c>
       <c r="O512" t="n">
-        <v>1.24475812684072e-237</v>
+        <v>8.70305740962669e-235</v>
       </c>
     </row>
     <row r="513">
@@ -24954,7 +24954,7 @@
         <v>15</v>
       </c>
       <c r="O519" t="n">
-        <v>1.29167994476093e-248</v>
+        <v>1.04857707703434e-243</v>
       </c>
     </row>
     <row r="520">
@@ -25048,7 +25048,7 @@
         <v>15</v>
       </c>
       <c r="O521" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000230484223474185</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000033271155920789</v>
       </c>
     </row>
     <row r="522">
@@ -25565,7 +25565,7 @@
         <v>15</v>
       </c>
       <c r="O532" t="n">
-        <v>6.37665430987106e-221</v>
+        <v>3.02695423921682e-219</v>
       </c>
     </row>
     <row r="533">
@@ -25753,7 +25753,7 @@
         <v>16</v>
       </c>
       <c r="O536" t="n">
-        <v>0.999999999997513</v>
+        <v>0.99999999997637</v>
       </c>
     </row>
     <row r="537">
@@ -25800,7 +25800,7 @@
         <v>15</v>
       </c>
       <c r="O537" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000180744721706506</v>
       </c>
     </row>
     <row r="538">
@@ -25847,7 +25847,7 @@
         <v>15</v>
       </c>
       <c r="O538" t="n">
-        <v>1.66149591140725e-229</v>
+        <v>1.17930061193241e-231</v>
       </c>
     </row>
     <row r="539">
@@ -25988,7 +25988,7 @@
         <v>15</v>
       </c>
       <c r="O541" t="n">
-        <v>0.000000000000000000000000000000000000000025289001185318</v>
+        <v>0.00000000000000000000000000000000000000407356793341121</v>
       </c>
     </row>
     <row r="542">
@@ -26082,7 +26082,7 @@
         <v>15</v>
       </c>
       <c r="O543" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000124103031316252</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000753026447444745</v>
       </c>
     </row>
     <row r="544">
@@ -26176,7 +26176,7 @@
         <v>15</v>
       </c>
       <c r="O545" t="n">
-        <v>0.00138986546134693</v>
+        <v>0.00204114851001237</v>
       </c>
     </row>
     <row r="546">
@@ -26317,7 +26317,7 @@
         <v>15</v>
       </c>
       <c r="O548" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342579669933847</v>
       </c>
     </row>
     <row r="549">
@@ -26411,7 +26411,7 @@
         <v>15</v>
       </c>
       <c r="O550" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000150110931863441</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000020508838887309</v>
       </c>
     </row>
     <row r="551">
@@ -26458,7 +26458,7 @@
         <v>15</v>
       </c>
       <c r="O551" t="n">
-        <v>2.66070580586769e-210</v>
+        <v>3.84738641181227e-220</v>
       </c>
     </row>
     <row r="552">
@@ -26505,7 +26505,7 @@
         <v>16</v>
       </c>
       <c r="O552" t="n">
-        <v>1</v>
+        <v>0.999999999999189</v>
       </c>
     </row>
     <row r="553">
@@ -26552,7 +26552,7 @@
         <v>15</v>
       </c>
       <c r="O553" t="n">
-        <v>2.72229380059232e-249</v>
+        <v>4.58013026969778e-250</v>
       </c>
     </row>
     <row r="554">
@@ -26599,7 +26599,7 @@
         <v>15</v>
       </c>
       <c r="O554" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000116588783756307</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000292243492939711</v>
       </c>
     </row>
     <row r="555">
@@ -26740,7 +26740,7 @@
         <v>15</v>
       </c>
       <c r="O557" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132333419159081</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000514540722322207</v>
       </c>
     </row>
     <row r="558">
@@ -26928,7 +26928,7 @@
         <v>15</v>
       </c>
       <c r="O561" t="n">
-        <v>0.0000000000000210581648407418</v>
+        <v>0.000000000000000000037436165208915</v>
       </c>
     </row>
     <row r="562">
@@ -26975,7 +26975,7 @@
         <v>16</v>
       </c>
       <c r="O562" t="n">
-        <v>0.999998492852539</v>
+        <v>0.999999999998844</v>
       </c>
     </row>
     <row r="563">
@@ -27022,7 +27022,7 @@
         <v>16</v>
       </c>
       <c r="O563" t="n">
-        <v>0.999999999808812</v>
+        <v>0.999999960338917</v>
       </c>
     </row>
     <row r="564">
@@ -27069,7 +27069,7 @@
         <v>15</v>
       </c>
       <c r="O564" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000039306605848703</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197137346929358</v>
       </c>
     </row>
     <row r="565">
@@ -27116,7 +27116,7 @@
         <v>15</v>
       </c>
       <c r="O565" t="n">
-        <v>1.37157317377098e-220</v>
+        <v>2.65036656362776e-222</v>
       </c>
     </row>
     <row r="566">
@@ -27163,7 +27163,7 @@
         <v>15</v>
       </c>
       <c r="O566" t="n">
-        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
+        <v>0.0000000000000000000000000000000000000000000129733357902343</v>
       </c>
     </row>
     <row r="567">
@@ -27210,7 +27210,7 @@
         <v>15</v>
       </c>
       <c r="O567" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000180744721706506</v>
       </c>
     </row>
     <row r="568">
@@ -27351,7 +27351,7 @@
         <v>15</v>
       </c>
       <c r="O570" t="n">
-        <v>9.62784047820684e-296</v>
+        <v>2.82589865110871e-290</v>
       </c>
     </row>
     <row r="571">
@@ -27398,7 +27398,7 @@
         <v>15</v>
       </c>
       <c r="O571" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000031810178987996</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000479118655154403</v>
       </c>
     </row>
     <row r="572">
@@ -27445,7 +27445,7 @@
         <v>15</v>
       </c>
       <c r="O572" t="n">
-        <v>4.81388823256743e-263</v>
+        <v>5.11230883644284e-260</v>
       </c>
     </row>
     <row r="573">
@@ -27633,7 +27633,7 @@
         <v>15</v>
       </c>
       <c r="O576" t="n">
-        <v>3.53549979169009e-272</v>
+        <v>5.08443576237576e-275</v>
       </c>
     </row>
     <row r="577">
@@ -27680,7 +27680,7 @@
         <v>15</v>
       </c>
       <c r="O577" t="n">
-        <v>0.0000000000000000000000000894677823194504</v>
+        <v>0.00000000000000000000000000000319249426081149</v>
       </c>
     </row>
     <row r="578">
@@ -27868,7 +27868,7 @@
         <v>15</v>
       </c>
       <c r="O581" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012464741705031</v>
       </c>
     </row>
     <row r="582">
@@ -27915,7 +27915,7 @@
         <v>15</v>
       </c>
       <c r="O582" t="n">
-        <v>0.0000000000000000000000000000000000000000430768161652566</v>
+        <v>0.00000000000000000000000000000000000000000490633607204791</v>
       </c>
     </row>
     <row r="583">
@@ -28150,7 +28150,7 @@
         <v>15</v>
       </c>
       <c r="O587" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413036684482597</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000180744721706506</v>
       </c>
     </row>
     <row r="588">
@@ -28197,7 +28197,7 @@
         <v>15</v>
       </c>
       <c r="O588" t="n">
-        <v>9.62784047820684e-296</v>
+        <v>2.82589865110871e-290</v>
       </c>
     </row>
     <row r="589">
@@ -28291,7 +28291,7 @@
         <v>15</v>
       </c>
       <c r="O590" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000916301606330079</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127236187538434</v>
       </c>
     </row>
     <row r="591">
@@ -28338,7 +28338,7 @@
         <v>15</v>
       </c>
       <c r="O591" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149653326772468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012464741705031</v>
       </c>
     </row>
     <row r="592">
@@ -28385,7 +28385,7 @@
         <v>15</v>
       </c>
       <c r="O592" t="n">
-        <v>0.000000000000000000000000098437879830168</v>
+        <v>0.000000000000000370142335831597</v>
       </c>
     </row>
     <row r="593">
@@ -28432,7 +28432,7 @@
         <v>15</v>
       </c>
       <c r="O593" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000403432915009468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011621079590592</v>
       </c>
     </row>
     <row r="594">
@@ -28526,7 +28526,7 @@
         <v>15</v>
       </c>
       <c r="O595" t="n">
-        <v>0.000000000000000000000000000000000381958036217202</v>
+        <v>0.00000000000000000000000000000000000000186690833131421</v>
       </c>
     </row>
     <row r="596">
@@ -28620,7 +28620,7 @@
         <v>15</v>
       </c>
       <c r="O597" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342579669933847</v>
       </c>
     </row>
     <row r="598">
@@ -28714,7 +28714,7 @@
         <v>15</v>
       </c>
       <c r="O599" t="n">
-        <v>5.7734552186158e-236</v>
+        <v>4.22631056224315e-249</v>
       </c>
     </row>
     <row r="600">
@@ -28761,7 +28761,7 @@
         <v>15</v>
       </c>
       <c r="O600" t="n">
-        <v>4.81388823256743e-263</v>
+        <v>5.11230883644284e-260</v>
       </c>
     </row>
     <row r="601">
@@ -28949,7 +28949,7 @@
         <v>15</v>
       </c>
       <c r="O604" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000332949427612924</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000480066206918904</v>
       </c>
     </row>
     <row r="605">
@@ -29043,7 +29043,7 @@
         <v>15</v>
       </c>
       <c r="O606" t="n">
-        <v>6.45573834080994e-283</v>
+        <v>7.30012538650948e-283</v>
       </c>
     </row>
     <row r="607">
@@ -29137,7 +29137,7 @@
         <v>15</v>
       </c>
       <c r="O608" t="n">
-        <v>1.14884494028317e-278</v>
+        <v>2.22831373420764e-275</v>
       </c>
     </row>
     <row r="609">
@@ -29231,7 +29231,7 @@
         <v>15</v>
       </c>
       <c r="O610" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000162920781409946</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000457957623847143</v>
       </c>
     </row>
     <row r="611">
@@ -29325,7 +29325,7 @@
         <v>15</v>
       </c>
       <c r="O612" t="n">
-        <v>1.27482066577915e-239</v>
+        <v>1.02450242516886e-239</v>
       </c>
     </row>
     <row r="613">
@@ -29419,7 +29419,7 @@
         <v>15</v>
       </c>
       <c r="O614" t="n">
-        <v>0.0000000000000000000000000894677823194504</v>
+        <v>0.00000000000000000000000000000319249426081149</v>
       </c>
     </row>
     <row r="615">
@@ -29560,7 +29560,7 @@
         <v>15</v>
       </c>
       <c r="O617" t="n">
-        <v>4.76582263659421e-221</v>
+        <v>2.78742096143044e-232</v>
       </c>
     </row>
     <row r="618">
@@ -29701,7 +29701,7 @@
         <v>15</v>
       </c>
       <c r="O620" t="n">
-        <v>1.27482066577915e-239</v>
+        <v>1.02450242516886e-239</v>
       </c>
     </row>
     <row r="621">
@@ -29795,7 +29795,7 @@
         <v>15</v>
       </c>
       <c r="O622" t="n">
-        <v>1.37157317377098e-220</v>
+        <v>2.65036656362776e-222</v>
       </c>
     </row>
     <row r="623">
@@ -29842,7 +29842,7 @@
         <v>15</v>
       </c>
       <c r="O623" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000243407091352693</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000788699708470941</v>
       </c>
     </row>
     <row r="624">
@@ -29889,7 +29889,7 @@
         <v>15</v>
       </c>
       <c r="O624" t="n">
-        <v>0.00000000000000256517541037383</v>
+        <v>0.0000000000000000037210561009538</v>
       </c>
     </row>
     <row r="625">
@@ -30171,7 +30171,7 @@
         <v>15</v>
       </c>
       <c r="O630" t="n">
-        <v>6.63745696178728e-210</v>
+        <v>6.12067789770868e-206</v>
       </c>
     </row>
     <row r="631">
@@ -30265,7 +30265,7 @@
         <v>15</v>
       </c>
       <c r="O632" t="n">
-        <v>1.48409804482405e-268</v>
+        <v>5.64822012973067e-266</v>
       </c>
     </row>
     <row r="633">
@@ -30359,7 +30359,7 @@
         <v>15</v>
       </c>
       <c r="O634" t="n">
-        <v>0.00000000000000256517541037383</v>
+        <v>0.0000000000000000037210561009538</v>
       </c>
     </row>
     <row r="635">
@@ -30406,7 +30406,7 @@
         <v>15</v>
       </c>
       <c r="O635" t="n">
-        <v>2.72229380059232e-249</v>
+        <v>4.58013026969778e-250</v>
       </c>
     </row>
     <row r="636">
@@ -30641,7 +30641,7 @@
         <v>15</v>
       </c>
       <c r="O640" t="n">
-        <v>3.99284652606079e-215</v>
+        <v>2.56228922427713e-215</v>
       </c>
     </row>
     <row r="641">
@@ -30735,7 +30735,7 @@
         <v>15</v>
       </c>
       <c r="O642" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000113584482126276</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000730022264415142</v>
       </c>
     </row>
     <row r="643">
@@ -30782,7 +30782,7 @@
         <v>15</v>
       </c>
       <c r="O643" t="n">
-        <v>4.50625537539992e-271</v>
+        <v>4.27334626976981e-278</v>
       </c>
     </row>
     <row r="644">
@@ -30876,7 +30876,7 @@
         <v>16</v>
       </c>
       <c r="O645" t="n">
-        <v>0.999999990656718</v>
+        <v>0.998881400894969</v>
       </c>
     </row>
     <row r="646">
@@ -30970,7 +30970,7 @@
         <v>15</v>
       </c>
       <c r="O647" t="n">
-        <v>2.04096275119464e-224</v>
+        <v>4.54519683966408e-218</v>
       </c>
     </row>
     <row r="648">
@@ -31064,7 +31064,7 @@
         <v>15</v>
       </c>
       <c r="O649" t="n">
-        <v>0.00000000000000000000000000000000000000000094756106041651</v>
+        <v>0.0000000000000000000000000000000000000000000000000023643549561989</v>
       </c>
     </row>
     <row r="650">
@@ -31111,7 +31111,7 @@
         <v>15</v>
       </c>
       <c r="O650" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000894104882469862</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000700644775988614</v>
       </c>
     </row>
     <row r="651">
@@ -31158,7 +31158,7 @@
         <v>16</v>
       </c>
       <c r="O651" t="n">
-        <v>0.974498868683362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -31205,7 +31205,7 @@
         <v>15</v>
       </c>
       <c r="O652" t="n">
-        <v>1.29167994476093e-248</v>
+        <v>1.04857707703434e-243</v>
       </c>
     </row>
     <row r="653">
@@ -31252,7 +31252,7 @@
         <v>15</v>
       </c>
       <c r="O653" t="n">
-        <v>2.04096275119464e-224</v>
+        <v>4.54519683966408e-218</v>
       </c>
     </row>
     <row r="654">
@@ -31299,7 +31299,7 @@
         <v>15</v>
       </c>
       <c r="O654" t="n">
-        <v>4.54825242364679e-294</v>
+        <v>2.32237694057978e-288</v>
       </c>
     </row>
     <row r="655">
@@ -31440,7 +31440,7 @@
         <v>15</v>
       </c>
       <c r="O657" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000673770942818835</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000263246825138453</v>
       </c>
     </row>
     <row r="658">
@@ -31581,7 +31581,7 @@
         <v>15</v>
       </c>
       <c r="O660" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000412510748653623</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000732474623861298</v>
       </c>
     </row>
     <row r="661">
@@ -31628,7 +31628,7 @@
         <v>16</v>
       </c>
       <c r="O661" t="n">
-        <v>1</v>
+        <v>0.999999999999189</v>
       </c>
     </row>
     <row r="662">
@@ -31769,7 +31769,7 @@
         <v>15</v>
       </c>
       <c r="O664" t="n">
-        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
+        <v>0.0000000000000000000000000000000000000000000129733357902343</v>
       </c>
     </row>
     <row r="665">
@@ -31816,7 +31816,7 @@
         <v>15</v>
       </c>
       <c r="O665" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000409768070826436</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014920411764087</v>
       </c>
     </row>
     <row r="666">
@@ -31863,7 +31863,7 @@
         <v>15</v>
       </c>
       <c r="O666" t="n">
-        <v>1.48409804482405e-268</v>
+        <v>5.64822012973067e-266</v>
       </c>
     </row>
     <row r="667">
@@ -31910,7 +31910,7 @@
         <v>15</v>
       </c>
       <c r="O667" t="n">
-        <v>0.00000000000000000000000000000814794009576301</v>
+        <v>0.0000000000000000000000000000321946350851644</v>
       </c>
     </row>
     <row r="668">
@@ -31957,7 +31957,7 @@
         <v>15</v>
       </c>
       <c r="O668" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512076214926673</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000380479579689939</v>
       </c>
     </row>
     <row r="669">
@@ -32051,7 +32051,7 @@
         <v>15</v>
       </c>
       <c r="O670" t="n">
-        <v>2.31838939064657e-214</v>
+        <v>1.93335547769366e-214</v>
       </c>
     </row>
     <row r="671">
@@ -32474,7 +32474,7 @@
         <v>15</v>
       </c>
       <c r="O679" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000268757486533724</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000101215862175218</v>
       </c>
     </row>
     <row r="680">
@@ -32897,7 +32897,7 @@
         <v>15</v>
       </c>
       <c r="O688" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000898471431905002</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012262112183429</v>
       </c>
     </row>
     <row r="689">
@@ -32944,7 +32944,7 @@
         <v>16</v>
       </c>
       <c r="O689" t="n">
-        <v>1</v>
+        <v>0.999999999999189</v>
       </c>
     </row>
     <row r="690">
@@ -33367,7 +33367,7 @@
         <v>15</v>
       </c>
       <c r="O698" t="n">
-        <v>2.0632810336049e-207</v>
+        <v>4.47979049856266e-209</v>
       </c>
     </row>
     <row r="699">
@@ -33602,7 +33602,7 @@
         <v>15</v>
       </c>
       <c r="O703" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000173233942575658</v>
       </c>
     </row>
     <row r="704">
@@ -33743,7 +33743,7 @@
         <v>15</v>
       </c>
       <c r="O706" t="n">
-        <v>0.0000000000000210581648407418</v>
+        <v>0.000000000000000000037436165208915</v>
       </c>
     </row>
     <row r="707">
@@ -33931,7 +33931,7 @@
         <v>15</v>
       </c>
       <c r="O710" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342579669933847</v>
       </c>
     </row>
     <row r="711">
@@ -34025,7 +34025,7 @@
         <v>15</v>
       </c>
       <c r="O712" t="n">
-        <v>1.29128085285097e-219</v>
+        <v>2.58688933993665e-221</v>
       </c>
     </row>
     <row r="713">
@@ -34072,7 +34072,7 @@
         <v>15</v>
       </c>
       <c r="O713" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000063210547972491</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000312643001351606</v>
       </c>
     </row>
     <row r="714">
@@ -34166,7 +34166,7 @@
         <v>15</v>
       </c>
       <c r="O715" t="n">
-        <v>2.66070580586769e-210</v>
+        <v>3.84738641181227e-220</v>
       </c>
     </row>
     <row r="716">
@@ -34213,7 +34213,7 @@
         <v>15</v>
       </c>
       <c r="O716" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000205494913322529</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000282415090988838</v>
       </c>
     </row>
     <row r="717">
@@ -34257,10 +34257,10 @@
         <v>1</v>
       </c>
       <c r="N717" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O717" t="n">
-        <v>0.0305708934077169</v>
+        <v>0.674370003054873</v>
       </c>
     </row>
     <row r="718">
@@ -34307,7 +34307,7 @@
         <v>15</v>
       </c>
       <c r="O718" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000434523931134383</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000531236298398763</v>
       </c>
     </row>
     <row r="719">
@@ -34354,7 +34354,7 @@
         <v>15</v>
       </c>
       <c r="O719" t="n">
-        <v>8.01558214739635e-262</v>
+        <v>8.22905098769007e-258</v>
       </c>
     </row>
     <row r="720">
@@ -34542,7 +34542,7 @@
         <v>15</v>
       </c>
       <c r="O723" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000636360652060171</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000064917209784085</v>
       </c>
     </row>
     <row r="724">
@@ -34683,7 +34683,7 @@
         <v>15</v>
       </c>
       <c r="O726" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512076214926673</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000380479579689939</v>
       </c>
     </row>
     <row r="727">
@@ -34730,7 +34730,7 @@
         <v>15</v>
       </c>
       <c r="O727" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000811194176554875</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000153488770939323</v>
       </c>
     </row>
     <row r="728">
@@ -34777,7 +34777,7 @@
         <v>15</v>
       </c>
       <c r="O728" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193289421584399</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342579669933847</v>
       </c>
     </row>
     <row r="729">
@@ -34871,7 +34871,7 @@
         <v>15</v>
       </c>
       <c r="O730" t="n">
-        <v>4.29227578919951e-255</v>
+        <v>7.11835760415542e-262</v>
       </c>
     </row>
     <row r="731">
@@ -34965,7 +34965,7 @@
         <v>15</v>
       </c>
       <c r="O732" t="n">
-        <v>3.72987924422971e-307</v>
+        <v>3.20050052746744e-308</v>
       </c>
     </row>
     <row r="733">
@@ -35012,7 +35012,7 @@
         <v>15</v>
       </c>
       <c r="O733" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152709531312874</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000646461138924374</v>
       </c>
     </row>
     <row r="734">
@@ -35059,7 +35059,7 @@
         <v>15</v>
       </c>
       <c r="O734" t="n">
-        <v>1.16113944582599e-276</v>
+        <v>2.73915914149785e-282</v>
       </c>
     </row>
     <row r="735">
@@ -35153,7 +35153,7 @@
         <v>16</v>
       </c>
       <c r="O736" t="n">
-        <v>1</v>
+        <v>0.999999999999708</v>
       </c>
     </row>
     <row r="737">
@@ -35388,7 +35388,7 @@
         <v>15</v>
       </c>
       <c r="O741" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187235311246323</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000245823033787627</v>
       </c>
     </row>
     <row r="742">
@@ -35529,7 +35529,7 @@
         <v>15</v>
       </c>
       <c r="O744" t="n">
-        <v>0.00000121439765938442</v>
+        <v>0.000000000160488806564141</v>
       </c>
     </row>
     <row r="745">
@@ -35623,7 +35623,7 @@
         <v>15</v>
       </c>
       <c r="O746" t="n">
-        <v>0.000000000000000000000000000000000000000025289001185318</v>
+        <v>0.00000000000000000000000000000000000000407356793341121</v>
       </c>
     </row>
     <row r="747">
@@ -35764,7 +35764,7 @@
         <v>15</v>
       </c>
       <c r="O749" t="n">
-        <v>9.63332932732761e-284</v>
+        <v>1.46107735452471e-292</v>
       </c>
     </row>
     <row r="750">
@@ -35811,7 +35811,7 @@
         <v>15</v>
       </c>
       <c r="O750" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000431310345149332</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000910709059228634</v>
       </c>
     </row>
     <row r="751">
@@ -35858,7 +35858,7 @@
         <v>15</v>
       </c>
       <c r="O751" t="n">
-        <v>4.29227578919951e-255</v>
+        <v>7.11835760415542e-262</v>
       </c>
     </row>
     <row r="752">
@@ -35905,7 +35905,7 @@
         <v>15</v>
       </c>
       <c r="O752" t="n">
-        <v>1.27482066577915e-239</v>
+        <v>1.02450242516886e-239</v>
       </c>
     </row>
     <row r="753">
@@ -36046,7 +36046,7 @@
         <v>15</v>
       </c>
       <c r="O755" t="n">
-        <v>0.00000000000000000000000000000000232173301544418</v>
+        <v>0.000000000000000000000000000000000000665684730338364</v>
       </c>
     </row>
     <row r="756">
@@ -36234,7 +36234,7 @@
         <v>15</v>
       </c>
       <c r="O759" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000281848126609751</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000231858872203671</v>
       </c>
     </row>
     <row r="760">
@@ -36281,7 +36281,7 @@
         <v>15</v>
       </c>
       <c r="O760" t="n">
-        <v>0.0000000000000210581648407418</v>
+        <v>0.000000000000000000037436165208915</v>
       </c>
     </row>
     <row r="761">
@@ -36422,7 +36422,7 @@
         <v>15</v>
       </c>
       <c r="O763" t="n">
-        <v>2.29132037244875e-237</v>
+        <v>2.43050389663956e-233</v>
       </c>
     </row>
     <row r="764">
@@ -36516,7 +36516,7 @@
         <v>15</v>
       </c>
       <c r="O765" t="n">
-        <v>0</v>
+        <v>1.85802856207087e-303</v>
       </c>
     </row>
     <row r="766">
@@ -36563,7 +36563,7 @@
         <v>15</v>
       </c>
       <c r="O766" t="n">
-        <v>0</v>
+        <v>1.85802856207087e-303</v>
       </c>
     </row>
     <row r="767">
@@ -36610,7 +36610,7 @@
         <v>15</v>
       </c>
       <c r="O767" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000716860803474022</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000252165257204128</v>
       </c>
     </row>
     <row r="768">
@@ -36751,7 +36751,7 @@
         <v>15</v>
       </c>
       <c r="O770" t="n">
-        <v>6.45573834080994e-283</v>
+        <v>7.30012538650948e-283</v>
       </c>
     </row>
     <row r="771">
@@ -36798,7 +36798,7 @@
         <v>15</v>
       </c>
       <c r="O771" t="n">
-        <v>0.0000391832704317209</v>
+        <v>0.0000000000408917648709062</v>
       </c>
     </row>
     <row r="772">
@@ -36845,7 +36845,7 @@
         <v>15</v>
       </c>
       <c r="O772" t="n">
-        <v>0.0000000000000210581648407418</v>
+        <v>0.000000000000000000037436165208915</v>
       </c>
     </row>
     <row r="773">
@@ -36892,7 +36892,7 @@
         <v>15</v>
       </c>
       <c r="O773" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000958258944711147</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000345078678375831</v>
       </c>
     </row>
     <row r="774">
@@ -37033,7 +37033,7 @@
         <v>15</v>
       </c>
       <c r="O776" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000531592091405993</v>
       </c>
     </row>
     <row r="777">
@@ -37127,7 +37127,7 @@
         <v>15</v>
       </c>
       <c r="O778" t="n">
-        <v>4.81388823256743e-263</v>
+        <v>5.11230883644284e-260</v>
       </c>
     </row>
     <row r="779">
@@ -37174,7 +37174,7 @@
         <v>15</v>
       </c>
       <c r="O779" t="n">
-        <v>0.00000000000000256517541037383</v>
+        <v>0.0000000000000000037210561009538</v>
       </c>
     </row>
     <row r="780">
@@ -37221,7 +37221,7 @@
         <v>15</v>
       </c>
       <c r="O780" t="n">
-        <v>0.0000000000000993460245259094</v>
+        <v>0.000000000000000000000000000000000000000352112075660293</v>
       </c>
     </row>
     <row r="781">
@@ -37456,7 +37456,7 @@
         <v>16</v>
       </c>
       <c r="O785" t="n">
-        <v>0.999999990656718</v>
+        <v>0.998881400894969</v>
       </c>
     </row>
     <row r="786">
@@ -37597,7 +37597,7 @@
         <v>15</v>
       </c>
       <c r="O788" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000174067541829927</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000706589967423265</v>
       </c>
     </row>
     <row r="789">
@@ -37644,7 +37644,7 @@
         <v>15</v>
       </c>
       <c r="O789" t="n">
-        <v>3.98035164947155e-239</v>
+        <v>2.71862353841349e-242</v>
       </c>
     </row>
     <row r="790">
@@ -37785,7 +37785,7 @@
         <v>15</v>
       </c>
       <c r="O792" t="n">
-        <v>3.21583620212478e-220</v>
+        <v>2.25625489170803e-231</v>
       </c>
     </row>
     <row r="793">
@@ -37832,7 +37832,7 @@
         <v>16</v>
       </c>
       <c r="O793" t="n">
-        <v>0.974498868683362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -37879,7 +37879,7 @@
         <v>15</v>
       </c>
       <c r="O794" t="n">
-        <v>3.22373334824854e-304</v>
+        <v>3.94669904089202e-305</v>
       </c>
     </row>
     <row r="795">
@@ -38067,7 +38067,7 @@
         <v>15</v>
       </c>
       <c r="O798" t="n">
-        <v>1.39245633647474e-308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -38114,7 +38114,7 @@
         <v>15</v>
       </c>
       <c r="O799" t="n">
-        <v>0.000000000000000000000000000000000000000000000998615308677062</v>
+        <v>0.0000000000000000000000000000000000000000000129733357902343</v>
       </c>
     </row>
     <row r="800">
@@ -38253,19 +38253,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9</v>
+        <v>0.90125</v>
       </c>
       <c r="B2" t="n">
-        <v>0.78754578751694</v>
+        <v>0.788321167854441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.907172995742313</v>
+        <v>0.911392405024836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84313724989381</v>
+        <v>0.845401169161423</v>
       </c>
       <c r="E2" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
         <v>505</v>
@@ -38274,7 +38274,7 @@
         <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -38303,7 +38303,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C14" t="n">
         <v>58</v>
@@ -38314,7 +38314,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
         <v>505</v>
@@ -38348,7 +38348,7 @@
         <v>0.103019538188277</v>
       </c>
       <c r="B2" t="n">
-        <v>0.907172995780591</v>
+        <v>0.911392405063291</v>
       </c>
     </row>
     <row r="5">
@@ -40236,40 +40236,40 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.030880020577061</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E38" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.150726142089784</v>
+        <v>0.00184608999685714</v>
       </c>
       <c r="G38" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0806685137926412</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I38" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.249264133808377</v>
+        <v>-0.0613844778563458</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0839695271906683</v>
+        <v>-0.0964289470434346</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00547946808964876</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M38" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.127816703552079</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
@@ -40286,40 +40286,40 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00143963136694584</v>
+        <v>-0.16303789108698</v>
       </c>
       <c r="E39" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00184608999685714</v>
+        <v>-0.0365290268788196</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0613844778563458</v>
+        <v>0.150144365558179</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0964289470434346</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0340096235334561</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M39" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N39" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.127816703552079</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
@@ -40336,40 +40336,40 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.16303789108698</v>
+        <v>0.127838976409081</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0365290268788196</v>
+        <v>-0.0339621294289415</v>
       </c>
       <c r="G40" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H40" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I40" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J40" t="n">
-        <v>0.150144365558179</v>
+        <v>0.470722240049757</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0465912676323694</v>
+        <v>0.0406246713369947</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N40" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.0719143350141809</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
@@ -40386,31 +40386,31 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.127838976409081</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E41" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0339621294289415</v>
+        <v>-0.0615562770151305</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I41" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J41" t="n">
-        <v>0.470722240049757</v>
+        <v>-0.0784644465792577</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0406246713369947</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0340096235334561</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M41" t="n">
         <v>-0.168490582886858</v>
@@ -40419,7 +40419,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.0719143350141809</v>
+        <v>-0.0620492111545519</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
@@ -40436,19 +40436,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.00574610458193836</v>
       </c>
       <c r="E42" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0615562770151305</v>
+        <v>-0.0566791718603622</v>
       </c>
       <c r="G42" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H42" t="n">
-        <v>0.245933003365418</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I42" t="n">
         <v>0.165630088244357</v>
@@ -40457,10 +40457,10 @@
         <v>-0.0784644465792577</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M42" t="n">
         <v>-0.168490582886858</v>
@@ -40469,7 +40469,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0620492111545519</v>
+        <v>0.0661973990206253</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
@@ -40486,40 +40486,40 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00574610458193836</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E43" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0566791718603622</v>
+        <v>-0.0588610346927586</v>
       </c>
       <c r="G43" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0255803506017156</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I43" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0784644465792577</v>
+        <v>0.0358399594894606</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0230506873541586</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N43" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0661973990206253</v>
+        <v>0.102369519839265</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
@@ -40536,31 +40536,31 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.181705062982426</v>
       </c>
       <c r="E44" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0588610346927586</v>
+        <v>-0.0620696565051061</v>
       </c>
       <c r="G44" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I44" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0358399594894606</v>
+        <v>0.188245834247752</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M44" t="n">
         <v>0.0953822783822888</v>
@@ -40569,7 +40569,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O44" t="n">
-        <v>0.102369519839265</v>
+        <v>0.127032329488338</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
@@ -40586,40 +40586,40 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00574610458193836</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E45" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0627113808675756</v>
+        <v>-0.0587326898202647</v>
       </c>
       <c r="G45" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.0845959757801354</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J45" t="n">
-        <v>0.165910490533175</v>
+        <v>-0.036421446645936</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0157058316314621</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L45" t="n">
         <v>-0.0230506873541586</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N45" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0645532117106871</v>
+        <v>-0.0193003410961595</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
@@ -40636,40 +40636,40 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.181705062982426</v>
+        <v>0.0847461071504057</v>
       </c>
       <c r="E46" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0620696565051061</v>
+        <v>0.00685154002411932</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H46" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I46" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J46" t="n">
-        <v>0.188245834247752</v>
+        <v>0.0608029906998704</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0341318477796031</v>
+        <v>0.0904623507480599</v>
       </c>
       <c r="L46" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.194231620017002</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N46" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O46" t="n">
-        <v>0.127032329488338</v>
+        <v>-0.0390305888154175</v>
       </c>
       <c r="P46" t="s">
         <v>37</v>
@@ -40686,40 +40686,40 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.141491456457642</v>
       </c>
       <c r="E47" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0378124756037586</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0295078125892099</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I47" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J47" t="n">
-        <v>0.130436709339434</v>
+        <v>-0.0114584154355263</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M47" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N47" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O47" t="n">
-        <v>0.178002136096421</v>
+        <v>0.113878831008832</v>
       </c>
       <c r="P47" t="s">
         <v>37</v>
@@ -40736,40 +40736,40 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0524264552063989</v>
+        <v>-0.0876253698842974</v>
       </c>
       <c r="E48" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0587326898202647</v>
+        <v>0.432956516703874</v>
       </c>
       <c r="G48" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I48" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.036421446645936</v>
+        <v>0.138319771826932</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.0193003410961595</v>
+        <v>0.0234485289622329</v>
       </c>
       <c r="P48" t="s">
         <v>37</v>
@@ -40786,40 +40786,40 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0847461071504057</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E49" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00685154002411932</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G49" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.0255803506017156</v>
       </c>
       <c r="I49" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0608029906998704</v>
+        <v>-0.278168696262536</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0904623507480599</v>
+        <v>0.165218869864658</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.194231620017002</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0390305888154175</v>
+        <v>0.194444009195802</v>
       </c>
       <c r="P49" t="s">
         <v>37</v>
@@ -40836,31 +40836,31 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.141491456457642</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E50" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0664333821698988</v>
       </c>
       <c r="G50" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.139684138971061</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I50" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0114584154355263</v>
+        <v>-0.117879759016747</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0801109982417732</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M50" t="n">
         <v>0.0953822783822888</v>
@@ -40869,7 +40869,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O50" t="n">
-        <v>0.113878831008832</v>
+        <v>0.128676516798276</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
@@ -40886,40 +40886,40 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0876253698842974</v>
+        <v>-0.0768521525696284</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F51" t="n">
-        <v>0.432956516703874</v>
+        <v>-0.0414061320335879</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0255803506017156</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I51" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J51" t="n">
-        <v>0.138319771826932</v>
+        <v>-0.0469321966292664</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0590506874851357</v>
+        <v>0.252434808834022</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0910699344210707</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M51" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N51" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0234485289622329</v>
+        <v>-0.043963150745232</v>
       </c>
       <c r="P51" t="s">
         <v>37</v>
@@ -40936,40 +40936,40 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235571149555771</v>
+        <v>0.267890801499778</v>
       </c>
       <c r="E52" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.0595027590552281</v>
       </c>
       <c r="G52" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H52" t="n">
-        <v>0.135756676983567</v>
+        <v>0.245933003365418</v>
       </c>
       <c r="I52" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J52" t="n">
-        <v>0.076569115674866</v>
+        <v>-0.161236602697985</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L52" t="n">
-        <v>0.233720711640107</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.167277198990595</v>
+        <v>-0.0686259603943046</v>
       </c>
       <c r="P52" t="s">
         <v>37</v>
@@ -40989,37 +40989,37 @@
         <v>-0.109171804513635</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0546256539004598</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0255803506017156</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I53" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.278168696262536</v>
+        <v>-0.132332040243826</v>
       </c>
       <c r="K53" t="n">
-        <v>0.165218869864658</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L53" t="n">
         <v>-0.0230506873541586</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N53" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O53" t="n">
-        <v>0.194444009195802</v>
+        <v>0.0908602086696978</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
@@ -41027,7 +41027,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0.999999999999708</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -41036,40 +41036,40 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.106292541779744</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.0664333821698988</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.0845959757801354</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.117879759016747</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.137171309129388</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N54" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O54" t="n">
-        <v>0.128676516798276</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
@@ -41077,7 +41077,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0.999999999999189</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -41086,31 +41086,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0768521525696284</v>
+        <v>0.030880020577061</v>
       </c>
       <c r="E55" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0414061320335879</v>
+        <v>0.150726142089784</v>
       </c>
       <c r="G55" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I55" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.0469321966292664</v>
+        <v>-0.249264133808377</v>
       </c>
       <c r="K55" t="n">
-        <v>0.252434808834022</v>
+        <v>-0.0839695271906683</v>
       </c>
       <c r="L55" t="n">
-        <v>0.233720711640107</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M55" t="n">
         <v>0.0953822783822888</v>
@@ -41119,7 +41119,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.043963150745232</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
@@ -41127,7 +41127,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0.999999999999189</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -41136,40 +41136,40 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.267890801499778</v>
+        <v>0.00574610458193836</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.0595027590552281</v>
+        <v>-0.0627113808675756</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H56" t="n">
-        <v>0.245933003365418</v>
+        <v>-0.0845959757801354</v>
       </c>
       <c r="I56" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.161236602697985</v>
+        <v>0.165910490533175</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0216724279268368</v>
+        <v>0.0157058316314621</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.137171309129388</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M56" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N56" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.0686259603943046</v>
+        <v>0.0645532117106871</v>
       </c>
       <c r="P56" t="s">
         <v>37</v>
@@ -41177,7 +41177,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0.999999999999189</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -41192,34 +41192,34 @@
         <v>0.13477938971094</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0546256539004598</v>
+        <v>-0.0378124756037586</v>
       </c>
       <c r="G57" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0806685137926412</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I57" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.132332040243826</v>
+        <v>0.130436709339434</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0230506873541586</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0908602086696978</v>
+        <v>0.178002136096421</v>
       </c>
       <c r="P57" t="s">
         <v>37</v>
@@ -41227,7 +41227,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.999999999808812</v>
+        <v>0.999999960338917</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -41277,7 +41277,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.999999999808812</v>
+        <v>0.999999960338917</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -41327,7 +41327,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0305708934077169</v>
+        <v>0.00000000826550564227989</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -41336,31 +41336,31 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0660789352549595</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.00136253181549041</v>
+        <v>-0.0574492410953256</v>
       </c>
       <c r="G60" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00354508532534543</v>
+        <v>-0.139684138971061</v>
       </c>
       <c r="I60" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J60" t="n">
-        <v>0.00168002204363675</v>
+        <v>0.307805615308135</v>
       </c>
       <c r="K60" t="n">
-        <v>0.053084091189761</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.00547946808964876</v>
       </c>
       <c r="M60" t="n">
         <v>0.0953822783822888</v>
@@ -41369,7 +41369,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O60" t="n">
-        <v>0.13360907872809</v>
+        <v>0.0629090244007489</v>
       </c>
       <c r="P60" t="s">
         <v>38</v>
@@ -41377,7 +41377,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.00000121439765938442</v>
+        <v>0.000000000225330447164565</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -41386,40 +41386,40 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.106292541779744</v>
+        <v>0.0847461071504057</v>
       </c>
       <c r="E61" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0782112891307289</v>
+        <v>-0.0677168308948378</v>
       </c>
       <c r="G61" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H61" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I61" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J61" t="n">
-        <v>0.125181334347769</v>
+        <v>0.0345261157415443</v>
       </c>
       <c r="K61" t="n">
         <v>-0.0590506874851357</v>
       </c>
       <c r="L61" t="n">
-        <v>0.119600089864878</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O61" t="n">
-        <v>0.105657894459141</v>
+        <v>-0.183719072089976</v>
       </c>
       <c r="P61" t="s">
         <v>38</v>
@@ -41427,7 +41427,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0000000000265535889273659</v>
+        <v>0.000000000225330447164565</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -41436,40 +41436,40 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0847461071504057</v>
+        <v>0.267890801499778</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0677168308948378</v>
+        <v>0.0407345863625095</v>
       </c>
       <c r="G62" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I62" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0345261157415443</v>
+        <v>-0.036421446645936</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.0590506874851357</v>
+        <v>-0.00921300807407051</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M62" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N62" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.183719072089976</v>
+        <v>-0.0176561537862213</v>
       </c>
       <c r="P62" t="s">
         <v>38</v>
@@ -41477,7 +41477,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0000000000265535889273659</v>
+        <v>0.000000000225330447164565</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -41486,40 +41486,40 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267890801499778</v>
+        <v>-0.0768521525696284</v>
       </c>
       <c r="E63" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0407345863625095</v>
+        <v>-0.0643798642099963</v>
       </c>
       <c r="G63" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H63" t="n">
-        <v>0.135756676983567</v>
+        <v>-0.194772302161986</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.036421446645936</v>
+        <v>0.204011959222747</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.00921300807407051</v>
+        <v>0.00324641177869577</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.0625397789772634</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N63" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.0176561537862213</v>
+        <v>-0.145902763961399</v>
       </c>
       <c r="P63" t="s">
         <v>38</v>
@@ -41527,7 +41527,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0000000000265535889273659</v>
+        <v>0.000000000160488806564141</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -41536,31 +41536,31 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0768521525696284</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E64" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.0643798642099963</v>
+        <v>0.0782112891307289</v>
       </c>
       <c r="G64" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.194772302161986</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I64" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J64" t="n">
-        <v>0.204011959222747</v>
+        <v>0.125181334347769</v>
       </c>
       <c r="K64" t="n">
-        <v>0.00324641177869577</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0625397789772634</v>
+        <v>0.119600089864878</v>
       </c>
       <c r="M64" t="n">
         <v>-0.168490582886858</v>
@@ -41569,7 +41569,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.145902763961399</v>
+        <v>0.105657894459141</v>
       </c>
       <c r="P64" t="s">
         <v>38</v>
@@ -41577,7 +41577,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.00000000000994579850683943</v>
+        <v>0.000000000000000000000000000000000406955715158347</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -41586,31 +41586,31 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0229860659962837</v>
+        <v>-0.00143963136694584</v>
       </c>
       <c r="E65" t="n">
         <v>0.13477938971094</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.0574492410953256</v>
+        <v>0.0628099044314606</v>
       </c>
       <c r="G65" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.139684138971061</v>
+        <v>0.0806685137926412</v>
       </c>
       <c r="I65" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J65" t="n">
-        <v>0.307805615308135</v>
+        <v>-0.0167137904271915</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.0216724279268368</v>
+        <v>0.588839144858712</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00547946808964876</v>
+        <v>-0.165701464573195</v>
       </c>
       <c r="M65" t="n">
         <v>0.0953822783822888</v>
@@ -41619,7 +41619,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0629090244007489</v>
+        <v>-0.0406747761253557</v>
       </c>
       <c r="P65" t="s">
         <v>38</v>
@@ -41627,7 +41627,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.0000000000000000000000000000000647612429376324</v>
+        <v>0.00000000000000000000000000000000000752285522899553</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -41677,7 +41677,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.00000000000000000000000000000000232173301544418</v>
+        <v>0.000000000000000000000000000000000000665684730338364</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -41727,7 +41727,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.000000000000000000000000000000000000153673937456931</v>
+        <v>0.0000000000000000000000000000000000000000000000000000125187441270931</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -41777,7 +41777,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000150110931863441</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000020508838887309</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000328709265484516</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000164573155682324</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -41836,13 +41836,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.00143963136694584</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E70" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0628099044314606</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G70" t="n">
         <v>0.144132574259956</v>
@@ -41854,22 +41854,22 @@
         <v>-0.0970295666207614</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.0167137904271915</v>
+        <v>-0.0180276341751078</v>
       </c>
       <c r="K70" t="n">
-        <v>0.588839144858712</v>
+        <v>-0.071510107337902</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.165701464573195</v>
+        <v>-0.0230506873541586</v>
       </c>
       <c r="M70" t="n">
         <v>0.0953822783822888</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.0850308398692555</v>
+        <v>0.189002198571947</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.0406747761253557</v>
+        <v>-0.0850678334936863</v>
       </c>
       <c r="P70" t="s">
         <v>38</v>
@@ -41877,7 +41877,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000151441904202963</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000102314807308165</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -41886,40 +41886,40 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0336756183753449</v>
+        <v>-0.00136253181549041</v>
       </c>
       <c r="G71" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0806685137926412</v>
+        <v>-0.194772302161986</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.0180276341751078</v>
+        <v>0.0213876782623813</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.071510107337902</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.0230506873541586</v>
+        <v>-0.0801109982417732</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N71" t="n">
-        <v>0.189002198571947</v>
+        <v>-0.0850308398692555</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.0850678334936863</v>
+        <v>0.0892160213597596</v>
       </c>
       <c r="P71" t="s">
         <v>38</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000080209759956794</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000531592091405993</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -41936,40 +41936,40 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.195357543030987</v>
       </c>
       <c r="E72" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.00136253181549041</v>
+        <v>0.592489193213795</v>
       </c>
       <c r="G72" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.194772302161986</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I72" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0213876782623813</v>
+        <v>-0.312197249333568</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0341318477796031</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.0801109982417732</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N72" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0892160213597596</v>
+        <v>-0.0735585223241191</v>
       </c>
       <c r="P72" t="s">
         <v>38</v>
@@ -41977,7 +41977,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000531592091405993</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -41986,40 +41986,40 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.195357543030987</v>
+        <v>0.106292541779744</v>
       </c>
       <c r="E73" t="n">
         <v>-0.119239415730965</v>
       </c>
       <c r="F73" t="n">
-        <v>0.592489193213795</v>
+        <v>-0.0647648988274781</v>
       </c>
       <c r="G73" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H73" t="n">
-        <v>0.00354508532534543</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.312197249333568</v>
+        <v>-0.0351076028980197</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.0341318477796031</v>
+        <v>-0.0216724279268368</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0910699344210707</v>
+        <v>-0.137171309129388</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N73" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.0735585223241191</v>
+        <v>0.136897453347967</v>
       </c>
       <c r="P73" t="s">
         <v>38</v>
@@ -42027,7 +42027,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000529986599016889</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011621079590592</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -42036,13 +42036,13 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.106292541779744</v>
+        <v>-0.109171804513635</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0647648988274781</v>
+        <v>-0.0441013743559598</v>
       </c>
       <c r="G74" t="n">
         <v>0.144132574259956</v>
@@ -42054,13 +42054,13 @@
         <v>0.165630088244357</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.0351076028980197</v>
+        <v>0.0739414281790334</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.0216724279268368</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.137171309129388</v>
+        <v>-0.251291930904617</v>
       </c>
       <c r="M74" t="n">
         <v>-0.168490582886858</v>
@@ -42069,7 +42069,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O74" t="n">
-        <v>0.136897453347967</v>
+        <v>-0.170565573610471</v>
       </c>
       <c r="P74" t="s">
         <v>38</v>
@@ -42077,7 +42077,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000403432915009468</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000674497943217274</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -42086,40 +42086,40 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.109171804513635</v>
+        <v>-0.0229860659962837</v>
       </c>
       <c r="E75" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.0441013743559598</v>
+        <v>-0.0591177244377464</v>
       </c>
       <c r="G75" t="n">
         <v>0.144132574259956</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.00354508532534543</v>
       </c>
       <c r="I75" t="n">
         <v>0.165630088244357</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0739414281790334</v>
+        <v>-0.0127722591834426</v>
       </c>
       <c r="K75" t="n">
         <v>-0.0465912676323694</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.251291930904617</v>
+        <v>0.0625397789772634</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.168490582886858</v>
+        <v>0.0953822783822888</v>
       </c>
       <c r="N75" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.170565573610471</v>
+        <v>0.161560262997039</v>
       </c>
       <c r="P75" t="s">
         <v>38</v>
@@ -42127,7 +42127,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000173233942575658</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -42177,7 +42177,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000963001016013204</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000173233942575658</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -42227,7 +42227,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000377577265312765</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000484452984650621</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -42236,40 +42236,40 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0229860659962837</v>
+        <v>-0.152264673772311</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0591177244377464</v>
+        <v>-0.0387108897112159</v>
       </c>
       <c r="G78" t="n">
-        <v>0.144132574259956</v>
+        <v>-0.111501621088949</v>
       </c>
       <c r="H78" t="n">
-        <v>0.00354508532534543</v>
+        <v>-0.0295078125892099</v>
       </c>
       <c r="I78" t="n">
-        <v>0.165630088244357</v>
+        <v>-0.0970295666207614</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0127722591834426</v>
+        <v>0.112042896868606</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.0465912676323694</v>
+        <v>-0.0590506874851357</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0625397789772634</v>
+        <v>0.0910699344210707</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0953822783822888</v>
+        <v>-0.168490582886858</v>
       </c>
       <c r="N78" t="n">
         <v>-0.0850308398692555</v>
       </c>
       <c r="O78" t="n">
-        <v>0.161560262997039</v>
+        <v>-0.0373864015054794</v>
       </c>
       <c r="P78" t="s">
         <v>38</v>
@@ -42277,7 +42277,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.88724751812778e-209</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000484452984650621</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -42286,31 +42286,31 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.152264673772311</v>
+        <v>0.0524264552063989</v>
       </c>
       <c r="E79" t="n">
-        <v>0.13477938971094</v>
+        <v>-0.119239415730965</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0387108897112159</v>
+        <v>-0.0559091026253988</v>
       </c>
       <c r="G79" t="n">
         <v>-0.111501621088949</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.0295078125892099</v>
+        <v>0.301021166556343</v>
       </c>
       <c r="I79" t="n">
         <v>-0.0970295666207614</v>
       </c>
       <c r="J79" t="n">
-        <v>0.112042896868606</v>
+        <v>0.000836573772786963</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.0590506874851357</v>
+        <v>0.0157058316314621</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0910699344210707</v>
+        <v>0.0340096235334561</v>
       </c>
       <c r="M79" t="n">
         <v>-0.168490582886858</v>
@@ -42319,7 +42319,7 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0373864015054794</v>
+        <v>-0.200160945189358</v>
       </c>
       <c r="P79" t="s">
         <v>38</v>
@@ -42327,7 +42327,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.88724751812778e-209</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -42336,31 +42336,31 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0524264552063989</v>
+        <v>0.235571149555771</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.119239415730965</v>
+        <v>0.13477938971094</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.0559091026253988</v>
+        <v>0.0336756183753449</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.111501621088949</v>
+        <v>0.144132574259956</v>
       </c>
       <c r="H80" t="n">
-        <v>0.301021166556343</v>
+        <v>0.135756676983567</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.0970295666207614</v>
+        <v>0.165630088244357</v>
       </c>
       <c r="J80" t="n">
-        <v>0.000836573772786963</v>
+        <v>0.076569115674866</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0157058316314621</v>
+        <v>-0.0465912676323694</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0340096235334561</v>
+        <v>0.233720711640107</v>
       </c>
       <c r="M80" t="n">
         <v>-0.168490582886858</v>
@@ -42369,59 +42369,9 @@
         <v>-0.0850308398692555</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.200160945189358</v>
+        <v>-0.167277198990595</v>
       </c>
       <c r="P80" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.235571149555771</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.13477938971094</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.0336756183753449</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.144132574259956</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.135756676983567</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.165630088244357</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.076569115674866</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-0.0465912676323694</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.233720711640107</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-0.168490582886858</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-0.0850308398692555</v>
-      </c>
-      <c r="O81" t="n">
-        <v>-0.167277198990595</v>
-      </c>
-      <c r="P81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42461,16 +42411,16 @@
         <v>38</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0259831036158478</v>
+        <v>0.0303670102287434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0400583340709599</v>
+        <v>0.0394380599224455</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0215739387332847</v>
+        <v>0.0224324555622342</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0249055251073124</v>
+        <v>-0.0324538395756649</v>
       </c>
     </row>
     <row r="3">

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">age</t>
   </si>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Accuracy</t>
+    <t xml:space="preserve">Class</t>
   </si>
   <si>
     <t xml:space="preserve">Precision</t>
@@ -87,13 +87,10 @@
     <t xml:space="preserve">F1_Score</t>
   </si>
   <si>
-    <t xml:space="preserve">F1_Class0</t>
+    <t xml:space="preserve">Support</t>
   </si>
   <si>
-    <t xml:space="preserve">F1_Class1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macro_F1</t>
+    <t xml:space="preserve">Accuracy</t>
   </si>
   <si>
     <t xml:space="preserve">TP</t>
@@ -108,6 +105,12 @@
     <t xml:space="preserve">FN</t>
   </si>
   <si>
+    <t xml:space="preserve">macro avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weighted avg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interpretation</t>
   </si>
   <si>
@@ -117,13 +120,22 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Positive (1)</t>
+    <t xml:space="preserve">Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative (0)</t>
+    <t xml:space="preserve">Predicted</t>
   </si>
   <si>
-    <t xml:space="preserve">Class</t>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">MeanProbability</t>
@@ -132,13 +144,7 @@
     <t xml:space="preserve">StdDev</t>
   </si>
   <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commentary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prediction means data is missing or does not include a 'prob' column.</t>
+    <t xml:space="preserve">✅ Since your model produces mean 0.0752 for true label 0, and 0.9075 for true label 1, it’s making sharp, confident, and accurate predictions.</t>
   </si>
   <si>
     <t xml:space="preserve">predicted_prob</t>
@@ -150,13 +156,16 @@
     <t xml:space="preserve">actual_label</t>
   </si>
   <si>
+    <t xml:space="preserve">error</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">False Positive</t>
+    <t xml:space="preserve">False Negative</t>
   </si>
   <si>
-    <t xml:space="preserve">False Negative</t>
+    <t xml:space="preserve">False Positive</t>
   </si>
 </sst>
 </file>
@@ -43086,86 +43095,213 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.982625482625483</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.978846153846154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.980732177263969</v>
+      </c>
+      <c r="E2" t="n">
+        <v>520</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G2" t="n">
+        <v>271</v>
+      </c>
+      <c r="H2" t="n">
+        <v>509</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.960992907801418</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.967857142857143</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9644128113879</v>
+      </c>
+      <c r="E3" t="n">
+        <v>280</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G3" t="n">
+        <v>271</v>
+      </c>
+      <c r="H3" t="n">
+        <v>509</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B4" t="n">
+        <v>0.971809195213451</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.973351648351648</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.972572494325935</v>
+      </c>
+      <c r="E4" t="n">
+        <v>800</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.975</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.960992907767341</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.967857142822577</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.964412806353643</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.980732177263969</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9644128113879</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.972572494325935</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G4" t="n">
         <v>271</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H4" t="n">
         <v>509</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I4" t="n">
         <v>11</v>
       </c>
-      <c r="K2" t="n">
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.97505408143706</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.975020399207345</v>
+      </c>
+      <c r="E5" t="n">
+        <v>800</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G5" t="n">
+        <v>271</v>
+      </c>
+      <c r="H5" t="n">
+        <v>509</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="n">
-        <v>271</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="n">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="n">
-        <v>509</v>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="n">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -43185,16 +43321,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -43227,12 +43363,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -43251,13 +43387,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -43296,30 +43432,33 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.998423891468001</v>
+        <v>0.00000653165408495955</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.0532232367871467</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0463557834470937</v>
+        <v>-0.0551419790557054</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140090033267649</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H2" t="n">
         <v>-0.138460448550175</v>
@@ -43328,30 +43467,33 @@
         <v>-0.0955199418171921</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00217767286457587</v>
+        <v>-0.0712112368452979</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0203809007240386</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0231559509166694</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M2" t="n">
         <v>0.0937126778396502</v>
       </c>
       <c r="N2" t="n">
-        <v>0.188276232951694</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0372117479260586</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
+        <v>-0.0801128775044263</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.999993468345915</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9715689986555</v>
+        <v>0.998423891468001</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -43360,16 +43502,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.128834407494968</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.132347358479821</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0606647305811184</v>
+        <v>-0.0463557834470937</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H3" t="n">
         <v>-0.138460448550175</v>
@@ -43378,89 +43520,95 @@
         <v>-0.0955199418171921</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0373220327093071</v>
+        <v>-0.00217767286457587</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0452682397660883</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.090863213625946</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.107814525175513</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
+        <v>0.0372117479260586</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.998423891468001</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.953029377141658</v>
+        <v>0.0121192758121339</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
-        <v>-0.0223879339206751</v>
+        <v>0.193643982387387</v>
       </c>
       <c r="E4" t="n">
         <v>0.132347358479821</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0577778377382889</v>
+        <v>-0.0664385162667775</v>
       </c>
       <c r="G4" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.245122216505601</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I4" t="n">
-        <v>0.165128374537907</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0599148354666343</v>
+        <v>0.0128841956403089</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0452682397660883</v>
+        <v>-0.0825992483291629</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1193680047616</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M4" t="n">
         <v>0.0937126778396502</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0784833688178918</v>
-      </c>
-      <c r="P4" t="s">
-        <v>45</v>
+        <v>0.0909855345816975</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.987880724187866</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.936012812594198</v>
+        <v>0.0259176597676445</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.161239194941178</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E5" t="n">
         <v>-0.119179203192282</v>
@@ -43472,7 +43620,7 @@
         <v>0.140090033267649</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0836629249707786</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I5" t="n">
         <v>0.165128374537907</v>
@@ -43481,10 +43629,10 @@
         <v>-0.00423860088365631</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0580142172584181</v>
+        <v>-0.0228696346282436</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0801655331879771</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M5" t="n">
         <v>-0.168312901646214</v>
@@ -43493,15 +43641,18 @@
         <v>-0.0837761223546214</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.176253890009963</v>
-      </c>
-      <c r="P5" t="s">
-        <v>45</v>
+        <v>0.0877265172086285</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.974082340232356</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.898757922658311</v>
+        <v>0.9715689986555</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -43510,31 +43661,31 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0748264284179529</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.047736471328447</v>
+        <v>-0.0606647305811184</v>
       </c>
       <c r="G6" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00401311275625581</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0955199418171921</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0649354583015959</v>
+        <v>-0.0373220327093071</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0203809007240386</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.108670324323631</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M6" t="n">
         <v>-0.168312901646214</v>
@@ -43543,15 +43694,18 @@
         <v>-0.0837761223546214</v>
       </c>
       <c r="O6" t="n">
-        <v>0.185497038400699</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
+        <v>-0.107814525175513</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9715689986555</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.822025844766444</v>
+        <v>0.953029377141658</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -43560,48 +43714,51 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0748264284179529</v>
+        <v>-0.0223879339206751</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00142066876305128</v>
+        <v>-0.0577778377382889</v>
       </c>
       <c r="G7" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H7" t="n">
-        <v>0.135527169346807</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00423860088365631</v>
+        <v>-0.0599148354666343</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0228696346282436</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00534884021898446</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M7" t="n">
         <v>0.0937126778396502</v>
       </c>
       <c r="N7" t="n">
-        <v>0.188276232951694</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0898899296236334</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
+        <v>-0.0784833688178918</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.953029377141658</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.769065417750433</v>
+        <v>0.936012812594198</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -43610,31 +43767,31 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.195213466967125</v>
+        <v>0.161239194941178</v>
       </c>
       <c r="E8" t="n">
-        <v>0.132347358479821</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0430923393638951</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G8" t="n">
         <v>0.140090033267649</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.248055495708968</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0674457697190767</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.00793723120301372</v>
+        <v>0.0580142172584181</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0231559509166694</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M8" t="n">
         <v>-0.168312901646214</v>
@@ -43643,15 +43800,18 @@
         <v>-0.0837761223546214</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.107814525175513</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
+        <v>-0.176253890009963</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.936012812594198</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.769065417750433</v>
+        <v>0.898757922658311</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -43660,98 +43820,104 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.206015062782528</v>
+        <v>0.0748264284179529</v>
       </c>
       <c r="E9" t="n">
         <v>-0.119179203192282</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0558950815364435</v>
+        <v>-0.047736471328447</v>
       </c>
       <c r="G9" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0259321221880144</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I9" t="n">
         <v>-0.0955199418171921</v>
       </c>
       <c r="J9" t="n">
-        <v>0.134634299388128</v>
+        <v>-0.0649354583015959</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.070155578808138</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.090863213625946</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0937126778396502</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N9" t="n">
-        <v>0.188276232951694</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.102925999115909</v>
-      </c>
-      <c r="P9" t="s">
-        <v>45</v>
+        <v>0.185497038400699</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.898757922658311</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.769065417750433</v>
+        <v>0.16461049433762</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
       <c r="D10" t="n">
-        <v>-0.1088007004439</v>
+        <v>0.269255153095209</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0345571779155295</v>
+        <v>0.0397489335173005</v>
       </c>
       <c r="G10" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0259321221880144</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I10" t="n">
-        <v>0.165128374537907</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0241805970189726</v>
+        <v>-0.0398323441267879</v>
       </c>
       <c r="K10" t="n">
-        <v>0.116499464007235</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.165679906594939</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N10" t="n">
         <v>-0.0837761223546214</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.115962068608186</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
+        <v>-0.0165620387295803</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.83538950566238</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.709433863252301</v>
+        <v>0.822025844766444</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -43760,25 +43926,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226048769833596</v>
+        <v>0.0748264284179529</v>
       </c>
       <c r="E11" t="n">
         <v>-0.119179203192282</v>
       </c>
       <c r="F11" t="n">
-        <v>0.495375934363876</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G11" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0288654013913821</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I11" t="n">
         <v>-0.0955199418171921</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0448529669617495</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K11" t="n">
         <v>-0.0228696346282436</v>
@@ -43793,15 +43959,18 @@
         <v>0.188276232951694</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0393751603410635</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
+        <v>-0.0898899296236334</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.822025844766444</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.645049692487488</v>
+        <v>0.769065417750433</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -43810,31 +43979,31 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0100168535255342</v>
+        <v>-0.195213466967125</v>
       </c>
       <c r="E12" t="n">
         <v>0.132347358479821</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0639281746643171</v>
+        <v>-0.0430923393638951</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0259321221880144</v>
+        <v>-0.248055495708968</v>
       </c>
       <c r="I12" t="n">
-        <v>0.165128374537907</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0473632783792303</v>
+        <v>-0.0674457697190767</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0577119092871132</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1193680047616</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M12" t="n">
         <v>-0.168312901646214</v>
@@ -43843,98 +44012,104 @@
         <v>-0.0837761223546214</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.03448663428146</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
+        <v>-0.107814525175513</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.769065417750433</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.593423476405454</v>
+        <v>0.769065417750433</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.162808679520916</v>
+        <v>-0.206015062782528</v>
       </c>
       <c r="E13" t="n">
         <v>-0.119179203192282</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0358123487167598</v>
+        <v>-0.0558950815364435</v>
       </c>
       <c r="G13" t="n">
-        <v>0.140090033267649</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H13" t="n">
-        <v>0.245122216505601</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I13" t="n">
-        <v>0.165128374537907</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J13" t="n">
-        <v>0.138399766514349</v>
+        <v>0.134634299388128</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0452682397660883</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0231559509166694</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M13" t="n">
         <v>0.0937126778396502</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O13" t="n">
-        <v>0.089356025895163</v>
-      </c>
-      <c r="P13" t="s">
-        <v>46</v>
+        <v>-0.102925999115909</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.769065417750433</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.593423476405454</v>
+        <v>0.769065417750433</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0547927213668844</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E14" t="n">
         <v>-0.119179203192282</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0685723066288689</v>
+        <v>-0.0345571779155295</v>
       </c>
       <c r="G14" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0807296457674109</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I14" t="n">
         <v>0.165128374537907</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0718765139511078</v>
+        <v>0.0241805970189726</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0577119092871132</v>
+        <v>0.116499464007235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.090863213625946</v>
+        <v>-0.165679906594939</v>
       </c>
       <c r="M14" t="n">
         <v>-0.168312901646214</v>
@@ -43943,45 +44118,48 @@
         <v>-0.0837761223546214</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0931489469967024</v>
-      </c>
-      <c r="P14" t="s">
-        <v>46</v>
+        <v>-0.115962068608186</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.769065417750433</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.550271330029102</v>
+        <v>0.709433863252301</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0763959129976906</v>
+        <v>0.226048769833596</v>
       </c>
       <c r="E15" t="n">
-        <v>0.132347358479821</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0142689662523267</v>
+        <v>0.495375934363876</v>
       </c>
       <c r="G15" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00401311275625581</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I15" t="n">
         <v>-0.0955199418171921</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0794074482035502</v>
+        <v>-0.0448529669617495</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00450643831801113</v>
+        <v>-0.0228696346282436</v>
       </c>
       <c r="L15" t="n">
         <v>0.00534884021898446</v>
@@ -43993,15 +44171,18 @@
         <v>0.188276232951694</v>
       </c>
       <c r="O15" t="n">
-        <v>0.126834725685457</v>
-      </c>
-      <c r="P15" t="s">
-        <v>46</v>
+        <v>-0.0393751603410635</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.709433863252301</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.500296435167104</v>
+        <v>0.333763778013851</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -44010,98 +44191,104 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.195213466967125</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E16" t="n">
         <v>-0.119179203192282</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0664385162667775</v>
+        <v>-0.0659364479462854</v>
       </c>
       <c r="G16" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0259321221880144</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I16" t="n">
         <v>-0.0955199418171921</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0975695067288463</v>
+        <v>-0.185430406340674</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0825992483291629</v>
+        <v>0.191161481133384</v>
       </c>
       <c r="L16" t="n">
-        <v>0.090863213625946</v>
+        <v>-0.279699071137554</v>
       </c>
       <c r="M16" t="n">
         <v>0.0937126778396502</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O16" t="n">
-        <v>0.185497038400699</v>
-      </c>
-      <c r="P16" t="s">
-        <v>46</v>
+        <v>-0.109444033862048</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.666236221986149</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.333763778013851</v>
+        <v>0.645049692487488</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.000784742289868894</v>
+        <v>0.0100168535255342</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0659364479462854</v>
+        <v>-0.0639281746643171</v>
       </c>
       <c r="G17" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.193257972129572</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.185430406340674</v>
+        <v>-0.0473632783792303</v>
       </c>
       <c r="K17" t="n">
-        <v>0.191161481133384</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.279699071137554</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0937126778396502</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N17" t="n">
-        <v>0.188276232951694</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.109444033862048</v>
-      </c>
-      <c r="P17" t="s">
-        <v>46</v>
+        <v>-0.03448663428146</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.645049692487488</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.16461049433762</v>
+        <v>0.500296435167104</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -44110,31 +44297,31 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.269255153095209</v>
+        <v>-0.195213466967125</v>
       </c>
       <c r="E18" t="n">
-        <v>0.132347358479821</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0397489335173005</v>
+        <v>-0.0664385162667775</v>
       </c>
       <c r="G18" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H18" t="n">
-        <v>0.135527169346807</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I18" t="n">
         <v>-0.0955199418171921</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0398323441267879</v>
+        <v>-0.0975695067288463</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.00793723120301372</v>
+        <v>-0.0825992483291629</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0801655331879771</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M18" t="n">
         <v>0.0937126778396502</v>
@@ -44143,15 +44330,18 @@
         <v>-0.0837761223546214</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0165620387295803</v>
-      </c>
-      <c r="P18" t="s">
-        <v>46</v>
+        <v>0.185497038400699</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.499703564832896</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0259176597676445</v>
+        <v>0.550271330029102</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -44160,48 +44350,51 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.162808679520916</v>
+        <v>-0.0763959129976906</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00142066876305128</v>
+        <v>0.0142689662523267</v>
       </c>
       <c r="G19" t="n">
-        <v>0.140090033267649</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H19" t="n">
         <v>0.00401311275625581</v>
       </c>
       <c r="I19" t="n">
-        <v>0.165128374537907</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.00423860088365631</v>
+        <v>0.0794074482035502</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0228696346282436</v>
+        <v>0.00450643831801113</v>
       </c>
       <c r="L19" t="n">
         <v>0.00534884021898446</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0877265172086285</v>
-      </c>
-      <c r="P19" t="s">
-        <v>46</v>
+        <v>0.126834725685457</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.449728669970898</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0121192758121339</v>
+        <v>0.593423476405454</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -44210,48 +44403,51 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193643982387387</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E20" t="n">
-        <v>0.132347358479821</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0664385162667775</v>
+        <v>-0.0358123487167598</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0259321221880144</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0128841956403089</v>
+        <v>0.138399766514349</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0825992483291629</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00534884021898446</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M20" t="n">
         <v>0.0937126778396502</v>
       </c>
       <c r="N20" t="n">
-        <v>0.188276232951694</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0909855345816975</v>
-      </c>
-      <c r="P20" t="s">
-        <v>46</v>
+        <v>0.089356025895163</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.406576523594546</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.00000653165408495955</v>
+        <v>0.593423476405454</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -44260,43 +44456,46 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.000784742289868894</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E21" t="n">
-        <v>0.132347358479821</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0551419790557054</v>
+        <v>-0.0685723066288689</v>
       </c>
       <c r="G21" t="n">
         <v>-0.11259225485437</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.138460448550175</v>
+        <v>0.0807296457674109</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0712112368452979</v>
+        <v>0.0718765139511078</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0418374468810857</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0516607420523233</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0937126778396502</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N21" t="n">
         <v>-0.0837761223546214</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0801128775044263</v>
-      </c>
-      <c r="P21" t="s">
-        <v>46</v>
+        <v>-0.0931489469967024</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.406576523594546</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -44315,7 +44514,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -44332,7 +44531,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0211877566078525</v>
@@ -44349,7 +44548,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" t="n">
         <v>0.0178725595731001</v>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">age</t>
   </si>
@@ -114,7 +114,13 @@
     <t xml:space="preserve">Interpretation</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent performance: model is highly accurate and balanced.</t>
+    <t xml:space="preserve">Accuracy: 0.975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 Score: 0.9644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅ Balanced precision and recall.</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -43234,18 +43240,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -43264,7 +43275,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -43278,7 +43289,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -43292,7 +43303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -43324,13 +43335,13 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -43368,7 +43379,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -43387,13 +43398,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -43432,10 +43443,10 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -43449,46 +43460,46 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000784742289868894</v>
+        <v>8.16460371854308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.132347358479821</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0551419790557054</v>
+        <v>14.8218959813551</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.138460448550175</v>
+        <v>4.3963250792155</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0712112368452979</v>
+        <v>45847.3901118188</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0418374468810857</v>
+        <v>0.138170216775344</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0516607420523233</v>
+        <v>17.4596910288844</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0801128775044263</v>
+        <v>25.1218575955172</v>
       </c>
       <c r="P2" t="n">
         <v>0.999993468345915</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43502,46 +43513,46 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0532232367871467</v>
+        <v>10.6767894780948</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0463557834470937</v>
+        <v>134.527547423994</v>
       </c>
       <c r="G3" t="n">
-        <v>0.140090033267649</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.138460448550175</v>
+        <v>7.53655727865515</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.00217767286457587</v>
+        <v>63683.909004636</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0203809007240386</v>
+        <v>0.401949721528275</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0231559509166694</v>
+        <v>17.3340817409068</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0937126778396502</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.188276232951694</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0372117479260586</v>
+        <v>11.8072730698931</v>
       </c>
       <c r="P3" t="n">
         <v>0.998423891468001</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -43555,46 +43566,46 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193643982387387</v>
+        <v>6.53168297483446</v>
       </c>
       <c r="E4" t="n">
-        <v>0.132347358479821</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0664385162667775</v>
+        <v>23.8657647157413</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0259321221880144</v>
+        <v>4.77315294314826</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0128841956403089</v>
+        <v>47982.7480074378</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0825992483291629</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00534884021898446</v>
+        <v>17.585300316862</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N4" t="n">
-        <v>0.188276232951694</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0909855345816975</v>
+        <v>32.4071962982171</v>
       </c>
       <c r="P4" t="n">
         <v>0.987880724187866</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -43608,46 +43619,46 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.162808679520916</v>
+        <v>8.79265015843101</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00142066876305128</v>
+        <v>73.1046056029549</v>
       </c>
       <c r="G5" t="n">
-        <v>0.140090033267649</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00401311275625581</v>
+        <v>4.77315294314826</v>
       </c>
       <c r="I5" t="n">
-        <v>0.165128374537907</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00423860088365631</v>
+        <v>3152.7931282374</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0228696346282436</v>
+        <v>0.138170216775344</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00534884021898446</v>
+        <v>17.585300316862</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0877265172086285</v>
+        <v>30.8998848424861</v>
       </c>
       <c r="P5" t="n">
         <v>0.974082340232356</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -43661,46 +43672,46 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128834407494968</v>
+        <v>8.79265015843101</v>
       </c>
       <c r="E6" t="n">
-        <v>0.132347358479821</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0606647305811184</v>
+        <v>65.4424390363222</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.138460448550175</v>
+        <v>5.65241795899136</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0373220327093071</v>
+        <v>23237.7182758534</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0452682397660883</v>
+        <v>0.150731145573103</v>
       </c>
       <c r="L6" t="n">
-        <v>0.090863213625946</v>
+        <v>17.4596910288844</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.107814525175513</v>
+        <v>4.14510650326033</v>
       </c>
       <c r="P6" t="n">
         <v>0.9715689986555</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -43714,46 +43725,46 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0223879339206751</v>
+        <v>8.03899443056549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.132347358479821</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0577778377382889</v>
+        <v>202.230953643913</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.245122216505601</v>
+        <v>3.14023219943964</v>
       </c>
       <c r="I7" t="n">
-        <v>0.165128374537907</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0599148354666343</v>
+        <v>38310.8328331637</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0452682397660883</v>
+        <v>0.26377950475293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1193680047616</v>
+        <v>16.3292074370862</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0784833688178918</v>
+        <v>13.5658031015793</v>
       </c>
       <c r="P7" t="n">
         <v>0.953029377141658</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -43767,46 +43778,46 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161239194941178</v>
+        <v>8.16460371854308</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.119179203192282</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00142066876305128</v>
+        <v>73.1046056029549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.140090033267649</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0836629249707786</v>
+        <v>5.02437151910343</v>
       </c>
       <c r="I8" t="n">
-        <v>0.165128374537907</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00423860088365631</v>
+        <v>3391.45077539482</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0580142172584181</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0801655331879771</v>
+        <v>17.3340817409068</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.168312901646214</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.176253890009963</v>
+        <v>17.585300316862</v>
       </c>
       <c r="P8" t="n">
         <v>0.936012812594198</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -43820,46 +43831,46 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0748264284179529</v>
+        <v>10.6767894780948</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.047736471328447</v>
+        <v>36.5523028014775</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00401311275625581</v>
+        <v>7.53655727865515</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0649354583015959</v>
+        <v>63683.909004636</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0203809007240386</v>
+        <v>0.401949721528275</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.108670324323631</v>
+        <v>17.3340817409068</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.168312901646214</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.185497038400699</v>
+        <v>11.8072730698931</v>
       </c>
       <c r="P9" t="n">
         <v>0.898757922658311</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -43873,46 +43884,46 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.269255153095209</v>
+        <v>7.28533870269997</v>
       </c>
       <c r="E10" t="n">
-        <v>0.132347358479821</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0397489335173005</v>
+        <v>18.0877374687724</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.135527169346807</v>
+        <v>4.77315294314826</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0398323441267879</v>
+        <v>18464.5653327051</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.00793723120301372</v>
+        <v>0.08792650158431</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0801655331879771</v>
+        <v>17.8365188928172</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0165620387295803</v>
+        <v>10.4255709021396</v>
       </c>
       <c r="P10" t="n">
         <v>0.83538950566238</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -43926,46 +43937,46 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0748264284179529</v>
+        <v>5.90363653494653</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00142066876305128</v>
+        <v>73.1046056029549</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.135527169346807</v>
+        <v>3.14023219943964</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.00423860088365631</v>
+        <v>16329.2074370862</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0228696346282436</v>
+        <v>0.100487430382069</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00534884021898446</v>
+        <v>16.8316445889965</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N11" t="n">
-        <v>0.188276232951694</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0898899296236334</v>
+        <v>25.2474668834947</v>
       </c>
       <c r="P11" t="n">
         <v>0.822025844766444</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -43979,46 +43990,46 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.195213466967125</v>
+        <v>11.9328823578706</v>
       </c>
       <c r="E12" t="n">
-        <v>0.132347358479821</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0430923393638951</v>
+        <v>14.0682402534896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.140090033267649</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.248055495708968</v>
+        <v>5.02437151910343</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0674457697190767</v>
+        <v>24619.4204436068</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.00793723120301372</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0231559509166694</v>
+        <v>17.3340817409068</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.168312901646214</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.107814525175513</v>
+        <v>3.01462291146206</v>
       </c>
       <c r="P12" t="n">
         <v>0.769065417750433</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -44032,46 +44043,46 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.206015062782528</v>
+        <v>6.28046439887929</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0558950815364435</v>
+        <v>73.1046056029549</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0259321221880144</v>
+        <v>3.76827863932757</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.134634299388128</v>
+        <v>29141.3548107999</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.070155578808138</v>
+        <v>0.08792650158431</v>
       </c>
       <c r="L13" t="n">
-        <v>0.090863213625946</v>
+        <v>17.0828631649517</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0937126778396502</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.188276232951694</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.102925999115909</v>
+        <v>30.8998848424861</v>
       </c>
       <c r="P13" t="n">
         <v>0.769065417750433</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -44085,46 +44096,46 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1088007004439</v>
+        <v>7.28533870269997</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0345571779155295</v>
+        <v>16.7060353010189</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0259321221880144</v>
+        <v>7.53655727865515</v>
       </c>
       <c r="I14" t="n">
-        <v>0.165128374537907</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0241805970189726</v>
+        <v>33537.6798900154</v>
       </c>
       <c r="K14" t="n">
-        <v>0.116499464007235</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.165679906594939</v>
+        <v>17.7109096048396</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.115962068608186</v>
+        <v>10.4255709021396</v>
       </c>
       <c r="P14" t="n">
         <v>0.769065417750433</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -44138,46 +44149,46 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226048769833596</v>
+        <v>5.2755900950586</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.119179203192282</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.495375934363876</v>
+        <v>12.8121473737137</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0288654013913821</v>
+        <v>3.14023219943964</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0448529669617495</v>
+        <v>29769.4012506878</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0228696346282436</v>
+        <v>0.150731145573103</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00534884021898446</v>
+        <v>16.8316445889965</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0937126778396502</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.188276232951694</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0393751603410635</v>
+        <v>9.29508731034135</v>
       </c>
       <c r="P15" t="n">
         <v>0.709433863252301</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -44191,46 +44202,46 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.000784742289868894</v>
+        <v>5.2755900950586</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.119179203192282</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0659364479462854</v>
+        <v>654.298781075244</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.193257972129572</v>
+        <v>6.28046439887929</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.185430406340674</v>
+        <v>38687.6606970964</v>
       </c>
       <c r="K16" t="n">
-        <v>0.191161481133384</v>
+        <v>0.163292074370862</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.279699071137554</v>
+        <v>17.2084724529293</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N16" t="n">
-        <v>0.188276232951694</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.109444033862048</v>
+        <v>10.92800805405</v>
       </c>
       <c r="P16" t="n">
         <v>0.666236221986149</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -44244,46 +44255,46 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0100168535255342</v>
+        <v>5.65241795899136</v>
       </c>
       <c r="E17" t="n">
-        <v>0.132347358479821</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0639281746643171</v>
+        <v>73.1046056029549</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0259321221880144</v>
+        <v>3.76827863932757</v>
       </c>
       <c r="I17" t="n">
-        <v>0.165128374537907</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0473632783792303</v>
+        <v>17082.8631649517</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0577119092871132</v>
+        <v>0.138170216775344</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1193680047616</v>
+        <v>17.2084724529293</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.168312901646214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.03448663428146</v>
+        <v>1.38170216775344</v>
       </c>
       <c r="P17" t="n">
         <v>0.645049692487488</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -44297,46 +44308,46 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.195213466967125</v>
+        <v>9.42069659831893</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.119179203192282</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0664385162667775</v>
+        <v>73.1046056029549</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0259321221880144</v>
+        <v>3.14023219943964</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0975695067288463</v>
+        <v>45470.5622478861</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0825992483291629</v>
+        <v>0.213535789561896</v>
       </c>
       <c r="L18" t="n">
-        <v>0.090863213625946</v>
+        <v>17.4596910288844</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="O18" t="n">
-        <v>0.185497038400699</v>
+        <v>10.92800805405</v>
       </c>
       <c r="P18" t="n">
         <v>0.499703564832896</v>
       </c>
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -44350,46 +44361,46 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0763959129976906</v>
+        <v>6.65729226281205</v>
       </c>
       <c r="E19" t="n">
-        <v>0.132347358479821</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0142689662523267</v>
+        <v>26.1267318993378</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.11259225485437</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00401311275625581</v>
+        <v>7.53655727865515</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0955199418171921</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0794074482035502</v>
+        <v>31276.7127064189</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00450643831801113</v>
+        <v>0.08792650158431</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00534884021898446</v>
+        <v>17.3340817409068</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N19" t="n">
-        <v>0.188276232951694</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="O19" t="n">
-        <v>0.126834725685457</v>
+        <v>13.3145845256241</v>
       </c>
       <c r="P19" t="n">
         <v>0.449728669970898</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -44403,46 +44414,46 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.162808679520916</v>
+        <v>6.65729226281205</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0358123487167598</v>
+        <v>56.0217424380033</v>
       </c>
       <c r="G20" t="n">
-        <v>0.140090033267649</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.245122216505601</v>
+        <v>5.65241795899136</v>
       </c>
       <c r="I20" t="n">
-        <v>0.165128374537907</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J20" t="n">
-        <v>0.138399766514349</v>
+        <v>34416.9449058585</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0452682397660883</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0231559509166694</v>
+        <v>16.7060353010189</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0937126778396502</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.089356025895163</v>
+        <v>27.0059969151809</v>
       </c>
       <c r="P20" t="n">
         <v>0.406576523594546</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -44456,46 +44467,46 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0547927213668844</v>
+        <v>7.6203386737362</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.119179203192282</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0685723066288689</v>
+        <v>18.9670024846155</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.11259225485437</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0807296457674109</v>
+        <v>5.02437151910343</v>
       </c>
       <c r="I21" t="n">
-        <v>0.165128374537907</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0718765139511078</v>
+        <v>25121.8575955172</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0577119092871132</v>
+        <v>0.125609287977586</v>
       </c>
       <c r="L21" t="n">
-        <v>0.090863213625946</v>
+        <v>17.0828631649517</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.168312901646214</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.0837761223546214</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0931489469967024</v>
+        <v>21.6047975321448</v>
       </c>
       <c r="P21" t="n">
         <v>0.406576523594546</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -44514,7 +44525,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -44531,36 +44542,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0211877566078525</v>
+        <v>7.37838727191626</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00683112724558929</v>
+        <v>0.133983240509425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0210612312031792</v>
+        <v>5.14998080708102</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312368827420987</v>
+        <v>20.2928783021566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0178725595731001</v>
+        <v>8.06183248292505</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0125753262063048</v>
+        <v>0.188413931966379</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0159132594544338</v>
+        <v>5.02437151910343</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0572997558929431</v>
+        <v>12.6522810071968</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -224,7 +224,7 @@
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">17</xdr:row>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">15</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
     <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5486400" cy="3657600"/>
@@ -43230,88 +43230,93 @@
         <v>89</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>460</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>460</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="n">
         <v>191</v>
       </c>
     </row>
@@ -43460,40 +43465,40 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F2" t="n">
-        <v>14.8218959813551</v>
+        <v>-0.0427157881235261</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J2" t="n">
-        <v>45847.3901118188</v>
+        <v>-0.240657257525252</v>
       </c>
       <c r="K2" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L2" t="n">
-        <v>17.4596910288844</v>
+        <v>0.147872795897254</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N2" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O2" t="n">
-        <v>25.1218575955172</v>
+        <v>0.193644581833372</v>
       </c>
       <c r="P2" t="n">
         <v>0.834149899610028</v>
@@ -43513,40 +43518,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F3" t="n">
-        <v>11.5560544939379</v>
+        <v>0.0574468418146468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H3" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I3" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J3" t="n">
-        <v>16706.0353010189</v>
+        <v>0.0894486938734734</v>
       </c>
       <c r="K3" t="n">
-        <v>0.213535789561896</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L3" t="n">
-        <v>17.585300316862</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O3" t="n">
-        <v>9.29508731034135</v>
+        <v>0.187126547087234</v>
       </c>
       <c r="P3" t="n">
         <v>0.776356601240776</v>
@@ -43566,40 +43571,40 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.2755900950586</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F4" t="n">
-        <v>8.03899443056549</v>
+        <v>0.218485255612486</v>
       </c>
       <c r="G4" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J4" t="n">
-        <v>46601.0458396843</v>
+        <v>-0.240657257525252</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L4" t="n">
-        <v>17.585300316862</v>
+        <v>0.147872795897254</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O4" t="n">
-        <v>30.7742755545085</v>
+        <v>-0.00841449529690776</v>
       </c>
       <c r="P4" t="n">
         <v>0.747359598957673</v>
@@ -43619,40 +43624,40 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.53168297483446</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F5" t="n">
-        <v>7.28533870269997</v>
+        <v>-0.000667566282313135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3963250792155</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J5" t="n">
-        <v>28513.308370912</v>
+        <v>-0.0912937281851443</v>
       </c>
       <c r="K5" t="n">
-        <v>0.17585300316862</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L5" t="n">
-        <v>17.0828631649517</v>
+        <v>0.147872795897254</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O5" t="n">
-        <v>15.0731145573103</v>
+        <v>-0.159958803144617</v>
       </c>
       <c r="P5" t="n">
         <v>0.701615255999388</v>
@@ -43672,40 +43677,40 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F6" t="n">
-        <v>11.5560544939379</v>
+        <v>-0.000667566282313135</v>
       </c>
       <c r="G6" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3963250792155</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J6" t="n">
-        <v>62427.8161248601</v>
+        <v>-0.0912937281851443</v>
       </c>
       <c r="K6" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L6" t="n">
-        <v>17.9621281807948</v>
+        <v>0.147872795897254</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O6" t="n">
-        <v>9.29508731034135</v>
+        <v>-0.159958803144617</v>
       </c>
       <c r="P6" t="n">
         <v>0.701615255999388</v>
@@ -43725,40 +43730,40 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.130403892074706</v>
       </c>
       <c r="E7" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F7" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H7" t="n">
-        <v>4.77315294314826</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J7" t="n">
-        <v>3152.7931282374</v>
+        <v>-0.142755112243501</v>
       </c>
       <c r="K7" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L7" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M7" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O7" t="n">
-        <v>30.8998848424861</v>
+        <v>-0.0263390908487874</v>
       </c>
       <c r="P7" t="n">
         <v>0.680366777850508</v>
@@ -43778,40 +43783,40 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5.2755900950586</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F8" t="n">
-        <v>654.298781075244</v>
+        <v>0.137401221853013</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H8" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J8" t="n">
-        <v>38687.6606970964</v>
+        <v>-0.0912937281851443</v>
       </c>
       <c r="K8" t="n">
-        <v>0.163292074370862</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L8" t="n">
-        <v>17.2084724529293</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M8" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N8" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O8" t="n">
-        <v>10.92800805405</v>
+        <v>0.193644581833372</v>
       </c>
       <c r="P8" t="n">
         <v>0.670009810623715</v>
@@ -43831,40 +43836,40 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>5.2755900950586</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F9" t="n">
-        <v>8.03899443056549</v>
+        <v>-0.0420882027229109</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H9" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J9" t="n">
-        <v>35044.9913457464</v>
+        <v>-0.0862731053501827</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08792650158431</v>
+        <v>0.00450643831801113</v>
       </c>
       <c r="L9" t="n">
-        <v>17.585300316862</v>
+        <v>-0.222689488866246</v>
       </c>
       <c r="M9" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N9" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O9" t="n">
-        <v>30.7742755545085</v>
+        <v>0.169201951535354</v>
       </c>
       <c r="P9" t="n">
         <v>0.659995736850373</v>
@@ -43884,40 +43889,40 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7.53655727865515</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0584916458482</v>
+        <v>-0.0420882027229109</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H10" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J10" t="n">
-        <v>26252.3411873154</v>
+        <v>-0.0862731053501827</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0942069659831893</v>
+        <v>0.00450643831801113</v>
       </c>
       <c r="L10" t="n">
-        <v>17.585300316862</v>
+        <v>-0.222689488866246</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O10" t="n">
-        <v>11.9328823578706</v>
+        <v>0.169201951535354</v>
       </c>
       <c r="P10" t="n">
         <v>0.659995736850373</v>
@@ -43937,40 +43942,40 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0223879339206751</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F11" t="n">
-        <v>7.66216656663273</v>
+        <v>-0.0562716327768126</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H11" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I11" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J11" t="n">
-        <v>34416.9449058585</v>
+        <v>-0.0599148354666343</v>
       </c>
       <c r="K11" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L11" t="n">
-        <v>16.7060353010189</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M11" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O11" t="n">
-        <v>27.0059969151809</v>
+        <v>0.0632838869106108</v>
       </c>
       <c r="P11" t="n">
         <v>0.65623247126625</v>
@@ -43990,40 +43995,40 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0223879339206751</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F12" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0562716327768126</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H12" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I12" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J12" t="n">
-        <v>15952.3795731534</v>
+        <v>-0.0599148354666343</v>
       </c>
       <c r="K12" t="n">
-        <v>0.113048359179827</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L12" t="n">
-        <v>18.2133467567499</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O12" t="n">
-        <v>11.9328823578706</v>
+        <v>0.0632838869106108</v>
       </c>
       <c r="P12" t="n">
         <v>0.65623247126625</v>
@@ -44043,40 +44048,40 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.0223879339206751</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F13" t="n">
-        <v>15.3243331332655</v>
+        <v>-0.0561461156966896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H13" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I13" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J13" t="n">
-        <v>36301.0842255223</v>
+        <v>-0.0599148354666343</v>
       </c>
       <c r="K13" t="n">
-        <v>0.163292074370862</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L13" t="n">
-        <v>17.0828631649517</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M13" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N13" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O13" t="n">
-        <v>3.26584148741723</v>
+        <v>0.0632838869106108</v>
       </c>
       <c r="P13" t="n">
         <v>0.656201636637213</v>
@@ -44096,40 +44101,40 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>9.42069659831893</v>
+        <v>0.006419922119005</v>
       </c>
       <c r="E14" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F14" t="n">
-        <v>10.1743523261844</v>
+        <v>-0.0614178330618566</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H14" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I14" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J14" t="n">
-        <v>35547.4284976568</v>
+        <v>0.153461635019234</v>
       </c>
       <c r="K14" t="n">
-        <v>0.502437151910343</v>
+        <v>0.016950107839036</v>
       </c>
       <c r="L14" t="n">
-        <v>16.4548167250637</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25609287977586</v>
+        <v>0.0649133955971453</v>
       </c>
       <c r="P14" t="n">
         <v>0.654153567433905</v>
@@ -44149,40 +44154,40 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>5.65241795899136</v>
+        <v>0.006419922119005</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F15" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0614178330618566</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I15" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J15" t="n">
-        <v>48359.5758713705</v>
+        <v>0.153461635019234</v>
       </c>
       <c r="K15" t="n">
-        <v>0.125609287977586</v>
+        <v>0.016950107839036</v>
       </c>
       <c r="L15" t="n">
-        <v>18.2133467567499</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M15" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O15" t="n">
-        <v>7.66216656663273</v>
+        <v>0.0649133955971453</v>
       </c>
       <c r="P15" t="n">
         <v>0.654153567433905</v>
@@ -44202,40 +44207,40 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F16" t="n">
-        <v>11.5560544939379</v>
+        <v>0.163508774518602</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H16" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I16" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J16" t="n">
-        <v>27634.0433550689</v>
+        <v>0.123337898009464</v>
       </c>
       <c r="K16" t="n">
-        <v>0.113048359179827</v>
+        <v>0.0916121249651852</v>
       </c>
       <c r="L16" t="n">
-        <v>17.7109096048396</v>
+        <v>0.204882378168561</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O16" t="n">
-        <v>9.29508731034135</v>
+        <v>0.0665429042836798</v>
       </c>
       <c r="P16" t="n">
         <v>0.647936158698565</v>
@@ -44255,40 +44260,40 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>6.65729226281205</v>
+        <v>-0.130403892074706</v>
       </c>
       <c r="E17" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F17" t="n">
-        <v>56.0217424380033</v>
+        <v>-0.0580288718985349</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H17" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I17" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J17" t="n">
-        <v>34416.9449058585</v>
+        <v>-0.0285359427481243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L17" t="n">
-        <v>16.7060353010189</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M17" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O17" t="n">
-        <v>27.0059969151809</v>
+        <v>0.100762586700905</v>
       </c>
       <c r="P17" t="n">
         <v>0.631380530192882</v>
@@ -44308,40 +44313,40 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>7.6203386737362</v>
+        <v>-0.130403892074706</v>
       </c>
       <c r="E18" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F18" t="n">
-        <v>18.9670024846155</v>
+        <v>-0.0580288718985349</v>
       </c>
       <c r="G18" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H18" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I18" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J18" t="n">
-        <v>25121.8575955172</v>
+        <v>-0.0285359427481243</v>
       </c>
       <c r="K18" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L18" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O18" t="n">
-        <v>21.6047975321448</v>
+        <v>0.100762586700905</v>
       </c>
       <c r="P18" t="n">
         <v>0.631380530192882</v>
@@ -44361,40 +44366,40 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F19" t="n">
-        <v>15.3243331332655</v>
+        <v>0.232041100265773</v>
       </c>
       <c r="G19" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H19" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I19" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J19" t="n">
-        <v>31904.7591463068</v>
+        <v>0.0844280710385118</v>
       </c>
       <c r="K19" t="n">
-        <v>0.163292074370862</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L19" t="n">
-        <v>17.0828631649517</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M19" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N19" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O19" t="n">
-        <v>3.26584148741723</v>
+        <v>-0.00352596923730423</v>
       </c>
       <c r="P19" t="n">
         <v>0.624532215454866</v>
@@ -44414,40 +44419,40 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>8.66704087045342</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F20" t="n">
-        <v>73.1046056029549</v>
+        <v>0.232041100265773</v>
       </c>
       <c r="G20" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J20" t="n">
-        <v>28387.6990829344</v>
+        <v>0.0844280710385118</v>
       </c>
       <c r="K20" t="n">
-        <v>0.43963250792155</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L20" t="n">
-        <v>16.8316445889965</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M20" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O20" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.00352596923730423</v>
       </c>
       <c r="P20" t="n">
         <v>0.624532215454866</v>
@@ -44467,40 +44472,40 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>10.299961614162</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E21" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F21" t="n">
-        <v>107.395941220836</v>
+        <v>0.232041100265773</v>
       </c>
       <c r="G21" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H21" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I21" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J21" t="n">
-        <v>33537.6798900154</v>
+        <v>0.0844280710385118</v>
       </c>
       <c r="K21" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L21" t="n">
-        <v>18.2133467567499</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M21" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O21" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.00352596923730423</v>
       </c>
       <c r="P21" t="n">
         <v>0.624532215454866</v>
@@ -44520,40 +44525,40 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>7.78777585461032</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F22" t="n">
-        <v>8.29021300652066</v>
+        <v>0.232041100265773</v>
       </c>
       <c r="G22" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J22" t="n">
-        <v>27759.6526430465</v>
+        <v>0.0844280710385118</v>
       </c>
       <c r="K22" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L22" t="n">
-        <v>17.0828631649517</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O22" t="n">
-        <v>13.5658031015793</v>
+        <v>-0.00352596923730423</v>
       </c>
       <c r="P22" t="n">
         <v>0.624532215454866</v>
@@ -44573,40 +44578,40 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.0655943171822876</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F23" t="n">
-        <v>18.3389560447275</v>
+        <v>-0.0208758161821199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H23" t="n">
-        <v>7.53655727865515</v>
+        <v>0.354717263664393</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J23" t="n">
-        <v>26126.7318993378</v>
+        <v>-0.145265423660982</v>
       </c>
       <c r="K23" t="n">
-        <v>0.125609287977586</v>
+        <v>0.9502253219159</v>
       </c>
       <c r="L23" t="n">
-        <v>17.585300316862</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O23" t="n">
-        <v>29.7694012506878</v>
+        <v>0.105651112760508</v>
       </c>
       <c r="P23" t="n">
         <v>0.614266416982727</v>
@@ -44626,40 +44631,40 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.195213466967125</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F24" t="n">
-        <v>7.0341201267448</v>
+        <v>-0.0405819977614347</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H24" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.248055495708968</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J24" t="n">
-        <v>38310.8328331637</v>
+        <v>-0.0674457697190767</v>
       </c>
       <c r="K24" t="n">
-        <v>0.628046439887929</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L24" t="n">
-        <v>16.3292074370862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M24" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O24" t="n">
-        <v>26.0011226113603</v>
+        <v>-0.107814525175513</v>
       </c>
       <c r="P24" t="n">
         <v>0.612984134116554</v>
@@ -44679,40 +44684,40 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F25" t="n">
-        <v>128.247083025115</v>
+        <v>0.892260941712877</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H25" t="n">
-        <v>3.14023219943964</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I25" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J25" t="n">
-        <v>20851.1418042792</v>
+        <v>-0.0988246624375868</v>
       </c>
       <c r="K25" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L25" t="n">
-        <v>17.3340817409068</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M25" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O25" t="n">
-        <v>5.40119938303619</v>
+        <v>-0.172994872636894</v>
       </c>
       <c r="P25" t="n">
         <v>0.60284971327517</v>
@@ -44732,40 +44737,40 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F26" t="n">
-        <v>15.1987238452879</v>
+        <v>0.178696341213488</v>
       </c>
       <c r="G26" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H26" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I26" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J26" t="n">
-        <v>23237.7182758534</v>
+        <v>0.0593249568637038</v>
       </c>
       <c r="K26" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L26" t="n">
-        <v>17.4596910288844</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M26" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N26" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O26" t="n">
-        <v>4.14510650326033</v>
+        <v>0.134982269118129</v>
       </c>
       <c r="P26" t="n">
         <v>0.598805212429985</v>
@@ -44785,40 +44790,40 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6.90851083876722</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F27" t="n">
-        <v>27.7596526430465</v>
+        <v>0.178696341213488</v>
       </c>
       <c r="G27" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H27" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J27" t="n">
-        <v>29015.7455228223</v>
+        <v>0.0593249568637038</v>
       </c>
       <c r="K27" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L27" t="n">
-        <v>17.9621281807948</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O27" t="n">
-        <v>27.0059969151809</v>
+        <v>0.134982269118129</v>
       </c>
       <c r="P27" t="n">
         <v>0.598805212429985</v>
@@ -44838,40 +44843,40 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F28" t="n">
-        <v>77.626539970148</v>
+        <v>0.178696341213488</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H28" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J28" t="n">
-        <v>6406.07368685687</v>
+        <v>0.0593249568637038</v>
       </c>
       <c r="K28" t="n">
-        <v>0.339145077539482</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L28" t="n">
-        <v>17.0828631649517</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M28" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N28" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O28" t="n">
-        <v>31.4023219943964</v>
+        <v>0.134982269118129</v>
       </c>
       <c r="P28" t="n">
         <v>0.598805212429985</v>
@@ -44891,40 +44896,40 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F29" t="n">
-        <v>49.6156687511464</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G29" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H29" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J29" t="n">
-        <v>18715.7839086603</v>
+        <v>0.148441012184272</v>
       </c>
       <c r="K29" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L29" t="n">
-        <v>17.0828631649517</v>
+        <v>0.233387169304215</v>
       </c>
       <c r="M29" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N29" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3438303485482</v>
+        <v>-0.114332559921651</v>
       </c>
       <c r="P29" t="n">
         <v>0.593453961404032</v>
@@ -44944,40 +44949,40 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>7.9133851425879</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F30" t="n">
-        <v>24.2425925796741</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H30" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I30" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J30" t="n">
-        <v>63307.0811407032</v>
+        <v>0.148441012184272</v>
       </c>
       <c r="K30" t="n">
-        <v>0.163292074370862</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L30" t="n">
-        <v>16.8316445889965</v>
+        <v>0.233387169304215</v>
       </c>
       <c r="M30" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O30" t="n">
-        <v>13.4401938136017</v>
+        <v>-0.114332559921651</v>
       </c>
       <c r="P30" t="n">
         <v>0.593453961404032</v>
@@ -44997,40 +45002,40 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>6.65729226281205</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E31" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F31" t="n">
-        <v>26.1267318993378</v>
+        <v>-0.0393268269602044</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H31" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I31" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J31" t="n">
-        <v>31276.7127064189</v>
+        <v>-0.0285359427481243</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08792650158431</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L31" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M31" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N31" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O31" t="n">
-        <v>13.3145845256241</v>
+        <v>0.100762586700905</v>
       </c>
       <c r="P31" t="n">
         <v>0.581104045445368</v>
@@ -45050,40 +45055,40 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.195213466967125</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F32" t="n">
-        <v>316.786624279471</v>
+        <v>0.579346860966179</v>
       </c>
       <c r="G32" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H32" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I32" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J32" t="n">
-        <v>8792.650158431</v>
+        <v>-0.131458710864837</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0628046439887929</v>
+        <v>0.00450643831801113</v>
       </c>
       <c r="L32" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.222689488866246</v>
       </c>
       <c r="M32" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O32" t="n">
-        <v>26.8803876272034</v>
+        <v>-0.0719653340717537</v>
       </c>
       <c r="P32" t="n">
         <v>0.580690520847417</v>
@@ -45103,40 +45108,40 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F33" t="n">
-        <v>77.2497121062153</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H33" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J33" t="n">
-        <v>28387.6990829344</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K33" t="n">
-        <v>0.100487430382069</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L33" t="n">
-        <v>17.7109096048396</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O33" t="n">
-        <v>32.2815870102395</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P33" t="n">
         <v>0.579205371267835</v>
@@ -45156,40 +45161,40 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F34" t="n">
-        <v>12.1841009338258</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H34" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I34" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J34" t="n">
-        <v>26377.950475293</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K34" t="n">
-        <v>0.113048359179827</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L34" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M34" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O34" t="n">
-        <v>23.363327563831</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P34" t="n">
         <v>0.579205371267835</v>
@@ -45209,40 +45214,40 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>10.6767894780948</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E35" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F35" t="n">
-        <v>134.527547423994</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H35" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J35" t="n">
-        <v>63683.909004636</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K35" t="n">
-        <v>0.401949721528275</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L35" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O35" t="n">
-        <v>11.8072730698931</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P35" t="n">
         <v>0.579205371267835</v>
@@ -45262,40 +45267,40 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F36" t="n">
-        <v>11.5560544939379</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H36" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J36" t="n">
-        <v>27005.9969151809</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K36" t="n">
-        <v>0.477315294314826</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L36" t="n">
-        <v>16.077988861131</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M36" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N36" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O36" t="n">
-        <v>31.4023219943964</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P36" t="n">
         <v>0.579205371267835</v>
@@ -45315,40 +45320,40 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F37" t="n">
-        <v>31.7791498583292</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G37" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J37" t="n">
-        <v>8792.650158431</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K37" t="n">
-        <v>0.213535789561896</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L37" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M37" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O37" t="n">
-        <v>31.4023219943964</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P37" t="n">
         <v>0.579205371267835</v>
@@ -45368,40 +45373,40 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E38" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F38" t="n">
-        <v>5.90363653494653</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H38" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J38" t="n">
-        <v>35044.9913457464</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K38" t="n">
-        <v>0.08792650158431</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L38" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M38" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N38" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O38" t="n">
-        <v>9.16947802236376</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P38" t="n">
         <v>0.579205371267835</v>
@@ -45421,40 +45426,40 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F39" t="n">
-        <v>39.9437535768723</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H39" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I39" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J39" t="n">
-        <v>35547.4284976568</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K39" t="n">
-        <v>0.288901362348447</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L39" t="n">
-        <v>16.4548167250637</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O39" t="n">
-        <v>7.53655727865515</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P39" t="n">
         <v>0.579205371267835</v>
@@ -45474,40 +45479,40 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>6.90851083876722</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F40" t="n">
-        <v>94.7094031350997</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H40" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J40" t="n">
-        <v>33080.2146314797</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K40" t="n">
-        <v>0.229864996998982</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L40" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M40" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N40" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O40" t="n">
-        <v>30.2718384025982</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P40" t="n">
         <v>0.579205371267835</v>
@@ -45527,40 +45532,40 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F41" t="n">
-        <v>39.9437535768723</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H41" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I41" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J41" t="n">
-        <v>26503.5597632706</v>
+        <v>-0.176644316379492</v>
       </c>
       <c r="K41" t="n">
-        <v>0.251218575955172</v>
+        <v>0.0293937773600609</v>
       </c>
       <c r="L41" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M41" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O41" t="n">
-        <v>7.53655727865515</v>
+        <v>0.0795789737759559</v>
       </c>
       <c r="P41" t="n">
         <v>0.579205371267835</v>
@@ -45580,40 +45585,40 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E42" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F42" t="n">
-        <v>15.1987238452879</v>
+        <v>-0.0536357740942291</v>
       </c>
       <c r="G42" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H42" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J42" t="n">
-        <v>38310.8328331637</v>
+        <v>-0.256974281738877</v>
       </c>
       <c r="K42" t="n">
-        <v>0.288901362348447</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L42" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.279699071137554</v>
       </c>
       <c r="M42" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O42" t="n">
-        <v>3.76827863932757</v>
+        <v>0.123575708312388</v>
       </c>
       <c r="P42" t="n">
         <v>0.577831488307181</v>
@@ -45633,40 +45638,40 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F43" t="n">
-        <v>60.5436768051963</v>
+        <v>-0.0536357740942291</v>
       </c>
       <c r="G43" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H43" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J43" t="n">
-        <v>33914.5077539482</v>
+        <v>-0.256974281738877</v>
       </c>
       <c r="K43" t="n">
-        <v>0.113048359179827</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L43" t="n">
-        <v>16.5804260130413</v>
+        <v>-0.279699071137554</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O43" t="n">
-        <v>13.6914123895569</v>
+        <v>0.123575708312388</v>
       </c>
       <c r="P43" t="n">
         <v>0.577831488307181</v>
@@ -45686,40 +45691,40 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>9.04386873438618</v>
+        <v>0.139636003310372</v>
       </c>
       <c r="E44" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F44" t="n">
-        <v>13.8170216775344</v>
+        <v>0.074266130551132</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H44" t="n">
-        <v>3.14023219943964</v>
+        <v>0.354717263664393</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J44" t="n">
-        <v>29769.4012506878</v>
+        <v>-0.145265423660982</v>
       </c>
       <c r="K44" t="n">
-        <v>0.125609287977586</v>
+        <v>0.9502253219159</v>
       </c>
       <c r="L44" t="n">
-        <v>17.585300316862</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O44" t="n">
-        <v>8.16460371854308</v>
+        <v>0.133352760431595</v>
       </c>
       <c r="P44" t="n">
         <v>0.571992162114548</v>
@@ -45739,40 +45744,40 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.152007083705512</v>
       </c>
       <c r="E45" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F45" t="n">
-        <v>19.720658212481</v>
+        <v>-0.0533847399339831</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H45" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.22613648627721</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J45" t="n">
-        <v>27005.9969151809</v>
+        <v>0.00535326138786654</v>
       </c>
       <c r="K45" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0916121249651852</v>
       </c>
       <c r="L45" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.365213444544516</v>
       </c>
       <c r="M45" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N45" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O45" t="n">
-        <v>29.7694012506878</v>
+        <v>-0.0507817211468051</v>
       </c>
       <c r="P45" t="n">
         <v>0.571445727847074</v>
@@ -45792,40 +45797,40 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>9.16947802236376</v>
+        <v>-0.152007083705512</v>
       </c>
       <c r="E46" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F46" t="n">
-        <v>29.0157455228223</v>
+        <v>-0.0533847399339831</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H46" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.22613648627721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J46" t="n">
-        <v>36301.0842255223</v>
+        <v>0.00535326138786654</v>
       </c>
       <c r="K46" t="n">
-        <v>0.113048359179827</v>
+        <v>0.0916121249651852</v>
       </c>
       <c r="L46" t="n">
-        <v>17.585300316862</v>
+        <v>-0.365213444544516</v>
       </c>
       <c r="M46" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N46" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O46" t="n">
-        <v>22.6096718359654</v>
+        <v>-0.0507817211468051</v>
       </c>
       <c r="P46" t="n">
         <v>0.571445727847074</v>
@@ -45845,40 +45850,40 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>8.16460371854308</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E47" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F47" t="n">
-        <v>90.4386873438618</v>
+        <v>-0.0248923627460567</v>
       </c>
       <c r="G47" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H47" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J47" t="n">
-        <v>46224.2179757516</v>
+        <v>-0.00217767286457587</v>
       </c>
       <c r="K47" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L47" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M47" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O47" t="n">
-        <v>26.377950475293</v>
+        <v>0.0372117479260586</v>
       </c>
       <c r="P47" t="n">
         <v>0.567396559951773</v>
@@ -45898,40 +45903,40 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5.52680867101377</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F48" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0248923627460567</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H48" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I48" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J48" t="n">
-        <v>38310.8328331637</v>
+        <v>-0.00217767286457587</v>
       </c>
       <c r="K48" t="n">
-        <v>0.200974860764137</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L48" t="n">
-        <v>16.3292074370862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M48" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O48" t="n">
-        <v>30.6486662665309</v>
+        <v>0.0372117479260586</v>
       </c>
       <c r="P48" t="n">
         <v>0.567396559951773</v>
@@ -45951,40 +45956,40 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>8.79265015843101</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F49" t="n">
-        <v>29.1413548107999</v>
+        <v>-0.0248923627460567</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H49" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J49" t="n">
-        <v>15826.7702851758</v>
+        <v>-0.00217767286457587</v>
       </c>
       <c r="K49" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L49" t="n">
-        <v>16.5804260130413</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M49" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O49" t="n">
-        <v>26.377950475293</v>
+        <v>0.0372117479260586</v>
       </c>
       <c r="P49" t="n">
         <v>0.567396559951773</v>
@@ -46004,40 +46009,40 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>9.04386873438618</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F50" t="n">
-        <v>26.5035597632706</v>
+        <v>-0.0418371685626649</v>
       </c>
       <c r="G50" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H50" t="n">
-        <v>3.14023219943964</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J50" t="n">
-        <v>39943.7535768723</v>
+        <v>-0.303289527391398</v>
       </c>
       <c r="K50" t="n">
-        <v>0.150731145573103</v>
+        <v>0.10405579448621</v>
       </c>
       <c r="L50" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.137175115459285</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O50" t="n">
-        <v>26.0011226113603</v>
+        <v>-0.140404698906203</v>
       </c>
       <c r="P50" t="n">
         <v>0.566087539061569</v>
@@ -46057,40 +46062,40 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F51" t="n">
-        <v>18.3389560447275</v>
+        <v>-0.0523806032929989</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H51" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J51" t="n">
-        <v>33412.0706020378</v>
+        <v>-0.246933036068954</v>
       </c>
       <c r="K51" t="n">
-        <v>0.163292074370862</v>
+        <v>0.12894313352826</v>
       </c>
       <c r="L51" t="n">
-        <v>16.2035981491086</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M51" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N51" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8792650158431</v>
+        <v>0.00625108288190285</v>
       </c>
       <c r="P51" t="n">
         <v>0.561706186906754</v>
@@ -46110,40 +46115,40 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>7.28533870269997</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F52" t="n">
-        <v>18.0877374687724</v>
+        <v>-0.0349337291558986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H52" t="n">
-        <v>4.77315294314826</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I52" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J52" t="n">
-        <v>18464.5653327051</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L52" t="n">
-        <v>17.8365188928172</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M52" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O52" t="n">
-        <v>10.4255709021396</v>
+        <v>-0.0230800734757184</v>
       </c>
       <c r="P52" t="n">
         <v>0.557672503266173</v>
@@ -46163,40 +46168,40 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F53" t="n">
-        <v>31.7791498583292</v>
+        <v>-0.0533847399339831</v>
       </c>
       <c r="G53" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H53" t="n">
-        <v>4.3963250792155</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J53" t="n">
-        <v>8792.650158431</v>
+        <v>-0.181664939214453</v>
       </c>
       <c r="K53" t="n">
-        <v>0.213535789561896</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L53" t="n">
-        <v>17.585300316862</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M53" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O53" t="n">
-        <v>31.4023219943964</v>
+        <v>-0.195807994248377</v>
       </c>
       <c r="P53" t="n">
         <v>0.557068489090213</v>
@@ -46216,40 +46221,40 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F54" t="n">
-        <v>38.6876606970964</v>
+        <v>-0.0685723066288689</v>
       </c>
       <c r="G54" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H54" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I54" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J54" t="n">
-        <v>46601.0458396843</v>
+        <v>0.0656007354074058</v>
       </c>
       <c r="K54" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L54" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.2511942800019</v>
       </c>
       <c r="M54" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O54" t="n">
-        <v>23.363327563831</v>
+        <v>-0.16810634657729</v>
       </c>
       <c r="P54" t="n">
         <v>0.556295559514434</v>
@@ -46269,40 +46274,40 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E55" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F55" t="n">
-        <v>19.720658212481</v>
+        <v>0.0486606462060352</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H55" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J55" t="n">
-        <v>50746.1523429447</v>
+        <v>-0.164092759292088</v>
       </c>
       <c r="K55" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L55" t="n">
-        <v>17.585300316862</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N55" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O55" t="n">
-        <v>29.7694012506878</v>
+        <v>-0.195807994248377</v>
       </c>
       <c r="P55" t="n">
         <v>0.555606189888503</v>
@@ -46322,40 +46327,40 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5.2755900950586</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F56" t="n">
-        <v>8.03899443056549</v>
+        <v>0.0486606462060352</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H56" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J56" t="n">
-        <v>23740.1554277637</v>
+        <v>-0.164092759292088</v>
       </c>
       <c r="K56" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L56" t="n">
-        <v>17.585300316862</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M56" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N56" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O56" t="n">
-        <v>30.7742755545085</v>
+        <v>-0.195807994248377</v>
       </c>
       <c r="P56" t="n">
         <v>0.555606189888503</v>
@@ -46375,40 +46380,40 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E57" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F57" t="n">
-        <v>39.5669257129395</v>
+        <v>0.0486606462060352</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H57" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J57" t="n">
-        <v>32909.6334501275</v>
+        <v>-0.164092759292088</v>
       </c>
       <c r="K57" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L57" t="n">
-        <v>17.0828631649517</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M57" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N57" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O57" t="n">
-        <v>15.0731145573103</v>
+        <v>-0.195807994248377</v>
       </c>
       <c r="P57" t="n">
         <v>0.555606189888503</v>
@@ -46428,40 +46433,40 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>6.40607368685687</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F58" t="n">
-        <v>9.79752446225169</v>
+        <v>-0.0393268269602044</v>
       </c>
       <c r="G58" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H58" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J58" t="n">
-        <v>33537.6798900154</v>
+        <v>0.044263088358819</v>
       </c>
       <c r="K58" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L58" t="n">
-        <v>17.585300316862</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M58" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O58" t="n">
-        <v>9.92313375022928</v>
+        <v>-0.0866309122505644</v>
       </c>
       <c r="P58" t="n">
         <v>0.554930423080649</v>
@@ -46481,40 +46486,40 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6.65729226281205</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F59" t="n">
-        <v>27.2572154911361</v>
+        <v>-0.0393268269602044</v>
       </c>
       <c r="G59" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H59" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J59" t="n">
-        <v>28010.8712190016</v>
+        <v>0.044263088358819</v>
       </c>
       <c r="K59" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L59" t="n">
-        <v>16.3292074370862</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O59" t="n">
-        <v>26.8803876272034</v>
+        <v>-0.0866309122505644</v>
       </c>
       <c r="P59" t="n">
         <v>0.554930423080649</v>
@@ -46534,40 +46539,40 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>8.79265015843101</v>
+        <v>0.236850365649</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F60" t="n">
-        <v>77.626539970148</v>
+        <v>-0.0269006360280251</v>
       </c>
       <c r="G60" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H60" t="n">
-        <v>5.65241795899136</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I60" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J60" t="n">
-        <v>23237.7182758534</v>
+        <v>0.0681110468248866</v>
       </c>
       <c r="K60" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L60" t="n">
-        <v>17.4596910288844</v>
+        <v>0.233387169304215</v>
       </c>
       <c r="M60" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N60" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O60" t="n">
-        <v>4.14510650326033</v>
+        <v>-0.164847329204221</v>
       </c>
       <c r="P60" t="n">
         <v>0.553920362493281</v>
@@ -46587,40 +46592,40 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F61" t="n">
-        <v>14.8218959813551</v>
+        <v>-0.0349337291558986</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H61" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J61" t="n">
-        <v>29769.4012506878</v>
+        <v>0.154716790727974</v>
       </c>
       <c r="K61" t="n">
-        <v>0.628046439887929</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L61" t="n">
-        <v>16.3292074370862</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O61" t="n">
-        <v>26.0011226113603</v>
+        <v>-0.115962068608186</v>
       </c>
       <c r="P61" t="n">
         <v>0.552814455310253</v>
@@ -46640,40 +46645,40 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>7.53655727865515</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F62" t="n">
-        <v>112.671531315894</v>
+        <v>-0.0333020071142993</v>
       </c>
       <c r="G62" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H62" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J62" t="n">
-        <v>33914.5077539482</v>
+        <v>0.444657759447007</v>
       </c>
       <c r="K62" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L62" t="n">
-        <v>16.7060353010189</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O62" t="n">
-        <v>10.0487430382069</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P62" t="n">
         <v>0.552082730998569</v>
@@ -46693,40 +46698,40 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6.02924582292412</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E63" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F63" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0333020071142993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H63" t="n">
-        <v>6.90851083876722</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J63" t="n">
-        <v>27885.261931024</v>
+        <v>0.444657759447007</v>
       </c>
       <c r="K63" t="n">
-        <v>0.238657647157413</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L63" t="n">
-        <v>15.1987238452879</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O63" t="n">
-        <v>1.88413931966379</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P63" t="n">
         <v>0.552082730998569</v>
@@ -46746,40 +46751,40 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>8.16460371854308</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F64" t="n">
-        <v>14.8218959813551</v>
+        <v>-0.0333020071142993</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H64" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J64" t="n">
-        <v>45847.3901118188</v>
+        <v>0.444657759447007</v>
       </c>
       <c r="K64" t="n">
-        <v>0.138170216775344</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L64" t="n">
-        <v>17.4596910288844</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M64" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N64" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O64" t="n">
-        <v>25.1218575955172</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P64" t="n">
         <v>0.552082730998569</v>
@@ -46799,40 +46804,40 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>7.66216656663273</v>
+        <v>-0.130403892074706</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F65" t="n">
-        <v>173.340817409068</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H65" t="n">
-        <v>3.76827863932757</v>
+        <v>0.190324692926204</v>
       </c>
       <c r="I65" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J65" t="n">
-        <v>33537.6798900154</v>
+        <v>-0.225595389020367</v>
       </c>
       <c r="K65" t="n">
-        <v>0.08792650158431</v>
+        <v>0.0667247859231354</v>
       </c>
       <c r="L65" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.450727817951477</v>
       </c>
       <c r="M65" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N65" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O65" t="n">
-        <v>13.0633659496689</v>
+        <v>-0.189289959502239</v>
       </c>
       <c r="P65" t="n">
         <v>0.550250656559974</v>
@@ -46852,40 +46857,40 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.130403892074706</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F66" t="n">
-        <v>65.4424390363222</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G66" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H66" t="n">
-        <v>5.65241795899136</v>
+        <v>0.190324692926204</v>
       </c>
       <c r="I66" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J66" t="n">
-        <v>23237.7182758534</v>
+        <v>-0.225595389020367</v>
       </c>
       <c r="K66" t="n">
-        <v>0.150731145573103</v>
+        <v>0.0667247859231354</v>
       </c>
       <c r="L66" t="n">
-        <v>17.4596910288844</v>
+        <v>-0.450727817951477</v>
       </c>
       <c r="M66" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N66" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O66" t="n">
-        <v>4.14510650326033</v>
+        <v>-0.189289959502239</v>
       </c>
       <c r="P66" t="n">
         <v>0.550250656559974</v>
@@ -46905,40 +46910,40 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.130403892074706</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F67" t="n">
-        <v>12.0584916458482</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G67" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H67" t="n">
-        <v>4.77315294314826</v>
+        <v>0.190324692926204</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J67" t="n">
-        <v>48862.0130232809</v>
+        <v>-0.225595389020367</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0942069659831893</v>
+        <v>0.0667247859231354</v>
       </c>
       <c r="L67" t="n">
-        <v>17.585300316862</v>
+        <v>-0.450727817951477</v>
       </c>
       <c r="M67" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O67" t="n">
-        <v>11.9328823578706</v>
+        <v>-0.189289959502239</v>
       </c>
       <c r="P67" t="n">
         <v>0.550250656559974</v>
@@ -46958,40 +46963,40 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E68" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F68" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.0432178564440182</v>
       </c>
       <c r="G68" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H68" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I68" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J68" t="n">
-        <v>37305.958529343</v>
+        <v>0.0656007354074058</v>
       </c>
       <c r="K68" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L68" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.2511942800019</v>
       </c>
       <c r="M68" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O68" t="n">
-        <v>24.3682018676516</v>
+        <v>-0.16810634657729</v>
       </c>
       <c r="P68" t="n">
         <v>0.548402505906282</v>
@@ -47011,40 +47016,40 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F69" t="n">
-        <v>8.29021300652066</v>
+        <v>-0.0432178564440182</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H69" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J69" t="n">
-        <v>46224.2179757516</v>
+        <v>0.0656007354074058</v>
       </c>
       <c r="K69" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L69" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.2511942800019</v>
       </c>
       <c r="M69" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N69" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O69" t="n">
-        <v>10.0487430382069</v>
+        <v>-0.16810634657729</v>
       </c>
       <c r="P69" t="n">
         <v>0.548402505906282</v>
@@ -47064,40 +47069,40 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>5.2755900950586</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F70" t="n">
-        <v>8.03899443056549</v>
+        <v>0.423078096213015</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H70" t="n">
-        <v>5.02437151910343</v>
+        <v>0.267041225937359</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J70" t="n">
-        <v>35044.9913457464</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K70" t="n">
-        <v>0.08792650158431</v>
+        <v>0.676464592453354</v>
       </c>
       <c r="L70" t="n">
-        <v>17.585300316862</v>
+        <v>0.261891960439869</v>
       </c>
       <c r="M70" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N70" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O70" t="n">
-        <v>30.7742755545085</v>
+        <v>-0.143663716279272</v>
       </c>
       <c r="P70" t="n">
         <v>0.546744842551123</v>
@@ -47117,40 +47122,40 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>8.66704087045342</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F71" t="n">
-        <v>73.1046056029549</v>
+        <v>0.423078096213015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H71" t="n">
-        <v>4.3963250792155</v>
+        <v>0.267041225937359</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J71" t="n">
-        <v>44088.8600801326</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K71" t="n">
-        <v>0.43963250792155</v>
+        <v>0.676464592453354</v>
       </c>
       <c r="L71" t="n">
-        <v>16.8316445889965</v>
+        <v>0.261891960439869</v>
       </c>
       <c r="M71" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O71" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.143663716279272</v>
       </c>
       <c r="P71" t="n">
         <v>0.546744842551123</v>
@@ -47170,40 +47175,40 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E72" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F72" t="n">
-        <v>19.9718767884361</v>
+        <v>-0.0589074914593961</v>
       </c>
       <c r="G72" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H72" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J72" t="n">
-        <v>19218.2210605706</v>
+        <v>-0.142755112243501</v>
       </c>
       <c r="K72" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L72" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N72" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O72" t="n">
-        <v>3.64266935134999</v>
+        <v>-0.161588311831152</v>
       </c>
       <c r="P72" t="n">
         <v>0.546525800990527</v>
@@ -47223,40 +47228,40 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E73" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F73" t="n">
-        <v>92.5740452394807</v>
+        <v>-0.0589074914593961</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H73" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I73" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J73" t="n">
-        <v>30397.4476905758</v>
+        <v>-0.142755112243501</v>
       </c>
       <c r="K73" t="n">
-        <v>0.188413931966379</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L73" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M73" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N73" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O73" t="n">
-        <v>11.9328823578706</v>
+        <v>-0.161588311831152</v>
       </c>
       <c r="P73" t="n">
         <v>0.546525800990527</v>
@@ -47276,40 +47281,40 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6.02924582292412</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E74" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F74" t="n">
-        <v>16.4548167250637</v>
+        <v>-0.0589074914593961</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H74" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I74" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J74" t="n">
-        <v>29518.1826747327</v>
+        <v>-0.142755112243501</v>
       </c>
       <c r="K74" t="n">
-        <v>0.200974860764137</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L74" t="n">
-        <v>16.3292074370862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M74" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O74" t="n">
-        <v>24.2425925796741</v>
+        <v>-0.161588311831152</v>
       </c>
       <c r="P74" t="n">
         <v>0.546525800990527</v>
@@ -47329,40 +47334,40 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>5.2755900950586</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F75" t="n">
-        <v>12.8121473737137</v>
+        <v>-0.0589074914593961</v>
       </c>
       <c r="G75" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H75" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J75" t="n">
-        <v>31904.7591463068</v>
+        <v>-0.142755112243501</v>
       </c>
       <c r="K75" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L75" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M75" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O75" t="n">
-        <v>9.29508731034135</v>
+        <v>-0.161588311831152</v>
       </c>
       <c r="P75" t="n">
         <v>0.546525800990527</v>
@@ -47382,40 +47387,40 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>8.66704087045342</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F76" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0418371685626649</v>
       </c>
       <c r="G76" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H76" t="n">
-        <v>4.3963250792155</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J76" t="n">
-        <v>28387.6990829344</v>
+        <v>-0.0147292299519799</v>
       </c>
       <c r="K76" t="n">
-        <v>0.43963250792155</v>
+        <v>0.10405579448621</v>
       </c>
       <c r="L76" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.137175115459285</v>
       </c>
       <c r="M76" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O76" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.140404698906203</v>
       </c>
       <c r="P76" t="n">
         <v>0.546449929008053</v>
@@ -47435,40 +47440,40 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6.1548551109017</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F77" t="n">
-        <v>11.4304452059603</v>
+        <v>-0.0418371685626649</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H77" t="n">
-        <v>3.76827863932757</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I77" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J77" t="n">
-        <v>53635.1659664291</v>
+        <v>-0.0147292299519799</v>
       </c>
       <c r="K77" t="n">
-        <v>0.125609287977586</v>
+        <v>0.10405579448621</v>
       </c>
       <c r="L77" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.137175115459285</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O77" t="n">
-        <v>1.50731145573103</v>
+        <v>-0.140404698906203</v>
       </c>
       <c r="P77" t="n">
         <v>0.546449929008053</v>
@@ -47488,40 +47493,40 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F78" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0418371685626649</v>
       </c>
       <c r="G78" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H78" t="n">
-        <v>6.28046439887929</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J78" t="n">
-        <v>28387.6990829344</v>
+        <v>-0.0147292299519799</v>
       </c>
       <c r="K78" t="n">
-        <v>0.125609287977586</v>
+        <v>0.10405579448621</v>
       </c>
       <c r="L78" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.137175115459285</v>
       </c>
       <c r="M78" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O78" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.140404698906203</v>
       </c>
       <c r="P78" t="n">
         <v>0.546449929008053</v>
@@ -47541,40 +47546,40 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E79" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F79" t="n">
-        <v>81.1436000335204</v>
+        <v>-0.0660619650264084</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H79" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.259015000424847</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J79" t="n">
-        <v>33286.4613140602</v>
+        <v>-0.126438088029876</v>
       </c>
       <c r="K79" t="n">
-        <v>0.364266935134999</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L79" t="n">
-        <v>16.3292074370862</v>
+        <v>-0.279699071137554</v>
       </c>
       <c r="M79" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O79" t="n">
-        <v>13.5658031015793</v>
+        <v>-0.190919468188773</v>
       </c>
       <c r="P79" t="n">
         <v>0.54640626977505</v>
@@ -47594,40 +47599,40 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>11.3048359179827</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E80" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F80" t="n">
-        <v>16.7060353010189</v>
+        <v>-0.0449750955657405</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H80" t="n">
-        <v>5.02437151910343</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I80" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J80" t="n">
-        <v>25624.2947474275</v>
+        <v>0.044263088358819</v>
       </c>
       <c r="K80" t="n">
-        <v>0.26377950475293</v>
+        <v>0.203605150654409</v>
       </c>
       <c r="L80" t="n">
-        <v>16.5804260130413</v>
+        <v>0.147872795897254</v>
       </c>
       <c r="M80" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N80" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O80" t="n">
-        <v>1.00487430382069</v>
+        <v>-0.164847329204221</v>
       </c>
       <c r="P80" t="n">
         <v>0.542992449168059</v>
@@ -47647,40 +47652,40 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>10.6767894780948</v>
+        <v>0.085628024233356</v>
       </c>
       <c r="E81" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F81" t="n">
-        <v>134.527547423994</v>
+        <v>-0.0468578517675858</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H81" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J81" t="n">
-        <v>63683.909004636</v>
+        <v>0.123337898009464</v>
       </c>
       <c r="K81" t="n">
-        <v>0.401949721528275</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L81" t="n">
-        <v>17.3340817409068</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O81" t="n">
-        <v>11.8072730698931</v>
+        <v>-0.181142416069566</v>
       </c>
       <c r="P81" t="n">
         <v>0.541342181682798</v>
@@ -47700,40 +47705,40 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>9.42069659831893</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E82" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F82" t="n">
-        <v>38.0596142572085</v>
+        <v>-0.0591585256196422</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H82" t="n">
-        <v>4.77315294314826</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I82" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J82" t="n">
-        <v>28136.4805069792</v>
+        <v>0.105765718087099</v>
       </c>
       <c r="K82" t="n">
-        <v>0.314023219943964</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L82" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M82" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O82" t="n">
-        <v>20.3487046523689</v>
+        <v>-0.142034207592738</v>
       </c>
       <c r="P82" t="n">
         <v>0.540554675600565</v>
@@ -47753,40 +47758,40 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E83" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F83" t="n">
-        <v>73.1046056029549</v>
+        <v>0.2589017554121</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H83" t="n">
-        <v>2.51218575955172</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J83" t="n">
-        <v>26377.950475293</v>
+        <v>0.0781522924948098</v>
       </c>
       <c r="K83" t="n">
-        <v>0.238657647157413</v>
+        <v>0.203605150654409</v>
       </c>
       <c r="L83" t="n">
-        <v>17.2084724529293</v>
+        <v>0.147872795897254</v>
       </c>
       <c r="M83" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O83" t="n">
-        <v>0.8792650158431</v>
+        <v>-0.164847329204221</v>
       </c>
       <c r="P83" t="n">
         <v>0.536629758358431</v>
@@ -47806,40 +47811,40 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>8.29021300652066</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E84" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F84" t="n">
-        <v>12.5609287977586</v>
+        <v>0.892260941712877</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H84" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I84" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J84" t="n">
-        <v>45470.5622478861</v>
+        <v>0.154716790727974</v>
       </c>
       <c r="K84" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L84" t="n">
-        <v>17.4596910288844</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M84" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N84" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O84" t="n">
-        <v>15.1987238452879</v>
+        <v>-0.115962068608186</v>
       </c>
       <c r="P84" t="n">
         <v>0.535644108958071</v>
@@ -47859,40 +47864,40 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>6.90851083876722</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F85" t="n">
-        <v>253.353933850791</v>
+        <v>0.892260941712877</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H85" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I85" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J85" t="n">
-        <v>17710.9096048396</v>
+        <v>0.154716790727974</v>
       </c>
       <c r="K85" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L85" t="n">
-        <v>17.585300316862</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M85" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O85" t="n">
-        <v>25.8755133233827</v>
+        <v>-0.115962068608186</v>
       </c>
       <c r="P85" t="n">
         <v>0.535644108958071</v>
@@ -47912,40 +47917,40 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>9.92313375022928</v>
+        <v>-0.162808679520916</v>
       </c>
       <c r="E86" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F86" t="n">
-        <v>6.90851083876722</v>
+        <v>0.892260941712877</v>
       </c>
       <c r="G86" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H86" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I86" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J86" t="n">
-        <v>33080.2146314797</v>
+        <v>0.154716790727974</v>
       </c>
       <c r="K86" t="n">
-        <v>0.229864996998982</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L86" t="n">
-        <v>16.8316445889965</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M86" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O86" t="n">
-        <v>9.79752446225169</v>
+        <v>-0.115962068608186</v>
       </c>
       <c r="P86" t="n">
         <v>0.535644108958071</v>
@@ -47965,40 +47970,40 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>8.79265015843101</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E87" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F87" t="n">
-        <v>17.9621281807948</v>
+        <v>-0.0287833922298704</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H87" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J87" t="n">
-        <v>41074.2371686706</v>
+        <v>-0.0159843856607203</v>
       </c>
       <c r="K87" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L87" t="n">
-        <v>17.8365188928172</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O87" t="n">
-        <v>30.7742755545085</v>
+        <v>-0.11759157729472</v>
       </c>
       <c r="P87" t="n">
         <v>0.533116014422374</v>
@@ -48018,40 +48023,40 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F88" t="n">
-        <v>14.8218959813551</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H88" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J88" t="n">
-        <v>45847.3901118188</v>
+        <v>-0.246933036068954</v>
       </c>
       <c r="K88" t="n">
-        <v>0.138170216775344</v>
+        <v>0.12894313352826</v>
       </c>
       <c r="L88" t="n">
-        <v>17.4596910288844</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M88" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N88" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O88" t="n">
-        <v>25.1218575955172</v>
+        <v>0.00625108288190285</v>
       </c>
       <c r="P88" t="n">
         <v>0.532160023998554</v>
@@ -48071,40 +48076,40 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F89" t="n">
-        <v>8.29021300652066</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H89" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J89" t="n">
-        <v>36301.0842255223</v>
+        <v>-0.246933036068954</v>
       </c>
       <c r="K89" t="n">
-        <v>0.100487430382069</v>
+        <v>0.12894313352826</v>
       </c>
       <c r="L89" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M89" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N89" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O89" t="n">
-        <v>10.0487430382069</v>
+        <v>0.00625108288190285</v>
       </c>
       <c r="P89" t="n">
         <v>0.532160023998554</v>
@@ -48124,40 +48129,40 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>6.1548551109017</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F90" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H90" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I90" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J90" t="n">
-        <v>53635.1659664291</v>
+        <v>-0.246933036068954</v>
       </c>
       <c r="K90" t="n">
-        <v>0.125609287977586</v>
+        <v>0.12894313352826</v>
       </c>
       <c r="L90" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O90" t="n">
-        <v>1.50731145573103</v>
+        <v>0.00625108288190285</v>
       </c>
       <c r="P90" t="n">
         <v>0.532160023998554</v>
@@ -48177,40 +48182,40 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.011586338105272</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F91" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H91" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.193257972129572</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J91" t="n">
-        <v>6406.07368685687</v>
+        <v>-0.246933036068954</v>
       </c>
       <c r="K91" t="n">
-        <v>0.339145077539482</v>
+        <v>0.12894313352826</v>
       </c>
       <c r="L91" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M91" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N91" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O91" t="n">
-        <v>31.4023219943964</v>
+        <v>0.00625108288190285</v>
       </c>
       <c r="P91" t="n">
         <v>0.532160023998554</v>
@@ -48230,40 +48235,40 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>10.92800805405</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E92" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F92" t="n">
-        <v>18.7157839086603</v>
+        <v>0.209322508763505</v>
       </c>
       <c r="G92" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H92" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J92" t="n">
-        <v>16706.0353010189</v>
+        <v>-0.0486184340879707</v>
       </c>
       <c r="K92" t="n">
-        <v>0.113048359179827</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L92" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M92" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O92" t="n">
-        <v>1.7585300316862</v>
+        <v>-0.0263390908487874</v>
       </c>
       <c r="P92" t="n">
         <v>0.530669062783245</v>
@@ -48283,40 +48288,40 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>8.79265015843101</v>
+        <v>0.161239194941178</v>
       </c>
       <c r="E93" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F93" t="n">
-        <v>8.41582229449825</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H93" t="n">
-        <v>4.3963250792155</v>
+        <v>0.0807296457674109</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J93" t="n">
-        <v>28010.8712190016</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K93" t="n">
-        <v>0.339145077539482</v>
+        <v>-0.0228696346282436</v>
       </c>
       <c r="L93" t="n">
-        <v>17.3340817409068</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M93" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N93" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O93" t="n">
-        <v>6.78290155078963</v>
+        <v>-0.0719653340717537</v>
       </c>
       <c r="P93" t="n">
         <v>0.528580117304204</v>
@@ -48336,40 +48341,40 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>5.2755900950586</v>
+        <v>0.161239194941178</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F94" t="n">
-        <v>12.8121473737137</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H94" t="n">
-        <v>4.3963250792155</v>
+        <v>0.0807296457674109</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J94" t="n">
-        <v>21730.4068201223</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K94" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.0228696346282436</v>
       </c>
       <c r="L94" t="n">
-        <v>17.2084724529293</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M94" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O94" t="n">
-        <v>9.29508731034135</v>
+        <v>-0.0719653340717537</v>
       </c>
       <c r="P94" t="n">
         <v>0.528580117304204</v>
@@ -48389,40 +48394,40 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>5.02437151910343</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F95" t="n">
-        <v>78.3801956980135</v>
+        <v>-0.058530940219027</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H95" t="n">
-        <v>4.3963250792155</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J95" t="n">
-        <v>46224.2179757516</v>
+        <v>-0.0611699911753747</v>
       </c>
       <c r="K95" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L95" t="n">
-        <v>17.8365188928172</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M95" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N95" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O95" t="n">
-        <v>26.8803876272034</v>
+        <v>-0.159958803144617</v>
       </c>
       <c r="P95" t="n">
         <v>0.525378321370467</v>
@@ -48442,40 +48447,40 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>8.79265015843101</v>
+        <v>0.0100168535255342</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F96" t="n">
-        <v>15.7011609971982</v>
+        <v>0.0987419611751216</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H96" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I96" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J96" t="n">
-        <v>44968.1250959757</v>
+        <v>0.000332638552904933</v>
       </c>
       <c r="K96" t="n">
-        <v>0.113048359179827</v>
+        <v>-0.0825992483291629</v>
       </c>
       <c r="L96" t="n">
-        <v>17.7109096048396</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O96" t="n">
-        <v>24.6194204436068</v>
+        <v>-0.044263686400667</v>
       </c>
       <c r="P96" t="n">
         <v>0.521518288459583</v>
@@ -48495,40 +48500,40 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>8.16460371854308</v>
+        <v>0.215247174018193</v>
       </c>
       <c r="E97" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F97" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G97" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H97" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I97" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J97" t="n">
-        <v>37808.3956812533</v>
+        <v>-0.147775735078462</v>
       </c>
       <c r="K97" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L97" t="n">
-        <v>17.585300316862</v>
+        <v>0.204882378168561</v>
       </c>
       <c r="M97" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O97" t="n">
-        <v>9.92313375022928</v>
+        <v>-0.0719653340717537</v>
       </c>
       <c r="P97" t="n">
         <v>0.520530950279426</v>
@@ -48548,40 +48553,40 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>5.2755900950586</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F98" t="n">
-        <v>8.03899443056549</v>
+        <v>-0.0497447446104154</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H98" t="n">
-        <v>5.02437151910343</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J98" t="n">
-        <v>35044.9913457464</v>
+        <v>0.0329666869801554</v>
       </c>
       <c r="K98" t="n">
-        <v>0.08792650158431</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L98" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M98" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N98" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O98" t="n">
-        <v>30.7742755545085</v>
+        <v>-0.0915194383101679</v>
       </c>
       <c r="P98" t="n">
         <v>0.519506090683953</v>
@@ -48601,40 +48606,40 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>8.16460371854308</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E99" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F99" t="n">
-        <v>38.3108328331637</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H99" t="n">
-        <v>6.28046439887929</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J99" t="n">
-        <v>33080.2146314797</v>
+        <v>0.0153945070577897</v>
       </c>
       <c r="K99" t="n">
-        <v>0.148218959813551</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L99" t="n">
-        <v>17.2084724529293</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M99" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N99" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O99" t="n">
-        <v>10.92800805405</v>
+        <v>-0.0833718948774953</v>
       </c>
       <c r="P99" t="n">
         <v>0.516148872750298</v>
@@ -48654,40 +48659,40 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>6.1548551109017</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E100" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F100" t="n">
-        <v>8.66704087045342</v>
+        <v>-0.0658109308661624</v>
       </c>
       <c r="G100" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H100" t="n">
-        <v>6.28046439887929</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J100" t="n">
-        <v>32281.5870102395</v>
+        <v>0.0329666869801554</v>
       </c>
       <c r="K100" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L100" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O100" t="n">
-        <v>18.4645653327051</v>
+        <v>-0.0915194383101679</v>
       </c>
       <c r="P100" t="n">
         <v>0.515657072901861</v>
@@ -48707,40 +48712,40 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F101" t="n">
-        <v>65.4424390363222</v>
+        <v>0.2589017554121</v>
       </c>
       <c r="G101" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H101" t="n">
-        <v>5.65241795899136</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I101" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J101" t="n">
-        <v>23237.7182758534</v>
+        <v>0.0204151298927514</v>
       </c>
       <c r="K101" t="n">
-        <v>0.150731145573103</v>
+        <v>0.116499464007235</v>
       </c>
       <c r="L101" t="n">
-        <v>17.4596910288844</v>
+        <v>-0.165679906594939</v>
       </c>
       <c r="M101" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N101" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O101" t="n">
-        <v>4.14510650326033</v>
+        <v>-0.164847329204221</v>
       </c>
       <c r="P101" t="n">
         <v>0.511566153592555</v>
@@ -48760,40 +48765,40 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>6.65729226281205</v>
+        <v>0.085628024233356</v>
       </c>
       <c r="E102" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F102" t="n">
-        <v>33.9145077539482</v>
+        <v>0.00661242436482224</v>
       </c>
       <c r="G102" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H102" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J102" t="n">
-        <v>42204.7207604688</v>
+        <v>0.0480285554850402</v>
       </c>
       <c r="K102" t="n">
-        <v>0.150731145573103</v>
+        <v>0.0916121249651852</v>
       </c>
       <c r="L102" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M102" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O102" t="n">
-        <v>11.3048359179827</v>
+        <v>-0.037745651654529</v>
       </c>
       <c r="P102" t="n">
         <v>0.511186360677707</v>
@@ -48813,40 +48818,40 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>8.16460371854308</v>
+        <v>0.0316200451563404</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F103" t="n">
-        <v>73.1046056029549</v>
+        <v>0.0430123776004991</v>
       </c>
       <c r="G103" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H103" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J103" t="n">
-        <v>3391.45077539482</v>
+        <v>0.0467733997762998</v>
       </c>
       <c r="K103" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L103" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O103" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P103" t="n">
         <v>0.508520986985354</v>
@@ -48866,40 +48871,40 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>5.2755900950586</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F104" t="n">
-        <v>654.298781075244</v>
+        <v>-0.0674426529077617</v>
       </c>
       <c r="G104" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H104" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J104" t="n">
-        <v>3152.7931282374</v>
+        <v>-0.0373220327093071</v>
       </c>
       <c r="K104" t="n">
-        <v>0.138170216775344</v>
+        <v>0.452478541074906</v>
       </c>
       <c r="L104" t="n">
-        <v>17.585300316862</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M104" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O104" t="n">
-        <v>10.92800805405</v>
+        <v>0.123575708312388</v>
       </c>
       <c r="P104" t="n">
         <v>0.508462425030742</v>
@@ -48919,40 +48924,40 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>7.9133851425879</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E105" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F105" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0674426529077617</v>
       </c>
       <c r="G105" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H105" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J105" t="n">
-        <v>27759.6526430465</v>
+        <v>-0.0373220327093071</v>
       </c>
       <c r="K105" t="n">
-        <v>0.113048359179827</v>
+        <v>0.452478541074906</v>
       </c>
       <c r="L105" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O105" t="n">
-        <v>15.4499424212431</v>
+        <v>0.123575708312388</v>
       </c>
       <c r="P105" t="n">
         <v>0.508462425030742</v>
@@ -48972,40 +48977,40 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>11.9328823578706</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F106" t="n">
-        <v>14.0682402534896</v>
+        <v>-0.0629240380233329</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H106" t="n">
-        <v>5.02437151910343</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I106" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J106" t="n">
-        <v>24619.4204436068</v>
+        <v>-0.167858226418309</v>
       </c>
       <c r="K106" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L106" t="n">
-        <v>17.3340817409068</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O106" t="n">
-        <v>3.01462291146206</v>
+        <v>-0.0931489469967024</v>
       </c>
       <c r="P106" t="n">
         <v>0.507215653947509</v>
@@ -49025,40 +49030,40 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>6.28046439887929</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E107" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F107" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0629240380233329</v>
       </c>
       <c r="G107" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H107" t="n">
-        <v>3.76827863932757</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J107" t="n">
-        <v>29141.3548107999</v>
+        <v>-0.167858226418309</v>
       </c>
       <c r="K107" t="n">
-        <v>0.08792650158431</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L107" t="n">
-        <v>17.0828631649517</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O107" t="n">
-        <v>30.8998848424861</v>
+        <v>-0.0931489469967024</v>
       </c>
       <c r="P107" t="n">
         <v>0.507215653947509</v>
@@ -49078,40 +49083,40 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>7.28533870269997</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E108" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F108" t="n">
-        <v>16.7060353010189</v>
+        <v>-0.0629240380233329</v>
       </c>
       <c r="G108" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H108" t="n">
-        <v>7.53655727865515</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I108" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J108" t="n">
-        <v>33537.6798900154</v>
+        <v>-0.167858226418309</v>
       </c>
       <c r="K108" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0418374468810857</v>
       </c>
       <c r="L108" t="n">
-        <v>17.7109096048396</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M108" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O108" t="n">
-        <v>10.4255709021396</v>
+        <v>-0.0931489469967024</v>
       </c>
       <c r="P108" t="n">
         <v>0.507215653947509</v>
@@ -49131,40 +49136,40 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>5.65241795899136</v>
+        <v>0.085628024233356</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F109" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0437199247645102</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H109" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I109" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J109" t="n">
-        <v>17082.8631649517</v>
+        <v>0.0480285554850402</v>
       </c>
       <c r="K109" t="n">
-        <v>0.138170216775344</v>
+        <v>0.0916121249651852</v>
       </c>
       <c r="L109" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M109" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O109" t="n">
-        <v>1.38170216775344</v>
+        <v>-0.037745651654529</v>
       </c>
       <c r="P109" t="n">
         <v>0.506190527517829</v>
@@ -49184,40 +49189,40 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>6.1548551109017</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E110" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F110" t="n">
-        <v>8.79265015843101</v>
+        <v>-0.0361888999571288</v>
       </c>
       <c r="G110" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H110" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J110" t="n">
-        <v>32281.5870102395</v>
+        <v>0.0392424655238574</v>
       </c>
       <c r="K110" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L110" t="n">
-        <v>17.0828631649517</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O110" t="n">
-        <v>26.377950475293</v>
+        <v>-0.0719653340717537</v>
       </c>
       <c r="P110" t="n">
         <v>0.505468137902024</v>
@@ -49237,40 +49242,40 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>7.53655727865515</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F111" t="n">
-        <v>6.90851083876722</v>
+        <v>-0.0361888999571288</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H111" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I111" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J111" t="n">
-        <v>35924.2563615895</v>
+        <v>0.0392424655238574</v>
       </c>
       <c r="K111" t="n">
-        <v>0.288901362348447</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L111" t="n">
-        <v>17.9621281807948</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O111" t="n">
-        <v>10.92800805405</v>
+        <v>-0.0719653340717537</v>
       </c>
       <c r="P111" t="n">
         <v>0.505468137902024</v>
@@ -49290,40 +49295,40 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>8.16460371854308</v>
+        <v>0.0100168535255342</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F112" t="n">
-        <v>20.9767510922568</v>
+        <v>-0.0433433735241412</v>
       </c>
       <c r="G112" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H112" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J112" t="n">
-        <v>38185.2235451861</v>
+        <v>0.000332638552904933</v>
       </c>
       <c r="K112" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0825992483291629</v>
       </c>
       <c r="L112" t="n">
-        <v>17.585300316862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M112" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O112" t="n">
-        <v>23.363327563831</v>
+        <v>-0.044263686400667</v>
       </c>
       <c r="P112" t="n">
         <v>0.504493549439941</v>
@@ -49343,40 +49348,40 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>7.28533870269997</v>
+        <v>0.0316200451563404</v>
       </c>
       <c r="E113" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F113" t="n">
-        <v>73.1046056029549</v>
+        <v>0.0430123776004991</v>
       </c>
       <c r="G113" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H113" t="n">
-        <v>4.3963250792155</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J113" t="n">
-        <v>28513.308370912</v>
+        <v>0.0467733997762998</v>
       </c>
       <c r="K113" t="n">
-        <v>0.427071579123792</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L113" t="n">
-        <v>18.2133467567499</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M113" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O113" t="n">
-        <v>25.7499040354051</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P113" t="n">
         <v>0.503729177699917</v>
@@ -49396,40 +49401,40 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>5.14998080708102</v>
+        <v>0.0316200451563404</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F114" t="n">
-        <v>65.4424390363222</v>
+        <v>0.0430123776004991</v>
       </c>
       <c r="G114" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H114" t="n">
-        <v>5.02437151910343</v>
+        <v>0.00401311275625581</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J114" t="n">
-        <v>27759.6526430465</v>
+        <v>0.0467733997762998</v>
       </c>
       <c r="K114" t="n">
-        <v>0.113048359179827</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L114" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O114" t="n">
-        <v>30.6486662665309</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P114" t="n">
         <v>0.503729177699917</v>
@@ -49449,40 +49454,40 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>6.28046439887929</v>
+        <v>0.20444557820279</v>
       </c>
       <c r="E115" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F115" t="n">
-        <v>13.942630965512</v>
+        <v>-0.0675681699878847</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H115" t="n">
-        <v>2.51218575955172</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J115" t="n">
-        <v>33412.0706020378</v>
+        <v>-0.118907153777433</v>
       </c>
       <c r="K115" t="n">
-        <v>0.238657647157413</v>
+        <v>0.0542811164021106</v>
       </c>
       <c r="L115" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M115" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N115" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O115" t="n">
-        <v>0.8792650158431</v>
+        <v>-0.0866309122505644</v>
       </c>
       <c r="P115" t="n">
         <v>0.500793588661743</v>
@@ -49502,40 +49507,40 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>6.28046439887929</v>
+        <v>0.20444557820279</v>
       </c>
       <c r="E116" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F116" t="n">
-        <v>167.939618026032</v>
+        <v>-0.0675681699878847</v>
       </c>
       <c r="G116" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H116" t="n">
-        <v>3.76827863932757</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J116" t="n">
-        <v>29141.3548107999</v>
+        <v>-0.118907153777433</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08792650158431</v>
+        <v>0.0542811164021106</v>
       </c>
       <c r="L116" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O116" t="n">
-        <v>30.8998848424861</v>
+        <v>-0.0866309122505644</v>
       </c>
       <c r="P116" t="n">
         <v>0.500793588661743</v>
@@ -49555,40 +49560,40 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>7.53655727865515</v>
+        <v>0.20444557820279</v>
       </c>
       <c r="E117" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F117" t="n">
-        <v>95.0862309990324</v>
+        <v>-0.0675681699878847</v>
       </c>
       <c r="G117" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H117" t="n">
-        <v>5.02437151910343</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I117" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J117" t="n">
-        <v>41199.8464566481</v>
+        <v>-0.118907153777433</v>
       </c>
       <c r="K117" t="n">
-        <v>0.150731145573103</v>
+        <v>0.0542811164021106</v>
       </c>
       <c r="L117" t="n">
-        <v>15.8267702851758</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M117" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O117" t="n">
-        <v>11.4304452059603</v>
+        <v>-0.0866309122505644</v>
       </c>
       <c r="P117" t="n">
         <v>0.500793588661743</v>
@@ -49608,40 +49613,40 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>8.79265015843101</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F118" t="n">
-        <v>29.7694012506878</v>
+        <v>-0.0629240380233329</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H118" t="n">
-        <v>7.53655727865515</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I118" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J118" t="n">
-        <v>27634.0433550689</v>
+        <v>0.0731316696598482</v>
       </c>
       <c r="K118" t="n">
-        <v>0.113048359179827</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L118" t="n">
-        <v>17.3340817409068</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M118" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O118" t="n">
-        <v>23.363327563831</v>
+        <v>-0.0931489469967024</v>
       </c>
       <c r="P118" t="n">
         <v>0.498998070029856</v>
@@ -49661,40 +49666,40 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>5.2755900950586</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E119" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F119" t="n">
-        <v>10.8023987660724</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H119" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J119" t="n">
-        <v>45470.5622478861</v>
+        <v>-0.175389160670751</v>
       </c>
       <c r="K119" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L119" t="n">
-        <v>17.4596910288844</v>
+        <v>0.233387169304215</v>
       </c>
       <c r="M119" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N119" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O119" t="n">
-        <v>25.2474668834947</v>
+        <v>-0.0589292645794776</v>
       </c>
       <c r="P119" t="n">
         <v>0.497661238395215</v>
@@ -49714,40 +49719,40 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>6.65729226281205</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F120" t="n">
-        <v>10.299961614162</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G120" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H120" t="n">
-        <v>7.53655727865515</v>
+        <v>0.0807296457674109</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J120" t="n">
-        <v>46224.2179757516</v>
+        <v>-0.0222601642044223</v>
       </c>
       <c r="K120" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L120" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M120" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O120" t="n">
-        <v>2.76340433550689</v>
+        <v>-0.0833718948774953</v>
       </c>
       <c r="P120" t="n">
         <v>0.497249970820534</v>
@@ -49767,40 +49772,40 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>5.2755900950586</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F121" t="n">
-        <v>12.8121473737137</v>
+        <v>-0.0661874821065315</v>
       </c>
       <c r="G121" t="n">
-        <v>0.125609287977586</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H121" t="n">
-        <v>3.14023219943964</v>
+        <v>0.0807296457674109</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J121" t="n">
-        <v>39943.7535768723</v>
+        <v>-0.0222601642044223</v>
       </c>
       <c r="K121" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L121" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O121" t="n">
-        <v>9.29508731034135</v>
+        <v>-0.0833718948774953</v>
       </c>
       <c r="P121" t="n">
         <v>0.497249970820534</v>
@@ -49820,40 +49825,40 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E122" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F122" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0607902476612415</v>
       </c>
       <c r="G122" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H122" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J122" t="n">
-        <v>37305.958529343</v>
+        <v>-0.0147292299519799</v>
       </c>
       <c r="K122" t="n">
-        <v>0.200974860764137</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L122" t="n">
-        <v>17.0828631649517</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O122" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.115962068608186</v>
       </c>
       <c r="P122" t="n">
         <v>0.492324685071493</v>
@@ -49873,40 +49878,40 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E123" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F123" t="n">
-        <v>27.7596526430465</v>
+        <v>-0.0607902476612415</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H123" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I123" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J123" t="n">
-        <v>36301.0842255223</v>
+        <v>-0.0159843856607203</v>
       </c>
       <c r="K123" t="n">
-        <v>0.113048359179827</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L123" t="n">
-        <v>17.585300316862</v>
+        <v>0.0623584224902922</v>
       </c>
       <c r="M123" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N123" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O123" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.115962068608186</v>
       </c>
       <c r="P123" t="n">
         <v>0.49222358219564</v>
@@ -49926,40 +49931,40 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F124" t="n">
-        <v>7.9133851425879</v>
+        <v>0.0194151665373706</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H124" t="n">
-        <v>2.51218575955172</v>
+        <v>0.0807296457674109</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J124" t="n">
-        <v>14947.5052693327</v>
+        <v>-0.00468798428205667</v>
       </c>
       <c r="K124" t="n">
-        <v>0.364266935134999</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L124" t="n">
-        <v>15.9523795731534</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M124" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N124" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O124" t="n">
-        <v>8.03899443056549</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P124" t="n">
         <v>0.48931140263306</v>
@@ -49979,40 +49984,40 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>6.65729226281205</v>
+        <v>-0.000784742289868894</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F125" t="n">
-        <v>26.0011226113603</v>
+        <v>-0.0670661016673926</v>
       </c>
       <c r="G125" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H125" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J125" t="n">
-        <v>41325.4557446257</v>
+        <v>-0.0687009254278171</v>
       </c>
       <c r="K125" t="n">
-        <v>0.150731145573103</v>
+        <v>0.265823498259533</v>
       </c>
       <c r="L125" t="n">
-        <v>16.3292074370862</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O125" t="n">
-        <v>26.8803876272034</v>
+        <v>0.0909855345816975</v>
       </c>
       <c r="P125" t="n">
         <v>0.489274395193639</v>
@@ -50032,40 +50037,40 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>5.65241795899136</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F126" t="n">
-        <v>967.442736003366</v>
+        <v>0.0303351525080737</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H126" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I126" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J126" t="n">
-        <v>53007.1195265412</v>
+        <v>0.0480285554850402</v>
       </c>
       <c r="K126" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L126" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O126" t="n">
-        <v>30.7742755545085</v>
+        <v>0.022546169747248</v>
       </c>
       <c r="P126" t="n">
         <v>0.489207624224274</v>
@@ -50085,40 +50090,40 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>5.65241795899136</v>
+        <v>0.269255153095209</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F127" t="n">
-        <v>38.6876606970964</v>
+        <v>0.0397489335173005</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H127" t="n">
-        <v>5.02437151910343</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I127" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J127" t="n">
-        <v>6406.07368685687</v>
+        <v>-0.0398323441267879</v>
       </c>
       <c r="K127" t="n">
-        <v>0.163292074370862</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L127" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M127" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N127" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O127" t="n">
-        <v>23.363327563831</v>
+        <v>-0.0165620387295803</v>
       </c>
       <c r="P127" t="n">
         <v>0.488922658114436</v>
@@ -50138,40 +50143,40 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>7.9133851425879</v>
+        <v>0.269255153095209</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F128" t="n">
-        <v>24.2425925796741</v>
+        <v>0.0397489335173005</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H128" t="n">
-        <v>3.14023219943964</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I128" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J128" t="n">
-        <v>34668.1634818137</v>
+        <v>-0.0398323441267879</v>
       </c>
       <c r="K128" t="n">
-        <v>0.79133851425879</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L128" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O128" t="n">
-        <v>13.4401938136017</v>
+        <v>-0.0165620387295803</v>
       </c>
       <c r="P128" t="n">
         <v>0.488922658114436</v>
@@ -50191,40 +50196,40 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>8.16460371854308</v>
+        <v>0.269255153095209</v>
       </c>
       <c r="E129" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F129" t="n">
-        <v>16.8316445889965</v>
+        <v>0.0397489335173005</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H129" t="n">
-        <v>4.3963250792155</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I129" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J129" t="n">
-        <v>36426.6935134999</v>
+        <v>-0.0398323441267879</v>
       </c>
       <c r="K129" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L129" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M129" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O129" t="n">
-        <v>24.3682018676516</v>
+        <v>-0.0165620387295803</v>
       </c>
       <c r="P129" t="n">
         <v>0.488922658114436</v>
@@ -50244,40 +50249,40 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>5.2755900950586</v>
+        <v>0.269255153095209</v>
       </c>
       <c r="E130" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F130" t="n">
-        <v>31.4023219943964</v>
+        <v>0.0397489335173005</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H130" t="n">
-        <v>4.3963250792155</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J130" t="n">
-        <v>45847.3901118188</v>
+        <v>-0.0398323441267879</v>
       </c>
       <c r="K130" t="n">
-        <v>0.138170216775344</v>
+        <v>-0.00793723120301372</v>
       </c>
       <c r="L130" t="n">
-        <v>17.4596910288844</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M130" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N130" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O130" t="n">
-        <v>26.5035597632706</v>
+        <v>-0.0165620387295803</v>
       </c>
       <c r="P130" t="n">
         <v>0.488922658114436</v>
@@ -50297,40 +50302,40 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>8.29021300652066</v>
+        <v>0.280056748910612</v>
       </c>
       <c r="E131" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F131" t="n">
-        <v>8.54143158247583</v>
+        <v>-0.00142066876305128</v>
       </c>
       <c r="G131" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H131" t="n">
-        <v>4.77315294314826</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I131" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J131" t="n">
-        <v>38059.6142572085</v>
+        <v>0.227515821834918</v>
       </c>
       <c r="K131" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0577119092871132</v>
       </c>
       <c r="L131" t="n">
-        <v>17.0828631649517</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M131" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O131" t="n">
-        <v>11.9328823578706</v>
+        <v>-0.0133030213565113</v>
       </c>
       <c r="P131" t="n">
         <v>0.488905872764481</v>
@@ -50350,40 +50355,40 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>6.1548551109017</v>
+        <v>-0.119602296259303</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F132" t="n">
-        <v>11.4304452059603</v>
+        <v>-0.0644302429848091</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H132" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I132" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J132" t="n">
-        <v>53635.1659664291</v>
+        <v>0.201157551951369</v>
       </c>
       <c r="K132" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L132" t="n">
-        <v>17.3340817409068</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O132" t="n">
-        <v>1.50731145573103</v>
+        <v>-0.194178485561842</v>
       </c>
       <c r="P132" t="n">
         <v>0.486758105238215</v>
@@ -50403,40 +50408,40 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.119602296259303</v>
       </c>
       <c r="E133" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F133" t="n">
-        <v>92.5740452394807</v>
+        <v>-0.0644302429848091</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H133" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I133" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J133" t="n">
-        <v>30397.4476905758</v>
+        <v>0.201157551951369</v>
       </c>
       <c r="K133" t="n">
-        <v>0.188413931966379</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L133" t="n">
-        <v>16.9572538769741</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M133" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N133" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O133" t="n">
-        <v>11.9328823578706</v>
+        <v>-0.194178485561842</v>
       </c>
       <c r="P133" t="n">
         <v>0.486758105238215</v>
@@ -50456,40 +50461,40 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>7.28533870269997</v>
+        <v>-0.119602296259303</v>
       </c>
       <c r="E134" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F134" t="n">
-        <v>25.1218575955172</v>
+        <v>-0.0671916187475157</v>
       </c>
       <c r="G134" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H134" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J134" t="n">
-        <v>38185.2235451861</v>
+        <v>0.201157551951369</v>
       </c>
       <c r="K134" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L134" t="n">
-        <v>17.2084724529293</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O134" t="n">
-        <v>13.0633659496689</v>
+        <v>-0.194178485561842</v>
       </c>
       <c r="P134" t="n">
         <v>0.486338414688144</v>
@@ -50509,40 +50514,40 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>7.41094799067756</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E135" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F135" t="n">
-        <v>22.1072346840551</v>
+        <v>-0.0674426529077617</v>
       </c>
       <c r="G135" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H135" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J135" t="n">
-        <v>27759.6526430465</v>
+        <v>0.0480285554850402</v>
       </c>
       <c r="K135" t="n">
-        <v>0.125609287977586</v>
+        <v>0.452478541074906</v>
       </c>
       <c r="L135" t="n">
-        <v>17.0828631649517</v>
+        <v>-0.194184697730593</v>
       </c>
       <c r="M135" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O135" t="n">
-        <v>18.8413931966379</v>
+        <v>0.123575708312388</v>
       </c>
       <c r="P135" t="n">
         <v>0.484204007452175</v>
@@ -50562,40 +50567,40 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>10.6767894780948</v>
+        <v>0.0532232367871467</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F136" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0324233875534381</v>
       </c>
       <c r="G136" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H136" t="n">
-        <v>3.76827863932757</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I136" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J136" t="n">
-        <v>33080.2146314797</v>
+        <v>-0.0398323441267879</v>
       </c>
       <c r="K136" t="n">
-        <v>0.229864996998982</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L136" t="n">
-        <v>16.8316445889965</v>
+        <v>-0.0231559509166694</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O136" t="n">
-        <v>2.88901362348447</v>
+        <v>-0.0181915474161148</v>
       </c>
       <c r="P136" t="n">
         <v>0.482159729417819</v>
@@ -50615,40 +50620,40 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>7.28533870269997</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E137" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F137" t="n">
-        <v>7.15972941472239</v>
+        <v>0.0303351525080737</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H137" t="n">
-        <v>5.02437151910343</v>
+        <v>0.0259321221880144</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J137" t="n">
-        <v>20599.9232283241</v>
+        <v>-0.0511287455054515</v>
       </c>
       <c r="K137" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L137" t="n">
-        <v>17.4596910288844</v>
+        <v>0.1193680047616</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O137" t="n">
-        <v>28.8901362348447</v>
+        <v>0.022546169747248</v>
       </c>
       <c r="P137" t="n">
         <v>0.480882023448883</v>
@@ -50668,40 +50673,40 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>7.28533870269997</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E138" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F138" t="n">
-        <v>51.4998080708102</v>
+        <v>0.0303351525080737</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H138" t="n">
-        <v>5.02437151910343</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J138" t="n">
-        <v>20599.9232283241</v>
+        <v>0.0480285554850402</v>
       </c>
       <c r="K138" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L138" t="n">
-        <v>17.4596910288844</v>
+        <v>-0.108670324323631</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O138" t="n">
-        <v>11.4304452059603</v>
+        <v>0.022546169747248</v>
       </c>
       <c r="P138" t="n">
         <v>0.480565300407983</v>
@@ -50721,40 +50726,40 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E139" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F139" t="n">
-        <v>5.90363653494653</v>
+        <v>0.11982883063579</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H139" t="n">
-        <v>2.51218575955172</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J139" t="n">
-        <v>26377.950475293</v>
+        <v>-0.0699560811365575</v>
       </c>
       <c r="K139" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L139" t="n">
-        <v>17.4596910288844</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M139" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O139" t="n">
-        <v>9.16947802236376</v>
+        <v>-0.037745651654529</v>
       </c>
       <c r="P139" t="n">
         <v>0.480478449668195</v>
@@ -50774,40 +50779,40 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F140" t="n">
-        <v>73.1046056029549</v>
+        <v>0.11982883063579</v>
       </c>
       <c r="G140" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H140" t="n">
-        <v>6.28046439887929</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J140" t="n">
-        <v>19218.2210605706</v>
+        <v>-0.0699560811365575</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0753655727865515</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L140" t="n">
-        <v>16.8316445889965</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O140" t="n">
-        <v>21.6047975321448</v>
+        <v>-0.037745651654529</v>
       </c>
       <c r="P140" t="n">
         <v>0.480478449668195</v>
@@ -50827,40 +50832,40 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>8.16460371854308</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F141" t="n">
-        <v>340.77799828319</v>
+        <v>0.11982883063579</v>
       </c>
       <c r="G141" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H141" t="n">
-        <v>3.14023219943964</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J141" t="n">
-        <v>62427.8161248601</v>
+        <v>-0.0699560811365575</v>
       </c>
       <c r="K141" t="n">
-        <v>0.229864996998982</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L141" t="n">
-        <v>16.9572538769741</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M141" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O141" t="n">
-        <v>8.41582229449825</v>
+        <v>-0.037745651654529</v>
       </c>
       <c r="P141" t="n">
         <v>0.480478449668195</v>
@@ -50880,40 +50885,40 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>7.28533870269997</v>
+        <v>-0.0331895297360782</v>
       </c>
       <c r="E142" t="n">
-        <v>0.125609287977586</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F142" t="n">
-        <v>5.52680867101377</v>
+        <v>-0.0600371451805033</v>
       </c>
       <c r="G142" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H142" t="n">
-        <v>4.77315294314826</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I142" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J142" t="n">
-        <v>41074.2371686706</v>
+        <v>-0.10761075239877</v>
       </c>
       <c r="K142" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L142" t="n">
-        <v>17.8365188928172</v>
+        <v>0.204882378168561</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O142" t="n">
-        <v>10.4255709021396</v>
+        <v>-0.0850014035640298</v>
       </c>
       <c r="P142" t="n">
         <v>0.480267780781438</v>
@@ -50933,40 +50938,40 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>9.42069659831893</v>
+        <v>-0.1088007004439</v>
       </c>
       <c r="E143" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F143" t="n">
-        <v>30.8998848424861</v>
+        <v>0.11982883063579</v>
       </c>
       <c r="G143" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H143" t="n">
-        <v>1.88413931966379</v>
+        <v>-0.0836629249707786</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J143" t="n">
-        <v>29769.4012506878</v>
+        <v>-0.117651998068693</v>
       </c>
       <c r="K143" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L143" t="n">
-        <v>17.2084724529293</v>
+        <v>0.0338536313546383</v>
       </c>
       <c r="M143" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O143" t="n">
-        <v>1.25609287977586</v>
+        <v>-0.037745651654529</v>
       </c>
       <c r="P143" t="n">
         <v>0.47932850784699</v>
@@ -50986,40 +50991,40 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>7.53655727865515</v>
+        <v>0.0316200451563404</v>
       </c>
       <c r="E144" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F144" t="n">
-        <v>32.6584148741723</v>
+        <v>0.0430123776004991</v>
       </c>
       <c r="G144" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H144" t="n">
-        <v>4.77315294314826</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J144" t="n">
-        <v>31653.5405703516</v>
+        <v>-0.00423860088365631</v>
       </c>
       <c r="K144" t="n">
-        <v>0.276340433550689</v>
+        <v>-0.0228696346282436</v>
       </c>
       <c r="L144" t="n">
-        <v>16.5804260130413</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M144" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N144" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O144" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.0703358253852192</v>
       </c>
       <c r="P144" t="n">
         <v>0.479154755626538</v>
@@ -51039,40 +51044,40 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>7.9133851425879</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E145" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F145" t="n">
-        <v>95.0862309990324</v>
+        <v>-0.0669405845872696</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H145" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J145" t="n">
-        <v>9169.47802236376</v>
+        <v>-0.0486184340879707</v>
       </c>
       <c r="K145" t="n">
-        <v>0.08792650158431</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L145" t="n">
-        <v>17.2084724529293</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M145" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O145" t="n">
-        <v>23.363327563831</v>
+        <v>-0.0670768080121502</v>
       </c>
       <c r="P145" t="n">
         <v>0.478958714611814</v>
@@ -51092,40 +51097,40 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>6.28046439887929</v>
+        <v>0.107231215864162</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F146" t="n">
-        <v>73.1046056029549</v>
+        <v>0.0412551384787768</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H146" t="n">
-        <v>5.02437151910343</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J146" t="n">
-        <v>6406.07368685687</v>
+        <v>0.063090423989925</v>
       </c>
       <c r="K146" t="n">
-        <v>0.339145077539482</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L146" t="n">
-        <v>17.0828631649517</v>
+        <v>0.090863213625946</v>
       </c>
       <c r="M146" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.168312901646214</v>
       </c>
       <c r="N146" t="n">
-        <v>0.125609287977586</v>
+        <v>0.188276232951694</v>
       </c>
       <c r="O146" t="n">
-        <v>31.4023219943964</v>
+        <v>-0.0931489469967024</v>
       </c>
       <c r="P146" t="n">
         <v>0.478194438266175</v>
@@ -51145,40 +51150,40 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>5.65241795899136</v>
+        <v>-0.0763959129976906</v>
       </c>
       <c r="E147" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F147" t="n">
-        <v>73.1046056029549</v>
+        <v>-0.0665640333469005</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H147" t="n">
-        <v>4.3963250792155</v>
+        <v>0.245122216505601</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>-0.0955199418171921</v>
       </c>
       <c r="J147" t="n">
-        <v>48359.5758713705</v>
+        <v>0.127103365135685</v>
       </c>
       <c r="K147" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.070155578808138</v>
       </c>
       <c r="L147" t="n">
-        <v>18.2133467567499</v>
+        <v>-0.0516607420523233</v>
       </c>
       <c r="M147" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O147" t="n">
-        <v>7.66216656663273</v>
+        <v>-0.177883398696497</v>
       </c>
       <c r="P147" t="n">
         <v>0.477764636784871</v>
@@ -51198,40 +51203,40 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>5.77802724696895</v>
+        <v>0.128834407494968</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F148" t="n">
-        <v>90.3130780558842</v>
+        <v>-0.0606647305811184</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H148" t="n">
-        <v>3.76827863932757</v>
+        <v>0.135527169346807</v>
       </c>
       <c r="I148" t="n">
-        <v>0.125609287977586</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J148" t="n">
-        <v>26503.5597632706</v>
+        <v>-0.0611699911753747</v>
       </c>
       <c r="K148" t="n">
-        <v>0.100487430382069</v>
+        <v>-0.0452682397660883</v>
       </c>
       <c r="L148" t="n">
-        <v>17.3340817409068</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M148" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O148" t="n">
-        <v>13.5658031015793</v>
+        <v>-0.159958803144617</v>
       </c>
       <c r="P148" t="n">
         <v>0.477037926196621</v>
@@ -51251,40 +51256,40 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.0547927213668844</v>
       </c>
       <c r="E149" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.119179203192282</v>
       </c>
       <c r="F149" t="n">
-        <v>22.6096718359654</v>
+        <v>-0.0685723066288689</v>
       </c>
       <c r="G149" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.11259225485437</v>
       </c>
       <c r="H149" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.0288654013913821</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J149" t="n">
-        <v>33080.2146314797</v>
+        <v>-0.117651998068693</v>
       </c>
       <c r="K149" t="n">
-        <v>0.226096718359654</v>
+        <v>-0.0328245702450634</v>
       </c>
       <c r="L149" t="n">
-        <v>14.1938495414672</v>
+        <v>0.00534884021898446</v>
       </c>
       <c r="M149" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N149" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O149" t="n">
-        <v>23.363327563831</v>
+        <v>-0.0850014035640298</v>
       </c>
       <c r="P149" t="n">
         <v>0.476143304846877</v>
@@ -51304,40 +51309,40 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>6.90851083876722</v>
+        <v>0.0316200451563404</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>0.132347358479821</v>
       </c>
       <c r="F150" t="n">
-        <v>7.53655727865515</v>
+        <v>-0.00995583021141688</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>0.140090033267649</v>
       </c>
       <c r="H150" t="n">
-        <v>4.3963250792155</v>
+        <v>-0.138460448550175</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>0.165128374537907</v>
       </c>
       <c r="J150" t="n">
-        <v>32030.3684342844</v>
+        <v>-0.0159843856607203</v>
       </c>
       <c r="K150" t="n">
-        <v>0.150731145573103</v>
+        <v>-0.0203809007240386</v>
       </c>
       <c r="L150" t="n">
-        <v>16.9572538769741</v>
+        <v>-0.0801655331879771</v>
       </c>
       <c r="M150" t="n">
-        <v>0.125609287977586</v>
+        <v>0.0937126778396502</v>
       </c>
       <c r="N150" t="n">
-        <v>0.125609287977586</v>
+        <v>-0.0837761223546214</v>
       </c>
       <c r="O150" t="n">
-        <v>11.3048359179827</v>
+        <v>-0.0784833688178918</v>
       </c>
       <c r="P150" t="n">
         <v>0.470039120221961</v>
@@ -51365,16 +51370,52 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -51382,16 +51423,52 @@
         <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>7.64617184685015</v>
+        <v>0.41215357946498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.183417787253562</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.66589107925729</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>16.447760023492</v>
+        <v>-0.0622768922382625</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00234486593019498</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0580377593042148</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0492379746170353</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0677778001578749</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0128394706000962</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.0428761095540979</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0478495568743899</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.0369279286563673</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.0152193046432371</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.0226407616116291</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.032216307572131</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.58784642053502</v>
       </c>
     </row>
     <row r="3">
@@ -51399,16 +51476,52 @@
         <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2581233569715</v>
+        <v>0.497721725458539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168190836601987</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.89457525485993</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0563666522466</v>
+        <v>0.0622245666333159</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.0395291253294491</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.00869647550751588</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0746899116360675</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.00146663960168383</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0434924935721939</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.0113178403684608</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00396721263876674</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.0141294337237123</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0325733759596153</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.00669462168449855</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.0635462058579921</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.497721725458539</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.996</v>
+        <v>0.998666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.987179487179487</v>
+        <v>0.995689655172414</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.993548387096774</v>
+        <v>0.997840172786177</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.996</v>
+        <v>0.99733333</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.98717949</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.99354839</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.998666666666667</v>
+        <v>0.997333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.995689655172414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.991341991341991</v>
       </c>
     </row>
     <row r="5">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.997840172786177</v>
+        <v>0.995652173913043</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.999532901267005</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.99733333</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.995671</v>
+        <v>0.97468354</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.995671</v>
+        <v>0.98717949</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.997333333333333</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.974683544303797</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.991341991341991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.995652173913043</v>
+        <v>0.987179487179487</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.999532901267005</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.992</v>
+        <v>0.99866667</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.97468354</v>
+        <v>0.99568966</v>
       </c>
     </row>
     <row r="8">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.98717949</v>
+        <v>0.99784017</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.992</v>
+        <v>0.998666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.974683544303797</v>
+        <v>0.995689655172414</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.987179487179487</v>
+        <v>0.997840172786177</v>
       </c>
     </row>
     <row r="6">
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.999991658951197</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.99866667</v>
+        <v>0.99733333</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.99568966</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.99784017</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="10">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>518</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.99733333</v>
+        <v>0.45733333</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.995671</v>
+        <v>0.35987261</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995671</v>
+        <v>0.97835498</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.995671</v>
+        <v>0.52619325</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.998666666666667</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.995689655172414</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.997840172786177</v>
+        <v>0.470948012232416</v>
       </c>
     </row>
     <row r="6">
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.999991658951197</v>
+        <v>0.824787928834172</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>402</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>117</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.45733333</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35987261</v>
+        <v>0.4767184</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.97835498</v>
+        <v>0.93073593</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52619325</v>
+        <v>0.63049853</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.308</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.308</v>
+        <v>0.766666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.597402597402597</v>
       </c>
     </row>
     <row r="5">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.470948012232416</v>
+        <v>0.671532846715329</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.824787928834172</v>
+        <v>0.875409754022471</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>283</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.664</v>
+        <v>0.99866667</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4767184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.93073593</v>
+        <v>0.995671</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.63049853</v>
+        <v>0.9978308</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.82</v>
+        <v>0.997333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.766666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.597402597402597</v>
+        <v>0.991341991341991</v>
       </c>
     </row>
     <row r="5">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.671532846715329</v>
+        <v>0.995652173913043</v>
       </c>
     </row>
     <row r="6">
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.875409754022471</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Rdata_predictions.xlsx
+++ b/Rdata_predictions.xlsx
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>519</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.99866667</v>
+        <v>0.73333333</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.54111406</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995671</v>
+        <v>0.88311688</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9978308</v>
+        <v>0.67105263</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.997333333333333</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.77319587628866</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.991341991341991</v>
+        <v>0.649350649350649</v>
       </c>
     </row>
     <row r="5">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.995652173913043</v>
+        <v>0.705882352941177</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.880130787645239</v>
       </c>
     </row>
   </sheetData>
